--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDDC67DF-B588-014D-8926-96100B71C83B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C240512-545C-DA4E-971F-E0462F37EE0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="2960" windowWidth="27640" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
+    <workbookView xWindow="12180" yWindow="2240" windowWidth="27640" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Dato</t>
   </si>
@@ -63,18 +63,43 @@
   <si>
     <t>Viken</t>
   </si>
+  <si>
+    <t>Antall meldte covid-19 tilfeller etter prøvetakingsdato</t>
+  </si>
+  <si>
+    <t>Kumulativt antall</t>
+  </si>
+  <si>
+    <t>Nye tilfeller</t>
+  </si>
+  <si>
+    <t>21.02.20200022.02.20200023.02.20200024.02.20200025.02.20200026.02.20200027.02.20200028.02.20200029.02.20200001.03.20200002.03.20200003.03.20206604.03.202012605.03.202017506.03.202017007.03.202018108.03.202023509.03.2020381510.03.2020541611.03.2020641012.03.202067313.03.202070314.03.202079915.03.202087816.03.202096917.03.2020100418.03.20201191919.03.20201402120.03.20201692921.03.20201892022.03.2020191223.03.20202132224.03.20202362325.03.20202562026.03.20202772127.03.20202951828.03.20203121729.03.2020315330.03.20203251031.03.20203351001.04.20203471202.04.2020356903.04.2020364804.04.2020365105.04.2020369406.04.2020373407.04.20203841108.04.2020387309.04.2020389210.04.2020396711.04.2020396012.04.2020399313.04.2020401214.04.2020402115.04.2020406416.04.2020410417.04.2020414418.04.2020417319.04.2020418120.04.2020419121.04.2020428922.04.2020430223.04.20204411124.04.2020450925.04.2020457726.04.20204671027.04.2020470328.04.2020473329.04.2020477430.04.2020481401.05.20204951402.05.2020496103.05.2020500404.05.2020505505.05.2020507206.05.2020512507.05.2020515308.05.2020516109.05.2020517110.05.2020518111.05.2020520212.05.2020522213.05.2020522014.05.2020524215.05.2020525116.05.2020529417.05.2020530118.05.2020531119.05.2020531020.05.2020532121.05.2020532022.05.2020532023.05.2020532024.05.2020532025.05.2020532026.05.2020534227.05.2020534028.05.2020535129.05.2020535030.05.2020535031.05.2020535001.06.2020535002.06.2020535003.06.2020535004.06.2020535005.06.2020535006.06.2020535007.06.2020535008.06.2020535009.06.2020535010.06.2020535011.06.2020535012.06.2020535013.06.2020535014.06.2020535015.06.2020535016.06.2020536117.06.2020536018.06.2020536019.06.2020537120.06.2020537021.06.2020537022.06.2020539223.06.2020539024.06.2020539025.06.2020539026.06.2020539027.06.2020539028.06.2020539029.06.2020539030.06.2020539001.07.2020539002.07.2020540103.07.2020540004.07.2020540005.07.2020540006.07.2020540007.07.2020540008.07.2020541109.07.2020541010.07.2020541011.07.2020541012.07.2020541013.07.2020541014.07.2020542115.07.2020543116.07.2020545217.07.2020546118.07.2020546019.07.20205460</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,9 +122,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:L134"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -974,7 +1003,7 @@
         <v>19</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -1126,7 +1155,7 @@
         <v>91</v>
       </c>
       <c r="G19">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19">
         <v>9</v>
@@ -1164,7 +1193,7 @@
         <v>161</v>
       </c>
       <c r="G20">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20">
         <v>13</v>
@@ -1202,7 +1231,7 @@
         <v>206</v>
       </c>
       <c r="G21">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H21">
         <v>14</v>
@@ -1240,7 +1269,7 @@
         <v>255</v>
       </c>
       <c r="G22">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -1278,7 +1307,7 @@
         <v>280</v>
       </c>
       <c r="G23">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H23">
         <v>25</v>
@@ -1293,7 +1322,7 @@
         <v>129</v>
       </c>
       <c r="L23">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1316,7 +1345,7 @@
         <v>302</v>
       </c>
       <c r="G24">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H24">
         <v>26</v>
@@ -1331,7 +1360,7 @@
         <v>135</v>
       </c>
       <c r="L24">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1369,7 +1398,7 @@
         <v>151</v>
       </c>
       <c r="L25">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1407,7 +1436,7 @@
         <v>176</v>
       </c>
       <c r="L26">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1433,7 +1462,7 @@
         <v>202</v>
       </c>
       <c r="H27">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I27">
         <v>100</v>
@@ -1445,7 +1474,7 @@
         <v>195</v>
       </c>
       <c r="L27">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1471,7 +1500,7 @@
         <v>219</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I28">
         <v>119</v>
@@ -1483,7 +1512,7 @@
         <v>217</v>
       </c>
       <c r="L28">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1503,13 +1532,13 @@
         <v>18</v>
       </c>
       <c r="F29">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G29">
         <v>242</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I29">
         <v>140</v>
@@ -1521,7 +1550,7 @@
         <v>253</v>
       </c>
       <c r="L29">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1541,13 +1570,13 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G30">
         <v>266</v>
       </c>
       <c r="H30">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I30">
         <v>169</v>
@@ -1559,7 +1588,7 @@
         <v>289</v>
       </c>
       <c r="L30">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1579,13 +1608,13 @@
         <v>22</v>
       </c>
       <c r="F31">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G31">
         <v>273</v>
       </c>
       <c r="H31">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I31">
         <v>189</v>
@@ -1597,7 +1626,7 @@
         <v>305</v>
       </c>
       <c r="L31">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1617,13 +1646,13 @@
         <v>23</v>
       </c>
       <c r="F32">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G32">
         <v>276</v>
       </c>
       <c r="H32">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32">
         <v>191</v>
@@ -1635,7 +1664,7 @@
         <v>313</v>
       </c>
       <c r="L32">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1655,13 +1684,13 @@
         <v>28</v>
       </c>
       <c r="F33">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G33">
         <v>294</v>
       </c>
       <c r="H33">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I33">
         <v>213</v>
@@ -1673,7 +1702,7 @@
         <v>353</v>
       </c>
       <c r="L33">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1693,13 +1722,13 @@
         <v>29</v>
       </c>
       <c r="F34">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G34">
         <v>308</v>
       </c>
       <c r="H34">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I34">
         <v>236</v>
@@ -1711,7 +1740,7 @@
         <v>384</v>
       </c>
       <c r="L34">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1731,13 +1760,13 @@
         <v>37</v>
       </c>
       <c r="F35">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G35">
         <v>315</v>
       </c>
       <c r="H35">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I35">
         <v>256</v>
@@ -1749,7 +1778,7 @@
         <v>417</v>
       </c>
       <c r="L35">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1769,13 +1798,13 @@
         <v>43</v>
       </c>
       <c r="F36">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G36">
         <v>325</v>
       </c>
       <c r="H36">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I36">
         <v>277</v>
@@ -1787,7 +1816,7 @@
         <v>444</v>
       </c>
       <c r="L36">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1801,19 +1830,19 @@
         <v>293</v>
       </c>
       <c r="D37">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E37">
         <v>46</v>
       </c>
       <c r="F37">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G37">
         <v>333</v>
       </c>
       <c r="H37">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I37">
         <v>295</v>
@@ -1825,7 +1854,7 @@
         <v>466</v>
       </c>
       <c r="L37">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1836,22 +1865,22 @@
         <v>170</v>
       </c>
       <c r="C38">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E38">
         <v>49</v>
       </c>
       <c r="F38">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G38">
         <v>344</v>
       </c>
       <c r="H38">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I38">
         <v>312</v>
@@ -1863,7 +1892,7 @@
         <v>480</v>
       </c>
       <c r="L38">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1874,22 +1903,22 @@
         <v>172</v>
       </c>
       <c r="C39">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D39">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E39">
         <v>50</v>
       </c>
       <c r="F39">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G39">
         <v>348</v>
       </c>
       <c r="H39">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I39">
         <v>315</v>
@@ -1901,7 +1930,7 @@
         <v>482</v>
       </c>
       <c r="L39">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1912,22 +1941,22 @@
         <v>191</v>
       </c>
       <c r="C40">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D40">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E40">
         <v>61</v>
       </c>
       <c r="F40">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G40">
         <v>357</v>
       </c>
       <c r="H40">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I40">
         <v>325</v>
@@ -1939,7 +1968,7 @@
         <v>509</v>
       </c>
       <c r="L40">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1950,22 +1979,22 @@
         <v>207</v>
       </c>
       <c r="C41">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D41">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E41">
         <v>65</v>
       </c>
       <c r="F41">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G41">
         <v>360</v>
       </c>
       <c r="H41">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I41">
         <v>335</v>
@@ -1977,7 +2006,7 @@
         <v>525</v>
       </c>
       <c r="L41">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1988,22 +2017,22 @@
         <v>221</v>
       </c>
       <c r="C42">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D42">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E42">
         <v>71</v>
       </c>
       <c r="F42">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G42">
         <v>366</v>
       </c>
       <c r="H42">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I42">
         <v>347</v>
@@ -2015,7 +2044,7 @@
         <v>538</v>
       </c>
       <c r="L42">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2026,22 +2055,22 @@
         <v>224</v>
       </c>
       <c r="C43">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D43">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E43">
         <v>73</v>
       </c>
       <c r="F43">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G43">
         <v>373</v>
       </c>
       <c r="H43">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I43">
         <v>356</v>
@@ -2053,7 +2082,7 @@
         <v>559</v>
       </c>
       <c r="L43">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2064,22 +2093,22 @@
         <v>231</v>
       </c>
       <c r="C44">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D44">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>74</v>
       </c>
       <c r="F44">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G44">
         <v>375</v>
       </c>
       <c r="H44">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I44">
         <v>364</v>
@@ -2091,7 +2120,7 @@
         <v>580</v>
       </c>
       <c r="L44">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2102,22 +2131,22 @@
         <v>232</v>
       </c>
       <c r="C45">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D45">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E45">
         <v>75</v>
       </c>
       <c r="F45">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G45">
         <v>377</v>
       </c>
       <c r="H45">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I45">
         <v>365</v>
@@ -2140,25 +2169,25 @@
         <v>236</v>
       </c>
       <c r="C46">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D46">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E46">
         <v>76</v>
       </c>
       <c r="F46">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="G46">
         <v>378</v>
       </c>
       <c r="H46">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I46">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J46">
         <v>229</v>
@@ -2178,25 +2207,25 @@
         <v>244</v>
       </c>
       <c r="C47">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D47">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E47">
         <v>81</v>
       </c>
       <c r="F47">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G47">
         <v>380</v>
       </c>
       <c r="H47">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I47">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J47">
         <v>234</v>
@@ -2216,25 +2245,25 @@
         <v>249</v>
       </c>
       <c r="C48">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D48">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E48">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F48">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G48">
         <v>384</v>
       </c>
       <c r="H48">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I48">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J48">
         <v>236</v>
@@ -2254,25 +2283,25 @@
         <v>258</v>
       </c>
       <c r="C49">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D49">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E49">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F49">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G49">
         <v>385</v>
       </c>
       <c r="H49">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I49">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J49">
         <v>239</v>
@@ -2292,25 +2321,25 @@
         <v>261</v>
       </c>
       <c r="C50">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D50">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E50">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F50">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G50">
         <v>385</v>
       </c>
       <c r="H50">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I50">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J50">
         <v>240</v>
@@ -2330,25 +2359,25 @@
         <v>264</v>
       </c>
       <c r="C51">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D51">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E51">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F51">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G51">
         <v>386</v>
       </c>
       <c r="H51">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I51">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J51">
         <v>241</v>
@@ -2368,13 +2397,13 @@
         <v>264</v>
       </c>
       <c r="C52">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D52">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E52">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F52">
         <v>1926</v>
@@ -2383,10 +2412,10 @@
         <v>386</v>
       </c>
       <c r="H52">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I52">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J52">
         <v>247</v>
@@ -2406,13 +2435,13 @@
         <v>269</v>
       </c>
       <c r="C53">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D53">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E53">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F53">
         <v>1959</v>
@@ -2421,10 +2450,10 @@
         <v>387</v>
       </c>
       <c r="H53">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I53">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J53">
         <v>248</v>
@@ -2444,13 +2473,13 @@
         <v>269</v>
       </c>
       <c r="C54">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D54">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E54">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F54">
         <v>1991</v>
@@ -2459,10 +2488,10 @@
         <v>388</v>
       </c>
       <c r="H54">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I54">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J54">
         <v>250</v>
@@ -2482,13 +2511,13 @@
         <v>278</v>
       </c>
       <c r="C55">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D55">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E55">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F55">
         <v>2032</v>
@@ -2497,10 +2526,10 @@
         <v>389</v>
       </c>
       <c r="H55">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I55">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J55">
         <v>251</v>
@@ -2520,13 +2549,13 @@
         <v>281</v>
       </c>
       <c r="C56">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D56">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E56">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F56">
         <v>2076</v>
@@ -2535,10 +2564,10 @@
         <v>390</v>
       </c>
       <c r="H56">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I56">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J56">
         <v>252</v>
@@ -2558,13 +2587,13 @@
         <v>286</v>
       </c>
       <c r="C57">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D57">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E57">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F57">
         <v>2100</v>
@@ -2573,10 +2602,10 @@
         <v>392</v>
       </c>
       <c r="H57">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I57">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J57">
         <v>259</v>
@@ -2596,13 +2625,13 @@
         <v>296</v>
       </c>
       <c r="C58">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D58">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E58">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F58">
         <v>2137</v>
@@ -2611,10 +2640,10 @@
         <v>393</v>
       </c>
       <c r="H58">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I58">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J58">
         <v>260</v>
@@ -2634,13 +2663,13 @@
         <v>301</v>
       </c>
       <c r="C59">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D59">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E59">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F59">
         <v>2154</v>
@@ -2649,10 +2678,10 @@
         <v>393</v>
       </c>
       <c r="H59">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I59">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J59">
         <v>261</v>
@@ -2672,13 +2701,13 @@
         <v>301</v>
       </c>
       <c r="C60">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D60">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E60">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F60">
         <v>2180</v>
@@ -2687,10 +2716,10 @@
         <v>393</v>
       </c>
       <c r="H60">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I60">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J60">
         <v>261</v>
@@ -2710,13 +2739,13 @@
         <v>308</v>
       </c>
       <c r="C61">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D61">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F61">
         <v>2217</v>
@@ -2725,10 +2754,10 @@
         <v>396</v>
       </c>
       <c r="H61">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I61">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J61">
         <v>262</v>
@@ -2748,13 +2777,13 @@
         <v>312</v>
       </c>
       <c r="C62">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D62">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E62">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F62">
         <v>2247</v>
@@ -2763,10 +2792,10 @@
         <v>398</v>
       </c>
       <c r="H62">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I62">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J62">
         <v>263</v>
@@ -2786,13 +2815,13 @@
         <v>317</v>
       </c>
       <c r="C63">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D63">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E63">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F63">
         <v>2283</v>
@@ -2801,10 +2830,10 @@
         <v>398</v>
       </c>
       <c r="H63">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I63">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J63">
         <v>266</v>
@@ -2824,13 +2853,13 @@
         <v>319</v>
       </c>
       <c r="C64">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D64">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E64">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F64">
         <v>2296</v>
@@ -2839,13 +2868,13 @@
         <v>420</v>
       </c>
       <c r="H64">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I64">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J64">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K64">
         <v>830</v>
@@ -2862,13 +2891,13 @@
         <v>321</v>
       </c>
       <c r="C65">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D65">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E65">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F65">
         <v>2311</v>
@@ -2877,19 +2906,19 @@
         <v>421</v>
       </c>
       <c r="H65">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I65">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J65">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K65">
         <v>837</v>
       </c>
       <c r="L65">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2900,13 +2929,13 @@
         <v>322</v>
       </c>
       <c r="C66">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D66">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E66">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F66">
         <v>2320</v>
@@ -2915,19 +2944,19 @@
         <v>421</v>
       </c>
       <c r="H66">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I66">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J66">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K66">
         <v>840</v>
       </c>
       <c r="L66">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2938,13 +2967,13 @@
         <v>322</v>
       </c>
       <c r="C67">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D67">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E67">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F67">
         <v>2339</v>
@@ -2953,19 +2982,19 @@
         <v>421</v>
       </c>
       <c r="H67">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I67">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J67">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K67">
         <v>841</v>
       </c>
       <c r="L67">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2976,13 +3005,13 @@
         <v>326</v>
       </c>
       <c r="C68">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D68">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E68">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F68">
         <v>2357</v>
@@ -2991,19 +3020,19 @@
         <v>429</v>
       </c>
       <c r="H68">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I68">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="J68">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K68">
         <v>852</v>
       </c>
       <c r="L68">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -3014,13 +3043,13 @@
         <v>327</v>
       </c>
       <c r="C69">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D69">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E69">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F69">
         <v>2376</v>
@@ -3029,19 +3058,19 @@
         <v>429</v>
       </c>
       <c r="H69">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I69">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J69">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K69">
         <v>856</v>
       </c>
       <c r="L69">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -3052,13 +3081,13 @@
         <v>328</v>
       </c>
       <c r="C70">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D70">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E70">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F70">
         <v>2388</v>
@@ -3067,19 +3096,19 @@
         <v>433</v>
       </c>
       <c r="H70">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I70">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J70">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K70">
         <v>859</v>
       </c>
       <c r="L70">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -3090,13 +3119,13 @@
         <v>331</v>
       </c>
       <c r="C71">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D71">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E71">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F71">
         <v>2401</v>
@@ -3105,19 +3134,19 @@
         <v>433</v>
       </c>
       <c r="H71">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I71">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J71">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K71">
         <v>863</v>
       </c>
       <c r="L71">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -3128,13 +3157,13 @@
         <v>332</v>
       </c>
       <c r="C72">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D72">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E72">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F72">
         <v>2423</v>
@@ -3143,19 +3172,19 @@
         <v>433</v>
       </c>
       <c r="H72">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I72">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="J72">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K72">
         <v>864</v>
       </c>
       <c r="L72">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -3166,13 +3195,13 @@
         <v>333</v>
       </c>
       <c r="C73">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D73">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E73">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F73">
         <v>2431</v>
@@ -3181,19 +3210,19 @@
         <v>433</v>
       </c>
       <c r="H73">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I73">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="J73">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K73">
         <v>867</v>
       </c>
       <c r="L73">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -3204,13 +3233,13 @@
         <v>335</v>
       </c>
       <c r="C74">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D74">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E74">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F74">
         <v>2453</v>
@@ -3219,19 +3248,19 @@
         <v>433</v>
       </c>
       <c r="H74">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I74">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="J74">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K74">
         <v>869</v>
       </c>
       <c r="L74">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3242,13 +3271,13 @@
         <v>336</v>
       </c>
       <c r="C75">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D75">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E75">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F75">
         <v>2469</v>
@@ -3257,19 +3286,19 @@
         <v>434</v>
       </c>
       <c r="H75">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I75">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="J75">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K75">
         <v>869</v>
       </c>
       <c r="L75">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3280,34 +3309,34 @@
         <v>336</v>
       </c>
       <c r="C76">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D76">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E76">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F76">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="G76">
         <v>434</v>
       </c>
       <c r="H76">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I76">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J76">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K76">
         <v>871</v>
       </c>
       <c r="L76">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3318,34 +3347,34 @@
         <v>338</v>
       </c>
       <c r="C77">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D77">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E77">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F77">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="G77">
         <v>435</v>
       </c>
       <c r="H77">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I77">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="J77">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K77">
         <v>872</v>
       </c>
       <c r="L77">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3356,34 +3385,34 @@
         <v>338</v>
       </c>
       <c r="C78">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D78">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E78">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F78">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="G78">
         <v>435</v>
       </c>
       <c r="H78">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I78">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J78">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K78">
         <v>873</v>
       </c>
       <c r="L78">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3394,28 +3423,28 @@
         <v>339</v>
       </c>
       <c r="C79">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D79">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E79">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F79">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="G79">
         <v>435</v>
       </c>
       <c r="H79">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I79">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="J79">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K79">
         <v>874</v>
@@ -3432,28 +3461,28 @@
         <v>339</v>
       </c>
       <c r="C80">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D80">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E80">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F80">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="G80">
         <v>435</v>
       </c>
       <c r="H80">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I80">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="J80">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K80">
         <v>875</v>
@@ -3470,28 +3499,28 @@
         <v>339</v>
       </c>
       <c r="C81">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D81">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E81">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F81">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="G81">
         <v>435</v>
       </c>
       <c r="H81">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I81">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J81">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K81">
         <v>875</v>
@@ -3508,28 +3537,28 @@
         <v>339</v>
       </c>
       <c r="C82">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D82">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E82">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F82">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="G82">
         <v>435</v>
       </c>
       <c r="H82">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I82">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="J82">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K82">
         <v>876</v>
@@ -3546,28 +3575,28 @@
         <v>339</v>
       </c>
       <c r="C83">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D83">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E83">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F83">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="G83">
         <v>436</v>
       </c>
       <c r="H83">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I83">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="J83">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K83">
         <v>876</v>
@@ -3584,28 +3613,28 @@
         <v>339</v>
       </c>
       <c r="C84">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D84">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E84">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F84">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="G84">
         <v>436</v>
       </c>
       <c r="H84">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I84">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="J84">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K84">
         <v>876</v>
@@ -3622,28 +3651,28 @@
         <v>339</v>
       </c>
       <c r="C85">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D85">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E85">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F85">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="G85">
         <v>436</v>
       </c>
       <c r="H85">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I85">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J85">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K85">
         <v>876</v>
@@ -3660,28 +3689,28 @@
         <v>341</v>
       </c>
       <c r="C86">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D86">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E86">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F86">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="G86">
         <v>436</v>
       </c>
       <c r="H86">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I86">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="J86">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K86">
         <v>876</v>
@@ -3698,28 +3727,28 @@
         <v>341</v>
       </c>
       <c r="C87">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D87">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E87">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F87">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="G87">
         <v>436</v>
       </c>
       <c r="H87">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I87">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="J87">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K87">
         <v>876</v>
@@ -3736,28 +3765,28 @@
         <v>341</v>
       </c>
       <c r="C88">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D88">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E88">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F88">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="G88">
         <v>436</v>
       </c>
       <c r="H88">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I88">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="J88">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K88">
         <v>876</v>
@@ -3774,28 +3803,28 @@
         <v>341</v>
       </c>
       <c r="C89">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D89">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E89">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F89">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="G89">
         <v>436</v>
       </c>
       <c r="H89">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I89">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="J89">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K89">
         <v>877</v>
@@ -3812,28 +3841,28 @@
         <v>341</v>
       </c>
       <c r="C90">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D90">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E90">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F90">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="G90">
         <v>436</v>
       </c>
       <c r="H90">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I90">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="J90">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K90">
         <v>878</v>
@@ -3850,28 +3879,28 @@
         <v>341</v>
       </c>
       <c r="C91">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D91">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E91">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F91">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="G91">
         <v>436</v>
       </c>
       <c r="H91">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I91">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J91">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K91">
         <v>878</v>
@@ -3888,28 +3917,28 @@
         <v>341</v>
       </c>
       <c r="C92">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D92">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E92">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F92">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="G92">
         <v>436</v>
       </c>
       <c r="H92">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I92">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J92">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K92">
         <v>878</v>
@@ -3926,28 +3955,28 @@
         <v>341</v>
       </c>
       <c r="C93">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D93">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E93">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F93">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="G93">
         <v>436</v>
       </c>
       <c r="H93">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I93">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J93">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K93">
         <v>879</v>
@@ -3964,28 +3993,28 @@
         <v>341</v>
       </c>
       <c r="C94">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D94">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E94">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F94">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="G94">
         <v>436</v>
       </c>
       <c r="H94">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I94">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J94">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K94">
         <v>879</v>
@@ -4002,28 +4031,28 @@
         <v>341</v>
       </c>
       <c r="C95">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D95">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E95">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F95">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="G95">
         <v>436</v>
       </c>
       <c r="H95">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I95">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J95">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K95">
         <v>879</v>
@@ -4040,28 +4069,28 @@
         <v>341</v>
       </c>
       <c r="C96">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D96">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E96">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F96">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="G96">
         <v>436</v>
       </c>
       <c r="H96">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I96">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J96">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K96">
         <v>879</v>
@@ -4078,28 +4107,28 @@
         <v>341</v>
       </c>
       <c r="C97">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D97">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E97">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F97">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="G97">
         <v>436</v>
       </c>
       <c r="H97">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I97">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="J97">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K97">
         <v>879</v>
@@ -4116,28 +4145,28 @@
         <v>341</v>
       </c>
       <c r="C98">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D98">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E98">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F98">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="G98">
         <v>436</v>
       </c>
       <c r="H98">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I98">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="J98">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K98">
         <v>879</v>
@@ -4154,28 +4183,28 @@
         <v>341</v>
       </c>
       <c r="C99">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D99">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E99">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F99">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="G99">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H99">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I99">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J99">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K99">
         <v>879</v>
@@ -4192,28 +4221,28 @@
         <v>341</v>
       </c>
       <c r="C100">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D100">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E100">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F100">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="G100">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H100">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I100">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J100">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K100">
         <v>879</v>
@@ -4230,28 +4259,28 @@
         <v>341</v>
       </c>
       <c r="C101">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D101">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E101">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F101">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="G101">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H101">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I101">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J101">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K101">
         <v>879</v>
@@ -4268,28 +4297,28 @@
         <v>341</v>
       </c>
       <c r="C102">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D102">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E102">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F102">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="G102">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H102">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I102">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J102">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K102">
         <v>879</v>
@@ -4306,34 +4335,34 @@
         <v>341</v>
       </c>
       <c r="C103">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D103">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E103">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F103">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="G103">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H103">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I103">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J103">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K103">
         <v>879</v>
       </c>
       <c r="L103">
-        <v>2299</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4344,34 +4373,34 @@
         <v>341</v>
       </c>
       <c r="C104">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D104">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E104">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F104">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="G104">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H104">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I104">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J104">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K104">
         <v>880</v>
       </c>
       <c r="L104">
-        <v>2302</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4382,34 +4411,34 @@
         <v>341</v>
       </c>
       <c r="C105">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D105">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E105">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F105">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="G105">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H105">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I105">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J105">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K105">
         <v>881</v>
       </c>
       <c r="L105">
-        <v>2307</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4420,34 +4449,34 @@
         <v>341</v>
       </c>
       <c r="C106">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D106">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E106">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F106">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="G106">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H106">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I106">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J106">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K106">
         <v>881</v>
       </c>
       <c r="L106">
-        <v>2308</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4458,34 +4487,34 @@
         <v>342</v>
       </c>
       <c r="C107">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D107">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E107">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F107">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c r="G107">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H107">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I107">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J107">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K107">
         <v>882</v>
       </c>
       <c r="L107">
-        <v>2312</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4496,28 +4525,28 @@
         <v>342</v>
       </c>
       <c r="C108">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D108">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E108">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F108">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="G108">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H108">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I108">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J108">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K108">
         <v>882</v>
@@ -4534,28 +4563,28 @@
         <v>342</v>
       </c>
       <c r="C109">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D109">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E109">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F109">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c r="G109">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H109">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I109">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J109">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K109">
         <v>882</v>
@@ -4572,28 +4601,28 @@
         <v>342</v>
       </c>
       <c r="C110">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D110">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E110">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F110">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="G110">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H110">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I110">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J110">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K110">
         <v>884</v>
@@ -4610,28 +4639,28 @@
         <v>343</v>
       </c>
       <c r="C111">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D111">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E111">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F111">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="G111">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H111">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I111">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J111">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K111">
         <v>884</v>
@@ -4648,28 +4677,28 @@
         <v>343</v>
       </c>
       <c r="C112">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D112">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E112">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F112">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="G112">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H112">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I112">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J112">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K112">
         <v>884</v>
@@ -4686,28 +4715,28 @@
         <v>343</v>
       </c>
       <c r="C113">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D113">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E113">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F113">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="G113">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H113">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I113">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J113">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K113">
         <v>884</v>
@@ -4724,28 +4753,28 @@
         <v>343</v>
       </c>
       <c r="C114">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D114">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E114">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F114">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="G114">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H114">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I114">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J114">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K114">
         <v>884</v>
@@ -4762,28 +4791,28 @@
         <v>343</v>
       </c>
       <c r="C115">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D115">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E115">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F115">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="G115">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H115">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I115">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J115">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K115">
         <v>884</v>
@@ -4800,28 +4829,28 @@
         <v>343</v>
       </c>
       <c r="C116">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D116">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E116">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F116">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="G116">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H116">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I116">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J116">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K116">
         <v>884</v>
@@ -4838,28 +4867,28 @@
         <v>344</v>
       </c>
       <c r="C117">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D117">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E117">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F117">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="G117">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H117">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I117">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J117">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K117">
         <v>884</v>
@@ -4876,28 +4905,28 @@
         <v>345</v>
       </c>
       <c r="C118">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D118">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E118">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F118">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="G118">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H118">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I118">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J118">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K118">
         <v>884</v>
@@ -4914,28 +4943,28 @@
         <v>346</v>
       </c>
       <c r="C119">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D119">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E119">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F119">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="G119">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H119">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I119">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J119">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K119">
         <v>886</v>
@@ -4952,28 +4981,28 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D120">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E120">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F120">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="G120">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H120">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I120">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J120">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K120">
         <v>886</v>
@@ -4990,28 +5019,28 @@
         <v>346</v>
       </c>
       <c r="C121">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D121">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E121">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F121">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="G121">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H121">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I121">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="J121">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K121">
         <v>886</v>
@@ -5028,28 +5057,28 @@
         <v>346</v>
       </c>
       <c r="C122">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D122">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E122">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F122">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="G122">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H122">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I122">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="J122">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K122">
         <v>886</v>
@@ -5066,28 +5095,28 @@
         <v>347</v>
       </c>
       <c r="C123">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D123">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E123">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F123">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="G123">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H123">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I123">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="J123">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K123">
         <v>886</v>
@@ -5104,28 +5133,28 @@
         <v>347</v>
       </c>
       <c r="C124">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D124">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E124">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F124">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="G124">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H124">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I124">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J124">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K124">
         <v>889</v>
@@ -5142,28 +5171,28 @@
         <v>347</v>
       </c>
       <c r="C125">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D125">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F125">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="G125">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H125">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I125">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J125">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K125">
         <v>889</v>
@@ -5180,28 +5209,28 @@
         <v>347</v>
       </c>
       <c r="C126">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D126">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F126">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="G126">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H126">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I126">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J126">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K126">
         <v>889</v>
@@ -5218,28 +5247,28 @@
         <v>347</v>
       </c>
       <c r="C127">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D127">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E127">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F127">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="G127">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H127">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I127">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J127">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K127">
         <v>890</v>
@@ -5256,28 +5285,28 @@
         <v>347</v>
       </c>
       <c r="C128">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D128">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E128">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F128">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="G128">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H128">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I128">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J128">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K128">
         <v>890</v>
@@ -5294,28 +5323,28 @@
         <v>347</v>
       </c>
       <c r="C129">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D129">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E129">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F129">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="G129">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H129">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I129">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J129">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K129">
         <v>890</v>
@@ -5332,28 +5361,28 @@
         <v>347</v>
       </c>
       <c r="C130">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D130">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E130">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F130">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="G130">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H130">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I130">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J130">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K130">
         <v>890</v>
@@ -5370,28 +5399,28 @@
         <v>347</v>
       </c>
       <c r="C131">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D131">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E131">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F131">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="G131">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H131">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I131">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J131">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K131">
         <v>892</v>
@@ -5408,28 +5437,28 @@
         <v>348</v>
       </c>
       <c r="C132">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D132">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E132">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F132">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="G132">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H132">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I132">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J132">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K132">
         <v>892</v>
@@ -5443,37 +5472,37 @@
         <v>44013</v>
       </c>
       <c r="B133">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C133">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D133">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E133">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F133">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="G133">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H133">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I133">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J133">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K133">
         <v>893</v>
       </c>
       <c r="L133">
-        <v>2454</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -5481,37 +5510,683 @@
         <v>44014</v>
       </c>
       <c r="B134">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C134">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D134">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E134">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F134">
-        <v>2875</v>
+        <v>2880</v>
       </c>
       <c r="G134">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H134">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I134">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="J134">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K134">
         <v>893</v>
       </c>
       <c r="L134">
-        <v>2454</v>
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B135">
+        <v>348</v>
+      </c>
+      <c r="C135">
+        <v>504</v>
+      </c>
+      <c r="D135">
+        <v>159</v>
+      </c>
+      <c r="E135">
+        <v>128</v>
+      </c>
+      <c r="F135">
+        <v>2884</v>
+      </c>
+      <c r="G135">
+        <v>444</v>
+      </c>
+      <c r="H135">
+        <v>255</v>
+      </c>
+      <c r="I135">
+        <v>540</v>
+      </c>
+      <c r="J135">
+        <v>298</v>
+      </c>
+      <c r="K135">
+        <v>893</v>
+      </c>
+      <c r="L135">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B136">
+        <v>348</v>
+      </c>
+      <c r="C136">
+        <v>504</v>
+      </c>
+      <c r="D136">
+        <v>159</v>
+      </c>
+      <c r="E136">
+        <v>128</v>
+      </c>
+      <c r="F136">
+        <v>2885</v>
+      </c>
+      <c r="G136">
+        <v>444</v>
+      </c>
+      <c r="H136">
+        <v>255</v>
+      </c>
+      <c r="I136">
+        <v>540</v>
+      </c>
+      <c r="J136">
+        <v>298</v>
+      </c>
+      <c r="K136">
+        <v>893</v>
+      </c>
+      <c r="L136">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B137">
+        <v>348</v>
+      </c>
+      <c r="C137">
+        <v>504</v>
+      </c>
+      <c r="D137">
+        <v>160</v>
+      </c>
+      <c r="E137">
+        <v>128</v>
+      </c>
+      <c r="F137">
+        <v>2885</v>
+      </c>
+      <c r="G137">
+        <v>444</v>
+      </c>
+      <c r="H137">
+        <v>255</v>
+      </c>
+      <c r="I137">
+        <v>540</v>
+      </c>
+      <c r="J137">
+        <v>298</v>
+      </c>
+      <c r="K137">
+        <v>893</v>
+      </c>
+      <c r="L137">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B138">
+        <v>348</v>
+      </c>
+      <c r="C138">
+        <v>505</v>
+      </c>
+      <c r="D138">
+        <v>160</v>
+      </c>
+      <c r="E138">
+        <v>128</v>
+      </c>
+      <c r="F138">
+        <v>2886</v>
+      </c>
+      <c r="G138">
+        <v>444</v>
+      </c>
+      <c r="H138">
+        <v>255</v>
+      </c>
+      <c r="I138">
+        <v>540</v>
+      </c>
+      <c r="J138">
+        <v>299</v>
+      </c>
+      <c r="K138">
+        <v>893</v>
+      </c>
+      <c r="L138">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B139">
+        <v>348</v>
+      </c>
+      <c r="C139">
+        <v>505</v>
+      </c>
+      <c r="D139">
+        <v>160</v>
+      </c>
+      <c r="E139">
+        <v>128</v>
+      </c>
+      <c r="F139">
+        <v>2889</v>
+      </c>
+      <c r="G139">
+        <v>444</v>
+      </c>
+      <c r="H139">
+        <v>256</v>
+      </c>
+      <c r="I139">
+        <v>540</v>
+      </c>
+      <c r="J139">
+        <v>301</v>
+      </c>
+      <c r="K139">
+        <v>893</v>
+      </c>
+      <c r="L139">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B140">
+        <v>348</v>
+      </c>
+      <c r="C140">
+        <v>505</v>
+      </c>
+      <c r="D140">
+        <v>160</v>
+      </c>
+      <c r="E140">
+        <v>129</v>
+      </c>
+      <c r="F140">
+        <v>2894</v>
+      </c>
+      <c r="G140">
+        <v>444</v>
+      </c>
+      <c r="H140">
+        <v>257</v>
+      </c>
+      <c r="I140">
+        <v>541</v>
+      </c>
+      <c r="J140">
+        <v>301</v>
+      </c>
+      <c r="K140">
+        <v>893</v>
+      </c>
+      <c r="L140">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B141">
+        <v>348</v>
+      </c>
+      <c r="C141">
+        <v>505</v>
+      </c>
+      <c r="D141">
+        <v>160</v>
+      </c>
+      <c r="E141">
+        <v>129</v>
+      </c>
+      <c r="F141">
+        <v>2897</v>
+      </c>
+      <c r="G141">
+        <v>445</v>
+      </c>
+      <c r="H141">
+        <v>257</v>
+      </c>
+      <c r="I141">
+        <v>541</v>
+      </c>
+      <c r="J141">
+        <v>301</v>
+      </c>
+      <c r="K141">
+        <v>895</v>
+      </c>
+      <c r="L141">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B142">
+        <v>349</v>
+      </c>
+      <c r="C142">
+        <v>508</v>
+      </c>
+      <c r="D142">
+        <v>160</v>
+      </c>
+      <c r="E142">
+        <v>130</v>
+      </c>
+      <c r="F142">
+        <v>2901</v>
+      </c>
+      <c r="G142">
+        <v>445</v>
+      </c>
+      <c r="H142">
+        <v>257</v>
+      </c>
+      <c r="I142">
+        <v>541</v>
+      </c>
+      <c r="J142">
+        <v>301</v>
+      </c>
+      <c r="K142">
+        <v>895</v>
+      </c>
+      <c r="L142">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B143">
+        <v>349</v>
+      </c>
+      <c r="C143">
+        <v>508</v>
+      </c>
+      <c r="D143">
+        <v>160</v>
+      </c>
+      <c r="E143">
+        <v>130</v>
+      </c>
+      <c r="F143">
+        <v>2905</v>
+      </c>
+      <c r="G143">
+        <v>445</v>
+      </c>
+      <c r="H143">
+        <v>257</v>
+      </c>
+      <c r="I143">
+        <v>541</v>
+      </c>
+      <c r="J143">
+        <v>301</v>
+      </c>
+      <c r="K143">
+        <v>895</v>
+      </c>
+      <c r="L143">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B144">
+        <v>349</v>
+      </c>
+      <c r="C144">
+        <v>508</v>
+      </c>
+      <c r="D144">
+        <v>160</v>
+      </c>
+      <c r="E144">
+        <v>130</v>
+      </c>
+      <c r="F144">
+        <v>2905</v>
+      </c>
+      <c r="G144">
+        <v>448</v>
+      </c>
+      <c r="H144">
+        <v>257</v>
+      </c>
+      <c r="I144">
+        <v>541</v>
+      </c>
+      <c r="J144">
+        <v>301</v>
+      </c>
+      <c r="K144">
+        <v>895</v>
+      </c>
+      <c r="L144">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B145">
+        <v>351</v>
+      </c>
+      <c r="C145">
+        <v>509</v>
+      </c>
+      <c r="D145">
+        <v>160</v>
+      </c>
+      <c r="E145">
+        <v>130</v>
+      </c>
+      <c r="F145">
+        <v>2911</v>
+      </c>
+      <c r="G145">
+        <v>450</v>
+      </c>
+      <c r="H145">
+        <v>258</v>
+      </c>
+      <c r="I145">
+        <v>541</v>
+      </c>
+      <c r="J145">
+        <v>301</v>
+      </c>
+      <c r="K145">
+        <v>895</v>
+      </c>
+      <c r="L145">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B146">
+        <v>351</v>
+      </c>
+      <c r="C146">
+        <v>509</v>
+      </c>
+      <c r="D146">
+        <v>160</v>
+      </c>
+      <c r="E146">
+        <v>130</v>
+      </c>
+      <c r="F146">
+        <v>2914</v>
+      </c>
+      <c r="G146">
+        <v>450</v>
+      </c>
+      <c r="H146">
+        <v>258</v>
+      </c>
+      <c r="I146">
+        <v>542</v>
+      </c>
+      <c r="J146">
+        <v>301</v>
+      </c>
+      <c r="K146">
+        <v>895</v>
+      </c>
+      <c r="L146">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B147">
+        <v>351</v>
+      </c>
+      <c r="C147">
+        <v>509</v>
+      </c>
+      <c r="D147">
+        <v>160</v>
+      </c>
+      <c r="E147">
+        <v>130</v>
+      </c>
+      <c r="F147">
+        <v>2918</v>
+      </c>
+      <c r="G147">
+        <v>450</v>
+      </c>
+      <c r="H147">
+        <v>258</v>
+      </c>
+      <c r="I147">
+        <v>543</v>
+      </c>
+      <c r="J147">
+        <v>301</v>
+      </c>
+      <c r="K147">
+        <v>895</v>
+      </c>
+      <c r="L147">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B148">
+        <v>351</v>
+      </c>
+      <c r="C148">
+        <v>509</v>
+      </c>
+      <c r="D148">
+        <v>160</v>
+      </c>
+      <c r="E148">
+        <v>130</v>
+      </c>
+      <c r="F148">
+        <v>2920</v>
+      </c>
+      <c r="G148">
+        <v>450</v>
+      </c>
+      <c r="H148">
+        <v>258</v>
+      </c>
+      <c r="I148">
+        <v>545</v>
+      </c>
+      <c r="J148">
+        <v>301</v>
+      </c>
+      <c r="K148">
+        <v>895</v>
+      </c>
+      <c r="L148">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B149">
+        <v>351</v>
+      </c>
+      <c r="C149">
+        <v>509</v>
+      </c>
+      <c r="D149">
+        <v>160</v>
+      </c>
+      <c r="E149">
+        <v>130</v>
+      </c>
+      <c r="F149">
+        <v>2924</v>
+      </c>
+      <c r="G149">
+        <v>450</v>
+      </c>
+      <c r="H149">
+        <v>258</v>
+      </c>
+      <c r="I149">
+        <v>546</v>
+      </c>
+      <c r="J149">
+        <v>301</v>
+      </c>
+      <c r="K149">
+        <v>896</v>
+      </c>
+      <c r="L149">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B150">
+        <v>351</v>
+      </c>
+      <c r="C150">
+        <v>509</v>
+      </c>
+      <c r="D150">
+        <v>160</v>
+      </c>
+      <c r="E150">
+        <v>130</v>
+      </c>
+      <c r="F150">
+        <v>2924</v>
+      </c>
+      <c r="G150">
+        <v>450</v>
+      </c>
+      <c r="H150">
+        <v>258</v>
+      </c>
+      <c r="I150">
+        <v>546</v>
+      </c>
+      <c r="J150">
+        <v>301</v>
+      </c>
+      <c r="K150">
+        <v>896</v>
+      </c>
+      <c r="L150">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B151">
+        <v>351</v>
+      </c>
+      <c r="C151">
+        <v>509</v>
+      </c>
+      <c r="D151">
+        <v>160</v>
+      </c>
+      <c r="E151">
+        <v>130</v>
+      </c>
+      <c r="F151">
+        <v>2924</v>
+      </c>
+      <c r="G151">
+        <v>450</v>
+      </c>
+      <c r="H151">
+        <v>258</v>
+      </c>
+      <c r="I151">
+        <v>546</v>
+      </c>
+      <c r="J151">
+        <v>301</v>
+      </c>
+      <c r="K151">
+        <v>896</v>
+      </c>
+      <c r="L151">
+        <v>2503</v>
       </c>
     </row>
   </sheetData>
@@ -5521,1093 +6196,4241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46004C74-2EDF-764B-8198-01B7AB12DF1A}">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AF11"/>
+      <selection activeCell="I1" sqref="I1:I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>341</v>
-      </c>
-      <c r="B1">
-        <v>341</v>
-      </c>
-      <c r="C1">
-        <v>341</v>
-      </c>
-      <c r="D1">
-        <v>341</v>
-      </c>
-      <c r="E1">
-        <v>342</v>
-      </c>
-      <c r="F1">
-        <v>342</v>
-      </c>
-      <c r="G1">
-        <v>342</v>
-      </c>
-      <c r="H1">
-        <v>342</v>
-      </c>
-      <c r="I1">
-        <v>343</v>
-      </c>
-      <c r="J1">
-        <v>343</v>
-      </c>
-      <c r="K1">
-        <v>343</v>
-      </c>
-      <c r="L1">
-        <v>343</v>
-      </c>
-      <c r="M1">
-        <v>343</v>
-      </c>
-      <c r="N1">
-        <v>343</v>
-      </c>
-      <c r="O1">
-        <v>344</v>
-      </c>
-      <c r="P1">
-        <v>345</v>
-      </c>
-      <c r="Q1">
-        <v>346</v>
-      </c>
-      <c r="R1">
-        <v>346</v>
-      </c>
-      <c r="S1">
-        <v>346</v>
-      </c>
-      <c r="T1">
-        <v>346</v>
-      </c>
-      <c r="U1">
-        <v>347</v>
-      </c>
-      <c r="V1">
-        <v>347</v>
-      </c>
-      <c r="W1">
-        <v>347</v>
-      </c>
-      <c r="X1">
-        <v>347</v>
-      </c>
-      <c r="Y1">
-        <v>347</v>
-      </c>
-      <c r="Z1">
-        <v>347</v>
-      </c>
-      <c r="AA1">
-        <v>347</v>
-      </c>
-      <c r="AB1">
-        <v>347</v>
-      </c>
-      <c r="AC1">
-        <v>347</v>
-      </c>
-      <c r="AD1">
-        <v>348</v>
-      </c>
-      <c r="AE1">
-        <v>349</v>
-      </c>
-      <c r="AF1">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>508</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="2">
+        <v>43882</v>
+      </c>
+      <c r="G1" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>43882</v>
+      </c>
+      <c r="I1" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43883</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43883</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2">
+        <v>43882</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43884</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43884</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2">
+        <v>43883</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43885</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43885</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2">
+        <v>43884</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43886</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43886</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2">
+        <v>43885</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43887</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43887</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2">
+        <v>43886</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43888</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43888</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2">
+        <v>43887</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43889</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
+        <v>43888</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43890</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
+        <v>43889</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43891</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>43891</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
+        <v>43890</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G11" s="3">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2">
+        <v>43892</v>
+      </c>
+      <c r="I11" s="3">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43893</v>
+      </c>
+      <c r="G12" s="3">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2">
+        <v>43893</v>
+      </c>
+      <c r="I12" s="3">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2">
+        <v>43892</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43894</v>
+      </c>
+      <c r="G13" s="3">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2">
+        <v>43894</v>
+      </c>
+      <c r="I13" s="3">
+        <v>22</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2">
+        <v>43893</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43895</v>
+      </c>
+      <c r="G14" s="3">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2">
+        <v>43895</v>
+      </c>
+      <c r="I14" s="3">
+        <v>27</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2">
+        <v>43894</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43896</v>
+      </c>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
+        <v>43896</v>
+      </c>
+      <c r="I15" s="3">
+        <v>36</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2">
+        <v>43895</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43897</v>
+      </c>
+      <c r="G16" s="3">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2">
+        <v>43897</v>
+      </c>
+      <c r="I16" s="3">
+        <v>40</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2">
+        <v>43896</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43898</v>
+      </c>
+      <c r="G17" s="3">
+        <v>31</v>
+      </c>
+      <c r="H17" s="2">
+        <v>43898</v>
+      </c>
+      <c r="I17" s="3">
+        <v>59</v>
+      </c>
+      <c r="J17" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2">
+        <v>43897</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>43899</v>
+      </c>
+      <c r="G18" s="3">
+        <v>52</v>
+      </c>
+      <c r="H18" s="2">
+        <v>43899</v>
+      </c>
+      <c r="I18" s="3">
+        <v>131</v>
+      </c>
+      <c r="J18" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2">
+        <v>43898</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43900</v>
+      </c>
+      <c r="G19" s="3">
+        <v>70</v>
+      </c>
+      <c r="H19" s="2">
+        <v>43900</v>
+      </c>
+      <c r="I19" s="3">
+        <v>176</v>
+      </c>
+      <c r="J19" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2">
+        <v>43899</v>
+      </c>
+      <c r="D20" s="3">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43901</v>
+      </c>
+      <c r="G20" s="3">
+        <v>86</v>
+      </c>
+      <c r="H20" s="2">
+        <v>43901</v>
+      </c>
+      <c r="I20" s="3">
+        <v>219</v>
+      </c>
+      <c r="J20" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D21" s="3">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <v>43902</v>
+      </c>
+      <c r="G21" s="3">
+        <v>113</v>
+      </c>
+      <c r="H21" s="2">
+        <v>43902</v>
+      </c>
+      <c r="I21" s="3">
+        <v>275</v>
+      </c>
+      <c r="J21" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2">
+        <v>43901</v>
+      </c>
+      <c r="D22" s="3">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2">
+        <v>43903</v>
+      </c>
+      <c r="G22" s="3">
+        <v>129</v>
+      </c>
+      <c r="H22" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I22" s="3">
+        <v>331</v>
+      </c>
+      <c r="J22" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2">
+        <v>43902</v>
+      </c>
+      <c r="D23" s="3">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2">
+        <v>43904</v>
+      </c>
+      <c r="G23" s="3">
+        <v>135</v>
+      </c>
+      <c r="H23" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I23" s="3">
+        <v>371</v>
+      </c>
+      <c r="J23" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2">
+        <v>43903</v>
+      </c>
+      <c r="D24" s="3">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>43905</v>
+      </c>
+      <c r="G24" s="3">
+        <v>151</v>
+      </c>
+      <c r="H24" s="2">
+        <v>43905</v>
+      </c>
+      <c r="I24" s="3">
+        <v>401</v>
+      </c>
+      <c r="J24" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2">
+        <v>43904</v>
+      </c>
+      <c r="D25" s="3">
+        <v>68</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>43906</v>
+      </c>
+      <c r="G25" s="3">
+        <v>176</v>
+      </c>
+      <c r="H25" s="2">
+        <v>43906</v>
+      </c>
+      <c r="I25" s="3">
+        <v>461</v>
+      </c>
+      <c r="J25" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2">
+        <v>43905</v>
+      </c>
+      <c r="D26" s="3">
+        <v>72</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>43907</v>
+      </c>
+      <c r="G26" s="3">
+        <v>195</v>
+      </c>
+      <c r="H26" s="2">
+        <v>43907</v>
+      </c>
+      <c r="I26" s="3">
+        <v>527</v>
+      </c>
+      <c r="J26" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2">
+        <v>43906</v>
+      </c>
+      <c r="D27" s="3">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>43908</v>
+      </c>
+      <c r="G27" s="3">
+        <v>217</v>
+      </c>
+      <c r="H27" s="2">
+        <v>43908</v>
+      </c>
+      <c r="I27" s="3">
+        <v>595</v>
+      </c>
+      <c r="J27" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2">
+        <v>43907</v>
+      </c>
+      <c r="D28" s="3">
+        <v>87</v>
+      </c>
+      <c r="E28" s="3">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2">
+        <v>43909</v>
+      </c>
+      <c r="G28" s="3">
+        <v>253</v>
+      </c>
+      <c r="H28" s="2">
+        <v>43909</v>
+      </c>
+      <c r="I28" s="3">
+        <v>660</v>
+      </c>
+      <c r="J28" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2">
+        <v>43908</v>
+      </c>
+      <c r="D29" s="3">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2">
+        <v>43910</v>
+      </c>
+      <c r="G29" s="3">
+        <v>289</v>
+      </c>
+      <c r="H29" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I29" s="3">
+        <v>732</v>
+      </c>
+      <c r="J29" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2">
+        <v>43909</v>
+      </c>
+      <c r="D30" s="3">
+        <v>99</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>43911</v>
+      </c>
+      <c r="G30" s="3">
+        <v>305</v>
+      </c>
+      <c r="H30" s="2">
+        <v>43911</v>
+      </c>
+      <c r="I30" s="3">
+        <v>784</v>
+      </c>
+      <c r="J30" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2">
+        <v>43910</v>
+      </c>
+      <c r="D31" s="3">
+        <v>107</v>
+      </c>
+      <c r="E31" s="3">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2">
+        <v>43912</v>
+      </c>
+      <c r="G31" s="3">
+        <v>313</v>
+      </c>
+      <c r="H31" s="2">
+        <v>43912</v>
+      </c>
+      <c r="I31" s="3">
+        <v>838</v>
+      </c>
+      <c r="J31" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2">
+        <v>43911</v>
+      </c>
+      <c r="D32" s="3">
+        <v>109</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>43913</v>
+      </c>
+      <c r="G32" s="3">
+        <v>353</v>
+      </c>
+      <c r="H32" s="2">
+        <v>43913</v>
+      </c>
+      <c r="I32" s="3">
+        <v>908</v>
+      </c>
+      <c r="J32" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2">
+        <v>43912</v>
+      </c>
+      <c r="D33" s="3">
+        <v>114</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>43914</v>
+      </c>
+      <c r="G33" s="3">
+        <v>384</v>
+      </c>
+      <c r="H33" s="2">
+        <v>43914</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J33" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2">
+        <v>43913</v>
+      </c>
+      <c r="D34" s="3">
+        <v>125</v>
+      </c>
+      <c r="E34" s="3">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2">
+        <v>43915</v>
+      </c>
+      <c r="G34" s="3">
+        <v>417</v>
+      </c>
+      <c r="H34" s="2">
+        <v>43915</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1081</v>
+      </c>
+      <c r="J34" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2">
+        <v>43914</v>
+      </c>
+      <c r="D35" s="3">
+        <v>134</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2">
+        <v>43916</v>
+      </c>
+      <c r="G35" s="3">
+        <v>444</v>
+      </c>
+      <c r="H35" s="2">
+        <v>43916</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1141</v>
+      </c>
+      <c r="J35" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2">
+        <v>43915</v>
+      </c>
+      <c r="D36" s="3">
+        <v>143</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2">
+        <v>43917</v>
+      </c>
+      <c r="G36" s="3">
+        <v>466</v>
+      </c>
+      <c r="H36" s="2">
+        <v>43917</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1207</v>
+      </c>
+      <c r="J36" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2">
+        <v>43916</v>
+      </c>
+      <c r="D37" s="3">
+        <v>151</v>
+      </c>
+      <c r="E37" s="3">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2">
+        <v>43918</v>
+      </c>
+      <c r="G37" s="3">
+        <v>480</v>
+      </c>
+      <c r="H37" s="2">
+        <v>43918</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1245</v>
+      </c>
+      <c r="J37" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D38" s="3">
+        <v>162</v>
+      </c>
+      <c r="E38" s="3">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="G38" s="3">
+        <v>482</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1286</v>
+      </c>
+      <c r="J38" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2">
+        <v>43918</v>
+      </c>
+      <c r="D39" s="3">
+        <v>171</v>
+      </c>
+      <c r="E39" s="3">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2">
+        <v>43920</v>
+      </c>
+      <c r="G39" s="3">
         <v>509</v>
       </c>
-      <c r="C2">
-        <v>509</v>
-      </c>
-      <c r="D2">
-        <v>509</v>
-      </c>
-      <c r="E2">
-        <v>509</v>
-      </c>
-      <c r="F2">
-        <v>509</v>
-      </c>
-      <c r="G2">
-        <v>510</v>
-      </c>
-      <c r="H2">
-        <v>510</v>
-      </c>
-      <c r="I2">
-        <v>510</v>
-      </c>
-      <c r="J2">
-        <v>510</v>
-      </c>
-      <c r="K2">
-        <v>511</v>
-      </c>
-      <c r="L2">
-        <v>512</v>
-      </c>
-      <c r="M2">
-        <v>512</v>
-      </c>
-      <c r="N2">
-        <v>512</v>
-      </c>
-      <c r="O2">
-        <v>512</v>
-      </c>
-      <c r="P2">
-        <v>512</v>
-      </c>
-      <c r="Q2">
-        <v>512</v>
-      </c>
-      <c r="R2">
-        <v>512</v>
-      </c>
-      <c r="S2">
-        <v>513</v>
-      </c>
-      <c r="T2">
-        <v>513</v>
-      </c>
-      <c r="U2">
-        <v>513</v>
-      </c>
-      <c r="V2">
-        <v>514</v>
-      </c>
-      <c r="W2">
-        <v>514</v>
-      </c>
-      <c r="X2">
-        <v>514</v>
-      </c>
-      <c r="Y2">
-        <v>514</v>
-      </c>
-      <c r="Z2">
-        <v>514</v>
-      </c>
-      <c r="AA2">
-        <v>514</v>
-      </c>
-      <c r="AB2">
-        <v>514</v>
-      </c>
-      <c r="AC2">
-        <v>514</v>
-      </c>
-      <c r="AD2">
-        <v>514</v>
-      </c>
-      <c r="AE2">
-        <v>514</v>
-      </c>
-      <c r="AF2">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>147</v>
-      </c>
-      <c r="B3">
-        <v>147</v>
-      </c>
-      <c r="C3">
-        <v>147</v>
-      </c>
-      <c r="D3">
-        <v>147</v>
-      </c>
-      <c r="E3">
-        <v>147</v>
-      </c>
-      <c r="F3">
-        <v>147</v>
-      </c>
-      <c r="G3">
-        <v>147</v>
-      </c>
-      <c r="H3">
-        <v>148</v>
-      </c>
-      <c r="I3">
-        <v>148</v>
-      </c>
-      <c r="J3">
-        <v>148</v>
-      </c>
-      <c r="K3">
-        <v>149</v>
-      </c>
-      <c r="L3">
-        <v>149</v>
-      </c>
-      <c r="M3">
-        <v>150</v>
-      </c>
-      <c r="N3">
-        <v>150</v>
-      </c>
-      <c r="O3">
-        <v>150</v>
-      </c>
-      <c r="P3">
-        <v>150</v>
-      </c>
-      <c r="Q3">
-        <v>150</v>
-      </c>
-      <c r="R3">
-        <v>150</v>
-      </c>
-      <c r="S3">
-        <v>150</v>
-      </c>
-      <c r="T3">
-        <v>150</v>
-      </c>
-      <c r="U3">
-        <v>150</v>
-      </c>
-      <c r="V3">
-        <v>150</v>
-      </c>
-      <c r="W3">
-        <v>152</v>
-      </c>
-      <c r="X3">
-        <v>152</v>
-      </c>
-      <c r="Y3">
-        <v>153</v>
-      </c>
-      <c r="Z3">
-        <v>155</v>
-      </c>
-      <c r="AA3">
-        <v>155</v>
-      </c>
-      <c r="AB3">
-        <v>155</v>
-      </c>
-      <c r="AC3">
-        <v>155</v>
-      </c>
-      <c r="AD3">
-        <v>155</v>
-      </c>
-      <c r="AE3">
-        <v>155</v>
-      </c>
-      <c r="AF3">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>120</v>
-      </c>
-      <c r="B4">
-        <v>120</v>
-      </c>
-      <c r="C4">
-        <v>120</v>
-      </c>
-      <c r="D4">
-        <v>121</v>
-      </c>
-      <c r="E4">
-        <v>121</v>
-      </c>
-      <c r="F4">
-        <v>121</v>
-      </c>
-      <c r="G4">
-        <v>121</v>
-      </c>
-      <c r="H4">
-        <v>121</v>
-      </c>
-      <c r="I4">
-        <v>121</v>
-      </c>
-      <c r="J4">
-        <v>121</v>
-      </c>
-      <c r="K4">
-        <v>121</v>
-      </c>
-      <c r="L4">
-        <v>121</v>
-      </c>
-      <c r="M4">
-        <v>121</v>
-      </c>
-      <c r="N4">
-        <v>121</v>
-      </c>
-      <c r="O4">
-        <v>121</v>
-      </c>
-      <c r="P4">
-        <v>122</v>
-      </c>
-      <c r="Q4">
-        <v>122</v>
-      </c>
-      <c r="R4">
-        <v>123</v>
-      </c>
-      <c r="S4">
-        <v>124</v>
-      </c>
-      <c r="T4">
-        <v>124</v>
-      </c>
-      <c r="U4">
-        <v>124</v>
-      </c>
-      <c r="V4">
-        <v>124</v>
-      </c>
-      <c r="W4">
-        <v>124</v>
-      </c>
-      <c r="X4">
-        <v>124</v>
-      </c>
-      <c r="Y4">
-        <v>125</v>
-      </c>
-      <c r="Z4">
-        <v>125</v>
-      </c>
-      <c r="AA4">
-        <v>125</v>
-      </c>
-      <c r="AB4">
-        <v>125</v>
-      </c>
-      <c r="AC4">
-        <v>126</v>
-      </c>
-      <c r="AD4">
-        <v>126</v>
-      </c>
-      <c r="AE4">
-        <v>126</v>
-      </c>
-      <c r="AF4">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2643</v>
-      </c>
-      <c r="B5">
-        <v>2667</v>
-      </c>
-      <c r="C5">
-        <v>2672</v>
-      </c>
-      <c r="D5">
-        <v>2687</v>
-      </c>
-      <c r="E5">
-        <v>2708</v>
-      </c>
-      <c r="F5">
-        <v>2714</v>
-      </c>
-      <c r="G5">
-        <v>2722</v>
-      </c>
-      <c r="H5">
-        <v>2727</v>
-      </c>
-      <c r="I5">
-        <v>2735</v>
-      </c>
-      <c r="J5">
-        <v>2748</v>
-      </c>
-      <c r="K5">
-        <v>2754</v>
-      </c>
-      <c r="L5">
-        <v>2760</v>
-      </c>
-      <c r="M5">
-        <v>2764</v>
-      </c>
-      <c r="N5">
-        <v>2770</v>
-      </c>
-      <c r="O5">
-        <v>2777</v>
-      </c>
-      <c r="P5">
-        <v>2800</v>
-      </c>
-      <c r="Q5">
-        <v>2804</v>
-      </c>
-      <c r="R5">
-        <v>2811</v>
-      </c>
-      <c r="S5">
-        <v>2818</v>
-      </c>
-      <c r="T5">
-        <v>2823</v>
-      </c>
-      <c r="U5">
-        <v>2825</v>
-      </c>
-      <c r="V5">
-        <v>2832</v>
-      </c>
-      <c r="W5">
-        <v>2838</v>
-      </c>
-      <c r="X5">
-        <v>2844</v>
-      </c>
-      <c r="Y5">
-        <v>2849</v>
-      </c>
-      <c r="Z5">
-        <v>2853</v>
-      </c>
-      <c r="AA5">
-        <v>2860</v>
-      </c>
-      <c r="AB5">
-        <v>2861</v>
-      </c>
-      <c r="AC5">
-        <v>2867</v>
-      </c>
-      <c r="AD5">
-        <v>2873</v>
-      </c>
-      <c r="AE5">
-        <v>2875</v>
-      </c>
-      <c r="AF5">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>436</v>
-      </c>
-      <c r="B6">
-        <v>437</v>
-      </c>
-      <c r="C6">
-        <v>438</v>
-      </c>
-      <c r="D6">
-        <v>438</v>
-      </c>
-      <c r="E6">
-        <v>439</v>
-      </c>
-      <c r="F6">
-        <v>439</v>
-      </c>
-      <c r="G6">
-        <v>439</v>
-      </c>
-      <c r="H6">
-        <v>440</v>
-      </c>
-      <c r="I6">
-        <v>440</v>
-      </c>
-      <c r="J6">
-        <v>440</v>
-      </c>
-      <c r="K6">
-        <v>440</v>
-      </c>
-      <c r="L6">
-        <v>440</v>
-      </c>
-      <c r="M6">
-        <v>440</v>
-      </c>
-      <c r="N6">
-        <v>440</v>
-      </c>
-      <c r="O6">
-        <v>440</v>
-      </c>
-      <c r="P6">
-        <v>440</v>
-      </c>
-      <c r="Q6">
-        <v>441</v>
-      </c>
-      <c r="R6">
-        <v>441</v>
-      </c>
-      <c r="S6">
-        <v>441</v>
-      </c>
-      <c r="T6">
-        <v>441</v>
-      </c>
-      <c r="U6">
-        <v>441</v>
-      </c>
-      <c r="V6">
-        <v>441</v>
-      </c>
-      <c r="W6">
-        <v>441</v>
-      </c>
-      <c r="X6">
-        <v>441</v>
-      </c>
-      <c r="Y6">
-        <v>442</v>
-      </c>
-      <c r="Z6">
-        <v>442</v>
-      </c>
-      <c r="AA6">
-        <v>442</v>
-      </c>
-      <c r="AB6">
-        <v>442</v>
-      </c>
-      <c r="AC6">
-        <v>442</v>
-      </c>
-      <c r="AD6">
-        <v>443</v>
-      </c>
-      <c r="AE6">
-        <v>443</v>
-      </c>
-      <c r="AF6">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="H39" s="2">
+        <v>43920</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1363</v>
+      </c>
+      <c r="J39" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2">
+        <v>43919</v>
+      </c>
+      <c r="D40" s="3">
+        <v>176</v>
+      </c>
+      <c r="E40" s="3">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G40" s="3">
+        <v>525</v>
+      </c>
+      <c r="H40" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1419</v>
+      </c>
+      <c r="J40" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2">
+        <v>43920</v>
+      </c>
+      <c r="D41" s="3">
+        <v>185</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2">
+        <v>43922</v>
+      </c>
+      <c r="G41" s="3">
+        <v>538</v>
+      </c>
+      <c r="H41" s="2">
+        <v>43922</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1476</v>
+      </c>
+      <c r="J41" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2">
+        <v>43921</v>
+      </c>
+      <c r="D42" s="3">
+        <v>191</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2">
+        <v>43923</v>
+      </c>
+      <c r="G42" s="3">
+        <v>559</v>
+      </c>
+      <c r="H42" s="2">
+        <v>43923</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1528</v>
+      </c>
+      <c r="J42" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D43" s="3">
+        <v>195</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2">
+        <v>43924</v>
+      </c>
+      <c r="G43" s="3">
+        <v>580</v>
+      </c>
+      <c r="H43" s="2">
+        <v>43924</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1570</v>
+      </c>
+      <c r="J43" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2">
+        <v>43923</v>
+      </c>
+      <c r="D44" s="3">
+        <v>208</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2">
+        <v>43925</v>
+      </c>
+      <c r="G44" s="3">
+        <v>585</v>
+      </c>
+      <c r="H44" s="2">
+        <v>43925</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1599</v>
+      </c>
+      <c r="J44" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2">
+        <v>43924</v>
+      </c>
+      <c r="D45" s="3">
+        <v>218</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2">
+        <v>43926</v>
+      </c>
+      <c r="G45" s="3">
+        <v>588</v>
+      </c>
+      <c r="H45" s="2">
+        <v>43926</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1624</v>
+      </c>
+      <c r="J45" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2">
+        <v>43925</v>
+      </c>
+      <c r="D46" s="3">
+        <v>224</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6</v>
+      </c>
+      <c r="F46" s="2">
+        <v>43927</v>
+      </c>
+      <c r="G46" s="3">
+        <v>619</v>
+      </c>
+      <c r="H46" s="2">
+        <v>43927</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1664</v>
+      </c>
+      <c r="J46" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2">
+        <v>43926</v>
+      </c>
+      <c r="D47" s="3">
+        <v>229</v>
+      </c>
+      <c r="E47" s="3">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2">
+        <v>43928</v>
+      </c>
+      <c r="G47" s="3">
+        <v>633</v>
+      </c>
+      <c r="H47" s="2">
+        <v>43928</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2">
+        <v>43927</v>
+      </c>
+      <c r="D48" s="3">
+        <v>234</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2">
+        <v>43929</v>
+      </c>
+      <c r="G48" s="3">
+        <v>649</v>
+      </c>
+      <c r="H48" s="2">
+        <v>43929</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1725</v>
+      </c>
+      <c r="J48" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2">
+        <v>43928</v>
+      </c>
+      <c r="D49" s="3">
+        <v>236</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>43930</v>
+      </c>
+      <c r="G49" s="3">
+        <v>669</v>
+      </c>
+      <c r="H49" s="2">
+        <v>43930</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1751</v>
+      </c>
+      <c r="J49" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2">
+        <v>43929</v>
+      </c>
+      <c r="D50" s="3">
+        <v>239</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2">
+        <v>43931</v>
+      </c>
+      <c r="G50" s="3">
+        <v>671</v>
+      </c>
+      <c r="H50" s="2">
+        <v>43931</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1768</v>
+      </c>
+      <c r="J50" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2">
+        <v>43930</v>
+      </c>
+      <c r="D51" s="3">
+        <v>240</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>43932</v>
+      </c>
+      <c r="G51" s="3">
+        <v>705</v>
+      </c>
+      <c r="H51" s="2">
+        <v>43932</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1787</v>
+      </c>
+      <c r="J51" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2">
+        <v>43931</v>
+      </c>
+      <c r="D52" s="3">
+        <v>241</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>43933</v>
+      </c>
+      <c r="G52" s="3">
+        <v>712</v>
+      </c>
+      <c r="H52" s="2">
+        <v>43933</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1809</v>
+      </c>
+      <c r="J52" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2">
+        <v>43932</v>
+      </c>
+      <c r="D53" s="3">
+        <v>247</v>
+      </c>
+      <c r="E53" s="3">
+        <v>6</v>
+      </c>
+      <c r="F53" s="2">
+        <v>43934</v>
+      </c>
+      <c r="G53" s="3">
+        <v>720</v>
+      </c>
+      <c r="H53" s="2">
+        <v>43934</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1830</v>
+      </c>
+      <c r="J53" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="2">
+        <v>43933</v>
+      </c>
+      <c r="D54" s="3">
+        <v>248</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>43935</v>
+      </c>
+      <c r="G54" s="3">
+        <v>755</v>
+      </c>
+      <c r="H54" s="2">
+        <v>43935</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1855</v>
+      </c>
+      <c r="J54" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2">
+        <v>43934</v>
+      </c>
+      <c r="D55" s="3">
+        <v>250</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2">
+        <v>43936</v>
+      </c>
+      <c r="G55" s="3">
+        <v>771</v>
+      </c>
+      <c r="H55" s="2">
+        <v>43936</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1878</v>
+      </c>
+      <c r="J55" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2">
+        <v>43935</v>
+      </c>
+      <c r="D56" s="3">
+        <v>251</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>43937</v>
+      </c>
+      <c r="G56" s="3">
+        <v>786</v>
+      </c>
+      <c r="H56" s="2">
+        <v>43937</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1894</v>
+      </c>
+      <c r="J56" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2">
+        <v>43936</v>
+      </c>
+      <c r="D57" s="3">
         <v>252</v>
       </c>
-      <c r="B7">
-        <v>252</v>
-      </c>
-      <c r="C7">
-        <v>252</v>
-      </c>
-      <c r="D7">
-        <v>252</v>
-      </c>
-      <c r="E7">
-        <v>252</v>
-      </c>
-      <c r="F7">
-        <v>252</v>
-      </c>
-      <c r="G7">
-        <v>252</v>
-      </c>
-      <c r="H7">
-        <v>253</v>
-      </c>
-      <c r="I7">
-        <v>253</v>
-      </c>
-      <c r="J7">
-        <v>253</v>
-      </c>
-      <c r="K7">
-        <v>253</v>
-      </c>
-      <c r="L7">
-        <v>253</v>
-      </c>
-      <c r="M7">
-        <v>253</v>
-      </c>
-      <c r="N7">
-        <v>253</v>
-      </c>
-      <c r="O7">
-        <v>253</v>
-      </c>
-      <c r="P7">
-        <v>253</v>
-      </c>
-      <c r="Q7">
-        <v>253</v>
-      </c>
-      <c r="R7">
-        <v>253</v>
-      </c>
-      <c r="S7">
-        <v>253</v>
-      </c>
-      <c r="T7">
-        <v>253</v>
-      </c>
-      <c r="U7">
-        <v>253</v>
-      </c>
-      <c r="V7">
-        <v>253</v>
-      </c>
-      <c r="W7">
-        <v>253</v>
-      </c>
-      <c r="X7">
-        <v>253</v>
-      </c>
-      <c r="Y7">
-        <v>253</v>
-      </c>
-      <c r="Z7">
-        <v>253</v>
-      </c>
-      <c r="AA7">
-        <v>253</v>
-      </c>
-      <c r="AB7">
-        <v>253</v>
-      </c>
-      <c r="AC7">
-        <v>253</v>
-      </c>
-      <c r="AD7">
-        <v>253</v>
-      </c>
-      <c r="AE7">
-        <v>253</v>
-      </c>
-      <c r="AF7">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>532</v>
-      </c>
-      <c r="B8">
-        <v>532</v>
-      </c>
-      <c r="C8">
-        <v>532</v>
-      </c>
-      <c r="D8">
-        <v>532</v>
-      </c>
-      <c r="E8">
-        <v>532</v>
-      </c>
-      <c r="F8">
-        <v>532</v>
-      </c>
-      <c r="G8">
-        <v>532</v>
-      </c>
-      <c r="H8">
-        <v>532</v>
-      </c>
-      <c r="I8">
-        <v>532</v>
-      </c>
-      <c r="J8">
-        <v>532</v>
-      </c>
-      <c r="K8">
-        <v>532</v>
-      </c>
-      <c r="L8">
-        <v>532</v>
-      </c>
-      <c r="M8">
-        <v>532</v>
-      </c>
-      <c r="N8">
-        <v>532</v>
-      </c>
-      <c r="O8">
-        <v>532</v>
-      </c>
-      <c r="P8">
-        <v>533</v>
-      </c>
-      <c r="Q8">
-        <v>533</v>
-      </c>
-      <c r="R8">
-        <v>533</v>
-      </c>
-      <c r="S8">
-        <v>534</v>
-      </c>
-      <c r="T8">
-        <v>534</v>
-      </c>
-      <c r="U8">
-        <v>534</v>
-      </c>
-      <c r="V8">
-        <v>536</v>
-      </c>
-      <c r="W8">
-        <v>536</v>
-      </c>
-      <c r="X8">
-        <v>536</v>
-      </c>
-      <c r="Y8">
-        <v>536</v>
-      </c>
-      <c r="Z8">
-        <v>536</v>
-      </c>
-      <c r="AA8">
-        <v>536</v>
-      </c>
-      <c r="AB8">
-        <v>536</v>
-      </c>
-      <c r="AC8">
-        <v>536</v>
-      </c>
-      <c r="AD8">
-        <v>536</v>
-      </c>
-      <c r="AE8">
-        <v>536</v>
-      </c>
-      <c r="AF8">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>43938</v>
+      </c>
+      <c r="G57" s="3">
+        <v>796</v>
+      </c>
+      <c r="H57" s="2">
+        <v>43938</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1930</v>
+      </c>
+      <c r="J57" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2">
+        <v>43937</v>
+      </c>
+      <c r="D58" s="3">
+        <v>259</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7</v>
+      </c>
+      <c r="F58" s="2">
+        <v>43939</v>
+      </c>
+      <c r="G58" s="3">
+        <v>803</v>
+      </c>
+      <c r="H58" s="2">
+        <v>43939</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1938</v>
+      </c>
+      <c r="J58" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2">
+        <v>43938</v>
+      </c>
+      <c r="D59" s="3">
+        <v>260</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>43940</v>
+      </c>
+      <c r="G59" s="3">
+        <v>804</v>
+      </c>
+      <c r="H59" s="2">
+        <v>43940</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1942</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2">
+        <v>43939</v>
+      </c>
+      <c r="D60" s="3">
+        <v>261</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>43941</v>
+      </c>
+      <c r="G60" s="3">
+        <v>810</v>
+      </c>
+      <c r="H60" s="2">
+        <v>43941</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1965</v>
+      </c>
+      <c r="J60" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="2">
+        <v>43940</v>
+      </c>
+      <c r="D61" s="3">
+        <v>261</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>43942</v>
+      </c>
+      <c r="G61" s="3">
+        <v>821</v>
+      </c>
+      <c r="H61" s="2">
+        <v>43942</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1981</v>
+      </c>
+      <c r="J61" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="2">
+        <v>43941</v>
+      </c>
+      <c r="D62" s="3">
+        <v>262</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>43943</v>
+      </c>
+      <c r="G62" s="3">
+        <v>827</v>
+      </c>
+      <c r="H62" s="2">
+        <v>43943</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1999</v>
+      </c>
+      <c r="J62" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="2">
+        <v>43942</v>
+      </c>
+      <c r="D63" s="3">
+        <v>263</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>43944</v>
+      </c>
+      <c r="G63" s="3">
+        <v>830</v>
+      </c>
+      <c r="H63" s="2">
+        <v>43944</v>
+      </c>
+      <c r="I63" s="3">
+        <v>2012</v>
+      </c>
+      <c r="J63" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="2">
+        <v>43943</v>
+      </c>
+      <c r="D64" s="3">
+        <v>266</v>
+      </c>
+      <c r="E64" s="3">
+        <v>3</v>
+      </c>
+      <c r="F64" s="2">
+        <v>43945</v>
+      </c>
+      <c r="G64" s="3">
+        <v>837</v>
+      </c>
+      <c r="H64" s="2">
+        <v>43945</v>
+      </c>
+      <c r="I64" s="3">
+        <v>2025</v>
+      </c>
+      <c r="J64" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="2">
+        <v>43944</v>
+      </c>
+      <c r="D65" s="3">
+        <v>270</v>
+      </c>
+      <c r="E65" s="3">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2">
+        <v>43946</v>
+      </c>
+      <c r="G65" s="3">
+        <v>840</v>
+      </c>
+      <c r="H65" s="2">
+        <v>43946</v>
+      </c>
+      <c r="I65" s="3">
+        <v>2028</v>
+      </c>
+      <c r="J65" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="2">
+        <v>43945</v>
+      </c>
+      <c r="D66" s="3">
+        <v>270</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>43947</v>
+      </c>
+      <c r="G66" s="3">
+        <v>841</v>
+      </c>
+      <c r="H66" s="2">
+        <v>43947</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2032</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="2">
+        <v>43946</v>
+      </c>
+      <c r="D67" s="3">
+        <v>271</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>43948</v>
+      </c>
+      <c r="G67" s="3">
+        <v>852</v>
+      </c>
+      <c r="H67" s="2">
+        <v>43948</v>
+      </c>
+      <c r="I67" s="3">
+        <v>2050</v>
+      </c>
+      <c r="J67" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="2">
+        <v>43947</v>
+      </c>
+      <c r="D68" s="3">
+        <v>271</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>43949</v>
+      </c>
+      <c r="G68" s="3">
+        <v>856</v>
+      </c>
+      <c r="H68" s="2">
+        <v>43949</v>
+      </c>
+      <c r="I68" s="3">
+        <v>2066</v>
+      </c>
+      <c r="J68" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="2">
+        <v>43948</v>
+      </c>
+      <c r="D69" s="3">
+        <v>271</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>43950</v>
+      </c>
+      <c r="G69" s="3">
+        <v>859</v>
+      </c>
+      <c r="H69" s="2">
+        <v>43950</v>
+      </c>
+      <c r="I69" s="3">
+        <v>2073</v>
+      </c>
+      <c r="J69" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="2">
+        <v>43949</v>
+      </c>
+      <c r="D70" s="3">
+        <v>273</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2">
+        <v>43951</v>
+      </c>
+      <c r="G70" s="3">
+        <v>863</v>
+      </c>
+      <c r="H70" s="2">
+        <v>43951</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2083</v>
+      </c>
+      <c r="J70" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="2">
+        <v>43950</v>
+      </c>
+      <c r="D71" s="3">
+        <v>274</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>43952</v>
+      </c>
+      <c r="G71" s="3">
+        <v>864</v>
+      </c>
+      <c r="H71" s="2">
+        <v>43952</v>
+      </c>
+      <c r="I71" s="3">
+        <v>2086</v>
+      </c>
+      <c r="J71" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="2">
+        <v>43951</v>
+      </c>
+      <c r="D72" s="3">
+        <v>275</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>43953</v>
+      </c>
+      <c r="G72" s="3">
+        <v>867</v>
+      </c>
+      <c r="H72" s="2">
+        <v>43953</v>
+      </c>
+      <c r="I72" s="3">
+        <v>2093</v>
+      </c>
+      <c r="J72" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D73" s="3">
+        <v>275</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>43954</v>
+      </c>
+      <c r="G73" s="3">
+        <v>869</v>
+      </c>
+      <c r="H73" s="2">
+        <v>43954</v>
+      </c>
+      <c r="I73" s="3">
+        <v>2102</v>
+      </c>
+      <c r="J73" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="2">
+        <v>43953</v>
+      </c>
+      <c r="D74" s="3">
+        <v>275</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>43955</v>
+      </c>
+      <c r="G74" s="3">
+        <v>869</v>
+      </c>
+      <c r="H74" s="2">
+        <v>43955</v>
+      </c>
+      <c r="I74" s="3">
+        <v>2120</v>
+      </c>
+      <c r="J74" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="2">
+        <v>43954</v>
+      </c>
+      <c r="D75" s="3">
+        <v>275</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>43956</v>
+      </c>
+      <c r="G75" s="3">
+        <v>871</v>
+      </c>
+      <c r="H75" s="2">
+        <v>43956</v>
+      </c>
+      <c r="I75" s="3">
+        <v>2133</v>
+      </c>
+      <c r="J75" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="2">
+        <v>43955</v>
+      </c>
+      <c r="D76" s="3">
+        <v>275</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>43957</v>
+      </c>
+      <c r="G76" s="3">
+        <v>872</v>
+      </c>
+      <c r="H76" s="2">
+        <v>43957</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2144</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="2">
+        <v>43956</v>
+      </c>
+      <c r="D77" s="3">
+        <v>276</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>43958</v>
+      </c>
+      <c r="G77" s="3">
+        <v>873</v>
+      </c>
+      <c r="H77" s="2">
+        <v>43958</v>
+      </c>
+      <c r="I77" s="3">
+        <v>2156</v>
+      </c>
+      <c r="J77" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="2">
+        <v>43957</v>
+      </c>
+      <c r="D78" s="3">
+        <v>277</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>43959</v>
+      </c>
+      <c r="G78" s="3">
+        <v>874</v>
+      </c>
+      <c r="H78" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I78" s="3">
+        <v>2175</v>
+      </c>
+      <c r="J78" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="2">
+        <v>43958</v>
+      </c>
+      <c r="D79" s="3">
+        <v>278</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>43960</v>
+      </c>
+      <c r="G79" s="3">
+        <v>875</v>
+      </c>
+      <c r="H79" s="2">
+        <v>43960</v>
+      </c>
+      <c r="I79" s="3">
+        <v>2178</v>
+      </c>
+      <c r="J79" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="2">
+        <v>43959</v>
+      </c>
+      <c r="D80" s="3">
+        <v>278</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43961</v>
+      </c>
+      <c r="G80" s="3">
+        <v>875</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43961</v>
+      </c>
+      <c r="I80" s="3">
+        <v>2179</v>
+      </c>
+      <c r="J80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="2">
+        <v>43960</v>
+      </c>
+      <c r="D81" s="3">
+        <v>278</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>43962</v>
+      </c>
+      <c r="G81" s="3">
+        <v>876</v>
+      </c>
+      <c r="H81" s="2">
+        <v>43962</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2188</v>
+      </c>
+      <c r="J81" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="2">
+        <v>43961</v>
+      </c>
+      <c r="D82" s="3">
+        <v>278</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>43963</v>
+      </c>
+      <c r="G82" s="3">
+        <v>876</v>
+      </c>
+      <c r="H82" s="2">
+        <v>43963</v>
+      </c>
+      <c r="I82" s="3">
+        <v>2195</v>
+      </c>
+      <c r="J82" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="2">
+        <v>43962</v>
+      </c>
+      <c r="D83" s="3">
+        <v>278</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>43964</v>
+      </c>
+      <c r="G83" s="3">
+        <v>876</v>
+      </c>
+      <c r="H83" s="2">
+        <v>43964</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2205</v>
+      </c>
+      <c r="J83" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="2">
+        <v>43963</v>
+      </c>
+      <c r="D84" s="3">
+        <v>280</v>
+      </c>
+      <c r="E84" s="3">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2">
+        <v>43965</v>
+      </c>
+      <c r="G84" s="3">
+        <v>876</v>
+      </c>
+      <c r="H84" s="2">
+        <v>43965</v>
+      </c>
+      <c r="I84" s="3">
+        <v>2212</v>
+      </c>
+      <c r="J84" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="2">
+        <v>43964</v>
+      </c>
+      <c r="D85" s="3">
+        <v>281</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>43966</v>
+      </c>
+      <c r="G85" s="3">
+        <v>876</v>
+      </c>
+      <c r="H85" s="2">
+        <v>43966</v>
+      </c>
+      <c r="I85" s="3">
+        <v>2222</v>
+      </c>
+      <c r="J85" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="2">
+        <v>43965</v>
+      </c>
+      <c r="D86" s="3">
+        <v>281</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>43967</v>
+      </c>
+      <c r="G86" s="3">
+        <v>876</v>
+      </c>
+      <c r="H86" s="2">
+        <v>43967</v>
+      </c>
+      <c r="I86" s="3">
+        <v>2228</v>
+      </c>
+      <c r="J86" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D87" s="3">
+        <v>282</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G87" s="3">
+        <v>876</v>
+      </c>
+      <c r="H87" s="2">
+        <v>43968</v>
+      </c>
+      <c r="I87" s="3">
+        <v>2230</v>
+      </c>
+      <c r="J87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="2">
+        <v>43967</v>
+      </c>
+      <c r="D88" s="3">
+        <v>282</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>43969</v>
+      </c>
+      <c r="G88" s="3">
+        <v>877</v>
+      </c>
+      <c r="H88" s="2">
+        <v>43969</v>
+      </c>
+      <c r="I88" s="3">
+        <v>2240</v>
+      </c>
+      <c r="J88" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="2">
+        <v>43968</v>
+      </c>
+      <c r="D89" s="3">
+        <v>282</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>43970</v>
+      </c>
+      <c r="G89" s="3">
+        <v>878</v>
+      </c>
+      <c r="H89" s="2">
+        <v>43970</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2247</v>
+      </c>
+      <c r="J89" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="2">
+        <v>43969</v>
+      </c>
+      <c r="D90" s="3">
+        <v>282</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>43971</v>
+      </c>
+      <c r="G90" s="3">
+        <v>878</v>
+      </c>
+      <c r="H90" s="2">
+        <v>43971</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2255</v>
+      </c>
+      <c r="J90" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="2">
+        <v>43970</v>
+      </c>
+      <c r="D91" s="3">
+        <v>284</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2</v>
+      </c>
+      <c r="F91" s="2">
+        <v>43972</v>
+      </c>
+      <c r="G91" s="3">
+        <v>878</v>
+      </c>
+      <c r="H91" s="2">
+        <v>43972</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2256</v>
+      </c>
+      <c r="J91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="2">
+        <v>43971</v>
+      </c>
+      <c r="D92" s="3">
+        <v>284</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>43973</v>
+      </c>
+      <c r="G92" s="3">
+        <v>879</v>
+      </c>
+      <c r="H92" s="2">
+        <v>43973</v>
+      </c>
+      <c r="I92" s="3">
+        <v>2266</v>
+      </c>
+      <c r="J92" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="2">
+        <v>43972</v>
+      </c>
+      <c r="D93" s="3">
+        <v>285</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <v>43974</v>
+      </c>
+      <c r="G93" s="3">
+        <v>879</v>
+      </c>
+      <c r="H93" s="2">
+        <v>43974</v>
+      </c>
+      <c r="I93" s="3">
+        <v>2266</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="2">
+        <v>43973</v>
+      </c>
+      <c r="D94" s="3">
         <v>286</v>
       </c>
-      <c r="B9">
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2">
+        <v>43975</v>
+      </c>
+      <c r="G94" s="3">
+        <v>879</v>
+      </c>
+      <c r="H94" s="2">
+        <v>43975</v>
+      </c>
+      <c r="I94" s="3">
+        <v>2269</v>
+      </c>
+      <c r="J94" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="2">
+        <v>43974</v>
+      </c>
+      <c r="D95" s="3">
+        <v>286</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <v>43976</v>
+      </c>
+      <c r="G95" s="3">
+        <v>879</v>
+      </c>
+      <c r="H95" s="2">
+        <v>43976</v>
+      </c>
+      <c r="I95" s="3">
+        <v>2277</v>
+      </c>
+      <c r="J95" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="2">
+        <v>43975</v>
+      </c>
+      <c r="D96" s="3">
+        <v>286</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>43977</v>
+      </c>
+      <c r="G96" s="3">
+        <v>879</v>
+      </c>
+      <c r="H96" s="2">
+        <v>43977</v>
+      </c>
+      <c r="I96" s="3">
+        <v>2281</v>
+      </c>
+      <c r="J96" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="2">
+        <v>43976</v>
+      </c>
+      <c r="D97" s="3">
+        <v>286</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>43978</v>
+      </c>
+      <c r="G97" s="3">
+        <v>879</v>
+      </c>
+      <c r="H97" s="2">
+        <v>43978</v>
+      </c>
+      <c r="I97" s="3">
+        <v>2289</v>
+      </c>
+      <c r="J97" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="2">
+        <v>43977</v>
+      </c>
+      <c r="D98" s="3">
         <v>287</v>
       </c>
-      <c r="C9">
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>43979</v>
+      </c>
+      <c r="G98" s="3">
+        <v>879</v>
+      </c>
+      <c r="H98" s="2">
+        <v>43979</v>
+      </c>
+      <c r="I98" s="3">
+        <v>2292</v>
+      </c>
+      <c r="J98" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="2">
+        <v>43978</v>
+      </c>
+      <c r="D99" s="3">
         <v>287</v>
       </c>
-      <c r="D9">
+      <c r="E99" s="3">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <v>43980</v>
+      </c>
+      <c r="G99" s="3">
+        <v>879</v>
+      </c>
+      <c r="H99" s="2">
+        <v>43980</v>
+      </c>
+      <c r="I99" s="3">
+        <v>2295</v>
+      </c>
+      <c r="J99" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="2">
+        <v>43979</v>
+      </c>
+      <c r="D100" s="3">
         <v>287</v>
       </c>
-      <c r="E9">
-        <v>289</v>
-      </c>
-      <c r="F9">
-        <v>289</v>
-      </c>
-      <c r="G9">
-        <v>289</v>
-      </c>
-      <c r="H9">
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2">
+        <v>43981</v>
+      </c>
+      <c r="G100" s="3">
+        <v>879</v>
+      </c>
+      <c r="H100" s="2">
+        <v>43981</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2295</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="2">
+        <v>43980</v>
+      </c>
+      <c r="D101" s="3">
+        <v>287</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2">
+        <v>43982</v>
+      </c>
+      <c r="G101" s="3">
+        <v>879</v>
+      </c>
+      <c r="H101" s="2">
+        <v>43982</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2297</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="2">
+        <v>43981</v>
+      </c>
+      <c r="D102" s="3">
+        <v>287</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <v>43983</v>
+      </c>
+      <c r="G102" s="3">
+        <v>879</v>
+      </c>
+      <c r="H102" s="2">
+        <v>43983</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="2">
+        <v>43982</v>
+      </c>
+      <c r="D103" s="3">
+        <v>287</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2">
+        <v>43984</v>
+      </c>
+      <c r="G103" s="3">
+        <v>880</v>
+      </c>
+      <c r="H103" s="2">
+        <v>43984</v>
+      </c>
+      <c r="I103" s="3">
+        <v>2303</v>
+      </c>
+      <c r="J103" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D104" s="3">
+        <v>287</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2">
+        <v>43985</v>
+      </c>
+      <c r="G104" s="3">
+        <v>881</v>
+      </c>
+      <c r="H104" s="2">
+        <v>43985</v>
+      </c>
+      <c r="I104" s="3">
+        <v>2308</v>
+      </c>
+      <c r="J104" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="2">
+        <v>43984</v>
+      </c>
+      <c r="D105" s="3">
+        <v>288</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1</v>
+      </c>
+      <c r="F105" s="2">
+        <v>43986</v>
+      </c>
+      <c r="G105" s="3">
+        <v>881</v>
+      </c>
+      <c r="H105" s="2">
+        <v>43986</v>
+      </c>
+      <c r="I105" s="3">
+        <v>2309</v>
+      </c>
+      <c r="J105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="2">
+        <v>43985</v>
+      </c>
+      <c r="D106" s="3">
+        <v>288</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2">
+        <v>43987</v>
+      </c>
+      <c r="G106" s="3">
+        <v>882</v>
+      </c>
+      <c r="H106" s="2">
+        <v>43987</v>
+      </c>
+      <c r="I106" s="3">
+        <v>2313</v>
+      </c>
+      <c r="J106" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="2">
+        <v>43986</v>
+      </c>
+      <c r="D107" s="3">
+        <v>288</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2">
+        <v>43988</v>
+      </c>
+      <c r="G107" s="3">
+        <v>882</v>
+      </c>
+      <c r="H107" s="2">
+        <v>43988</v>
+      </c>
+      <c r="I107" s="3">
+        <v>2315</v>
+      </c>
+      <c r="J107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D108" s="3">
         <v>290</v>
       </c>
-      <c r="I9">
+      <c r="E108" s="3">
+        <v>2</v>
+      </c>
+      <c r="F108" s="2">
+        <v>43989</v>
+      </c>
+      <c r="G108" s="3">
+        <v>882</v>
+      </c>
+      <c r="H108" s="2">
+        <v>43989</v>
+      </c>
+      <c r="I108" s="3">
+        <v>2315</v>
+      </c>
+      <c r="J108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="2">
+        <v>43988</v>
+      </c>
+      <c r="D109" s="3">
         <v>290</v>
       </c>
-      <c r="J9">
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="2">
+        <v>43990</v>
+      </c>
+      <c r="G109" s="3">
+        <v>884</v>
+      </c>
+      <c r="H109" s="2">
+        <v>43990</v>
+      </c>
+      <c r="I109" s="3">
+        <v>2322</v>
+      </c>
+      <c r="J109" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="2">
+        <v>43989</v>
+      </c>
+      <c r="D110" s="3">
         <v>290</v>
       </c>
-      <c r="K9">
-        <v>290</v>
-      </c>
-      <c r="L9">
-        <v>290</v>
-      </c>
-      <c r="M9">
-        <v>290</v>
-      </c>
-      <c r="N9">
-        <v>290</v>
-      </c>
-      <c r="O9">
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2">
+        <v>43991</v>
+      </c>
+      <c r="G110" s="3">
+        <v>884</v>
+      </c>
+      <c r="H110" s="2">
+        <v>43991</v>
+      </c>
+      <c r="I110" s="3">
+        <v>2326</v>
+      </c>
+      <c r="J110" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="2">
+        <v>43990</v>
+      </c>
+      <c r="D111" s="3">
         <v>291</v>
       </c>
-      <c r="P9">
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2">
+        <v>43992</v>
+      </c>
+      <c r="G111" s="3">
+        <v>884</v>
+      </c>
+      <c r="H111" s="2">
+        <v>43992</v>
+      </c>
+      <c r="I111" s="3">
+        <v>2327</v>
+      </c>
+      <c r="J111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="2">
+        <v>43991</v>
+      </c>
+      <c r="D112" s="3">
+        <v>291</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="2">
+        <v>43993</v>
+      </c>
+      <c r="G112" s="3">
+        <v>884</v>
+      </c>
+      <c r="H112" s="2">
+        <v>43993</v>
+      </c>
+      <c r="I112" s="3">
+        <v>2330</v>
+      </c>
+      <c r="J112" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="2">
+        <v>43992</v>
+      </c>
+      <c r="D113" s="3">
+        <v>291</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2">
+        <v>43994</v>
+      </c>
+      <c r="G113" s="3">
+        <v>884</v>
+      </c>
+      <c r="H113" s="2">
+        <v>43994</v>
+      </c>
+      <c r="I113" s="3">
+        <v>2336</v>
+      </c>
+      <c r="J113" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="2">
+        <v>43993</v>
+      </c>
+      <c r="D114" s="3">
+        <v>291</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <v>43995</v>
+      </c>
+      <c r="G114" s="3">
+        <v>884</v>
+      </c>
+      <c r="H114" s="2">
+        <v>43995</v>
+      </c>
+      <c r="I114" s="3">
+        <v>2338</v>
+      </c>
+      <c r="J114" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="2">
+        <v>43994</v>
+      </c>
+      <c r="D115" s="3">
+        <v>291</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+      <c r="F115" s="2">
+        <v>43996</v>
+      </c>
+      <c r="G115" s="3">
+        <v>884</v>
+      </c>
+      <c r="H115" s="2">
+        <v>43996</v>
+      </c>
+      <c r="I115" s="3">
+        <v>2338</v>
+      </c>
+      <c r="J115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="2">
+        <v>43995</v>
+      </c>
+      <c r="D116" s="3">
+        <v>291</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <v>43997</v>
+      </c>
+      <c r="G116" s="3">
+        <v>884</v>
+      </c>
+      <c r="H116" s="2">
+        <v>43997</v>
+      </c>
+      <c r="I116" s="3">
+        <v>2347</v>
+      </c>
+      <c r="J116" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="2">
+        <v>43996</v>
+      </c>
+      <c r="D117" s="3">
+        <v>291</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="2">
+        <v>43998</v>
+      </c>
+      <c r="G117" s="3">
+        <v>884</v>
+      </c>
+      <c r="H117" s="2">
+        <v>43998</v>
+      </c>
+      <c r="I117" s="3">
+        <v>2356</v>
+      </c>
+      <c r="J117" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="2">
+        <v>43997</v>
+      </c>
+      <c r="D118" s="3">
         <v>292</v>
       </c>
-      <c r="Q9">
-        <v>292</v>
-      </c>
-      <c r="R9">
-        <v>292</v>
-      </c>
-      <c r="S9">
-        <v>295</v>
-      </c>
-      <c r="T9">
-        <v>295</v>
-      </c>
-      <c r="U9">
-        <v>295</v>
-      </c>
-      <c r="V9">
-        <v>295</v>
-      </c>
-      <c r="W9">
-        <v>295</v>
-      </c>
-      <c r="X9">
-        <v>295</v>
-      </c>
-      <c r="Y9">
-        <v>295</v>
-      </c>
-      <c r="Z9">
-        <v>295</v>
-      </c>
-      <c r="AA9">
-        <v>295</v>
-      </c>
-      <c r="AB9">
-        <v>295</v>
-      </c>
-      <c r="AC9">
-        <v>295</v>
-      </c>
-      <c r="AD9">
-        <v>295</v>
-      </c>
-      <c r="AE9">
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="2">
+        <v>43999</v>
+      </c>
+      <c r="G118" s="3">
+        <v>886</v>
+      </c>
+      <c r="H118" s="2">
+        <v>43999</v>
+      </c>
+      <c r="I118" s="3">
+        <v>2363</v>
+      </c>
+      <c r="J118" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="2">
+        <v>43998</v>
+      </c>
+      <c r="D119" s="3">
+        <v>293</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>44000</v>
+      </c>
+      <c r="G119" s="3">
+        <v>886</v>
+      </c>
+      <c r="H119" s="2">
+        <v>44000</v>
+      </c>
+      <c r="I119" s="3">
+        <v>2368</v>
+      </c>
+      <c r="J119" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="2">
+        <v>43999</v>
+      </c>
+      <c r="D120" s="3">
+        <v>293</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="2">
+        <v>44001</v>
+      </c>
+      <c r="G120" s="3">
+        <v>886</v>
+      </c>
+      <c r="H120" s="2">
+        <v>44001</v>
+      </c>
+      <c r="I120" s="3">
+        <v>2372</v>
+      </c>
+      <c r="J120" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="2">
+        <v>44000</v>
+      </c>
+      <c r="D121" s="3">
+        <v>293</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+      <c r="F121" s="2">
+        <v>44002</v>
+      </c>
+      <c r="G121" s="3">
+        <v>886</v>
+      </c>
+      <c r="H121" s="2">
+        <v>44002</v>
+      </c>
+      <c r="I121" s="3">
+        <v>2373</v>
+      </c>
+      <c r="J121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="2">
+        <v>44001</v>
+      </c>
+      <c r="D122" s="3">
         <v>296</v>
       </c>
-      <c r="AF9">
+      <c r="E122" s="3">
+        <v>3</v>
+      </c>
+      <c r="F122" s="2">
+        <v>44003</v>
+      </c>
+      <c r="G122" s="3">
+        <v>886</v>
+      </c>
+      <c r="H122" s="2">
+        <v>44003</v>
+      </c>
+      <c r="I122" s="3">
+        <v>2374</v>
+      </c>
+      <c r="J122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="2">
+        <v>44002</v>
+      </c>
+      <c r="D123" s="3">
         <v>296</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>879</v>
-      </c>
-      <c r="B10">
-        <v>880</v>
-      </c>
-      <c r="C10">
-        <v>881</v>
-      </c>
-      <c r="D10">
-        <v>881</v>
-      </c>
-      <c r="E10">
-        <v>882</v>
-      </c>
-      <c r="F10">
-        <v>882</v>
-      </c>
-      <c r="G10">
-        <v>882</v>
-      </c>
-      <c r="H10">
-        <v>884</v>
-      </c>
-      <c r="I10">
-        <v>884</v>
-      </c>
-      <c r="J10">
-        <v>884</v>
-      </c>
-      <c r="K10">
-        <v>884</v>
-      </c>
-      <c r="L10">
-        <v>884</v>
-      </c>
-      <c r="M10">
-        <v>884</v>
-      </c>
-      <c r="N10">
-        <v>884</v>
-      </c>
-      <c r="O10">
-        <v>884</v>
-      </c>
-      <c r="P10">
-        <v>884</v>
-      </c>
-      <c r="Q10">
-        <v>886</v>
-      </c>
-      <c r="R10">
-        <v>886</v>
-      </c>
-      <c r="S10">
-        <v>886</v>
-      </c>
-      <c r="T10">
-        <v>886</v>
-      </c>
-      <c r="U10">
-        <v>886</v>
-      </c>
-      <c r="V10">
+      <c r="E123" s="3">
+        <v>0</v>
+      </c>
+      <c r="F123" s="2">
+        <v>44004</v>
+      </c>
+      <c r="G123" s="3">
         <v>889</v>
       </c>
-      <c r="W10">
+      <c r="H123" s="2">
+        <v>44004</v>
+      </c>
+      <c r="I123" s="3">
+        <v>2388</v>
+      </c>
+      <c r="J123" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="2">
+        <v>44003</v>
+      </c>
+      <c r="D124" s="3">
+        <v>296</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2">
+        <v>44005</v>
+      </c>
+      <c r="G124" s="3">
         <v>889</v>
       </c>
-      <c r="X10">
+      <c r="H124" s="2">
+        <v>44005</v>
+      </c>
+      <c r="I124" s="3">
+        <v>2393</v>
+      </c>
+      <c r="J124" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="2">
+        <v>44004</v>
+      </c>
+      <c r="D125" s="3">
+        <v>296</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0</v>
+      </c>
+      <c r="F125" s="2">
+        <v>44006</v>
+      </c>
+      <c r="G125" s="3">
         <v>889</v>
       </c>
-      <c r="Y10">
+      <c r="H125" s="2">
+        <v>44006</v>
+      </c>
+      <c r="I125" s="3">
+        <v>2408</v>
+      </c>
+      <c r="J125" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="2">
+        <v>44005</v>
+      </c>
+      <c r="D126" s="3">
+        <v>296</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126" s="2">
+        <v>44007</v>
+      </c>
+      <c r="G126" s="3">
         <v>890</v>
       </c>
-      <c r="Z10">
+      <c r="H126" s="2">
+        <v>44007</v>
+      </c>
+      <c r="I126" s="3">
+        <v>2416</v>
+      </c>
+      <c r="J126" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="2">
+        <v>44006</v>
+      </c>
+      <c r="D127" s="3">
+        <v>296</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0</v>
+      </c>
+      <c r="F127" s="2">
+        <v>44008</v>
+      </c>
+      <c r="G127" s="3">
         <v>890</v>
       </c>
-      <c r="AA10">
+      <c r="H127" s="2">
+        <v>44008</v>
+      </c>
+      <c r="I127" s="3">
+        <v>2430</v>
+      </c>
+      <c r="J127" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="2">
+        <v>44007</v>
+      </c>
+      <c r="D128" s="3">
+        <v>296</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+      <c r="F128" s="2">
+        <v>44009</v>
+      </c>
+      <c r="G128" s="3">
         <v>890</v>
       </c>
-      <c r="AB10">
+      <c r="H128" s="2">
+        <v>44009</v>
+      </c>
+      <c r="I128" s="3">
+        <v>2433</v>
+      </c>
+      <c r="J128" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="2">
+        <v>44008</v>
+      </c>
+      <c r="D129" s="3">
+        <v>296</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0</v>
+      </c>
+      <c r="F129" s="2">
+        <v>44010</v>
+      </c>
+      <c r="G129" s="3">
         <v>890</v>
       </c>
-      <c r="AC10">
+      <c r="H129" s="2">
+        <v>44010</v>
+      </c>
+      <c r="I129" s="3">
+        <v>2433</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="2">
+        <v>44009</v>
+      </c>
+      <c r="D130" s="3">
+        <v>296</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F130" s="2">
+        <v>44011</v>
+      </c>
+      <c r="G130" s="3">
         <v>892</v>
       </c>
-      <c r="AD10">
+      <c r="H130" s="2">
+        <v>44011</v>
+      </c>
+      <c r="I130" s="3">
+        <v>2450</v>
+      </c>
+      <c r="J130" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="2">
+        <v>44010</v>
+      </c>
+      <c r="D131" s="3">
+        <v>296</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0</v>
+      </c>
+      <c r="F131" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G131" s="3">
         <v>892</v>
       </c>
-      <c r="AE10">
+      <c r="H131" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I131" s="3">
+        <v>2452</v>
+      </c>
+      <c r="J131" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="2">
+        <v>44011</v>
+      </c>
+      <c r="D132" s="3">
+        <v>296</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0</v>
+      </c>
+      <c r="F132" s="2">
+        <v>44013</v>
+      </c>
+      <c r="G132" s="3">
         <v>893</v>
       </c>
-      <c r="AF10">
+      <c r="H132" s="2">
+        <v>44013</v>
+      </c>
+      <c r="I132" s="3">
+        <v>2455</v>
+      </c>
+      <c r="J132" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="2">
+        <v>44012</v>
+      </c>
+      <c r="D133" s="3">
+        <v>296</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0</v>
+      </c>
+      <c r="F133" s="2">
+        <v>44014</v>
+      </c>
+      <c r="G133" s="3">
         <v>893</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2299</v>
-      </c>
-      <c r="B11">
-        <v>2302</v>
-      </c>
-      <c r="C11">
-        <v>2307</v>
-      </c>
-      <c r="D11">
-        <v>2308</v>
-      </c>
-      <c r="E11">
-        <v>2312</v>
-      </c>
-      <c r="F11">
-        <v>2315</v>
-      </c>
-      <c r="G11">
-        <v>2315</v>
-      </c>
-      <c r="H11">
-        <v>2322</v>
-      </c>
-      <c r="I11">
-        <v>2326</v>
-      </c>
-      <c r="J11">
-        <v>2327</v>
-      </c>
-      <c r="K11">
-        <v>2330</v>
-      </c>
-      <c r="L11">
-        <v>2336</v>
-      </c>
-      <c r="M11">
-        <v>2338</v>
-      </c>
-      <c r="N11">
-        <v>2338</v>
-      </c>
-      <c r="O11">
-        <v>2347</v>
-      </c>
-      <c r="P11">
-        <v>2356</v>
-      </c>
-      <c r="Q11">
-        <v>2363</v>
-      </c>
-      <c r="R11">
-        <v>2368</v>
-      </c>
-      <c r="S11">
-        <v>2372</v>
-      </c>
-      <c r="T11">
-        <v>2373</v>
-      </c>
-      <c r="U11">
-        <v>2374</v>
-      </c>
-      <c r="V11">
-        <v>2388</v>
-      </c>
-      <c r="W11">
-        <v>2393</v>
-      </c>
-      <c r="X11">
-        <v>2408</v>
-      </c>
-      <c r="Y11">
-        <v>2416</v>
-      </c>
-      <c r="Z11">
-        <v>2430</v>
-      </c>
-      <c r="AA11">
-        <v>2433</v>
-      </c>
-      <c r="AB11">
-        <v>2433</v>
-      </c>
-      <c r="AC11">
-        <v>2450</v>
-      </c>
-      <c r="AD11">
-        <v>2452</v>
-      </c>
-      <c r="AE11">
-        <v>2454</v>
-      </c>
-      <c r="AF11">
-        <v>2454</v>
+      <c r="H133" s="2">
+        <v>44014</v>
+      </c>
+      <c r="I133" s="3">
+        <v>2458</v>
+      </c>
+      <c r="J133" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D134" s="3">
+        <v>297</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <v>44015</v>
+      </c>
+      <c r="G134" s="3">
+        <v>893</v>
+      </c>
+      <c r="H134" s="2">
+        <v>44015</v>
+      </c>
+      <c r="I134" s="3">
+        <v>2463</v>
+      </c>
+      <c r="J134" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="2">
+        <v>44014</v>
+      </c>
+      <c r="D135" s="3">
+        <v>298</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <v>44016</v>
+      </c>
+      <c r="G135" s="3">
+        <v>893</v>
+      </c>
+      <c r="H135" s="2">
+        <v>44016</v>
+      </c>
+      <c r="I135" s="3">
+        <v>2464</v>
+      </c>
+      <c r="J135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="2">
+        <v>44015</v>
+      </c>
+      <c r="D136" s="3">
+        <v>298</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+      <c r="F136" s="2">
+        <v>44017</v>
+      </c>
+      <c r="G136" s="3">
+        <v>893</v>
+      </c>
+      <c r="H136" s="2">
+        <v>44017</v>
+      </c>
+      <c r="I136" s="3">
+        <v>2464</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="2">
+        <v>44016</v>
+      </c>
+      <c r="D137" s="3">
+        <v>298</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+      <c r="F137" s="2">
+        <v>44018</v>
+      </c>
+      <c r="G137" s="3">
+        <v>893</v>
+      </c>
+      <c r="H137" s="2">
+        <v>44018</v>
+      </c>
+      <c r="I137" s="3">
+        <v>2475</v>
+      </c>
+      <c r="J137" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="2">
+        <v>44017</v>
+      </c>
+      <c r="D138" s="3">
+        <v>298</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0</v>
+      </c>
+      <c r="F138" s="2">
+        <v>44019</v>
+      </c>
+      <c r="G138" s="3">
+        <v>893</v>
+      </c>
+      <c r="H138" s="2">
+        <v>44019</v>
+      </c>
+      <c r="I138" s="3">
+        <v>2479</v>
+      </c>
+      <c r="J138" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D139" s="3">
+        <v>299</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1</v>
+      </c>
+      <c r="F139" s="2">
+        <v>44020</v>
+      </c>
+      <c r="G139" s="3">
+        <v>893</v>
+      </c>
+      <c r="H139" s="2">
+        <v>44020</v>
+      </c>
+      <c r="I139" s="3">
+        <v>2482</v>
+      </c>
+      <c r="J139" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="2">
+        <v>44019</v>
+      </c>
+      <c r="D140" s="3">
+        <v>301</v>
+      </c>
+      <c r="E140" s="3">
+        <v>2</v>
+      </c>
+      <c r="F140" s="2">
+        <v>44021</v>
+      </c>
+      <c r="G140" s="3">
+        <v>895</v>
+      </c>
+      <c r="H140" s="2">
+        <v>44021</v>
+      </c>
+      <c r="I140" s="3">
+        <v>2483</v>
+      </c>
+      <c r="J140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="2">
+        <v>44020</v>
+      </c>
+      <c r="D141" s="3">
+        <v>301</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141" s="2">
+        <v>44022</v>
+      </c>
+      <c r="G141" s="3">
+        <v>895</v>
+      </c>
+      <c r="H141" s="2">
+        <v>44022</v>
+      </c>
+      <c r="I141" s="3">
+        <v>2487</v>
+      </c>
+      <c r="J141" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="2">
+        <v>44021</v>
+      </c>
+      <c r="D142" s="3">
+        <v>301</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="2">
+        <v>44023</v>
+      </c>
+      <c r="G142" s="3">
+        <v>895</v>
+      </c>
+      <c r="H142" s="2">
+        <v>44023</v>
+      </c>
+      <c r="I142" s="3">
+        <v>2487</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="2">
+        <v>44022</v>
+      </c>
+      <c r="D143" s="3">
+        <v>301</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0</v>
+      </c>
+      <c r="F143" s="2">
+        <v>44024</v>
+      </c>
+      <c r="G143" s="3">
+        <v>895</v>
+      </c>
+      <c r="H143" s="2">
+        <v>44024</v>
+      </c>
+      <c r="I143" s="3">
+        <v>2489</v>
+      </c>
+      <c r="J143" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="2">
+        <v>44023</v>
+      </c>
+      <c r="D144" s="3">
+        <v>301</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0</v>
+      </c>
+      <c r="F144" s="2">
+        <v>44025</v>
+      </c>
+      <c r="G144" s="3">
+        <v>895</v>
+      </c>
+      <c r="H144" s="2">
+        <v>44025</v>
+      </c>
+      <c r="I144" s="3">
+        <v>2496</v>
+      </c>
+      <c r="J144" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="2">
+        <v>44024</v>
+      </c>
+      <c r="D145" s="3">
+        <v>301</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0</v>
+      </c>
+      <c r="F145" s="2">
+        <v>44026</v>
+      </c>
+      <c r="G145" s="3">
+        <v>895</v>
+      </c>
+      <c r="H145" s="2">
+        <v>44026</v>
+      </c>
+      <c r="I145" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J145" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="2">
+        <v>44025</v>
+      </c>
+      <c r="D146" s="3">
+        <v>301</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0</v>
+      </c>
+      <c r="F146" s="2">
+        <v>44027</v>
+      </c>
+      <c r="G146" s="3">
+        <v>895</v>
+      </c>
+      <c r="H146" s="2">
+        <v>44027</v>
+      </c>
+      <c r="I146" s="3">
+        <v>2501</v>
+      </c>
+      <c r="J146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="2">
+        <v>44026</v>
+      </c>
+      <c r="D147" s="3">
+        <v>301</v>
+      </c>
+      <c r="E147" s="3">
+        <v>0</v>
+      </c>
+      <c r="F147" s="2">
+        <v>44028</v>
+      </c>
+      <c r="G147" s="3">
+        <v>895</v>
+      </c>
+      <c r="H147" s="2">
+        <v>44028</v>
+      </c>
+      <c r="I147" s="3">
+        <v>2501</v>
+      </c>
+      <c r="J147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="2">
+        <v>44027</v>
+      </c>
+      <c r="D148" s="3">
+        <v>301</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0</v>
+      </c>
+      <c r="F148" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G148" s="3">
+        <v>896</v>
+      </c>
+      <c r="H148" s="2">
+        <v>44029</v>
+      </c>
+      <c r="I148" s="3">
+        <v>2503</v>
+      </c>
+      <c r="J148" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="2">
+        <v>44028</v>
+      </c>
+      <c r="D149" s="3">
+        <v>301</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0</v>
+      </c>
+      <c r="F149" s="2">
+        <v>44030</v>
+      </c>
+      <c r="G149" s="3">
+        <v>896</v>
+      </c>
+      <c r="H149" s="2">
+        <v>44030</v>
+      </c>
+      <c r="I149" s="3">
+        <v>2503</v>
+      </c>
+      <c r="J149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="2">
+        <v>44029</v>
+      </c>
+      <c r="D150" s="3">
+        <v>301</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0</v>
+      </c>
+      <c r="F150" s="2">
+        <v>44031</v>
+      </c>
+      <c r="G150" s="3">
+        <v>896</v>
+      </c>
+      <c r="H150" s="2">
+        <v>44031</v>
+      </c>
+      <c r="I150" s="3">
+        <v>2503</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="1"/>
+      <c r="C151" s="2">
+        <v>44030</v>
+      </c>
+      <c r="D151" s="3">
+        <v>301</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="1"/>
+      <c r="C152" s="2">
+        <v>44031</v>
+      </c>
+      <c r="D152" s="3">
+        <v>301</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C240512-545C-DA4E-971F-E0462F37EE0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187A737C-46A2-C54C-9734-551A503B3F3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12180" yWindow="2240" windowWidth="27640" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187A737C-46A2-C54C-9734-551A503B3F3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2F8EC-0338-AD48-8208-25AB0E018526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="2240" windowWidth="27640" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
+    <workbookView xWindow="13320" yWindow="2800" windowWidth="27640" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Dato</t>
   </si>
@@ -62,18 +62,6 @@
   </si>
   <si>
     <t>Viken</t>
-  </si>
-  <si>
-    <t>Antall meldte covid-19 tilfeller etter prøvetakingsdato</t>
-  </si>
-  <si>
-    <t>Kumulativt antall</t>
-  </si>
-  <si>
-    <t>Nye tilfeller</t>
-  </si>
-  <si>
-    <t>21.02.20200022.02.20200023.02.20200024.02.20200025.02.20200026.02.20200027.02.20200028.02.20200029.02.20200001.03.20200002.03.20200003.03.20206604.03.202012605.03.202017506.03.202017007.03.202018108.03.202023509.03.2020381510.03.2020541611.03.2020641012.03.202067313.03.202070314.03.202079915.03.202087816.03.202096917.03.2020100418.03.20201191919.03.20201402120.03.20201692921.03.20201892022.03.2020191223.03.20202132224.03.20202362325.03.20202562026.03.20202772127.03.20202951828.03.20203121729.03.2020315330.03.20203251031.03.20203351001.04.20203471202.04.2020356903.04.2020364804.04.2020365105.04.2020369406.04.2020373407.04.20203841108.04.2020387309.04.2020389210.04.2020396711.04.2020396012.04.2020399313.04.2020401214.04.2020402115.04.2020406416.04.2020410417.04.2020414418.04.2020417319.04.2020418120.04.2020419121.04.2020428922.04.2020430223.04.20204411124.04.2020450925.04.2020457726.04.20204671027.04.2020470328.04.2020473329.04.2020477430.04.2020481401.05.20204951402.05.2020496103.05.2020500404.05.2020505505.05.2020507206.05.2020512507.05.2020515308.05.2020516109.05.2020517110.05.2020518111.05.2020520212.05.2020522213.05.2020522014.05.2020524215.05.2020525116.05.2020529417.05.2020530118.05.2020531119.05.2020531020.05.2020532121.05.2020532022.05.2020532023.05.2020532024.05.2020532025.05.2020532026.05.2020534227.05.2020534028.05.2020535129.05.2020535030.05.2020535031.05.2020535001.06.2020535002.06.2020535003.06.2020535004.06.2020535005.06.2020535006.06.2020535007.06.2020535008.06.2020535009.06.2020535010.06.2020535011.06.2020535012.06.2020535013.06.2020535014.06.2020535015.06.2020535016.06.2020536117.06.2020536018.06.2020536019.06.2020537120.06.2020537021.06.2020537022.06.2020539223.06.2020539024.06.2020539025.06.2020539026.06.2020539027.06.2020539028.06.2020539029.06.2020539030.06.2020539001.07.2020539002.07.2020540103.07.2020540004.07.2020540005.07.2020540006.07.2020540007.07.2020540008.07.2020541109.07.2020541010.07.2020541011.07.2020541012.07.2020541013.07.2020541014.07.2020542115.07.2020543116.07.2020545217.07.2020546118.07.2020546019.07.20205460</t>
   </si>
 </sst>
 </file>
@@ -446,7 +434,7 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6196,10 +6184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46004C74-2EDF-764B-8198-01B7AB12DF1A}">
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:FG152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I150"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6207,4225 +6195,1964 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="2">
-        <v>43882</v>
-      </c>
-      <c r="G1" s="3">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>43882</v>
-      </c>
-      <c r="I1" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43883</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43883</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="2">
-        <v>43882</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43884</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43884</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="2">
-        <v>43883</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>43885</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43885</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="2">
-        <v>43884</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43886</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43886</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="2">
-        <v>43885</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>43887</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43887</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="2">
-        <v>43886</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>43888</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43888</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
-      <c r="C8" s="2">
-        <v>43887</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>43889</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43889</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="2">
-        <v>43888</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>43890</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43890</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="2">
-        <v>43889</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>43891</v>
-      </c>
-      <c r="G10" s="3">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43891</v>
-      </c>
-      <c r="I10" s="3">
-        <v>6</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="1"/>
+      <c r="CG10" s="1"/>
+      <c r="CH10" s="1"/>
+      <c r="CI10" s="1"/>
+      <c r="CJ10" s="1"/>
+      <c r="CK10" s="1"/>
+      <c r="CL10" s="1"/>
+      <c r="CM10" s="1"/>
+      <c r="CN10" s="1"/>
+      <c r="CO10" s="1"/>
+      <c r="CP10" s="1"/>
+      <c r="CQ10" s="1"/>
+      <c r="CR10" s="1"/>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="1"/>
+      <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
+      <c r="CW10" s="1"/>
+      <c r="CX10" s="1"/>
+      <c r="CY10" s="1"/>
+      <c r="CZ10" s="1"/>
+      <c r="DA10" s="1"/>
+      <c r="DB10" s="1"/>
+      <c r="DC10" s="1"/>
+      <c r="DD10" s="1"/>
+      <c r="DE10" s="1"/>
+      <c r="DF10" s="1"/>
+      <c r="DG10" s="1"/>
+      <c r="DH10" s="1"/>
+      <c r="DI10" s="1"/>
+      <c r="DJ10" s="1"/>
+      <c r="DK10" s="1"/>
+      <c r="DL10" s="1"/>
+      <c r="DM10" s="1"/>
+      <c r="DN10" s="1"/>
+      <c r="DO10" s="1"/>
+      <c r="DP10" s="1"/>
+      <c r="DQ10" s="1"/>
+      <c r="DR10" s="1"/>
+      <c r="DS10" s="1"/>
+      <c r="DT10" s="1"/>
+      <c r="DU10" s="1"/>
+      <c r="DV10" s="1"/>
+      <c r="DW10" s="1"/>
+      <c r="DX10" s="1"/>
+      <c r="DY10" s="1"/>
+      <c r="DZ10" s="1"/>
+      <c r="EA10" s="1"/>
+      <c r="EB10" s="1"/>
+      <c r="EC10" s="1"/>
+      <c r="ED10" s="1"/>
+      <c r="EE10" s="1"/>
+      <c r="EF10" s="1"/>
+      <c r="EG10" s="1"/>
+      <c r="EH10" s="1"/>
+      <c r="EI10" s="1"/>
+      <c r="EJ10" s="1"/>
+      <c r="EK10" s="1"/>
+      <c r="EL10" s="1"/>
+      <c r="EM10" s="1"/>
+      <c r="EN10" s="1"/>
+      <c r="EO10" s="1"/>
+      <c r="EP10" s="1"/>
+      <c r="EQ10" s="1"/>
+      <c r="ER10" s="1"/>
+      <c r="ES10" s="1"/>
+      <c r="ET10" s="1"/>
+      <c r="EU10" s="1"/>
+      <c r="EV10" s="1"/>
+      <c r="EW10" s="1"/>
+      <c r="EX10" s="1"/>
+      <c r="EY10" s="1"/>
+      <c r="EZ10" s="1"/>
+      <c r="FA10" s="1"/>
+      <c r="FB10" s="1"/>
+      <c r="FC10" s="1"/>
+      <c r="FD10" s="1"/>
+      <c r="FE10" s="1"/>
+      <c r="FF10" s="1"/>
+      <c r="FG10" s="1"/>
+    </row>
+    <row r="11" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="2">
-        <v>43890</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>43892</v>
-      </c>
-      <c r="G11" s="3">
-        <v>13</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43892</v>
-      </c>
-      <c r="I11" s="3">
-        <v>8</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="2">
-        <v>43891</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>43893</v>
-      </c>
-      <c r="G12" s="3">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2">
-        <v>43893</v>
-      </c>
-      <c r="I12" s="3">
-        <v>16</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="2">
-        <v>43892</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>43894</v>
-      </c>
-      <c r="G13" s="3">
-        <v>24</v>
-      </c>
-      <c r="H13" s="2">
-        <v>43894</v>
-      </c>
-      <c r="I13" s="3">
-        <v>22</v>
-      </c>
-      <c r="J13" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="2">
-        <v>43893</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>43895</v>
-      </c>
-      <c r="G14" s="3">
-        <v>28</v>
-      </c>
-      <c r="H14" s="2">
-        <v>43895</v>
-      </c>
-      <c r="I14" s="3">
-        <v>27</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2">
-        <v>43894</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>43896</v>
-      </c>
-      <c r="G15" s="3">
-        <v>30</v>
-      </c>
-      <c r="H15" s="2">
-        <v>43896</v>
-      </c>
-      <c r="I15" s="3">
-        <v>36</v>
-      </c>
-      <c r="J15" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="2">
-        <v>43895</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>43897</v>
-      </c>
-      <c r="G16" s="3">
-        <v>30</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43897</v>
-      </c>
-      <c r="I16" s="3">
-        <v>40</v>
-      </c>
-      <c r="J16" s="3">
-        <v>4</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="2">
-        <v>43896</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>43898</v>
-      </c>
-      <c r="G17" s="3">
-        <v>31</v>
-      </c>
-      <c r="H17" s="2">
-        <v>43898</v>
-      </c>
-      <c r="I17" s="3">
-        <v>59</v>
-      </c>
-      <c r="J17" s="3">
-        <v>19</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="2">
-        <v>43897</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>43899</v>
-      </c>
-      <c r="G18" s="3">
-        <v>52</v>
-      </c>
-      <c r="H18" s="2">
-        <v>43899</v>
-      </c>
-      <c r="I18" s="3">
-        <v>131</v>
-      </c>
-      <c r="J18" s="3">
-        <v>72</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="2">
-        <v>43898</v>
-      </c>
-      <c r="D19" s="3">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G19" s="3">
-        <v>70</v>
-      </c>
-      <c r="H19" s="2">
-        <v>43900</v>
-      </c>
-      <c r="I19" s="3">
-        <v>176</v>
-      </c>
-      <c r="J19" s="3">
-        <v>45</v>
-      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="2">
-        <v>43899</v>
-      </c>
-      <c r="D20" s="3">
-        <v>21</v>
-      </c>
-      <c r="E20" s="3">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2">
-        <v>43901</v>
-      </c>
-      <c r="G20" s="3">
-        <v>86</v>
-      </c>
-      <c r="H20" s="2">
-        <v>43901</v>
-      </c>
-      <c r="I20" s="3">
-        <v>219</v>
-      </c>
-      <c r="J20" s="3">
-        <v>43</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="2">
-        <v>43900</v>
-      </c>
-      <c r="D21" s="3">
-        <v>35</v>
-      </c>
-      <c r="E21" s="3">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2">
-        <v>43902</v>
-      </c>
-      <c r="G21" s="3">
-        <v>113</v>
-      </c>
-      <c r="H21" s="2">
-        <v>43902</v>
-      </c>
-      <c r="I21" s="3">
-        <v>275</v>
-      </c>
-      <c r="J21" s="3">
-        <v>56</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="2">
-        <v>43901</v>
-      </c>
-      <c r="D22" s="3">
-        <v>46</v>
-      </c>
-      <c r="E22" s="3">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2">
-        <v>43903</v>
-      </c>
-      <c r="G22" s="3">
-        <v>129</v>
-      </c>
-      <c r="H22" s="2">
-        <v>43903</v>
-      </c>
-      <c r="I22" s="3">
-        <v>331</v>
-      </c>
-      <c r="J22" s="3">
-        <v>56</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="2">
-        <v>43902</v>
-      </c>
-      <c r="D23" s="3">
-        <v>60</v>
-      </c>
-      <c r="E23" s="3">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2">
-        <v>43904</v>
-      </c>
-      <c r="G23" s="3">
-        <v>135</v>
-      </c>
-      <c r="H23" s="2">
-        <v>43904</v>
-      </c>
-      <c r="I23" s="3">
-        <v>371</v>
-      </c>
-      <c r="J23" s="3">
-        <v>40</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="2">
-        <v>43903</v>
-      </c>
-      <c r="D24" s="3">
-        <v>65</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2">
-        <v>43905</v>
-      </c>
-      <c r="G24" s="3">
-        <v>151</v>
-      </c>
-      <c r="H24" s="2">
-        <v>43905</v>
-      </c>
-      <c r="I24" s="3">
-        <v>401</v>
-      </c>
-      <c r="J24" s="3">
-        <v>30</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="2">
-        <v>43904</v>
-      </c>
-      <c r="D25" s="3">
-        <v>68</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2">
-        <v>43906</v>
-      </c>
-      <c r="G25" s="3">
-        <v>176</v>
-      </c>
-      <c r="H25" s="2">
-        <v>43906</v>
-      </c>
-      <c r="I25" s="3">
-        <v>461</v>
-      </c>
-      <c r="J25" s="3">
-        <v>60</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="2">
-        <v>43905</v>
-      </c>
-      <c r="D26" s="3">
-        <v>72</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2">
-        <v>43907</v>
-      </c>
-      <c r="G26" s="3">
-        <v>195</v>
-      </c>
-      <c r="H26" s="2">
-        <v>43907</v>
-      </c>
-      <c r="I26" s="3">
-        <v>527</v>
-      </c>
-      <c r="J26" s="3">
-        <v>66</v>
-      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="2">
-        <v>43906</v>
-      </c>
-      <c r="D27" s="3">
-        <v>78</v>
-      </c>
-      <c r="E27" s="3">
-        <v>6</v>
-      </c>
-      <c r="F27" s="2">
-        <v>43908</v>
-      </c>
-      <c r="G27" s="3">
-        <v>217</v>
-      </c>
-      <c r="H27" s="2">
-        <v>43908</v>
-      </c>
-      <c r="I27" s="3">
-        <v>595</v>
-      </c>
-      <c r="J27" s="3">
-        <v>68</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="2">
-        <v>43907</v>
-      </c>
-      <c r="D28" s="3">
-        <v>87</v>
-      </c>
-      <c r="E28" s="3">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2">
-        <v>43909</v>
-      </c>
-      <c r="G28" s="3">
-        <v>253</v>
-      </c>
-      <c r="H28" s="2">
-        <v>43909</v>
-      </c>
-      <c r="I28" s="3">
-        <v>660</v>
-      </c>
-      <c r="J28" s="3">
-        <v>65</v>
-      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="2">
-        <v>43908</v>
-      </c>
-      <c r="D29" s="3">
-        <v>99</v>
-      </c>
-      <c r="E29" s="3">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2">
-        <v>43910</v>
-      </c>
-      <c r="G29" s="3">
-        <v>289</v>
-      </c>
-      <c r="H29" s="2">
-        <v>43910</v>
-      </c>
-      <c r="I29" s="3">
-        <v>732</v>
-      </c>
-      <c r="J29" s="3">
-        <v>72</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="2">
-        <v>43909</v>
-      </c>
-      <c r="D30" s="3">
-        <v>99</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>43911</v>
-      </c>
-      <c r="G30" s="3">
-        <v>305</v>
-      </c>
-      <c r="H30" s="2">
-        <v>43911</v>
-      </c>
-      <c r="I30" s="3">
-        <v>784</v>
-      </c>
-      <c r="J30" s="3">
-        <v>52</v>
-      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="2">
-        <v>43910</v>
-      </c>
-      <c r="D31" s="3">
-        <v>107</v>
-      </c>
-      <c r="E31" s="3">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2">
-        <v>43912</v>
-      </c>
-      <c r="G31" s="3">
-        <v>313</v>
-      </c>
-      <c r="H31" s="2">
-        <v>43912</v>
-      </c>
-      <c r="I31" s="3">
-        <v>838</v>
-      </c>
-      <c r="J31" s="3">
-        <v>54</v>
-      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="2">
-        <v>43911</v>
-      </c>
-      <c r="D32" s="3">
-        <v>109</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>43913</v>
-      </c>
-      <c r="G32" s="3">
-        <v>353</v>
-      </c>
-      <c r="H32" s="2">
-        <v>43913</v>
-      </c>
-      <c r="I32" s="3">
-        <v>908</v>
-      </c>
-      <c r="J32" s="3">
-        <v>70</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="2">
-        <v>43912</v>
-      </c>
-      <c r="D33" s="3">
-        <v>114</v>
-      </c>
-      <c r="E33" s="3">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2">
-        <v>43914</v>
-      </c>
-      <c r="G33" s="3">
-        <v>384</v>
-      </c>
-      <c r="H33" s="2">
-        <v>43914</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1001</v>
-      </c>
-      <c r="J33" s="3">
-        <v>93</v>
-      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="2">
-        <v>43913</v>
-      </c>
-      <c r="D34" s="3">
-        <v>125</v>
-      </c>
-      <c r="E34" s="3">
-        <v>11</v>
-      </c>
-      <c r="F34" s="2">
-        <v>43915</v>
-      </c>
-      <c r="G34" s="3">
-        <v>417</v>
-      </c>
-      <c r="H34" s="2">
-        <v>43915</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1081</v>
-      </c>
-      <c r="J34" s="3">
-        <v>80</v>
-      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="2">
-        <v>43914</v>
-      </c>
-      <c r="D35" s="3">
-        <v>134</v>
-      </c>
-      <c r="E35" s="3">
-        <v>9</v>
-      </c>
-      <c r="F35" s="2">
-        <v>43916</v>
-      </c>
-      <c r="G35" s="3">
-        <v>444</v>
-      </c>
-      <c r="H35" s="2">
-        <v>43916</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1141</v>
-      </c>
-      <c r="J35" s="3">
-        <v>60</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="2">
-        <v>43915</v>
-      </c>
-      <c r="D36" s="3">
-        <v>143</v>
-      </c>
-      <c r="E36" s="3">
-        <v>9</v>
-      </c>
-      <c r="F36" s="2">
-        <v>43917</v>
-      </c>
-      <c r="G36" s="3">
-        <v>466</v>
-      </c>
-      <c r="H36" s="2">
-        <v>43917</v>
-      </c>
-      <c r="I36" s="3">
-        <v>1207</v>
-      </c>
-      <c r="J36" s="3">
-        <v>66</v>
-      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="2">
-        <v>43916</v>
-      </c>
-      <c r="D37" s="3">
-        <v>151</v>
-      </c>
-      <c r="E37" s="3">
-        <v>8</v>
-      </c>
-      <c r="F37" s="2">
-        <v>43918</v>
-      </c>
-      <c r="G37" s="3">
-        <v>480</v>
-      </c>
-      <c r="H37" s="2">
-        <v>43918</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1245</v>
-      </c>
-      <c r="J37" s="3">
-        <v>38</v>
-      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="2">
-        <v>43917</v>
-      </c>
-      <c r="D38" s="3">
-        <v>162</v>
-      </c>
-      <c r="E38" s="3">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2">
-        <v>43919</v>
-      </c>
-      <c r="G38" s="3">
-        <v>482</v>
-      </c>
-      <c r="H38" s="2">
-        <v>43919</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1286</v>
-      </c>
-      <c r="J38" s="3">
-        <v>41</v>
-      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="2">
-        <v>43918</v>
-      </c>
-      <c r="D39" s="3">
-        <v>171</v>
-      </c>
-      <c r="E39" s="3">
-        <v>9</v>
-      </c>
-      <c r="F39" s="2">
-        <v>43920</v>
-      </c>
-      <c r="G39" s="3">
-        <v>509</v>
-      </c>
-      <c r="H39" s="2">
-        <v>43920</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1363</v>
-      </c>
-      <c r="J39" s="3">
-        <v>77</v>
-      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="2">
-        <v>43919</v>
-      </c>
-      <c r="D40" s="3">
-        <v>176</v>
-      </c>
-      <c r="E40" s="3">
-        <v>5</v>
-      </c>
-      <c r="F40" s="2">
-        <v>43921</v>
-      </c>
-      <c r="G40" s="3">
-        <v>525</v>
-      </c>
-      <c r="H40" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1419</v>
-      </c>
-      <c r="J40" s="3">
-        <v>56</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="2">
-        <v>43920</v>
-      </c>
-      <c r="D41" s="3">
-        <v>185</v>
-      </c>
-      <c r="E41" s="3">
-        <v>9</v>
-      </c>
-      <c r="F41" s="2">
-        <v>43922</v>
-      </c>
-      <c r="G41" s="3">
-        <v>538</v>
-      </c>
-      <c r="H41" s="2">
-        <v>43922</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1476</v>
-      </c>
-      <c r="J41" s="3">
-        <v>57</v>
-      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="2">
-        <v>43921</v>
-      </c>
-      <c r="D42" s="3">
-        <v>191</v>
-      </c>
-      <c r="E42" s="3">
-        <v>6</v>
-      </c>
-      <c r="F42" s="2">
-        <v>43923</v>
-      </c>
-      <c r="G42" s="3">
-        <v>559</v>
-      </c>
-      <c r="H42" s="2">
-        <v>43923</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1528</v>
-      </c>
-      <c r="J42" s="3">
-        <v>52</v>
-      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="2">
-        <v>43922</v>
-      </c>
-      <c r="D43" s="3">
-        <v>195</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4</v>
-      </c>
-      <c r="F43" s="2">
-        <v>43924</v>
-      </c>
-      <c r="G43" s="3">
-        <v>580</v>
-      </c>
-      <c r="H43" s="2">
-        <v>43924</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1570</v>
-      </c>
-      <c r="J43" s="3">
-        <v>42</v>
-      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="2">
-        <v>43923</v>
-      </c>
-      <c r="D44" s="3">
-        <v>208</v>
-      </c>
-      <c r="E44" s="3">
-        <v>13</v>
-      </c>
-      <c r="F44" s="2">
-        <v>43925</v>
-      </c>
-      <c r="G44" s="3">
-        <v>585</v>
-      </c>
-      <c r="H44" s="2">
-        <v>43925</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1599</v>
-      </c>
-      <c r="J44" s="3">
-        <v>29</v>
-      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="2">
-        <v>43924</v>
-      </c>
-      <c r="D45" s="3">
-        <v>218</v>
-      </c>
-      <c r="E45" s="3">
-        <v>10</v>
-      </c>
-      <c r="F45" s="2">
-        <v>43926</v>
-      </c>
-      <c r="G45" s="3">
-        <v>588</v>
-      </c>
-      <c r="H45" s="2">
-        <v>43926</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1624</v>
-      </c>
-      <c r="J45" s="3">
-        <v>25</v>
-      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="2">
-        <v>43925</v>
-      </c>
-      <c r="D46" s="3">
-        <v>224</v>
-      </c>
-      <c r="E46" s="3">
-        <v>6</v>
-      </c>
-      <c r="F46" s="2">
-        <v>43927</v>
-      </c>
-      <c r="G46" s="3">
-        <v>619</v>
-      </c>
-      <c r="H46" s="2">
-        <v>43927</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1664</v>
-      </c>
-      <c r="J46" s="3">
-        <v>40</v>
-      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="2">
-        <v>43926</v>
-      </c>
-      <c r="D47" s="3">
-        <v>229</v>
-      </c>
-      <c r="E47" s="3">
-        <v>5</v>
-      </c>
-      <c r="F47" s="2">
-        <v>43928</v>
-      </c>
-      <c r="G47" s="3">
-        <v>633</v>
-      </c>
-      <c r="H47" s="2">
-        <v>43928</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>36</v>
-      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="2">
-        <v>43927</v>
-      </c>
-      <c r="D48" s="3">
-        <v>234</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5</v>
-      </c>
-      <c r="F48" s="2">
-        <v>43929</v>
-      </c>
-      <c r="G48" s="3">
-        <v>649</v>
-      </c>
-      <c r="H48" s="2">
-        <v>43929</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1725</v>
-      </c>
-      <c r="J48" s="3">
-        <v>25</v>
-      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="2">
-        <v>43928</v>
-      </c>
-      <c r="D49" s="3">
-        <v>236</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2</v>
-      </c>
-      <c r="F49" s="2">
-        <v>43930</v>
-      </c>
-      <c r="G49" s="3">
-        <v>669</v>
-      </c>
-      <c r="H49" s="2">
-        <v>43930</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1751</v>
-      </c>
-      <c r="J49" s="3">
-        <v>26</v>
-      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="2">
-        <v>43929</v>
-      </c>
-      <c r="D50" s="3">
-        <v>239</v>
-      </c>
-      <c r="E50" s="3">
-        <v>3</v>
-      </c>
-      <c r="F50" s="2">
-        <v>43931</v>
-      </c>
-      <c r="G50" s="3">
-        <v>671</v>
-      </c>
-      <c r="H50" s="2">
-        <v>43931</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1768</v>
-      </c>
-      <c r="J50" s="3">
-        <v>17</v>
-      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="2">
-        <v>43930</v>
-      </c>
-      <c r="D51" s="3">
-        <v>240</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>43932</v>
-      </c>
-      <c r="G51" s="3">
-        <v>705</v>
-      </c>
-      <c r="H51" s="2">
-        <v>43932</v>
-      </c>
-      <c r="I51" s="3">
-        <v>1787</v>
-      </c>
-      <c r="J51" s="3">
-        <v>19</v>
-      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="2">
-        <v>43931</v>
-      </c>
-      <c r="D52" s="3">
-        <v>241</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2">
-        <v>43933</v>
-      </c>
-      <c r="G52" s="3">
-        <v>712</v>
-      </c>
-      <c r="H52" s="2">
-        <v>43933</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1809</v>
-      </c>
-      <c r="J52" s="3">
-        <v>22</v>
-      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="2">
-        <v>43932</v>
-      </c>
-      <c r="D53" s="3">
-        <v>247</v>
-      </c>
-      <c r="E53" s="3">
-        <v>6</v>
-      </c>
-      <c r="F53" s="2">
-        <v>43934</v>
-      </c>
-      <c r="G53" s="3">
-        <v>720</v>
-      </c>
-      <c r="H53" s="2">
-        <v>43934</v>
-      </c>
-      <c r="I53" s="3">
-        <v>1830</v>
-      </c>
-      <c r="J53" s="3">
-        <v>21</v>
-      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="2">
-        <v>43933</v>
-      </c>
-      <c r="D54" s="3">
-        <v>248</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>43935</v>
-      </c>
-      <c r="G54" s="3">
-        <v>755</v>
-      </c>
-      <c r="H54" s="2">
-        <v>43935</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1855</v>
-      </c>
-      <c r="J54" s="3">
-        <v>25</v>
-      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="2">
-        <v>43934</v>
-      </c>
-      <c r="D55" s="3">
-        <v>250</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2</v>
-      </c>
-      <c r="F55" s="2">
-        <v>43936</v>
-      </c>
-      <c r="G55" s="3">
-        <v>771</v>
-      </c>
-      <c r="H55" s="2">
-        <v>43936</v>
-      </c>
-      <c r="I55" s="3">
-        <v>1878</v>
-      </c>
-      <c r="J55" s="3">
-        <v>23</v>
-      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="2">
-        <v>43935</v>
-      </c>
-      <c r="D56" s="3">
-        <v>251</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="2">
-        <v>43937</v>
-      </c>
-      <c r="G56" s="3">
-        <v>786</v>
-      </c>
-      <c r="H56" s="2">
-        <v>43937</v>
-      </c>
-      <c r="I56" s="3">
-        <v>1894</v>
-      </c>
-      <c r="J56" s="3">
-        <v>16</v>
-      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="2">
-        <v>43936</v>
-      </c>
-      <c r="D57" s="3">
-        <v>252</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>43938</v>
-      </c>
-      <c r="G57" s="3">
-        <v>796</v>
-      </c>
-      <c r="H57" s="2">
-        <v>43938</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1930</v>
-      </c>
-      <c r="J57" s="3">
-        <v>36</v>
-      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="2">
-        <v>43937</v>
-      </c>
-      <c r="D58" s="3">
-        <v>259</v>
-      </c>
-      <c r="E58" s="3">
-        <v>7</v>
-      </c>
-      <c r="F58" s="2">
-        <v>43939</v>
-      </c>
-      <c r="G58" s="3">
-        <v>803</v>
-      </c>
-      <c r="H58" s="2">
-        <v>43939</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1938</v>
-      </c>
-      <c r="J58" s="3">
-        <v>8</v>
-      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="2">
-        <v>43938</v>
-      </c>
-      <c r="D59" s="3">
-        <v>260</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>43940</v>
-      </c>
-      <c r="G59" s="3">
-        <v>804</v>
-      </c>
-      <c r="H59" s="2">
-        <v>43940</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1942</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4</v>
-      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="2">
-        <v>43939</v>
-      </c>
-      <c r="D60" s="3">
-        <v>261</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>43941</v>
-      </c>
-      <c r="G60" s="3">
-        <v>810</v>
-      </c>
-      <c r="H60" s="2">
-        <v>43941</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1965</v>
-      </c>
-      <c r="J60" s="3">
-        <v>23</v>
-      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="2">
-        <v>43940</v>
-      </c>
-      <c r="D61" s="3">
-        <v>261</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>43942</v>
-      </c>
-      <c r="G61" s="3">
-        <v>821</v>
-      </c>
-      <c r="H61" s="2">
-        <v>43942</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1981</v>
-      </c>
-      <c r="J61" s="3">
-        <v>16</v>
-      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="2">
-        <v>43941</v>
-      </c>
-      <c r="D62" s="3">
-        <v>262</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2">
-        <v>43943</v>
-      </c>
-      <c r="G62" s="3">
-        <v>827</v>
-      </c>
-      <c r="H62" s="2">
-        <v>43943</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1999</v>
-      </c>
-      <c r="J62" s="3">
-        <v>18</v>
-      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="2">
-        <v>43942</v>
-      </c>
-      <c r="D63" s="3">
-        <v>263</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>43944</v>
-      </c>
-      <c r="G63" s="3">
-        <v>830</v>
-      </c>
-      <c r="H63" s="2">
-        <v>43944</v>
-      </c>
-      <c r="I63" s="3">
-        <v>2012</v>
-      </c>
-      <c r="J63" s="3">
-        <v>13</v>
-      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="2">
-        <v>43943</v>
-      </c>
-      <c r="D64" s="3">
-        <v>266</v>
-      </c>
-      <c r="E64" s="3">
-        <v>3</v>
-      </c>
-      <c r="F64" s="2">
-        <v>43945</v>
-      </c>
-      <c r="G64" s="3">
-        <v>837</v>
-      </c>
-      <c r="H64" s="2">
-        <v>43945</v>
-      </c>
-      <c r="I64" s="3">
-        <v>2025</v>
-      </c>
-      <c r="J64" s="3">
-        <v>13</v>
-      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="2">
-        <v>43944</v>
-      </c>
-      <c r="D65" s="3">
-        <v>270</v>
-      </c>
-      <c r="E65" s="3">
-        <v>4</v>
-      </c>
-      <c r="F65" s="2">
-        <v>43946</v>
-      </c>
-      <c r="G65" s="3">
-        <v>840</v>
-      </c>
-      <c r="H65" s="2">
-        <v>43946</v>
-      </c>
-      <c r="I65" s="3">
-        <v>2028</v>
-      </c>
-      <c r="J65" s="3">
-        <v>3</v>
-      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="2">
-        <v>43945</v>
-      </c>
-      <c r="D66" s="3">
-        <v>270</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="2">
-        <v>43947</v>
-      </c>
-      <c r="G66" s="3">
-        <v>841</v>
-      </c>
-      <c r="H66" s="2">
-        <v>43947</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2032</v>
-      </c>
-      <c r="J66" s="3">
-        <v>4</v>
-      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="2">
-        <v>43946</v>
-      </c>
-      <c r="D67" s="3">
-        <v>271</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="2">
-        <v>43948</v>
-      </c>
-      <c r="G67" s="3">
-        <v>852</v>
-      </c>
-      <c r="H67" s="2">
-        <v>43948</v>
-      </c>
-      <c r="I67" s="3">
-        <v>2050</v>
-      </c>
-      <c r="J67" s="3">
-        <v>18</v>
-      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="2">
-        <v>43947</v>
-      </c>
-      <c r="D68" s="3">
-        <v>271</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2">
-        <v>43949</v>
-      </c>
-      <c r="G68" s="3">
-        <v>856</v>
-      </c>
-      <c r="H68" s="2">
-        <v>43949</v>
-      </c>
-      <c r="I68" s="3">
-        <v>2066</v>
-      </c>
-      <c r="J68" s="3">
-        <v>16</v>
-      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="2">
-        <v>43948</v>
-      </c>
-      <c r="D69" s="3">
-        <v>271</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2">
-        <v>43950</v>
-      </c>
-      <c r="G69" s="3">
-        <v>859</v>
-      </c>
-      <c r="H69" s="2">
-        <v>43950</v>
-      </c>
-      <c r="I69" s="3">
-        <v>2073</v>
-      </c>
-      <c r="J69" s="3">
-        <v>7</v>
-      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="2">
-        <v>43949</v>
-      </c>
-      <c r="D70" s="3">
-        <v>273</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2</v>
-      </c>
-      <c r="F70" s="2">
-        <v>43951</v>
-      </c>
-      <c r="G70" s="3">
-        <v>863</v>
-      </c>
-      <c r="H70" s="2">
-        <v>43951</v>
-      </c>
-      <c r="I70" s="3">
-        <v>2083</v>
-      </c>
-      <c r="J70" s="3">
-        <v>10</v>
-      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="2">
-        <v>43950</v>
-      </c>
-      <c r="D71" s="3">
-        <v>274</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="2">
-        <v>43952</v>
-      </c>
-      <c r="G71" s="3">
-        <v>864</v>
-      </c>
-      <c r="H71" s="2">
-        <v>43952</v>
-      </c>
-      <c r="I71" s="3">
-        <v>2086</v>
-      </c>
-      <c r="J71" s="3">
-        <v>3</v>
-      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="2">
-        <v>43951</v>
-      </c>
-      <c r="D72" s="3">
-        <v>275</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2">
-        <v>43953</v>
-      </c>
-      <c r="G72" s="3">
-        <v>867</v>
-      </c>
-      <c r="H72" s="2">
-        <v>43953</v>
-      </c>
-      <c r="I72" s="3">
-        <v>2093</v>
-      </c>
-      <c r="J72" s="3">
-        <v>7</v>
-      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="2">
-        <v>43952</v>
-      </c>
-      <c r="D73" s="3">
-        <v>275</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="2">
-        <v>43954</v>
-      </c>
-      <c r="G73" s="3">
-        <v>869</v>
-      </c>
-      <c r="H73" s="2">
-        <v>43954</v>
-      </c>
-      <c r="I73" s="3">
-        <v>2102</v>
-      </c>
-      <c r="J73" s="3">
-        <v>9</v>
-      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="2">
-        <v>43953</v>
-      </c>
-      <c r="D74" s="3">
-        <v>275</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="2">
-        <v>43955</v>
-      </c>
-      <c r="G74" s="3">
-        <v>869</v>
-      </c>
-      <c r="H74" s="2">
-        <v>43955</v>
-      </c>
-      <c r="I74" s="3">
-        <v>2120</v>
-      </c>
-      <c r="J74" s="3">
-        <v>18</v>
-      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="2">
-        <v>43954</v>
-      </c>
-      <c r="D75" s="3">
-        <v>275</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="2">
-        <v>43956</v>
-      </c>
-      <c r="G75" s="3">
-        <v>871</v>
-      </c>
-      <c r="H75" s="2">
-        <v>43956</v>
-      </c>
-      <c r="I75" s="3">
-        <v>2133</v>
-      </c>
-      <c r="J75" s="3">
-        <v>13</v>
-      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="2">
-        <v>43955</v>
-      </c>
-      <c r="D76" s="3">
-        <v>275</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2">
-        <v>43957</v>
-      </c>
-      <c r="G76" s="3">
-        <v>872</v>
-      </c>
-      <c r="H76" s="2">
-        <v>43957</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2144</v>
-      </c>
-      <c r="J76" s="3">
-        <v>11</v>
-      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="2">
-        <v>43956</v>
-      </c>
-      <c r="D77" s="3">
-        <v>276</v>
-      </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2">
-        <v>43958</v>
-      </c>
-      <c r="G77" s="3">
-        <v>873</v>
-      </c>
-      <c r="H77" s="2">
-        <v>43958</v>
-      </c>
-      <c r="I77" s="3">
-        <v>2156</v>
-      </c>
-      <c r="J77" s="3">
-        <v>12</v>
-      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="2">
-        <v>43957</v>
-      </c>
-      <c r="D78" s="3">
-        <v>277</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2">
-        <v>43959</v>
-      </c>
-      <c r="G78" s="3">
-        <v>874</v>
-      </c>
-      <c r="H78" s="2">
-        <v>43959</v>
-      </c>
-      <c r="I78" s="3">
-        <v>2175</v>
-      </c>
-      <c r="J78" s="3">
-        <v>19</v>
-      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="2">
-        <v>43958</v>
-      </c>
-      <c r="D79" s="3">
-        <v>278</v>
-      </c>
-      <c r="E79" s="3">
-        <v>1</v>
-      </c>
-      <c r="F79" s="2">
-        <v>43960</v>
-      </c>
-      <c r="G79" s="3">
-        <v>875</v>
-      </c>
-      <c r="H79" s="2">
-        <v>43960</v>
-      </c>
-      <c r="I79" s="3">
-        <v>2178</v>
-      </c>
-      <c r="J79" s="3">
-        <v>3</v>
-      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="2">
-        <v>43959</v>
-      </c>
-      <c r="D80" s="3">
-        <v>278</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="2">
-        <v>43961</v>
-      </c>
-      <c r="G80" s="3">
-        <v>875</v>
-      </c>
-      <c r="H80" s="2">
-        <v>43961</v>
-      </c>
-      <c r="I80" s="3">
-        <v>2179</v>
-      </c>
-      <c r="J80" s="3">
-        <v>1</v>
-      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="2">
-        <v>43960</v>
-      </c>
-      <c r="D81" s="3">
-        <v>278</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="2">
-        <v>43962</v>
-      </c>
-      <c r="G81" s="3">
-        <v>876</v>
-      </c>
-      <c r="H81" s="2">
-        <v>43962</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2188</v>
-      </c>
-      <c r="J81" s="3">
-        <v>9</v>
-      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="2">
-        <v>43961</v>
-      </c>
-      <c r="D82" s="3">
-        <v>278</v>
-      </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="2">
-        <v>43963</v>
-      </c>
-      <c r="G82" s="3">
-        <v>876</v>
-      </c>
-      <c r="H82" s="2">
-        <v>43963</v>
-      </c>
-      <c r="I82" s="3">
-        <v>2195</v>
-      </c>
-      <c r="J82" s="3">
-        <v>7</v>
-      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="2">
-        <v>43962</v>
-      </c>
-      <c r="D83" s="3">
-        <v>278</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="2">
-        <v>43964</v>
-      </c>
-      <c r="G83" s="3">
-        <v>876</v>
-      </c>
-      <c r="H83" s="2">
-        <v>43964</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2205</v>
-      </c>
-      <c r="J83" s="3">
-        <v>10</v>
-      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="2">
-        <v>43963</v>
-      </c>
-      <c r="D84" s="3">
-        <v>280</v>
-      </c>
-      <c r="E84" s="3">
-        <v>2</v>
-      </c>
-      <c r="F84" s="2">
-        <v>43965</v>
-      </c>
-      <c r="G84" s="3">
-        <v>876</v>
-      </c>
-      <c r="H84" s="2">
-        <v>43965</v>
-      </c>
-      <c r="I84" s="3">
-        <v>2212</v>
-      </c>
-      <c r="J84" s="3">
-        <v>7</v>
-      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="2">
-        <v>43964</v>
-      </c>
-      <c r="D85" s="3">
-        <v>281</v>
-      </c>
-      <c r="E85" s="3">
-        <v>1</v>
-      </c>
-      <c r="F85" s="2">
-        <v>43966</v>
-      </c>
-      <c r="G85" s="3">
-        <v>876</v>
-      </c>
-      <c r="H85" s="2">
-        <v>43966</v>
-      </c>
-      <c r="I85" s="3">
-        <v>2222</v>
-      </c>
-      <c r="J85" s="3">
-        <v>10</v>
-      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="2">
-        <v>43965</v>
-      </c>
-      <c r="D86" s="3">
-        <v>281</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="2">
-        <v>43967</v>
-      </c>
-      <c r="G86" s="3">
-        <v>876</v>
-      </c>
-      <c r="H86" s="2">
-        <v>43967</v>
-      </c>
-      <c r="I86" s="3">
-        <v>2228</v>
-      </c>
-      <c r="J86" s="3">
-        <v>6</v>
-      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="2">
-        <v>43966</v>
-      </c>
-      <c r="D87" s="3">
-        <v>282</v>
-      </c>
-      <c r="E87" s="3">
-        <v>1</v>
-      </c>
-      <c r="F87" s="2">
-        <v>43968</v>
-      </c>
-      <c r="G87" s="3">
-        <v>876</v>
-      </c>
-      <c r="H87" s="2">
-        <v>43968</v>
-      </c>
-      <c r="I87" s="3">
-        <v>2230</v>
-      </c>
-      <c r="J87" s="3">
-        <v>2</v>
-      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="2">
-        <v>43967</v>
-      </c>
-      <c r="D88" s="3">
-        <v>282</v>
-      </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="2">
-        <v>43969</v>
-      </c>
-      <c r="G88" s="3">
-        <v>877</v>
-      </c>
-      <c r="H88" s="2">
-        <v>43969</v>
-      </c>
-      <c r="I88" s="3">
-        <v>2240</v>
-      </c>
-      <c r="J88" s="3">
-        <v>10</v>
-      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="2">
-        <v>43968</v>
-      </c>
-      <c r="D89" s="3">
-        <v>282</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="2">
-        <v>43970</v>
-      </c>
-      <c r="G89" s="3">
-        <v>878</v>
-      </c>
-      <c r="H89" s="2">
-        <v>43970</v>
-      </c>
-      <c r="I89" s="3">
-        <v>2247</v>
-      </c>
-      <c r="J89" s="3">
-        <v>7</v>
-      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="2">
-        <v>43969</v>
-      </c>
-      <c r="D90" s="3">
-        <v>282</v>
-      </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="2">
-        <v>43971</v>
-      </c>
-      <c r="G90" s="3">
-        <v>878</v>
-      </c>
-      <c r="H90" s="2">
-        <v>43971</v>
-      </c>
-      <c r="I90" s="3">
-        <v>2255</v>
-      </c>
-      <c r="J90" s="3">
-        <v>8</v>
-      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="2">
-        <v>43970</v>
-      </c>
-      <c r="D91" s="3">
-        <v>284</v>
-      </c>
-      <c r="E91" s="3">
-        <v>2</v>
-      </c>
-      <c r="F91" s="2">
-        <v>43972</v>
-      </c>
-      <c r="G91" s="3">
-        <v>878</v>
-      </c>
-      <c r="H91" s="2">
-        <v>43972</v>
-      </c>
-      <c r="I91" s="3">
-        <v>2256</v>
-      </c>
-      <c r="J91" s="3">
-        <v>1</v>
-      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="2">
-        <v>43971</v>
-      </c>
-      <c r="D92" s="3">
-        <v>284</v>
-      </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="2">
-        <v>43973</v>
-      </c>
-      <c r="G92" s="3">
-        <v>879</v>
-      </c>
-      <c r="H92" s="2">
-        <v>43973</v>
-      </c>
-      <c r="I92" s="3">
-        <v>2266</v>
-      </c>
-      <c r="J92" s="3">
-        <v>10</v>
-      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="2">
-        <v>43972</v>
-      </c>
-      <c r="D93" s="3">
-        <v>285</v>
-      </c>
-      <c r="E93" s="3">
-        <v>1</v>
-      </c>
-      <c r="F93" s="2">
-        <v>43974</v>
-      </c>
-      <c r="G93" s="3">
-        <v>879</v>
-      </c>
-      <c r="H93" s="2">
-        <v>43974</v>
-      </c>
-      <c r="I93" s="3">
-        <v>2266</v>
-      </c>
-      <c r="J93" s="3">
-        <v>0</v>
-      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="2">
-        <v>43973</v>
-      </c>
-      <c r="D94" s="3">
-        <v>286</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2">
-        <v>43975</v>
-      </c>
-      <c r="G94" s="3">
-        <v>879</v>
-      </c>
-      <c r="H94" s="2">
-        <v>43975</v>
-      </c>
-      <c r="I94" s="3">
-        <v>2269</v>
-      </c>
-      <c r="J94" s="3">
-        <v>3</v>
-      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="2">
-        <v>43974</v>
-      </c>
-      <c r="D95" s="3">
-        <v>286</v>
-      </c>
-      <c r="E95" s="3">
-        <v>0</v>
-      </c>
-      <c r="F95" s="2">
-        <v>43976</v>
-      </c>
-      <c r="G95" s="3">
-        <v>879</v>
-      </c>
-      <c r="H95" s="2">
-        <v>43976</v>
-      </c>
-      <c r="I95" s="3">
-        <v>2277</v>
-      </c>
-      <c r="J95" s="3">
-        <v>8</v>
-      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="2">
-        <v>43975</v>
-      </c>
-      <c r="D96" s="3">
-        <v>286</v>
-      </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="2">
-        <v>43977</v>
-      </c>
-      <c r="G96" s="3">
-        <v>879</v>
-      </c>
-      <c r="H96" s="2">
-        <v>43977</v>
-      </c>
-      <c r="I96" s="3">
-        <v>2281</v>
-      </c>
-      <c r="J96" s="3">
-        <v>4</v>
-      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="2">
-        <v>43976</v>
-      </c>
-      <c r="D97" s="3">
-        <v>286</v>
-      </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="2">
-        <v>43978</v>
-      </c>
-      <c r="G97" s="3">
-        <v>879</v>
-      </c>
-      <c r="H97" s="2">
-        <v>43978</v>
-      </c>
-      <c r="I97" s="3">
-        <v>2289</v>
-      </c>
-      <c r="J97" s="3">
-        <v>8</v>
-      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="2">
-        <v>43977</v>
-      </c>
-      <c r="D98" s="3">
-        <v>287</v>
-      </c>
-      <c r="E98" s="3">
-        <v>1</v>
-      </c>
-      <c r="F98" s="2">
-        <v>43979</v>
-      </c>
-      <c r="G98" s="3">
-        <v>879</v>
-      </c>
-      <c r="H98" s="2">
-        <v>43979</v>
-      </c>
-      <c r="I98" s="3">
-        <v>2292</v>
-      </c>
-      <c r="J98" s="3">
-        <v>3</v>
-      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="2">
-        <v>43978</v>
-      </c>
-      <c r="D99" s="3">
-        <v>287</v>
-      </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-      <c r="F99" s="2">
-        <v>43980</v>
-      </c>
-      <c r="G99" s="3">
-        <v>879</v>
-      </c>
-      <c r="H99" s="2">
-        <v>43980</v>
-      </c>
-      <c r="I99" s="3">
-        <v>2295</v>
-      </c>
-      <c r="J99" s="3">
-        <v>3</v>
-      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="2">
-        <v>43979</v>
-      </c>
-      <c r="D100" s="3">
-        <v>287</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="2">
-        <v>43981</v>
-      </c>
-      <c r="G100" s="3">
-        <v>879</v>
-      </c>
-      <c r="H100" s="2">
-        <v>43981</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2295</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="2">
-        <v>43980</v>
-      </c>
-      <c r="D101" s="3">
-        <v>287</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="2">
-        <v>43982</v>
-      </c>
-      <c r="G101" s="3">
-        <v>879</v>
-      </c>
-      <c r="H101" s="2">
-        <v>43982</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2297</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2</v>
-      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="2">
-        <v>43981</v>
-      </c>
-      <c r="D102" s="3">
-        <v>287</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="2">
-        <v>43983</v>
-      </c>
-      <c r="G102" s="3">
-        <v>879</v>
-      </c>
-      <c r="H102" s="2">
-        <v>43983</v>
-      </c>
-      <c r="I102" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>3</v>
-      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="2">
-        <v>43982</v>
-      </c>
-      <c r="D103" s="3">
-        <v>287</v>
-      </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-      <c r="F103" s="2">
-        <v>43984</v>
-      </c>
-      <c r="G103" s="3">
-        <v>880</v>
-      </c>
-      <c r="H103" s="2">
-        <v>43984</v>
-      </c>
-      <c r="I103" s="3">
-        <v>2303</v>
-      </c>
-      <c r="J103" s="3">
-        <v>3</v>
-      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="2">
-        <v>43983</v>
-      </c>
-      <c r="D104" s="3">
-        <v>287</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0</v>
-      </c>
-      <c r="F104" s="2">
-        <v>43985</v>
-      </c>
-      <c r="G104" s="3">
-        <v>881</v>
-      </c>
-      <c r="H104" s="2">
-        <v>43985</v>
-      </c>
-      <c r="I104" s="3">
-        <v>2308</v>
-      </c>
-      <c r="J104" s="3">
-        <v>5</v>
-      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="2">
-        <v>43984</v>
-      </c>
-      <c r="D105" s="3">
-        <v>288</v>
-      </c>
-      <c r="E105" s="3">
-        <v>1</v>
-      </c>
-      <c r="F105" s="2">
-        <v>43986</v>
-      </c>
-      <c r="G105" s="3">
-        <v>881</v>
-      </c>
-      <c r="H105" s="2">
-        <v>43986</v>
-      </c>
-      <c r="I105" s="3">
-        <v>2309</v>
-      </c>
-      <c r="J105" s="3">
-        <v>1</v>
-      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="2">
-        <v>43985</v>
-      </c>
-      <c r="D106" s="3">
-        <v>288</v>
-      </c>
-      <c r="E106" s="3">
-        <v>0</v>
-      </c>
-      <c r="F106" s="2">
-        <v>43987</v>
-      </c>
-      <c r="G106" s="3">
-        <v>882</v>
-      </c>
-      <c r="H106" s="2">
-        <v>43987</v>
-      </c>
-      <c r="I106" s="3">
-        <v>2313</v>
-      </c>
-      <c r="J106" s="3">
-        <v>4</v>
-      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="2">
-        <v>43986</v>
-      </c>
-      <c r="D107" s="3">
-        <v>288</v>
-      </c>
-      <c r="E107" s="3">
-        <v>0</v>
-      </c>
-      <c r="F107" s="2">
-        <v>43988</v>
-      </c>
-      <c r="G107" s="3">
-        <v>882</v>
-      </c>
-      <c r="H107" s="2">
-        <v>43988</v>
-      </c>
-      <c r="I107" s="3">
-        <v>2315</v>
-      </c>
-      <c r="J107" s="3">
-        <v>2</v>
-      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="2">
-        <v>43987</v>
-      </c>
-      <c r="D108" s="3">
-        <v>290</v>
-      </c>
-      <c r="E108" s="3">
-        <v>2</v>
-      </c>
-      <c r="F108" s="2">
-        <v>43989</v>
-      </c>
-      <c r="G108" s="3">
-        <v>882</v>
-      </c>
-      <c r="H108" s="2">
-        <v>43989</v>
-      </c>
-      <c r="I108" s="3">
-        <v>2315</v>
-      </c>
-      <c r="J108" s="3">
-        <v>0</v>
-      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="2">
-        <v>43988</v>
-      </c>
-      <c r="D109" s="3">
-        <v>290</v>
-      </c>
-      <c r="E109" s="3">
-        <v>0</v>
-      </c>
-      <c r="F109" s="2">
-        <v>43990</v>
-      </c>
-      <c r="G109" s="3">
-        <v>884</v>
-      </c>
-      <c r="H109" s="2">
-        <v>43990</v>
-      </c>
-      <c r="I109" s="3">
-        <v>2322</v>
-      </c>
-      <c r="J109" s="3">
-        <v>7</v>
-      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="2">
-        <v>43989</v>
-      </c>
-      <c r="D110" s="3">
-        <v>290</v>
-      </c>
-      <c r="E110" s="3">
-        <v>0</v>
-      </c>
-      <c r="F110" s="2">
-        <v>43991</v>
-      </c>
-      <c r="G110" s="3">
-        <v>884</v>
-      </c>
-      <c r="H110" s="2">
-        <v>43991</v>
-      </c>
-      <c r="I110" s="3">
-        <v>2326</v>
-      </c>
-      <c r="J110" s="3">
-        <v>4</v>
-      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="2">
-        <v>43990</v>
-      </c>
-      <c r="D111" s="3">
-        <v>291</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2">
-        <v>43992</v>
-      </c>
-      <c r="G111" s="3">
-        <v>884</v>
-      </c>
-      <c r="H111" s="2">
-        <v>43992</v>
-      </c>
-      <c r="I111" s="3">
-        <v>2327</v>
-      </c>
-      <c r="J111" s="3">
-        <v>1</v>
-      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="2">
-        <v>43991</v>
-      </c>
-      <c r="D112" s="3">
-        <v>291</v>
-      </c>
-      <c r="E112" s="3">
-        <v>0</v>
-      </c>
-      <c r="F112" s="2">
-        <v>43993</v>
-      </c>
-      <c r="G112" s="3">
-        <v>884</v>
-      </c>
-      <c r="H112" s="2">
-        <v>43993</v>
-      </c>
-      <c r="I112" s="3">
-        <v>2330</v>
-      </c>
-      <c r="J112" s="3">
-        <v>3</v>
-      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="2">
-        <v>43992</v>
-      </c>
-      <c r="D113" s="3">
-        <v>291</v>
-      </c>
-      <c r="E113" s="3">
-        <v>0</v>
-      </c>
-      <c r="F113" s="2">
-        <v>43994</v>
-      </c>
-      <c r="G113" s="3">
-        <v>884</v>
-      </c>
-      <c r="H113" s="2">
-        <v>43994</v>
-      </c>
-      <c r="I113" s="3">
-        <v>2336</v>
-      </c>
-      <c r="J113" s="3">
-        <v>6</v>
-      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="2">
-        <v>43993</v>
-      </c>
-      <c r="D114" s="3">
-        <v>291</v>
-      </c>
-      <c r="E114" s="3">
-        <v>0</v>
-      </c>
-      <c r="F114" s="2">
-        <v>43995</v>
-      </c>
-      <c r="G114" s="3">
-        <v>884</v>
-      </c>
-      <c r="H114" s="2">
-        <v>43995</v>
-      </c>
-      <c r="I114" s="3">
-        <v>2338</v>
-      </c>
-      <c r="J114" s="3">
-        <v>2</v>
-      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="2">
-        <v>43994</v>
-      </c>
-      <c r="D115" s="3">
-        <v>291</v>
-      </c>
-      <c r="E115" s="3">
-        <v>0</v>
-      </c>
-      <c r="F115" s="2">
-        <v>43996</v>
-      </c>
-      <c r="G115" s="3">
-        <v>884</v>
-      </c>
-      <c r="H115" s="2">
-        <v>43996</v>
-      </c>
-      <c r="I115" s="3">
-        <v>2338</v>
-      </c>
-      <c r="J115" s="3">
-        <v>0</v>
-      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="2">
-        <v>43995</v>
-      </c>
-      <c r="D116" s="3">
-        <v>291</v>
-      </c>
-      <c r="E116" s="3">
-        <v>0</v>
-      </c>
-      <c r="F116" s="2">
-        <v>43997</v>
-      </c>
-      <c r="G116" s="3">
-        <v>884</v>
-      </c>
-      <c r="H116" s="2">
-        <v>43997</v>
-      </c>
-      <c r="I116" s="3">
-        <v>2347</v>
-      </c>
-      <c r="J116" s="3">
-        <v>9</v>
-      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="2">
-        <v>43996</v>
-      </c>
-      <c r="D117" s="3">
-        <v>291</v>
-      </c>
-      <c r="E117" s="3">
-        <v>0</v>
-      </c>
-      <c r="F117" s="2">
-        <v>43998</v>
-      </c>
-      <c r="G117" s="3">
-        <v>884</v>
-      </c>
-      <c r="H117" s="2">
-        <v>43998</v>
-      </c>
-      <c r="I117" s="3">
-        <v>2356</v>
-      </c>
-      <c r="J117" s="3">
-        <v>9</v>
-      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="2">
-        <v>43997</v>
-      </c>
-      <c r="D118" s="3">
-        <v>292</v>
-      </c>
-      <c r="E118" s="3">
-        <v>1</v>
-      </c>
-      <c r="F118" s="2">
-        <v>43999</v>
-      </c>
-      <c r="G118" s="3">
-        <v>886</v>
-      </c>
-      <c r="H118" s="2">
-        <v>43999</v>
-      </c>
-      <c r="I118" s="3">
-        <v>2363</v>
-      </c>
-      <c r="J118" s="3">
-        <v>7</v>
-      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="2">
-        <v>43998</v>
-      </c>
-      <c r="D119" s="3">
-        <v>293</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="2">
-        <v>44000</v>
-      </c>
-      <c r="G119" s="3">
-        <v>886</v>
-      </c>
-      <c r="H119" s="2">
-        <v>44000</v>
-      </c>
-      <c r="I119" s="3">
-        <v>2368</v>
-      </c>
-      <c r="J119" s="3">
-        <v>5</v>
-      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="2">
-        <v>43999</v>
-      </c>
-      <c r="D120" s="3">
-        <v>293</v>
-      </c>
-      <c r="E120" s="3">
-        <v>0</v>
-      </c>
-      <c r="F120" s="2">
-        <v>44001</v>
-      </c>
-      <c r="G120" s="3">
-        <v>886</v>
-      </c>
-      <c r="H120" s="2">
-        <v>44001</v>
-      </c>
-      <c r="I120" s="3">
-        <v>2372</v>
-      </c>
-      <c r="J120" s="3">
-        <v>4</v>
-      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
-      <c r="C121" s="2">
-        <v>44000</v>
-      </c>
-      <c r="D121" s="3">
-        <v>293</v>
-      </c>
-      <c r="E121" s="3">
-        <v>0</v>
-      </c>
-      <c r="F121" s="2">
-        <v>44002</v>
-      </c>
-      <c r="G121" s="3">
-        <v>886</v>
-      </c>
-      <c r="H121" s="2">
-        <v>44002</v>
-      </c>
-      <c r="I121" s="3">
-        <v>2373</v>
-      </c>
-      <c r="J121" s="3">
-        <v>1</v>
-      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="2">
-        <v>44001</v>
-      </c>
-      <c r="D122" s="3">
-        <v>296</v>
-      </c>
-      <c r="E122" s="3">
-        <v>3</v>
-      </c>
-      <c r="F122" s="2">
-        <v>44003</v>
-      </c>
-      <c r="G122" s="3">
-        <v>886</v>
-      </c>
-      <c r="H122" s="2">
-        <v>44003</v>
-      </c>
-      <c r="I122" s="3">
-        <v>2374</v>
-      </c>
-      <c r="J122" s="3">
-        <v>1</v>
-      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="2">
-        <v>44002</v>
-      </c>
-      <c r="D123" s="3">
-        <v>296</v>
-      </c>
-      <c r="E123" s="3">
-        <v>0</v>
-      </c>
-      <c r="F123" s="2">
-        <v>44004</v>
-      </c>
-      <c r="G123" s="3">
-        <v>889</v>
-      </c>
-      <c r="H123" s="2">
-        <v>44004</v>
-      </c>
-      <c r="I123" s="3">
-        <v>2388</v>
-      </c>
-      <c r="J123" s="3">
-        <v>14</v>
-      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="2">
-        <v>44003</v>
-      </c>
-      <c r="D124" s="3">
-        <v>296</v>
-      </c>
-      <c r="E124" s="3">
-        <v>0</v>
-      </c>
-      <c r="F124" s="2">
-        <v>44005</v>
-      </c>
-      <c r="G124" s="3">
-        <v>889</v>
-      </c>
-      <c r="H124" s="2">
-        <v>44005</v>
-      </c>
-      <c r="I124" s="3">
-        <v>2393</v>
-      </c>
-      <c r="J124" s="3">
-        <v>5</v>
-      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="2">
-        <v>44004</v>
-      </c>
-      <c r="D125" s="3">
-        <v>296</v>
-      </c>
-      <c r="E125" s="3">
-        <v>0</v>
-      </c>
-      <c r="F125" s="2">
-        <v>44006</v>
-      </c>
-      <c r="G125" s="3">
-        <v>889</v>
-      </c>
-      <c r="H125" s="2">
-        <v>44006</v>
-      </c>
-      <c r="I125" s="3">
-        <v>2408</v>
-      </c>
-      <c r="J125" s="3">
-        <v>15</v>
-      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
-      <c r="C126" s="2">
-        <v>44005</v>
-      </c>
-      <c r="D126" s="3">
-        <v>296</v>
-      </c>
-      <c r="E126" s="3">
-        <v>0</v>
-      </c>
-      <c r="F126" s="2">
-        <v>44007</v>
-      </c>
-      <c r="G126" s="3">
-        <v>890</v>
-      </c>
-      <c r="H126" s="2">
-        <v>44007</v>
-      </c>
-      <c r="I126" s="3">
-        <v>2416</v>
-      </c>
-      <c r="J126" s="3">
-        <v>8</v>
-      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
-      <c r="C127" s="2">
-        <v>44006</v>
-      </c>
-      <c r="D127" s="3">
-        <v>296</v>
-      </c>
-      <c r="E127" s="3">
-        <v>0</v>
-      </c>
-      <c r="F127" s="2">
-        <v>44008</v>
-      </c>
-      <c r="G127" s="3">
-        <v>890</v>
-      </c>
-      <c r="H127" s="2">
-        <v>44008</v>
-      </c>
-      <c r="I127" s="3">
-        <v>2430</v>
-      </c>
-      <c r="J127" s="3">
-        <v>14</v>
-      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
-      <c r="C128" s="2">
-        <v>44007</v>
-      </c>
-      <c r="D128" s="3">
-        <v>296</v>
-      </c>
-      <c r="E128" s="3">
-        <v>0</v>
-      </c>
-      <c r="F128" s="2">
-        <v>44009</v>
-      </c>
-      <c r="G128" s="3">
-        <v>890</v>
-      </c>
-      <c r="H128" s="2">
-        <v>44009</v>
-      </c>
-      <c r="I128" s="3">
-        <v>2433</v>
-      </c>
-      <c r="J128" s="3">
-        <v>3</v>
-      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
-      <c r="C129" s="2">
-        <v>44008</v>
-      </c>
-      <c r="D129" s="3">
-        <v>296</v>
-      </c>
-      <c r="E129" s="3">
-        <v>0</v>
-      </c>
-      <c r="F129" s="2">
-        <v>44010</v>
-      </c>
-      <c r="G129" s="3">
-        <v>890</v>
-      </c>
-      <c r="H129" s="2">
-        <v>44010</v>
-      </c>
-      <c r="I129" s="3">
-        <v>2433</v>
-      </c>
-      <c r="J129" s="3">
-        <v>0</v>
-      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="2">
-        <v>44009</v>
-      </c>
-      <c r="D130" s="3">
-        <v>296</v>
-      </c>
-      <c r="E130" s="3">
-        <v>0</v>
-      </c>
-      <c r="F130" s="2">
-        <v>44011</v>
-      </c>
-      <c r="G130" s="3">
-        <v>892</v>
-      </c>
-      <c r="H130" s="2">
-        <v>44011</v>
-      </c>
-      <c r="I130" s="3">
-        <v>2450</v>
-      </c>
-      <c r="J130" s="3">
-        <v>17</v>
-      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="2">
-        <v>44010</v>
-      </c>
-      <c r="D131" s="3">
-        <v>296</v>
-      </c>
-      <c r="E131" s="3">
-        <v>0</v>
-      </c>
-      <c r="F131" s="2">
-        <v>44012</v>
-      </c>
-      <c r="G131" s="3">
-        <v>892</v>
-      </c>
-      <c r="H131" s="2">
-        <v>44012</v>
-      </c>
-      <c r="I131" s="3">
-        <v>2452</v>
-      </c>
-      <c r="J131" s="3">
-        <v>2</v>
-      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="2">
-        <v>44011</v>
-      </c>
-      <c r="D132" s="3">
-        <v>296</v>
-      </c>
-      <c r="E132" s="3">
-        <v>0</v>
-      </c>
-      <c r="F132" s="2">
-        <v>44013</v>
-      </c>
-      <c r="G132" s="3">
-        <v>893</v>
-      </c>
-      <c r="H132" s="2">
-        <v>44013</v>
-      </c>
-      <c r="I132" s="3">
-        <v>2455</v>
-      </c>
-      <c r="J132" s="3">
-        <v>3</v>
-      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="2">
-        <v>44012</v>
-      </c>
-      <c r="D133" s="3">
-        <v>296</v>
-      </c>
-      <c r="E133" s="3">
-        <v>0</v>
-      </c>
-      <c r="F133" s="2">
-        <v>44014</v>
-      </c>
-      <c r="G133" s="3">
-        <v>893</v>
-      </c>
-      <c r="H133" s="2">
-        <v>44014</v>
-      </c>
-      <c r="I133" s="3">
-        <v>2458</v>
-      </c>
-      <c r="J133" s="3">
-        <v>3</v>
-      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="2">
-        <v>44013</v>
-      </c>
-      <c r="D134" s="3">
-        <v>297</v>
-      </c>
-      <c r="E134" s="3">
-        <v>1</v>
-      </c>
-      <c r="F134" s="2">
-        <v>44015</v>
-      </c>
-      <c r="G134" s="3">
-        <v>893</v>
-      </c>
-      <c r="H134" s="2">
-        <v>44015</v>
-      </c>
-      <c r="I134" s="3">
-        <v>2463</v>
-      </c>
-      <c r="J134" s="3">
-        <v>5</v>
-      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="2">
-        <v>44014</v>
-      </c>
-      <c r="D135" s="3">
-        <v>298</v>
-      </c>
-      <c r="E135" s="3">
-        <v>1</v>
-      </c>
-      <c r="F135" s="2">
-        <v>44016</v>
-      </c>
-      <c r="G135" s="3">
-        <v>893</v>
-      </c>
-      <c r="H135" s="2">
-        <v>44016</v>
-      </c>
-      <c r="I135" s="3">
-        <v>2464</v>
-      </c>
-      <c r="J135" s="3">
-        <v>1</v>
-      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="2">
-        <v>44015</v>
-      </c>
-      <c r="D136" s="3">
-        <v>298</v>
-      </c>
-      <c r="E136" s="3">
-        <v>0</v>
-      </c>
-      <c r="F136" s="2">
-        <v>44017</v>
-      </c>
-      <c r="G136" s="3">
-        <v>893</v>
-      </c>
-      <c r="H136" s="2">
-        <v>44017</v>
-      </c>
-      <c r="I136" s="3">
-        <v>2464</v>
-      </c>
-      <c r="J136" s="3">
-        <v>0</v>
-      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="2">
-        <v>44016</v>
-      </c>
-      <c r="D137" s="3">
-        <v>298</v>
-      </c>
-      <c r="E137" s="3">
-        <v>0</v>
-      </c>
-      <c r="F137" s="2">
-        <v>44018</v>
-      </c>
-      <c r="G137" s="3">
-        <v>893</v>
-      </c>
-      <c r="H137" s="2">
-        <v>44018</v>
-      </c>
-      <c r="I137" s="3">
-        <v>2475</v>
-      </c>
-      <c r="J137" s="3">
-        <v>11</v>
-      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="2">
-        <v>44017</v>
-      </c>
-      <c r="D138" s="3">
-        <v>298</v>
-      </c>
-      <c r="E138" s="3">
-        <v>0</v>
-      </c>
-      <c r="F138" s="2">
-        <v>44019</v>
-      </c>
-      <c r="G138" s="3">
-        <v>893</v>
-      </c>
-      <c r="H138" s="2">
-        <v>44019</v>
-      </c>
-      <c r="I138" s="3">
-        <v>2479</v>
-      </c>
-      <c r="J138" s="3">
-        <v>4</v>
-      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D139" s="3">
-        <v>299</v>
-      </c>
-      <c r="E139" s="3">
-        <v>1</v>
-      </c>
-      <c r="F139" s="2">
-        <v>44020</v>
-      </c>
-      <c r="G139" s="3">
-        <v>893</v>
-      </c>
-      <c r="H139" s="2">
-        <v>44020</v>
-      </c>
-      <c r="I139" s="3">
-        <v>2482</v>
-      </c>
-      <c r="J139" s="3">
-        <v>3</v>
-      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="2">
-        <v>44019</v>
-      </c>
-      <c r="D140" s="3">
-        <v>301</v>
-      </c>
-      <c r="E140" s="3">
-        <v>2</v>
-      </c>
-      <c r="F140" s="2">
-        <v>44021</v>
-      </c>
-      <c r="G140" s="3">
-        <v>895</v>
-      </c>
-      <c r="H140" s="2">
-        <v>44021</v>
-      </c>
-      <c r="I140" s="3">
-        <v>2483</v>
-      </c>
-      <c r="J140" s="3">
-        <v>1</v>
-      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="2">
-        <v>44020</v>
-      </c>
-      <c r="D141" s="3">
-        <v>301</v>
-      </c>
-      <c r="E141" s="3">
-        <v>0</v>
-      </c>
-      <c r="F141" s="2">
-        <v>44022</v>
-      </c>
-      <c r="G141" s="3">
-        <v>895</v>
-      </c>
-      <c r="H141" s="2">
-        <v>44022</v>
-      </c>
-      <c r="I141" s="3">
-        <v>2487</v>
-      </c>
-      <c r="J141" s="3">
-        <v>4</v>
-      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="2">
-        <v>44021</v>
-      </c>
-      <c r="D142" s="3">
-        <v>301</v>
-      </c>
-      <c r="E142" s="3">
-        <v>0</v>
-      </c>
-      <c r="F142" s="2">
-        <v>44023</v>
-      </c>
-      <c r="G142" s="3">
-        <v>895</v>
-      </c>
-      <c r="H142" s="2">
-        <v>44023</v>
-      </c>
-      <c r="I142" s="3">
-        <v>2487</v>
-      </c>
-      <c r="J142" s="3">
-        <v>0</v>
-      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="2">
-        <v>44022</v>
-      </c>
-      <c r="D143" s="3">
-        <v>301</v>
-      </c>
-      <c r="E143" s="3">
-        <v>0</v>
-      </c>
-      <c r="F143" s="2">
-        <v>44024</v>
-      </c>
-      <c r="G143" s="3">
-        <v>895</v>
-      </c>
-      <c r="H143" s="2">
-        <v>44024</v>
-      </c>
-      <c r="I143" s="3">
-        <v>2489</v>
-      </c>
-      <c r="J143" s="3">
-        <v>2</v>
-      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="2">
-        <v>44023</v>
-      </c>
-      <c r="D144" s="3">
-        <v>301</v>
-      </c>
-      <c r="E144" s="3">
-        <v>0</v>
-      </c>
-      <c r="F144" s="2">
-        <v>44025</v>
-      </c>
-      <c r="G144" s="3">
-        <v>895</v>
-      </c>
-      <c r="H144" s="2">
-        <v>44025</v>
-      </c>
-      <c r="I144" s="3">
-        <v>2496</v>
-      </c>
-      <c r="J144" s="3">
-        <v>7</v>
-      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="2">
-        <v>44024</v>
-      </c>
-      <c r="D145" s="3">
-        <v>301</v>
-      </c>
-      <c r="E145" s="3">
-        <v>0</v>
-      </c>
-      <c r="F145" s="2">
-        <v>44026</v>
-      </c>
-      <c r="G145" s="3">
-        <v>895</v>
-      </c>
-      <c r="H145" s="2">
-        <v>44026</v>
-      </c>
-      <c r="I145" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J145" s="3">
-        <v>4</v>
-      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
-      <c r="C146" s="2">
-        <v>44025</v>
-      </c>
-      <c r="D146" s="3">
-        <v>301</v>
-      </c>
-      <c r="E146" s="3">
-        <v>0</v>
-      </c>
-      <c r="F146" s="2">
-        <v>44027</v>
-      </c>
-      <c r="G146" s="3">
-        <v>895</v>
-      </c>
-      <c r="H146" s="2">
-        <v>44027</v>
-      </c>
-      <c r="I146" s="3">
-        <v>2501</v>
-      </c>
-      <c r="J146" s="3">
-        <v>1</v>
-      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
-      <c r="C147" s="2">
-        <v>44026</v>
-      </c>
-      <c r="D147" s="3">
-        <v>301</v>
-      </c>
-      <c r="E147" s="3">
-        <v>0</v>
-      </c>
-      <c r="F147" s="2">
-        <v>44028</v>
-      </c>
-      <c r="G147" s="3">
-        <v>895</v>
-      </c>
-      <c r="H147" s="2">
-        <v>44028</v>
-      </c>
-      <c r="I147" s="3">
-        <v>2501</v>
-      </c>
-      <c r="J147" s="3">
-        <v>0</v>
-      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
-      <c r="C148" s="2">
-        <v>44027</v>
-      </c>
-      <c r="D148" s="3">
-        <v>301</v>
-      </c>
-      <c r="E148" s="3">
-        <v>0</v>
-      </c>
-      <c r="F148" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G148" s="3">
-        <v>896</v>
-      </c>
-      <c r="H148" s="2">
-        <v>44029</v>
-      </c>
-      <c r="I148" s="3">
-        <v>2503</v>
-      </c>
-      <c r="J148" s="3">
-        <v>2</v>
-      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="2">
-        <v>44028</v>
-      </c>
-      <c r="D149" s="3">
-        <v>301</v>
-      </c>
-      <c r="E149" s="3">
-        <v>0</v>
-      </c>
-      <c r="F149" s="2">
-        <v>44030</v>
-      </c>
-      <c r="G149" s="3">
-        <v>896</v>
-      </c>
-      <c r="H149" s="2">
-        <v>44030</v>
-      </c>
-      <c r="I149" s="3">
-        <v>2503</v>
-      </c>
-      <c r="J149" s="3">
-        <v>0</v>
-      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="2">
-        <v>44029</v>
-      </c>
-      <c r="D150" s="3">
-        <v>301</v>
-      </c>
-      <c r="E150" s="3">
-        <v>0</v>
-      </c>
-      <c r="F150" s="2">
-        <v>44031</v>
-      </c>
-      <c r="G150" s="3">
-        <v>896</v>
-      </c>
-      <c r="H150" s="2">
-        <v>44031</v>
-      </c>
-      <c r="I150" s="3">
-        <v>2503</v>
-      </c>
-      <c r="J150" s="3">
-        <v>0</v>
-      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
-      <c r="C151" s="2">
-        <v>44030</v>
-      </c>
-      <c r="D151" s="3">
-        <v>301</v>
-      </c>
-      <c r="E151" s="3">
-        <v>0</v>
-      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
-      <c r="C152" s="2">
-        <v>44031</v>
-      </c>
-      <c r="D152" s="3">
-        <v>301</v>
-      </c>
-      <c r="E152" s="3">
-        <v>0</v>
-      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2F8EC-0338-AD48-8208-25AB0E018526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D807C-6C87-3D42-90FF-127DA2F6EE4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="2800" windowWidth="27640" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
+    <workbookView xWindow="18360" yWindow="2240" windowWidth="22600" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -110,12 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -431,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="L152" sqref="L152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5712,7 +5713,7 @@
         <v>540</v>
       </c>
       <c r="J139">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K139">
         <v>893</v>
@@ -5741,7 +5742,7 @@
         <v>2894</v>
       </c>
       <c r="G140">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H140">
         <v>257</v>
@@ -5749,8 +5750,8 @@
       <c r="I140">
         <v>541</v>
       </c>
-      <c r="J140">
-        <v>301</v>
+      <c r="J140" s="5">
+        <v>300</v>
       </c>
       <c r="K140">
         <v>893</v>
@@ -5776,7 +5777,7 @@
         <v>129</v>
       </c>
       <c r="F141">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="G141">
         <v>445</v>
@@ -5787,8 +5788,8 @@
       <c r="I141">
         <v>541</v>
       </c>
-      <c r="J141">
-        <v>301</v>
+      <c r="J141" s="5">
+        <v>300</v>
       </c>
       <c r="K141">
         <v>895</v>
@@ -5814,7 +5815,7 @@
         <v>130</v>
       </c>
       <c r="F142">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="G142">
         <v>445</v>
@@ -5825,8 +5826,8 @@
       <c r="I142">
         <v>541</v>
       </c>
-      <c r="J142">
-        <v>301</v>
+      <c r="J142" s="5">
+        <v>300</v>
       </c>
       <c r="K142">
         <v>895</v>
@@ -5852,7 +5853,7 @@
         <v>130</v>
       </c>
       <c r="F143">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="G143">
         <v>445</v>
@@ -5863,8 +5864,8 @@
       <c r="I143">
         <v>541</v>
       </c>
-      <c r="J143">
-        <v>301</v>
+      <c r="J143" s="5">
+        <v>300</v>
       </c>
       <c r="K143">
         <v>895</v>
@@ -5890,7 +5891,7 @@
         <v>130</v>
       </c>
       <c r="F144">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="G144">
         <v>448</v>
@@ -5901,8 +5902,8 @@
       <c r="I144">
         <v>541</v>
       </c>
-      <c r="J144">
-        <v>301</v>
+      <c r="J144" s="5">
+        <v>300</v>
       </c>
       <c r="K144">
         <v>895</v>
@@ -5928,7 +5929,7 @@
         <v>130</v>
       </c>
       <c r="F145">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="G145">
         <v>450</v>
@@ -5939,8 +5940,8 @@
       <c r="I145">
         <v>541</v>
       </c>
-      <c r="J145">
-        <v>301</v>
+      <c r="J145" s="5">
+        <v>300</v>
       </c>
       <c r="K145">
         <v>895</v>
@@ -5966,7 +5967,7 @@
         <v>130</v>
       </c>
       <c r="F146">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="G146">
         <v>450</v>
@@ -5977,8 +5978,8 @@
       <c r="I146">
         <v>542</v>
       </c>
-      <c r="J146">
-        <v>301</v>
+      <c r="J146" s="5">
+        <v>300</v>
       </c>
       <c r="K146">
         <v>895</v>
@@ -6004,7 +6005,7 @@
         <v>130</v>
       </c>
       <c r="F147">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="G147">
         <v>450</v>
@@ -6015,8 +6016,8 @@
       <c r="I147">
         <v>543</v>
       </c>
-      <c r="J147">
-        <v>301</v>
+      <c r="J147" s="5">
+        <v>300</v>
       </c>
       <c r="K147">
         <v>895</v>
@@ -6042,7 +6043,7 @@
         <v>130</v>
       </c>
       <c r="F148">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="G148">
         <v>450</v>
@@ -6053,8 +6054,8 @@
       <c r="I148">
         <v>545</v>
       </c>
-      <c r="J148">
-        <v>301</v>
+      <c r="J148" s="5">
+        <v>300</v>
       </c>
       <c r="K148">
         <v>895</v>
@@ -6080,22 +6081,22 @@
         <v>130</v>
       </c>
       <c r="F149">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="G149">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H149">
         <v>258</v>
       </c>
-      <c r="I149">
-        <v>546</v>
-      </c>
-      <c r="J149">
-        <v>301</v>
+      <c r="I149" s="5">
+        <v>545</v>
+      </c>
+      <c r="J149" s="5">
+        <v>300</v>
       </c>
       <c r="K149">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L149">
         <v>2503</v>
@@ -6118,22 +6119,22 @@
         <v>130</v>
       </c>
       <c r="F150">
-        <v>2924</v>
+        <v>2927</v>
       </c>
       <c r="G150">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H150">
         <v>258</v>
       </c>
-      <c r="I150">
-        <v>546</v>
-      </c>
-      <c r="J150">
-        <v>301</v>
+      <c r="I150" s="5">
+        <v>545</v>
+      </c>
+      <c r="J150" s="5">
+        <v>300</v>
       </c>
       <c r="K150">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L150">
         <v>2503</v>
@@ -6156,25 +6157,291 @@
         <v>130</v>
       </c>
       <c r="F151">
-        <v>2924</v>
+        <v>2930</v>
       </c>
       <c r="G151">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H151">
         <v>258</v>
       </c>
-      <c r="I151">
-        <v>546</v>
-      </c>
-      <c r="J151">
-        <v>301</v>
+      <c r="I151" s="5">
+        <v>545</v>
+      </c>
+      <c r="J151" s="5">
+        <v>300</v>
       </c>
       <c r="K151">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L151">
         <v>2503</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B152" s="5">
+        <v>351</v>
+      </c>
+      <c r="C152">
+        <v>513</v>
+      </c>
+      <c r="D152" s="5">
+        <v>160</v>
+      </c>
+      <c r="E152" s="5">
+        <v>130</v>
+      </c>
+      <c r="F152">
+        <v>2935</v>
+      </c>
+      <c r="G152">
+        <v>452</v>
+      </c>
+      <c r="H152" s="5">
+        <v>258</v>
+      </c>
+      <c r="I152">
+        <v>545</v>
+      </c>
+      <c r="J152" s="5">
+        <v>300</v>
+      </c>
+      <c r="K152">
+        <v>897</v>
+      </c>
+      <c r="L152">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B153" s="5">
+        <v>351</v>
+      </c>
+      <c r="C153">
+        <v>514</v>
+      </c>
+      <c r="D153" s="5">
+        <v>160</v>
+      </c>
+      <c r="E153" s="5">
+        <v>130</v>
+      </c>
+      <c r="F153">
+        <v>2937</v>
+      </c>
+      <c r="G153">
+        <v>453</v>
+      </c>
+      <c r="H153" s="5">
+        <v>258</v>
+      </c>
+      <c r="I153">
+        <v>546</v>
+      </c>
+      <c r="J153" s="5">
+        <v>300</v>
+      </c>
+      <c r="K153">
+        <v>898</v>
+      </c>
+      <c r="L153">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B154">
+        <v>352</v>
+      </c>
+      <c r="C154">
+        <v>515</v>
+      </c>
+      <c r="D154" s="5">
+        <v>160</v>
+      </c>
+      <c r="E154" s="5">
+        <v>130</v>
+      </c>
+      <c r="F154">
+        <v>2940</v>
+      </c>
+      <c r="G154">
+        <v>453</v>
+      </c>
+      <c r="H154" s="5">
+        <v>258</v>
+      </c>
+      <c r="I154">
+        <v>549</v>
+      </c>
+      <c r="J154">
+        <v>301</v>
+      </c>
+      <c r="K154">
+        <v>900</v>
+      </c>
+      <c r="L154">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B155" s="5">
+        <v>352</v>
+      </c>
+      <c r="C155" s="5">
+        <v>515</v>
+      </c>
+      <c r="D155" s="5">
+        <v>160</v>
+      </c>
+      <c r="E155" s="5">
+        <v>130</v>
+      </c>
+      <c r="F155">
+        <v>2942</v>
+      </c>
+      <c r="G155">
+        <v>453</v>
+      </c>
+      <c r="H155" s="5">
+        <v>258</v>
+      </c>
+      <c r="I155" s="5">
+        <v>549</v>
+      </c>
+      <c r="J155">
+        <v>301</v>
+      </c>
+      <c r="K155">
+        <v>900</v>
+      </c>
+      <c r="L155">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B156" s="5">
+        <v>352</v>
+      </c>
+      <c r="C156" s="5">
+        <v>515</v>
+      </c>
+      <c r="D156" s="5">
+        <v>160</v>
+      </c>
+      <c r="E156" s="5">
+        <v>130</v>
+      </c>
+      <c r="F156">
+        <v>2947</v>
+      </c>
+      <c r="G156">
+        <v>454</v>
+      </c>
+      <c r="H156" s="5">
+        <v>258</v>
+      </c>
+      <c r="I156">
+        <v>550</v>
+      </c>
+      <c r="J156">
+        <v>302</v>
+      </c>
+      <c r="K156">
+        <v>901</v>
+      </c>
+      <c r="L156">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B157">
+        <v>353</v>
+      </c>
+      <c r="C157" s="5">
+        <v>515</v>
+      </c>
+      <c r="D157" s="5">
+        <v>160</v>
+      </c>
+      <c r="E157" s="5">
+        <v>130</v>
+      </c>
+      <c r="F157">
+        <v>2949</v>
+      </c>
+      <c r="G157">
+        <v>454</v>
+      </c>
+      <c r="H157" s="5">
+        <v>258</v>
+      </c>
+      <c r="I157" s="5">
+        <v>550</v>
+      </c>
+      <c r="J157">
+        <v>302</v>
+      </c>
+      <c r="K157" s="5">
+        <v>901</v>
+      </c>
+      <c r="L157">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B158" s="5">
+        <v>353</v>
+      </c>
+      <c r="C158" s="5">
+        <v>515</v>
+      </c>
+      <c r="D158" s="5">
+        <v>160</v>
+      </c>
+      <c r="E158" s="5">
+        <v>130</v>
+      </c>
+      <c r="F158">
+        <v>2949</v>
+      </c>
+      <c r="G158">
+        <v>454</v>
+      </c>
+      <c r="H158" s="5">
+        <v>258</v>
+      </c>
+      <c r="I158" s="5">
+        <v>550</v>
+      </c>
+      <c r="J158">
+        <v>304</v>
+      </c>
+      <c r="K158" s="5">
+        <v>901</v>
+      </c>
+      <c r="L158">
+        <v>2543</v>
       </c>
     </row>
   </sheetData>
@@ -6196,9 +6463,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2"/>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D807C-6C87-3D42-90FF-127DA2F6EE4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADB6921-E248-0048-B3DE-3CC5D572AEB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="2240" windowWidth="22600" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
+    <workbookView xWindow="24020" yWindow="2240" windowWidth="16940" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -110,12 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -432,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:L158"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L152" sqref="L152"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="M165" sqref="M165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6442,6 +6443,272 @@
       </c>
       <c r="L158">
         <v>2543</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B159" s="6">
+        <v>353</v>
+      </c>
+      <c r="C159" s="6">
+        <v>515</v>
+      </c>
+      <c r="D159" s="6">
+        <v>160</v>
+      </c>
+      <c r="E159" s="6">
+        <v>130</v>
+      </c>
+      <c r="F159" s="6">
+        <v>2949</v>
+      </c>
+      <c r="G159" s="6">
+        <v>454</v>
+      </c>
+      <c r="H159" s="6">
+        <v>258</v>
+      </c>
+      <c r="I159" s="6">
+        <v>550</v>
+      </c>
+      <c r="J159" s="6">
+        <v>304</v>
+      </c>
+      <c r="K159" s="6">
+        <v>901</v>
+      </c>
+      <c r="L159" s="6">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B160" s="6">
+        <v>353</v>
+      </c>
+      <c r="C160" s="6">
+        <v>515</v>
+      </c>
+      <c r="D160" s="6">
+        <v>160</v>
+      </c>
+      <c r="E160" s="6">
+        <v>130</v>
+      </c>
+      <c r="F160" s="6">
+        <v>2949</v>
+      </c>
+      <c r="G160" s="6">
+        <v>454</v>
+      </c>
+      <c r="H160" s="6">
+        <v>258</v>
+      </c>
+      <c r="I160" s="6">
+        <v>550</v>
+      </c>
+      <c r="J160" s="6">
+        <v>304</v>
+      </c>
+      <c r="K160" s="6">
+        <v>901</v>
+      </c>
+      <c r="L160" s="6">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B161" s="6">
+        <v>353</v>
+      </c>
+      <c r="C161" s="6">
+        <v>515</v>
+      </c>
+      <c r="D161" s="6">
+        <v>160</v>
+      </c>
+      <c r="E161" s="6">
+        <v>130</v>
+      </c>
+      <c r="F161" s="6">
+        <v>2949</v>
+      </c>
+      <c r="G161" s="6">
+        <v>454</v>
+      </c>
+      <c r="H161" s="6">
+        <v>258</v>
+      </c>
+      <c r="I161" s="6">
+        <v>550</v>
+      </c>
+      <c r="J161" s="6">
+        <v>304</v>
+      </c>
+      <c r="K161" s="6">
+        <v>901</v>
+      </c>
+      <c r="L161" s="6">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B162" s="6">
+        <v>353</v>
+      </c>
+      <c r="C162" s="6">
+        <v>515</v>
+      </c>
+      <c r="D162" s="6">
+        <v>160</v>
+      </c>
+      <c r="E162" s="6">
+        <v>130</v>
+      </c>
+      <c r="F162" s="6">
+        <v>2949</v>
+      </c>
+      <c r="G162" s="6">
+        <v>454</v>
+      </c>
+      <c r="H162" s="6">
+        <v>258</v>
+      </c>
+      <c r="I162" s="6">
+        <v>550</v>
+      </c>
+      <c r="J162" s="6">
+        <v>304</v>
+      </c>
+      <c r="K162" s="6">
+        <v>901</v>
+      </c>
+      <c r="L162" s="6">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B163" s="6">
+        <v>353</v>
+      </c>
+      <c r="C163" s="6">
+        <v>515</v>
+      </c>
+      <c r="D163" s="6">
+        <v>160</v>
+      </c>
+      <c r="E163" s="6">
+        <v>130</v>
+      </c>
+      <c r="F163" s="6">
+        <v>2949</v>
+      </c>
+      <c r="G163" s="6">
+        <v>454</v>
+      </c>
+      <c r="H163" s="6">
+        <v>258</v>
+      </c>
+      <c r="I163" s="6">
+        <v>550</v>
+      </c>
+      <c r="J163" s="6">
+        <v>304</v>
+      </c>
+      <c r="K163" s="6">
+        <v>901</v>
+      </c>
+      <c r="L163" s="6">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B164" s="6">
+        <v>353</v>
+      </c>
+      <c r="C164" s="6">
+        <v>515</v>
+      </c>
+      <c r="D164" s="6">
+        <v>160</v>
+      </c>
+      <c r="E164" s="6">
+        <v>130</v>
+      </c>
+      <c r="F164" s="6">
+        <v>2949</v>
+      </c>
+      <c r="G164" s="6">
+        <v>454</v>
+      </c>
+      <c r="H164" s="6">
+        <v>258</v>
+      </c>
+      <c r="I164" s="6">
+        <v>550</v>
+      </c>
+      <c r="J164" s="6">
+        <v>304</v>
+      </c>
+      <c r="K164" s="6">
+        <v>901</v>
+      </c>
+      <c r="L164" s="6">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B165">
+        <v>354</v>
+      </c>
+      <c r="C165">
+        <v>519</v>
+      </c>
+      <c r="D165">
+        <v>160</v>
+      </c>
+      <c r="E165">
+        <v>131</v>
+      </c>
+      <c r="F165">
+        <v>2995</v>
+      </c>
+      <c r="G165">
+        <v>465</v>
+      </c>
+      <c r="H165">
+        <v>261</v>
+      </c>
+      <c r="I165">
+        <v>557</v>
+      </c>
+      <c r="J165">
+        <v>313</v>
+      </c>
+      <c r="K165">
+        <v>927</v>
+      </c>
+      <c r="L165">
+        <v>2583</v>
       </c>
     </row>
   </sheetData>
@@ -6463,9 +6730,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2"/>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADB6921-E248-0048-B3DE-3CC5D572AEB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D61CC2-B765-2642-9422-22ACD5D2CB45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24020" yWindow="2240" windowWidth="16940" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="M165" sqref="M165"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6348,7 +6348,7 @@
         <v>130</v>
       </c>
       <c r="F156">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="G156">
         <v>454</v>
@@ -6386,7 +6386,7 @@
         <v>130</v>
       </c>
       <c r="F157">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="G157">
         <v>454</v>
@@ -6424,7 +6424,7 @@
         <v>130</v>
       </c>
       <c r="F158">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="G158">
         <v>454</v>
@@ -6433,16 +6433,16 @@
         <v>258</v>
       </c>
       <c r="I158" s="5">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J158">
         <v>304</v>
       </c>
       <c r="K158" s="5">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="L158">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -6453,7 +6453,7 @@
         <v>353</v>
       </c>
       <c r="C159" s="6">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D159" s="6">
         <v>160</v>
@@ -6462,7 +6462,7 @@
         <v>130</v>
       </c>
       <c r="F159" s="6">
-        <v>2949</v>
+        <v>2960</v>
       </c>
       <c r="G159" s="6">
         <v>454</v>
@@ -6471,16 +6471,16 @@
         <v>258</v>
       </c>
       <c r="I159" s="6">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J159" s="6">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K159" s="6">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="L159" s="6">
-        <v>2543</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -6491,7 +6491,7 @@
         <v>353</v>
       </c>
       <c r="C160" s="6">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D160" s="6">
         <v>160</v>
@@ -6500,7 +6500,7 @@
         <v>130</v>
       </c>
       <c r="F160" s="6">
-        <v>2949</v>
+        <v>2965</v>
       </c>
       <c r="G160" s="6">
         <v>454</v>
@@ -6509,16 +6509,16 @@
         <v>258</v>
       </c>
       <c r="I160" s="6">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="J160" s="6">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K160" s="6">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="L160" s="6">
-        <v>2543</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -6526,10 +6526,10 @@
         <v>44041</v>
       </c>
       <c r="B161" s="6">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C161" s="6">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D161" s="6">
         <v>160</v>
@@ -6538,7 +6538,7 @@
         <v>130</v>
       </c>
       <c r="F161" s="6">
-        <v>2949</v>
+        <v>2972</v>
       </c>
       <c r="G161" s="6">
         <v>454</v>
@@ -6547,16 +6547,16 @@
         <v>258</v>
       </c>
       <c r="I161" s="6">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="J161" s="6">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K161" s="6">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="L161" s="6">
-        <v>2543</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -6564,10 +6564,10 @@
         <v>44042</v>
       </c>
       <c r="B162" s="6">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C162" s="6">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D162" s="6">
         <v>160</v>
@@ -6576,7 +6576,7 @@
         <v>130</v>
       </c>
       <c r="F162" s="6">
-        <v>2949</v>
+        <v>2980</v>
       </c>
       <c r="G162" s="6">
         <v>454</v>
@@ -6585,16 +6585,16 @@
         <v>258</v>
       </c>
       <c r="I162" s="6">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="J162" s="6">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K162" s="6">
-        <v>901</v>
+        <v>926</v>
       </c>
       <c r="L162" s="6">
-        <v>2543</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -6602,37 +6602,37 @@
         <v>44043</v>
       </c>
       <c r="B163" s="6">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C163" s="6">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D163" s="6">
         <v>160</v>
       </c>
       <c r="E163" s="6">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F163" s="6">
-        <v>2949</v>
+        <v>2992</v>
       </c>
       <c r="G163" s="6">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="H163" s="6">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I163" s="6">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="J163" s="6">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="K163" s="6">
-        <v>901</v>
+        <v>926</v>
       </c>
       <c r="L163" s="6">
-        <v>2543</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -6640,37 +6640,37 @@
         <v>44044</v>
       </c>
       <c r="B164" s="6">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C164" s="6">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D164" s="6">
         <v>160</v>
       </c>
       <c r="E164" s="6">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F164" s="6">
-        <v>2949</v>
+        <v>2992</v>
       </c>
       <c r="G164" s="6">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="H164" s="6">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I164" s="6">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="J164" s="6">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="K164" s="6">
-        <v>901</v>
+        <v>927</v>
       </c>
       <c r="L164" s="6">
-        <v>2543</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D61CC2-B765-2642-9422-22ACD5D2CB45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E1C47-E8AD-5E43-89A5-B059264AF973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24020" yWindow="2240" windowWidth="16940" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
@@ -90,12 +90,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -119,6 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:L165"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6709,6 +6716,272 @@
       </c>
       <c r="L165">
         <v>2583</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B166" s="8">
+        <v>354</v>
+      </c>
+      <c r="C166" s="8">
+        <v>519</v>
+      </c>
+      <c r="D166" s="8">
+        <v>160</v>
+      </c>
+      <c r="E166" s="8">
+        <v>131</v>
+      </c>
+      <c r="F166" s="8">
+        <v>2995</v>
+      </c>
+      <c r="G166" s="8">
+        <v>465</v>
+      </c>
+      <c r="H166" s="8">
+        <v>261</v>
+      </c>
+      <c r="I166" s="8">
+        <v>557</v>
+      </c>
+      <c r="J166" s="8">
+        <v>313</v>
+      </c>
+      <c r="K166" s="8">
+        <v>927</v>
+      </c>
+      <c r="L166" s="8">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B167" s="8">
+        <v>354</v>
+      </c>
+      <c r="C167" s="8">
+        <v>519</v>
+      </c>
+      <c r="D167" s="8">
+        <v>160</v>
+      </c>
+      <c r="E167" s="8">
+        <v>131</v>
+      </c>
+      <c r="F167" s="8">
+        <v>2995</v>
+      </c>
+      <c r="G167" s="8">
+        <v>465</v>
+      </c>
+      <c r="H167" s="8">
+        <v>261</v>
+      </c>
+      <c r="I167" s="8">
+        <v>557</v>
+      </c>
+      <c r="J167" s="8">
+        <v>313</v>
+      </c>
+      <c r="K167" s="8">
+        <v>927</v>
+      </c>
+      <c r="L167" s="8">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B168" s="8">
+        <v>354</v>
+      </c>
+      <c r="C168" s="8">
+        <v>519</v>
+      </c>
+      <c r="D168" s="8">
+        <v>160</v>
+      </c>
+      <c r="E168" s="8">
+        <v>131</v>
+      </c>
+      <c r="F168" s="8">
+        <v>2995</v>
+      </c>
+      <c r="G168" s="8">
+        <v>465</v>
+      </c>
+      <c r="H168" s="8">
+        <v>261</v>
+      </c>
+      <c r="I168" s="8">
+        <v>557</v>
+      </c>
+      <c r="J168" s="8">
+        <v>313</v>
+      </c>
+      <c r="K168" s="8">
+        <v>927</v>
+      </c>
+      <c r="L168" s="8">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B169" s="8">
+        <v>354</v>
+      </c>
+      <c r="C169" s="8">
+        <v>519</v>
+      </c>
+      <c r="D169" s="8">
+        <v>160</v>
+      </c>
+      <c r="E169" s="8">
+        <v>131</v>
+      </c>
+      <c r="F169" s="8">
+        <v>2995</v>
+      </c>
+      <c r="G169" s="8">
+        <v>465</v>
+      </c>
+      <c r="H169" s="8">
+        <v>261</v>
+      </c>
+      <c r="I169" s="8">
+        <v>557</v>
+      </c>
+      <c r="J169" s="8">
+        <v>313</v>
+      </c>
+      <c r="K169" s="8">
+        <v>927</v>
+      </c>
+      <c r="L169" s="8">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B170" s="8">
+        <v>354</v>
+      </c>
+      <c r="C170" s="8">
+        <v>519</v>
+      </c>
+      <c r="D170" s="8">
+        <v>160</v>
+      </c>
+      <c r="E170" s="8">
+        <v>131</v>
+      </c>
+      <c r="F170" s="8">
+        <v>2995</v>
+      </c>
+      <c r="G170" s="8">
+        <v>465</v>
+      </c>
+      <c r="H170" s="8">
+        <v>261</v>
+      </c>
+      <c r="I170" s="8">
+        <v>557</v>
+      </c>
+      <c r="J170" s="8">
+        <v>313</v>
+      </c>
+      <c r="K170" s="8">
+        <v>927</v>
+      </c>
+      <c r="L170" s="8">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B171" s="8">
+        <v>354</v>
+      </c>
+      <c r="C171" s="8">
+        <v>519</v>
+      </c>
+      <c r="D171" s="8">
+        <v>160</v>
+      </c>
+      <c r="E171" s="8">
+        <v>131</v>
+      </c>
+      <c r="F171" s="8">
+        <v>2995</v>
+      </c>
+      <c r="G171" s="8">
+        <v>465</v>
+      </c>
+      <c r="H171" s="8">
+        <v>261</v>
+      </c>
+      <c r="I171" s="8">
+        <v>557</v>
+      </c>
+      <c r="J171" s="8">
+        <v>313</v>
+      </c>
+      <c r="K171" s="8">
+        <v>927</v>
+      </c>
+      <c r="L171" s="8">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B172">
+        <v>357</v>
+      </c>
+      <c r="C172">
+        <v>526</v>
+      </c>
+      <c r="D172">
+        <v>164</v>
+      </c>
+      <c r="E172">
+        <v>138</v>
+      </c>
+      <c r="F172">
+        <v>3110</v>
+      </c>
+      <c r="G172">
+        <v>480</v>
+      </c>
+      <c r="H172">
+        <v>298</v>
+      </c>
+      <c r="I172">
+        <v>579</v>
+      </c>
+      <c r="J172">
+        <v>326</v>
+      </c>
+      <c r="K172">
+        <v>941</v>
+      </c>
+      <c r="L172">
+        <v>2693</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E1C47-E8AD-5E43-89A5-B059264AF973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC9802-38DF-8C44-B9E5-39689F69C1C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24020" yWindow="2240" windowWidth="16940" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
+    <workbookView xWindow="23060" yWindow="2260" windowWidth="16940" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -116,12 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -442,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
   <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="L172" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6320,7 +6321,7 @@
         <v>2942</v>
       </c>
       <c r="G155">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H155" s="5">
         <v>258</v>
@@ -6358,7 +6359,7 @@
         <v>2948</v>
       </c>
       <c r="G156">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H156" s="5">
         <v>258</v>
@@ -6396,7 +6397,7 @@
         <v>2952</v>
       </c>
       <c r="G157">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H157" s="5">
         <v>258</v>
@@ -6434,7 +6435,7 @@
         <v>2952</v>
       </c>
       <c r="G158">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="H158" s="5">
         <v>258</v>
@@ -6472,7 +6473,7 @@
         <v>2960</v>
       </c>
       <c r="G159" s="6">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="H159" s="6">
         <v>258</v>
@@ -6510,7 +6511,7 @@
         <v>2965</v>
       </c>
       <c r="G160" s="6">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="H160" s="6">
         <v>258</v>
@@ -6548,7 +6549,7 @@
         <v>2972</v>
       </c>
       <c r="G161" s="6">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="H161" s="6">
         <v>258</v>
@@ -6574,10 +6575,10 @@
         <v>354</v>
       </c>
       <c r="C162" s="6">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D162" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E162" s="6">
         <v>130</v>
@@ -6586,7 +6587,7 @@
         <v>2980</v>
       </c>
       <c r="G162" s="6">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="H162" s="6">
         <v>258</v>
@@ -6612,22 +6613,22 @@
         <v>354</v>
       </c>
       <c r="C163" s="6">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D163" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E163" s="6">
         <v>131</v>
       </c>
       <c r="F163" s="6">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="G163" s="6">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H163" s="6">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="I163" s="6">
         <v>556</v>
@@ -6639,7 +6640,7 @@
         <v>926</v>
       </c>
       <c r="L163" s="6">
-        <v>2574</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -6649,23 +6650,23 @@
       <c r="B164" s="6">
         <v>354</v>
       </c>
-      <c r="C164" s="6">
-        <v>519</v>
+      <c r="C164" s="7">
+        <v>521</v>
       </c>
       <c r="D164" s="6">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E164" s="6">
         <v>131</v>
       </c>
       <c r="F164" s="6">
-        <v>2992</v>
+        <v>2997</v>
       </c>
       <c r="G164" s="6">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H164" s="6">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="I164" s="6">
         <v>556</v>
@@ -6677,7 +6678,7 @@
         <v>927</v>
       </c>
       <c r="L164" s="6">
-        <v>2580</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -6687,23 +6688,23 @@
       <c r="B165">
         <v>354</v>
       </c>
-      <c r="C165">
-        <v>519</v>
-      </c>
-      <c r="D165">
-        <v>160</v>
+      <c r="C165" s="7">
+        <v>521</v>
+      </c>
+      <c r="D165" s="7">
+        <v>162</v>
       </c>
       <c r="E165">
         <v>131</v>
       </c>
       <c r="F165">
-        <v>2995</v>
+        <v>3004</v>
       </c>
       <c r="G165">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H165">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="I165">
         <v>557</v>
@@ -6712,238 +6713,238 @@
         <v>313</v>
       </c>
       <c r="K165">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="L165">
-        <v>2583</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44046</v>
       </c>
-      <c r="B166" s="8">
-        <v>354</v>
-      </c>
-      <c r="C166" s="8">
-        <v>519</v>
-      </c>
-      <c r="D166" s="8">
-        <v>160</v>
-      </c>
-      <c r="E166" s="8">
-        <v>131</v>
-      </c>
-      <c r="F166" s="8">
-        <v>2995</v>
-      </c>
-      <c r="G166" s="8">
-        <v>465</v>
-      </c>
-      <c r="H166" s="8">
-        <v>261</v>
-      </c>
-      <c r="I166" s="8">
-        <v>557</v>
-      </c>
-      <c r="J166" s="8">
-        <v>313</v>
-      </c>
-      <c r="K166" s="8">
-        <v>927</v>
-      </c>
-      <c r="L166" s="8">
-        <v>2583</v>
+      <c r="B166" s="9">
+        <v>355</v>
+      </c>
+      <c r="C166" s="9">
+        <v>522</v>
+      </c>
+      <c r="D166" s="7">
+        <v>162</v>
+      </c>
+      <c r="E166" s="9">
+        <v>133</v>
+      </c>
+      <c r="F166" s="9">
+        <v>3016</v>
+      </c>
+      <c r="G166" s="9">
+        <v>476</v>
+      </c>
+      <c r="H166" s="9">
+        <v>294</v>
+      </c>
+      <c r="I166" s="9">
+        <v>560</v>
+      </c>
+      <c r="J166" s="9">
+        <v>315</v>
+      </c>
+      <c r="K166" s="9">
+        <v>929</v>
+      </c>
+      <c r="L166" s="9">
+        <v>2601</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44047</v>
       </c>
-      <c r="B167" s="8">
-        <v>354</v>
-      </c>
-      <c r="C167" s="8">
-        <v>519</v>
-      </c>
-      <c r="D167" s="8">
-        <v>160</v>
-      </c>
-      <c r="E167" s="8">
-        <v>131</v>
-      </c>
-      <c r="F167" s="8">
-        <v>2995</v>
-      </c>
-      <c r="G167" s="8">
-        <v>465</v>
-      </c>
-      <c r="H167" s="8">
-        <v>261</v>
-      </c>
-      <c r="I167" s="8">
-        <v>557</v>
-      </c>
-      <c r="J167" s="8">
-        <v>313</v>
-      </c>
-      <c r="K167" s="8">
-        <v>927</v>
-      </c>
-      <c r="L167" s="8">
-        <v>2583</v>
+      <c r="B167" s="9">
+        <v>355</v>
+      </c>
+      <c r="C167" s="9">
+        <v>523</v>
+      </c>
+      <c r="D167" s="7">
+        <v>162</v>
+      </c>
+      <c r="E167" s="9">
+        <v>136</v>
+      </c>
+      <c r="F167" s="9">
+        <v>3032</v>
+      </c>
+      <c r="G167" s="9">
+        <v>476</v>
+      </c>
+      <c r="H167" s="9">
+        <v>294</v>
+      </c>
+      <c r="I167" s="9">
+        <v>563</v>
+      </c>
+      <c r="J167" s="9">
+        <v>315</v>
+      </c>
+      <c r="K167" s="9">
+        <v>931</v>
+      </c>
+      <c r="L167" s="9">
+        <v>2617</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44048</v>
       </c>
-      <c r="B168" s="8">
-        <v>354</v>
-      </c>
-      <c r="C168" s="8">
-        <v>519</v>
-      </c>
-      <c r="D168" s="8">
-        <v>160</v>
-      </c>
-      <c r="E168" s="8">
-        <v>131</v>
-      </c>
-      <c r="F168" s="8">
-        <v>2995</v>
-      </c>
-      <c r="G168" s="8">
-        <v>465</v>
-      </c>
-      <c r="H168" s="8">
-        <v>261</v>
-      </c>
-      <c r="I168" s="8">
-        <v>557</v>
-      </c>
-      <c r="J168" s="8">
-        <v>313</v>
-      </c>
-      <c r="K168" s="8">
-        <v>927</v>
-      </c>
-      <c r="L168" s="8">
-        <v>2583</v>
+      <c r="B168" s="9">
+        <v>356</v>
+      </c>
+      <c r="C168" s="9">
+        <v>525</v>
+      </c>
+      <c r="D168" s="9">
+        <v>163</v>
+      </c>
+      <c r="E168" s="9">
+        <v>138</v>
+      </c>
+      <c r="F168" s="9">
+        <v>3053</v>
+      </c>
+      <c r="G168" s="9">
+        <v>476</v>
+      </c>
+      <c r="H168" s="9">
+        <v>295</v>
+      </c>
+      <c r="I168" s="9">
+        <v>566</v>
+      </c>
+      <c r="J168" s="9">
+        <v>318</v>
+      </c>
+      <c r="K168" s="9">
+        <v>931</v>
+      </c>
+      <c r="L168" s="9">
+        <v>2634</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44049</v>
       </c>
-      <c r="B169" s="8">
-        <v>354</v>
-      </c>
-      <c r="C169" s="8">
-        <v>519</v>
-      </c>
-      <c r="D169" s="8">
-        <v>160</v>
-      </c>
-      <c r="E169" s="8">
-        <v>131</v>
-      </c>
-      <c r="F169" s="8">
-        <v>2995</v>
-      </c>
-      <c r="G169" s="8">
-        <v>465</v>
-      </c>
-      <c r="H169" s="8">
-        <v>261</v>
-      </c>
-      <c r="I169" s="8">
-        <v>557</v>
-      </c>
-      <c r="J169" s="8">
-        <v>313</v>
-      </c>
-      <c r="K169" s="8">
-        <v>927</v>
-      </c>
-      <c r="L169" s="8">
-        <v>2583</v>
+      <c r="B169" s="9">
+        <v>356</v>
+      </c>
+      <c r="C169" s="9">
+        <v>525</v>
+      </c>
+      <c r="D169" s="9">
+        <v>163</v>
+      </c>
+      <c r="E169" s="9">
+        <v>138</v>
+      </c>
+      <c r="F169" s="9">
+        <v>3057</v>
+      </c>
+      <c r="G169" s="9">
+        <v>476</v>
+      </c>
+      <c r="H169" s="9">
+        <v>297</v>
+      </c>
+      <c r="I169" s="9">
+        <v>566</v>
+      </c>
+      <c r="J169" s="9">
+        <v>318</v>
+      </c>
+      <c r="K169" s="9">
+        <v>935</v>
+      </c>
+      <c r="L169" s="9">
+        <v>2636</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44050</v>
       </c>
-      <c r="B170" s="8">
-        <v>354</v>
-      </c>
-      <c r="C170" s="8">
-        <v>519</v>
-      </c>
-      <c r="D170" s="8">
-        <v>160</v>
-      </c>
-      <c r="E170" s="8">
-        <v>131</v>
-      </c>
-      <c r="F170" s="8">
-        <v>2995</v>
-      </c>
-      <c r="G170" s="8">
-        <v>465</v>
-      </c>
-      <c r="H170" s="8">
-        <v>261</v>
-      </c>
-      <c r="I170" s="8">
-        <v>557</v>
-      </c>
-      <c r="J170" s="8">
-        <v>313</v>
-      </c>
-      <c r="K170" s="8">
-        <v>927</v>
-      </c>
-      <c r="L170" s="8">
-        <v>2583</v>
+      <c r="B170" s="9">
+        <v>356</v>
+      </c>
+      <c r="C170" s="9">
+        <v>525</v>
+      </c>
+      <c r="D170" s="9">
+        <v>163</v>
+      </c>
+      <c r="E170" s="9">
+        <v>138</v>
+      </c>
+      <c r="F170" s="9">
+        <v>3057</v>
+      </c>
+      <c r="G170" s="9">
+        <v>476</v>
+      </c>
+      <c r="H170" s="9">
+        <v>297</v>
+      </c>
+      <c r="I170" s="9">
+        <v>570</v>
+      </c>
+      <c r="J170" s="9">
+        <v>320</v>
+      </c>
+      <c r="K170" s="9">
+        <v>935</v>
+      </c>
+      <c r="L170" s="9">
+        <v>2670</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44051</v>
       </c>
-      <c r="B171" s="8">
-        <v>354</v>
-      </c>
-      <c r="C171" s="8">
-        <v>519</v>
-      </c>
-      <c r="D171" s="8">
-        <v>160</v>
-      </c>
-      <c r="E171" s="8">
-        <v>131</v>
-      </c>
-      <c r="F171" s="8">
-        <v>2995</v>
-      </c>
-      <c r="G171" s="8">
-        <v>465</v>
-      </c>
-      <c r="H171" s="8">
-        <v>261</v>
-      </c>
-      <c r="I171" s="8">
-        <v>557</v>
-      </c>
-      <c r="J171" s="8">
-        <v>313</v>
-      </c>
-      <c r="K171" s="8">
-        <v>927</v>
-      </c>
-      <c r="L171" s="8">
-        <v>2583</v>
+      <c r="B171" s="9">
+        <v>356</v>
+      </c>
+      <c r="C171" s="9">
+        <v>525</v>
+      </c>
+      <c r="D171" s="9">
+        <v>163</v>
+      </c>
+      <c r="E171" s="9">
+        <v>138</v>
+      </c>
+      <c r="F171" s="9">
+        <v>3100</v>
+      </c>
+      <c r="G171" s="9">
+        <v>476</v>
+      </c>
+      <c r="H171" s="9">
+        <v>297</v>
+      </c>
+      <c r="I171" s="9">
+        <v>572</v>
+      </c>
+      <c r="J171" s="9">
+        <v>323</v>
+      </c>
+      <c r="K171" s="9">
+        <v>935</v>
+      </c>
+      <c r="L171" s="9">
+        <v>2690</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -7003,9 +7004,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2"/>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC9802-38DF-8C44-B9E5-39689F69C1C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD727C3-A8FB-7B4B-8224-17D881FEC565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23060" yWindow="2260" windowWidth="16940" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
@@ -90,18 +90,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -126,7 +120,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
   <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="L172" sqref="L172"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6577,17 +6572,17 @@
       <c r="C162" s="6">
         <v>519</v>
       </c>
-      <c r="D162" s="6">
-        <v>161</v>
+      <c r="D162" s="7">
+        <v>160</v>
       </c>
       <c r="E162" s="6">
         <v>130</v>
       </c>
       <c r="F162" s="6">
-        <v>2980</v>
+        <v>2982</v>
       </c>
       <c r="G162" s="6">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H162" s="6">
         <v>258</v>
@@ -6615,14 +6610,14 @@
       <c r="C163" s="6">
         <v>521</v>
       </c>
-      <c r="D163" s="6">
-        <v>161</v>
+      <c r="D163" s="7">
+        <v>160</v>
       </c>
       <c r="E163" s="6">
         <v>131</v>
       </c>
       <c r="F163" s="6">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="G163" s="6">
         <v>470</v>
@@ -6654,16 +6649,16 @@
         <v>521</v>
       </c>
       <c r="D164" s="6">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E164" s="6">
         <v>131</v>
       </c>
       <c r="F164" s="6">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="G164" s="6">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H164" s="6">
         <v>290</v>
@@ -6692,16 +6687,16 @@
         <v>521</v>
       </c>
       <c r="D165" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E165">
         <v>131</v>
       </c>
       <c r="F165">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="G165">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H165">
         <v>291</v>
@@ -6720,231 +6715,231 @@
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+      <c r="A166" s="9">
         <v>44046</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B166" s="10">
         <v>355</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="10">
         <v>522</v>
       </c>
-      <c r="D166" s="7">
-        <v>162</v>
-      </c>
-      <c r="E166" s="9">
+      <c r="D166" s="10">
+        <v>161</v>
+      </c>
+      <c r="E166" s="10">
         <v>133</v>
       </c>
-      <c r="F166" s="9">
-        <v>3016</v>
-      </c>
-      <c r="G166" s="9">
-        <v>476</v>
-      </c>
-      <c r="H166" s="9">
+      <c r="F166" s="10">
+        <v>3017</v>
+      </c>
+      <c r="G166" s="10">
+        <v>475</v>
+      </c>
+      <c r="H166" s="10">
         <v>294</v>
       </c>
-      <c r="I166" s="9">
+      <c r="I166" s="10">
         <v>560</v>
       </c>
-      <c r="J166" s="9">
+      <c r="J166" s="10">
         <v>315</v>
       </c>
-      <c r="K166" s="9">
+      <c r="K166" s="10">
         <v>929</v>
       </c>
-      <c r="L166" s="9">
+      <c r="L166" s="10">
         <v>2601</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+      <c r="A167" s="9">
         <v>44047</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B167" s="10">
         <v>355</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="10">
         <v>523</v>
       </c>
-      <c r="D167" s="7">
-        <v>162</v>
-      </c>
-      <c r="E167" s="9">
+      <c r="D167" s="10">
+        <v>161</v>
+      </c>
+      <c r="E167" s="10">
         <v>136</v>
       </c>
-      <c r="F167" s="9">
-        <v>3032</v>
-      </c>
-      <c r="G167" s="9">
-        <v>476</v>
-      </c>
-      <c r="H167" s="9">
+      <c r="F167" s="10">
+        <v>3033</v>
+      </c>
+      <c r="G167" s="10">
+        <v>475</v>
+      </c>
+      <c r="H167" s="10">
         <v>294</v>
       </c>
-      <c r="I167" s="9">
-        <v>563</v>
-      </c>
-      <c r="J167" s="9">
+      <c r="I167" s="10">
+        <v>564</v>
+      </c>
+      <c r="J167" s="10">
         <v>315</v>
       </c>
-      <c r="K167" s="9">
+      <c r="K167" s="10">
         <v>931</v>
       </c>
-      <c r="L167" s="9">
+      <c r="L167" s="10">
         <v>2617</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+      <c r="A168" s="9">
         <v>44048</v>
       </c>
-      <c r="B168" s="9">
+      <c r="B168" s="10">
         <v>356</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="10">
         <v>525</v>
       </c>
-      <c r="D168" s="9">
+      <c r="D168" s="10">
         <v>163</v>
       </c>
-      <c r="E168" s="9">
+      <c r="E168" s="10">
         <v>138</v>
       </c>
-      <c r="F168" s="9">
-        <v>3053</v>
-      </c>
-      <c r="G168" s="9">
-        <v>476</v>
-      </c>
-      <c r="H168" s="9">
+      <c r="F168" s="10">
+        <v>3058</v>
+      </c>
+      <c r="G168" s="10">
+        <v>478</v>
+      </c>
+      <c r="H168" s="10">
         <v>295</v>
       </c>
-      <c r="I168" s="9">
-        <v>566</v>
-      </c>
-      <c r="J168" s="9">
+      <c r="I168" s="10">
+        <v>567</v>
+      </c>
+      <c r="J168" s="10">
         <v>318</v>
       </c>
-      <c r="K168" s="9">
-        <v>931</v>
-      </c>
-      <c r="L168" s="9">
-        <v>2634</v>
+      <c r="K168" s="10">
+        <v>935</v>
+      </c>
+      <c r="L168" s="10">
+        <v>2636</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+      <c r="A169" s="9">
         <v>44049</v>
       </c>
-      <c r="B169" s="9">
-        <v>356</v>
-      </c>
-      <c r="C169" s="9">
-        <v>525</v>
-      </c>
-      <c r="D169" s="9">
-        <v>163</v>
-      </c>
-      <c r="E169" s="9">
+      <c r="B169" s="10">
+        <v>357</v>
+      </c>
+      <c r="C169" s="10">
+        <v>526</v>
+      </c>
+      <c r="D169" s="10">
+        <v>164</v>
+      </c>
+      <c r="E169" s="10">
         <v>138</v>
       </c>
-      <c r="F169" s="9">
-        <v>3057</v>
-      </c>
-      <c r="G169" s="9">
-        <v>476</v>
-      </c>
-      <c r="H169" s="9">
-        <v>297</v>
-      </c>
-      <c r="I169" s="9">
-        <v>566</v>
-      </c>
-      <c r="J169" s="9">
-        <v>318</v>
-      </c>
-      <c r="K169" s="9">
-        <v>935</v>
-      </c>
-      <c r="L169" s="9">
-        <v>2636</v>
+      <c r="F169" s="10">
+        <v>3080</v>
+      </c>
+      <c r="G169" s="10">
+        <v>480</v>
+      </c>
+      <c r="H169" s="10">
+        <v>299</v>
+      </c>
+      <c r="I169" s="10">
+        <v>571</v>
+      </c>
+      <c r="J169" s="10">
+        <v>320</v>
+      </c>
+      <c r="K169" s="10">
+        <v>941</v>
+      </c>
+      <c r="L169" s="10">
+        <v>2663</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+      <c r="A170" s="9">
         <v>44050</v>
       </c>
-      <c r="B170" s="9">
-        <v>356</v>
-      </c>
-      <c r="C170" s="9">
-        <v>525</v>
-      </c>
-      <c r="D170" s="9">
-        <v>163</v>
-      </c>
-      <c r="E170" s="9">
+      <c r="B170" s="10">
+        <v>357</v>
+      </c>
+      <c r="C170" s="10">
+        <v>526</v>
+      </c>
+      <c r="D170" s="10">
+        <v>164</v>
+      </c>
+      <c r="E170" s="10">
         <v>138</v>
       </c>
-      <c r="F170" s="9">
-        <v>3057</v>
-      </c>
-      <c r="G170" s="9">
-        <v>476</v>
-      </c>
-      <c r="H170" s="9">
-        <v>297</v>
-      </c>
-      <c r="I170" s="9">
-        <v>570</v>
-      </c>
-      <c r="J170" s="9">
-        <v>320</v>
-      </c>
-      <c r="K170" s="9">
-        <v>935</v>
-      </c>
-      <c r="L170" s="9">
-        <v>2670</v>
+      <c r="F170" s="10">
+        <v>3103</v>
+      </c>
+      <c r="G170" s="10">
+        <v>480</v>
+      </c>
+      <c r="H170" s="10">
+        <v>299</v>
+      </c>
+      <c r="I170" s="10">
+        <v>574</v>
+      </c>
+      <c r="J170" s="10">
+        <v>325</v>
+      </c>
+      <c r="K170" s="10">
+        <v>942</v>
+      </c>
+      <c r="L170" s="10">
+        <v>2699</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+      <c r="A171" s="9">
         <v>44051</v>
       </c>
-      <c r="B171" s="9">
-        <v>356</v>
-      </c>
-      <c r="C171" s="9">
-        <v>525</v>
-      </c>
-      <c r="D171" s="9">
-        <v>163</v>
-      </c>
-      <c r="E171" s="9">
+      <c r="B171" s="10">
+        <v>357</v>
+      </c>
+      <c r="C171" s="10">
+        <v>526</v>
+      </c>
+      <c r="D171" s="10">
+        <v>164</v>
+      </c>
+      <c r="E171" s="10">
         <v>138</v>
       </c>
-      <c r="F171" s="9">
-        <v>3100</v>
-      </c>
-      <c r="G171" s="9">
-        <v>476</v>
-      </c>
-      <c r="H171" s="9">
-        <v>297</v>
-      </c>
-      <c r="I171" s="9">
-        <v>572</v>
-      </c>
-      <c r="J171" s="9">
-        <v>323</v>
-      </c>
-      <c r="K171" s="9">
-        <v>935</v>
-      </c>
-      <c r="L171" s="9">
-        <v>2690</v>
+      <c r="F171" s="10">
+        <v>3111</v>
+      </c>
+      <c r="G171" s="10">
+        <v>480</v>
+      </c>
+      <c r="H171" s="10">
+        <v>299</v>
+      </c>
+      <c r="I171" s="10">
+        <v>579</v>
+      </c>
+      <c r="J171" s="10">
+        <v>326</v>
+      </c>
+      <c r="K171" s="10">
+        <v>942</v>
+      </c>
+      <c r="L171" s="10">
+        <v>2712</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -6964,13 +6959,13 @@
         <v>138</v>
       </c>
       <c r="F172">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="G172">
         <v>480</v>
       </c>
       <c r="H172">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I172">
         <v>579</v>
@@ -6979,10 +6974,10 @@
         <v>326</v>
       </c>
       <c r="K172">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="L172">
-        <v>2693</v>
+        <v>2713</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD727C3-A8FB-7B4B-8224-17D881FEC565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9120CCB-8ADB-A34B-B73F-C9265E4F488A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23060" yWindow="2260" windowWidth="16940" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -122,6 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L158" sqref="L158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6483,7 +6484,7 @@
         <v>904</v>
       </c>
       <c r="L159" s="6">
-        <v>2548</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -6521,7 +6522,7 @@
         <v>915</v>
       </c>
       <c r="L160" s="6">
-        <v>2555</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -6559,7 +6560,7 @@
         <v>920</v>
       </c>
       <c r="L161" s="6">
-        <v>2560</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -6597,7 +6598,7 @@
         <v>926</v>
       </c>
       <c r="L162" s="6">
-        <v>2568</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -6635,7 +6636,7 @@
         <v>926</v>
       </c>
       <c r="L163" s="6">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -6673,7 +6674,7 @@
         <v>927</v>
       </c>
       <c r="L164" s="6">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -6711,7 +6712,7 @@
         <v>928</v>
       </c>
       <c r="L165">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -6749,7 +6750,7 @@
         <v>929</v>
       </c>
       <c r="L166" s="10">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -6787,7 +6788,7 @@
         <v>931</v>
       </c>
       <c r="L167" s="10">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -6813,7 +6814,7 @@
         <v>478</v>
       </c>
       <c r="H168" s="10">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I168" s="10">
         <v>567</v>
@@ -6825,7 +6826,7 @@
         <v>935</v>
       </c>
       <c r="L168" s="10">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -6835,23 +6836,23 @@
       <c r="B169" s="10">
         <v>357</v>
       </c>
-      <c r="C169" s="10">
-        <v>526</v>
+      <c r="C169" s="8">
+        <v>527</v>
       </c>
       <c r="D169" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E169" s="10">
         <v>138</v>
       </c>
       <c r="F169" s="10">
-        <v>3080</v>
+        <v>3082</v>
       </c>
       <c r="G169" s="10">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H169" s="10">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I169" s="10">
         <v>571</v>
@@ -6863,7 +6864,7 @@
         <v>941</v>
       </c>
       <c r="L169" s="10">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -6873,23 +6874,23 @@
       <c r="B170" s="10">
         <v>357</v>
       </c>
-      <c r="C170" s="10">
-        <v>526</v>
-      </c>
-      <c r="D170" s="10">
-        <v>164</v>
+      <c r="C170" s="8">
+        <v>527</v>
+      </c>
+      <c r="D170" s="8">
+        <v>166</v>
       </c>
       <c r="E170" s="10">
         <v>138</v>
       </c>
       <c r="F170" s="10">
-        <v>3103</v>
+        <v>3107</v>
       </c>
       <c r="G170" s="10">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H170" s="10">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I170" s="10">
         <v>574</v>
@@ -6901,7 +6902,7 @@
         <v>942</v>
       </c>
       <c r="L170" s="10">
-        <v>2699</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -6911,35 +6912,35 @@
       <c r="B171" s="10">
         <v>357</v>
       </c>
-      <c r="C171" s="10">
-        <v>526</v>
-      </c>
-      <c r="D171" s="10">
-        <v>164</v>
+      <c r="C171" s="8">
+        <v>527</v>
+      </c>
+      <c r="D171" s="8">
+        <v>166</v>
       </c>
       <c r="E171" s="10">
         <v>138</v>
       </c>
       <c r="F171" s="10">
-        <v>3111</v>
+        <v>3118</v>
       </c>
       <c r="G171" s="10">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="H171" s="10">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I171" s="10">
         <v>579</v>
       </c>
       <c r="J171" s="10">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K171" s="10">
         <v>942</v>
       </c>
       <c r="L171" s="10">
-        <v>2712</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -6947,37 +6948,151 @@
         <v>44052</v>
       </c>
       <c r="B172">
-        <v>357</v>
-      </c>
-      <c r="C172">
-        <v>526</v>
+        <v>358</v>
+      </c>
+      <c r="C172" s="8">
+        <v>527</v>
       </c>
       <c r="D172">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E172">
         <v>138</v>
       </c>
       <c r="F172">
-        <v>3111</v>
+        <v>3127</v>
       </c>
       <c r="G172">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H172">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I172">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J172">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K172">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="L172">
-        <v>2713</v>
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" s="9">
+        <v>44053</v>
+      </c>
+      <c r="B173">
+        <v>360</v>
+      </c>
+      <c r="C173">
+        <v>527</v>
+      </c>
+      <c r="D173" s="8">
+        <v>167</v>
+      </c>
+      <c r="E173">
+        <v>140</v>
+      </c>
+      <c r="F173">
+        <v>3143</v>
+      </c>
+      <c r="G173" s="8">
+        <v>491</v>
+      </c>
+      <c r="H173">
+        <v>301</v>
+      </c>
+      <c r="I173">
+        <v>585</v>
+      </c>
+      <c r="J173">
+        <v>332</v>
+      </c>
+      <c r="K173">
+        <v>946</v>
+      </c>
+      <c r="L173">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B174">
+        <v>360</v>
+      </c>
+      <c r="C174">
+        <v>528</v>
+      </c>
+      <c r="D174" s="8">
+        <v>167</v>
+      </c>
+      <c r="E174" s="8">
+        <v>140</v>
+      </c>
+      <c r="F174">
+        <v>3149</v>
+      </c>
+      <c r="G174" s="8">
+        <v>491</v>
+      </c>
+      <c r="H174">
+        <v>302</v>
+      </c>
+      <c r="I174" s="8">
+        <v>586</v>
+      </c>
+      <c r="J174">
+        <v>332</v>
+      </c>
+      <c r="K174" s="8">
+        <v>947</v>
+      </c>
+      <c r="L174">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" s="9">
+        <v>44055</v>
+      </c>
+      <c r="B175">
+        <v>361</v>
+      </c>
+      <c r="C175">
+        <v>528</v>
+      </c>
+      <c r="D175">
+        <v>167</v>
+      </c>
+      <c r="E175" s="8">
+        <v>140</v>
+      </c>
+      <c r="F175">
+        <v>3150</v>
+      </c>
+      <c r="G175">
+        <v>491</v>
+      </c>
+      <c r="H175">
+        <v>303</v>
+      </c>
+      <c r="I175">
+        <v>586</v>
+      </c>
+      <c r="J175">
+        <v>332</v>
+      </c>
+      <c r="K175">
+        <v>947</v>
+      </c>
+      <c r="L175">
+        <v>2774</v>
       </c>
     </row>
   </sheetData>
@@ -6999,9 +7114,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2"/>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9120CCB-8ADB-A34B-B73F-C9265E4F488A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6999769E-870B-B74B-B380-1931D993BA5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23060" yWindow="2260" windowWidth="16940" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
@@ -90,12 +90,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9437FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -123,6 +129,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:L175"/>
+  <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L158" sqref="L158"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="M179" sqref="M179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5917,7 +5924,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44025</v>
       </c>
@@ -5954,8 +5961,19 @@
       <c r="L145">
         <v>2496</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N145" s="8"/>
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+      <c r="Q145" s="8"/>
+      <c r="R145" s="8"/>
+      <c r="S145" s="8"/>
+      <c r="T145" s="8"/>
+      <c r="U145" s="8"/>
+      <c r="V145" s="8"/>
+      <c r="W145" s="8"/>
+      <c r="X145" s="8"/>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44026</v>
       </c>
@@ -5992,8 +6010,19 @@
       <c r="L146">
         <v>2500</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N146" s="8"/>
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="8"/>
+      <c r="R146" s="8"/>
+      <c r="S146" s="8"/>
+      <c r="T146" s="8"/>
+      <c r="U146" s="8"/>
+      <c r="V146" s="8"/>
+      <c r="W146" s="8"/>
+      <c r="X146" s="8"/>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44027</v>
       </c>
@@ -6030,8 +6059,19 @@
       <c r="L147">
         <v>2501</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="8"/>
+      <c r="R147" s="8"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="8"/>
+      <c r="U147" s="8"/>
+      <c r="V147" s="8"/>
+      <c r="W147" s="8"/>
+      <c r="X147" s="8"/>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44028</v>
       </c>
@@ -6068,8 +6108,19 @@
       <c r="L148">
         <v>2501</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+      <c r="U148" s="8"/>
+      <c r="V148" s="8"/>
+      <c r="W148" s="8"/>
+      <c r="X148" s="8"/>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44029</v>
       </c>
@@ -6106,8 +6157,19 @@
       <c r="L149">
         <v>2503</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="8"/>
+      <c r="R149" s="8"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="8"/>
+      <c r="U149" s="8"/>
+      <c r="V149" s="8"/>
+      <c r="W149" s="8"/>
+      <c r="X149" s="8"/>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44030</v>
       </c>
@@ -6144,8 +6206,19 @@
       <c r="L150">
         <v>2503</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N150" s="8"/>
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+      <c r="Q150" s="8"/>
+      <c r="R150" s="8"/>
+      <c r="S150" s="8"/>
+      <c r="T150" s="8"/>
+      <c r="U150" s="8"/>
+      <c r="V150" s="8"/>
+      <c r="W150" s="8"/>
+      <c r="X150" s="8"/>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44031</v>
       </c>
@@ -6182,8 +6255,19 @@
       <c r="L151">
         <v>2503</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N151" s="8"/>
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+      <c r="Q151" s="8"/>
+      <c r="R151" s="8"/>
+      <c r="S151" s="8"/>
+      <c r="T151" s="8"/>
+      <c r="U151" s="8"/>
+      <c r="V151" s="8"/>
+      <c r="W151" s="8"/>
+      <c r="X151" s="8"/>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44032</v>
       </c>
@@ -6220,8 +6304,19 @@
       <c r="L152">
         <v>2514</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+      <c r="Q152" s="8"/>
+      <c r="R152" s="8"/>
+      <c r="S152" s="8"/>
+      <c r="T152" s="8"/>
+      <c r="U152" s="8"/>
+      <c r="V152" s="8"/>
+      <c r="W152" s="8"/>
+      <c r="X152" s="8"/>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44033</v>
       </c>
@@ -6258,8 +6353,19 @@
       <c r="L153">
         <v>2514</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N153" s="8"/>
+      <c r="O153" s="8"/>
+      <c r="P153" s="8"/>
+      <c r="Q153" s="8"/>
+      <c r="R153" s="8"/>
+      <c r="S153" s="8"/>
+      <c r="T153" s="8"/>
+      <c r="U153" s="8"/>
+      <c r="V153" s="8"/>
+      <c r="W153" s="8"/>
+      <c r="X153" s="8"/>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44034</v>
       </c>
@@ -6296,8 +6402,19 @@
       <c r="L154">
         <v>2525</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+      <c r="Q154" s="8"/>
+      <c r="R154" s="8"/>
+      <c r="S154" s="8"/>
+      <c r="T154" s="8"/>
+      <c r="U154" s="8"/>
+      <c r="V154" s="8"/>
+      <c r="W154" s="8"/>
+      <c r="X154" s="8"/>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44035</v>
       </c>
@@ -6334,8 +6451,19 @@
       <c r="L155">
         <v>2528</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N155" s="8"/>
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+      <c r="Q155" s="8"/>
+      <c r="R155" s="8"/>
+      <c r="S155" s="8"/>
+      <c r="T155" s="8"/>
+      <c r="U155" s="8"/>
+      <c r="V155" s="8"/>
+      <c r="W155" s="8"/>
+      <c r="X155" s="8"/>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44036</v>
       </c>
@@ -6372,8 +6500,19 @@
       <c r="L156">
         <v>2541</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N156" s="8"/>
+      <c r="O156" s="8"/>
+      <c r="P156" s="8"/>
+      <c r="Q156" s="8"/>
+      <c r="R156" s="8"/>
+      <c r="S156" s="8"/>
+      <c r="T156" s="8"/>
+      <c r="U156" s="8"/>
+      <c r="V156" s="8"/>
+      <c r="W156" s="8"/>
+      <c r="X156" s="8"/>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44037</v>
       </c>
@@ -6410,8 +6549,19 @@
       <c r="L157">
         <v>2541</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N157" s="8"/>
+      <c r="O157" s="8"/>
+      <c r="P157" s="8"/>
+      <c r="Q157" s="8"/>
+      <c r="R157" s="8"/>
+      <c r="S157" s="8"/>
+      <c r="T157" s="8"/>
+      <c r="U157" s="8"/>
+      <c r="V157" s="8"/>
+      <c r="W157" s="8"/>
+      <c r="X157" s="8"/>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44038</v>
       </c>
@@ -6448,8 +6598,19 @@
       <c r="L158">
         <v>2542</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N158" s="8"/>
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
+      <c r="Q158" s="8"/>
+      <c r="R158" s="8"/>
+      <c r="S158" s="8"/>
+      <c r="T158" s="8"/>
+      <c r="U158" s="8"/>
+      <c r="V158" s="8"/>
+      <c r="W158" s="8"/>
+      <c r="X158" s="8"/>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44039</v>
       </c>
@@ -6486,8 +6647,19 @@
       <c r="L159" s="6">
         <v>2554</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N159" s="8"/>
+      <c r="O159" s="8"/>
+      <c r="P159" s="8"/>
+      <c r="Q159" s="8"/>
+      <c r="R159" s="8"/>
+      <c r="S159" s="8"/>
+      <c r="T159" s="8"/>
+      <c r="U159" s="8"/>
+      <c r="V159" s="8"/>
+      <c r="W159" s="8"/>
+      <c r="X159" s="8"/>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44040</v>
       </c>
@@ -6524,8 +6696,19 @@
       <c r="L160" s="6">
         <v>2559</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N160" s="8"/>
+      <c r="O160" s="8"/>
+      <c r="P160" s="8"/>
+      <c r="Q160" s="8"/>
+      <c r="R160" s="8"/>
+      <c r="S160" s="8"/>
+      <c r="T160" s="8"/>
+      <c r="U160" s="8"/>
+      <c r="V160" s="8"/>
+      <c r="W160" s="8"/>
+      <c r="X160" s="8"/>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44041</v>
       </c>
@@ -6562,8 +6745,19 @@
       <c r="L161" s="6">
         <v>2567</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N161" s="8"/>
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
+      <c r="Q161" s="8"/>
+      <c r="R161" s="8"/>
+      <c r="S161" s="8"/>
+      <c r="T161" s="8"/>
+      <c r="U161" s="8"/>
+      <c r="V161" s="8"/>
+      <c r="W161" s="8"/>
+      <c r="X161" s="8"/>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44042</v>
       </c>
@@ -6600,8 +6794,19 @@
       <c r="L162" s="6">
         <v>2572</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N162" s="8"/>
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+      <c r="Q162" s="8"/>
+      <c r="R162" s="8"/>
+      <c r="S162" s="8"/>
+      <c r="T162" s="8"/>
+      <c r="U162" s="8"/>
+      <c r="V162" s="8"/>
+      <c r="W162" s="8"/>
+      <c r="X162" s="8"/>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44043</v>
       </c>
@@ -6638,8 +6843,19 @@
       <c r="L163" s="6">
         <v>2582</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N163" s="8"/>
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+      <c r="Q163" s="8"/>
+      <c r="R163" s="8"/>
+      <c r="S163" s="8"/>
+      <c r="T163" s="8"/>
+      <c r="U163" s="8"/>
+      <c r="V163" s="8"/>
+      <c r="W163" s="8"/>
+      <c r="X163" s="8"/>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44044</v>
       </c>
@@ -6676,8 +6892,19 @@
       <c r="L164" s="6">
         <v>2589</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N164" s="8"/>
+      <c r="O164" s="8"/>
+      <c r="P164" s="8"/>
+      <c r="Q164" s="8"/>
+      <c r="R164" s="8"/>
+      <c r="S164" s="8"/>
+      <c r="T164" s="8"/>
+      <c r="U164" s="8"/>
+      <c r="V164" s="8"/>
+      <c r="W164" s="8"/>
+      <c r="X164" s="8"/>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44045</v>
       </c>
@@ -6714,8 +6941,19 @@
       <c r="L165">
         <v>2592</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N165" s="8"/>
+      <c r="O165" s="8"/>
+      <c r="P165" s="8"/>
+      <c r="Q165" s="8"/>
+      <c r="R165" s="8"/>
+      <c r="S165" s="8"/>
+      <c r="T165" s="8"/>
+      <c r="U165" s="8"/>
+      <c r="V165" s="8"/>
+      <c r="W165" s="8"/>
+      <c r="X165" s="8"/>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
         <v>44046</v>
       </c>
@@ -6752,8 +6990,19 @@
       <c r="L166" s="10">
         <v>2600</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N166" s="8"/>
+      <c r="O166" s="8"/>
+      <c r="P166" s="8"/>
+      <c r="Q166" s="8"/>
+      <c r="R166" s="8"/>
+      <c r="S166" s="8"/>
+      <c r="T166" s="8"/>
+      <c r="U166" s="8"/>
+      <c r="V166" s="8"/>
+      <c r="W166" s="8"/>
+      <c r="X166" s="8"/>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
         <v>44047</v>
       </c>
@@ -6790,8 +7039,19 @@
       <c r="L167" s="10">
         <v>2616</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N167" s="8"/>
+      <c r="O167" s="8"/>
+      <c r="P167" s="8"/>
+      <c r="Q167" s="8"/>
+      <c r="R167" s="8"/>
+      <c r="S167" s="8"/>
+      <c r="T167" s="8"/>
+      <c r="U167" s="8"/>
+      <c r="V167" s="8"/>
+      <c r="W167" s="8"/>
+      <c r="X167" s="8"/>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
         <v>44048</v>
       </c>
@@ -6828,8 +7088,19 @@
       <c r="L168" s="10">
         <v>2635</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N168" s="8"/>
+      <c r="O168" s="8"/>
+      <c r="P168" s="8"/>
+      <c r="Q168" s="8"/>
+      <c r="R168" s="8"/>
+      <c r="S168" s="8"/>
+      <c r="T168" s="8"/>
+      <c r="U168" s="8"/>
+      <c r="V168" s="8"/>
+      <c r="W168" s="8"/>
+      <c r="X168" s="8"/>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
         <v>44049</v>
       </c>
@@ -6866,8 +7137,19 @@
       <c r="L169" s="10">
         <v>2662</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N169" s="8"/>
+      <c r="O169" s="8"/>
+      <c r="P169" s="8"/>
+      <c r="Q169" s="8"/>
+      <c r="R169" s="8"/>
+      <c r="S169" s="8"/>
+      <c r="T169" s="8"/>
+      <c r="U169" s="8"/>
+      <c r="V169" s="8"/>
+      <c r="W169" s="8"/>
+      <c r="X169" s="8"/>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>44050</v>
       </c>
@@ -6904,8 +7186,19 @@
       <c r="L170" s="10">
         <v>2705</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N170" s="8"/>
+      <c r="O170" s="8"/>
+      <c r="P170" s="8"/>
+      <c r="Q170" s="8"/>
+      <c r="R170" s="8"/>
+      <c r="S170" s="8"/>
+      <c r="T170" s="8"/>
+      <c r="U170" s="8"/>
+      <c r="V170" s="8"/>
+      <c r="W170" s="8"/>
+      <c r="X170" s="8"/>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="9">
         <v>44051</v>
       </c>
@@ -6942,8 +7235,19 @@
       <c r="L171" s="10">
         <v>2721</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N171" s="8"/>
+      <c r="O171" s="8"/>
+      <c r="P171" s="8"/>
+      <c r="Q171" s="8"/>
+      <c r="R171" s="8"/>
+      <c r="S171" s="8"/>
+      <c r="T171" s="8"/>
+      <c r="U171" s="8"/>
+      <c r="V171" s="8"/>
+      <c r="W171" s="8"/>
+      <c r="X171" s="8"/>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44052</v>
       </c>
@@ -6980,8 +7284,19 @@
       <c r="L172">
         <v>2739</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N172" s="8"/>
+      <c r="O172" s="8"/>
+      <c r="P172" s="8"/>
+      <c r="Q172" s="8"/>
+      <c r="R172" s="8"/>
+      <c r="S172" s="8"/>
+      <c r="T172" s="8"/>
+      <c r="U172" s="8"/>
+      <c r="V172" s="8"/>
+      <c r="W172" s="8"/>
+      <c r="X172" s="8"/>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>44053</v>
       </c>
@@ -7018,8 +7333,19 @@
       <c r="L173">
         <v>2762</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N173" s="8"/>
+      <c r="O173" s="8"/>
+      <c r="P173" s="8"/>
+      <c r="Q173" s="8"/>
+      <c r="R173" s="8"/>
+      <c r="S173" s="8"/>
+      <c r="T173" s="8"/>
+      <c r="U173" s="8"/>
+      <c r="V173" s="8"/>
+      <c r="W173" s="8"/>
+      <c r="X173" s="8"/>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44054</v>
       </c>
@@ -7056,8 +7382,19 @@
       <c r="L174">
         <v>2773</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N174" s="8"/>
+      <c r="O174" s="8"/>
+      <c r="P174" s="8"/>
+      <c r="Q174" s="8"/>
+      <c r="R174" s="8"/>
+      <c r="S174" s="8"/>
+      <c r="T174" s="8"/>
+      <c r="U174" s="8"/>
+      <c r="V174" s="8"/>
+      <c r="W174" s="8"/>
+      <c r="X174" s="8"/>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="9">
         <v>44055</v>
       </c>
@@ -7070,7 +7407,7 @@
       <c r="D175">
         <v>167</v>
       </c>
-      <c r="E175" s="8">
+      <c r="E175" s="12">
         <v>140</v>
       </c>
       <c r="F175">
@@ -7079,7 +7416,7 @@
       <c r="G175">
         <v>491</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="12">
         <v>303</v>
       </c>
       <c r="I175">
@@ -7093,6 +7430,69 @@
       </c>
       <c r="L175">
         <v>2774</v>
+      </c>
+      <c r="O175" s="8"/>
+      <c r="P175" s="8"/>
+      <c r="Q175" s="8"/>
+      <c r="R175" s="8"/>
+      <c r="S175" s="8"/>
+      <c r="T175" s="8"/>
+      <c r="U175" s="8"/>
+      <c r="V175" s="8"/>
+      <c r="W175" s="8"/>
+      <c r="X175" s="8"/>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A176" s="9">
+        <v>44056</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" s="9">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" s="9">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" s="9">
+        <v>44059</v>
+      </c>
+      <c r="B179">
+        <v>374</v>
+      </c>
+      <c r="C179">
+        <v>537</v>
+      </c>
+      <c r="D179">
+        <v>170</v>
+      </c>
+      <c r="E179">
+        <v>144</v>
+      </c>
+      <c r="F179">
+        <v>3223</v>
+      </c>
+      <c r="G179">
+        <v>502</v>
+      </c>
+      <c r="H179">
+        <v>313</v>
+      </c>
+      <c r="I179">
+        <v>594</v>
+      </c>
+      <c r="J179">
+        <v>343</v>
+      </c>
+      <c r="K179">
+        <v>962</v>
+      </c>
+      <c r="L179">
+        <v>2836</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6999769E-870B-B74B-B380-1931D993BA5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F68DA0B-24AD-4B42-A797-8FE6C1823E89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23060" yWindow="2260" windowWidth="16940" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
@@ -90,18 +90,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9437FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -129,7 +123,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:X179"/>
+  <dimension ref="A1:X181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="M179" sqref="M179"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7169,7 +7162,7 @@
         <v>3107</v>
       </c>
       <c r="G170" s="10">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H170" s="10">
         <v>300</v>
@@ -7218,7 +7211,7 @@
         <v>3118</v>
       </c>
       <c r="G171" s="10">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H171" s="10">
         <v>300</v>
@@ -7254,28 +7247,28 @@
       <c r="B172">
         <v>358</v>
       </c>
-      <c r="C172" s="8">
+      <c r="C172" s="10">
         <v>527</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="10">
         <v>166</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="10">
         <v>138</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="10">
         <v>3127</v>
       </c>
-      <c r="G172">
-        <v>487</v>
-      </c>
-      <c r="H172">
+      <c r="G172" s="10">
+        <v>488</v>
+      </c>
+      <c r="H172" s="10">
         <v>300</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="10">
         <v>581</v>
       </c>
-      <c r="J172">
+      <c r="J172" s="10">
         <v>328</v>
       </c>
       <c r="K172">
@@ -7303,29 +7296,29 @@
       <c r="B173">
         <v>360</v>
       </c>
-      <c r="C173">
-        <v>527</v>
-      </c>
-      <c r="D173" s="8">
-        <v>167</v>
-      </c>
-      <c r="E173">
+      <c r="C173" s="10">
+        <v>528</v>
+      </c>
+      <c r="D173" s="10">
+        <v>168</v>
+      </c>
+      <c r="E173" s="10">
         <v>140</v>
       </c>
-      <c r="F173">
-        <v>3143</v>
-      </c>
-      <c r="G173" s="8">
-        <v>491</v>
-      </c>
-      <c r="H173">
+      <c r="F173" s="10">
+        <v>3142</v>
+      </c>
+      <c r="G173" s="10">
+        <v>493</v>
+      </c>
+      <c r="H173" s="10">
         <v>301</v>
       </c>
-      <c r="I173">
-        <v>585</v>
-      </c>
-      <c r="J173">
-        <v>332</v>
+      <c r="I173" s="10">
+        <v>586</v>
+      </c>
+      <c r="J173" s="10">
+        <v>331</v>
       </c>
       <c r="K173">
         <v>946</v>
@@ -7350,37 +7343,37 @@
         <v>44054</v>
       </c>
       <c r="B174">
-        <v>360</v>
-      </c>
-      <c r="C174">
-        <v>528</v>
-      </c>
-      <c r="D174" s="8">
-        <v>167</v>
-      </c>
-      <c r="E174" s="8">
+        <v>361</v>
+      </c>
+      <c r="C174" s="10">
+        <v>530</v>
+      </c>
+      <c r="D174" s="10">
+        <v>168</v>
+      </c>
+      <c r="E174" s="10">
         <v>140</v>
       </c>
-      <c r="F174">
-        <v>3149</v>
-      </c>
-      <c r="G174" s="8">
-        <v>491</v>
-      </c>
-      <c r="H174">
+      <c r="F174" s="10">
+        <v>3151</v>
+      </c>
+      <c r="G174" s="10">
+        <v>497</v>
+      </c>
+      <c r="H174" s="10">
         <v>302</v>
       </c>
-      <c r="I174" s="8">
-        <v>586</v>
-      </c>
-      <c r="J174">
+      <c r="I174" s="10">
+        <v>587</v>
+      </c>
+      <c r="J174" s="10">
         <v>332</v>
       </c>
       <c r="K174" s="8">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="L174">
-        <v>2773</v>
+        <v>2781</v>
       </c>
       <c r="N174" s="8"/>
       <c r="O174" s="8"/>
@@ -7399,37 +7392,33 @@
         <v>44055</v>
       </c>
       <c r="B175">
-        <v>361</v>
-      </c>
-      <c r="C175">
-        <v>528</v>
-      </c>
-      <c r="D175">
-        <v>167</v>
-      </c>
-      <c r="E175" s="12">
-        <v>140</v>
-      </c>
-      <c r="F175">
-        <v>3150</v>
-      </c>
-      <c r="G175">
-        <v>491</v>
-      </c>
-      <c r="H175" s="12">
-        <v>303</v>
-      </c>
-      <c r="I175">
-        <v>586</v>
-      </c>
-      <c r="J175">
-        <v>332</v>
+        <v>367</v>
+      </c>
+      <c r="C175" s="10">
+        <v>534</v>
+      </c>
+      <c r="D175" s="10">
+        <v>169</v>
+      </c>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10">
+        <v>3167</v>
+      </c>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10">
+        <v>308</v>
+      </c>
+      <c r="I175" s="10">
+        <v>587</v>
+      </c>
+      <c r="J175" s="10">
+        <v>333</v>
       </c>
       <c r="K175">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="L175">
-        <v>2774</v>
+        <v>2798</v>
       </c>
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
@@ -7446,53 +7435,185 @@
       <c r="A176" s="9">
         <v>44056</v>
       </c>
+      <c r="B176">
+        <v>369</v>
+      </c>
+      <c r="C176" s="10">
+        <v>537</v>
+      </c>
+      <c r="D176" s="10">
+        <v>170</v>
+      </c>
+      <c r="E176" s="10">
+        <v>143</v>
+      </c>
+      <c r="F176" s="10">
+        <v>3188</v>
+      </c>
+      <c r="G176" s="10">
+        <v>502</v>
+      </c>
+      <c r="H176" s="10">
+        <v>310</v>
+      </c>
+      <c r="I176" s="10">
+        <v>590</v>
+      </c>
+      <c r="J176" s="10">
+        <v>337</v>
+      </c>
+      <c r="K176">
+        <v>957</v>
+      </c>
+      <c r="L176">
+        <v>2811</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>44057</v>
       </c>
+      <c r="B177">
+        <v>375</v>
+      </c>
+      <c r="C177" s="10">
+        <v>546</v>
+      </c>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10">
+        <v>145</v>
+      </c>
+      <c r="F177" s="10">
+        <v>3211</v>
+      </c>
+      <c r="G177" s="10">
+        <v>504</v>
+      </c>
+      <c r="H177" s="10">
+        <v>312</v>
+      </c>
+      <c r="I177" s="10">
+        <v>594</v>
+      </c>
+      <c r="J177" s="10"/>
+      <c r="K177">
+        <v>964</v>
+      </c>
+      <c r="L177">
+        <v>2829</v>
+      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>44058</v>
       </c>
+      <c r="B178">
+        <v>376</v>
+      </c>
+      <c r="C178">
+        <v>547</v>
+      </c>
+      <c r="F178">
+        <v>3229</v>
+      </c>
+      <c r="G178">
+        <v>505</v>
+      </c>
+      <c r="H178">
+        <v>314</v>
+      </c>
+      <c r="I178">
+        <v>598</v>
+      </c>
+      <c r="J178">
+        <v>342</v>
+      </c>
+      <c r="K178">
+        <v>965</v>
+      </c>
+      <c r="L178">
+        <v>2842</v>
+      </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>44059</v>
       </c>
       <c r="B179">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C179">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D179">
         <v>170</v>
       </c>
-      <c r="E179">
-        <v>144</v>
-      </c>
       <c r="F179">
-        <v>3223</v>
-      </c>
-      <c r="G179">
-        <v>502</v>
-      </c>
-      <c r="H179">
-        <v>313</v>
+        <v>3236</v>
       </c>
       <c r="I179">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J179">
         <v>343</v>
       </c>
       <c r="K179">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="L179">
-        <v>2836</v>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" s="9">
+        <v>44060</v>
+      </c>
+      <c r="B180">
+        <v>380</v>
+      </c>
+      <c r="C180">
+        <v>550</v>
+      </c>
+      <c r="F180">
+        <v>3245</v>
+      </c>
+      <c r="L180">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" s="9">
+        <v>44061</v>
+      </c>
+      <c r="B181">
+        <v>380</v>
+      </c>
+      <c r="C181">
+        <v>550</v>
+      </c>
+      <c r="E181">
+        <v>145</v>
+      </c>
+      <c r="F181">
+        <v>3247</v>
+      </c>
+      <c r="G181">
+        <v>507</v>
+      </c>
+      <c r="H181">
+        <v>317</v>
+      </c>
+      <c r="I181">
+        <v>605</v>
+      </c>
+      <c r="J181">
+        <v>346</v>
+      </c>
+      <c r="K181">
+        <v>968</v>
+      </c>
+      <c r="L181">
+        <v>2874</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F68DA0B-24AD-4B42-A797-8FE6C1823E89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4FE3C-ACE2-C645-A5A2-98408653F1D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23060" yWindow="2260" windowWidth="16940" windowHeight="16940" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
+    <workbookView xWindow="20520" yWindow="700" windowWidth="19740" windowHeight="20660" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:X181"/>
+  <dimension ref="A1:X186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="L173" sqref="L173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7110,7 +7110,7 @@
         <v>138</v>
       </c>
       <c r="F169" s="10">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="G169" s="10">
         <v>484</v>
@@ -7159,7 +7159,7 @@
         <v>138</v>
       </c>
       <c r="F170" s="10">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="G170" s="10">
         <v>485</v>
@@ -7208,7 +7208,7 @@
         <v>138</v>
       </c>
       <c r="F171" s="10">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="G171" s="10">
         <v>486</v>
@@ -7257,7 +7257,7 @@
         <v>138</v>
       </c>
       <c r="F172" s="10">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="G172" s="10">
         <v>488</v>
@@ -7306,7 +7306,7 @@
         <v>140</v>
       </c>
       <c r="F173" s="10">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="G173" s="10">
         <v>493</v>
@@ -7355,7 +7355,7 @@
         <v>140</v>
       </c>
       <c r="F174" s="10">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="G174" s="10">
         <v>497</v>
@@ -7373,7 +7373,7 @@
         <v>949</v>
       </c>
       <c r="L174">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="N174" s="8"/>
       <c r="O174" s="8"/>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="G175" s="10"/>
       <c r="H175" s="10">
@@ -7418,7 +7418,7 @@
         <v>953</v>
       </c>
       <c r="L175">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
@@ -7441,14 +7441,12 @@
       <c r="C176" s="10">
         <v>537</v>
       </c>
-      <c r="D176" s="10">
-        <v>170</v>
-      </c>
+      <c r="D176" s="10"/>
       <c r="E176" s="10">
         <v>143</v>
       </c>
       <c r="F176" s="10">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="G176" s="10">
         <v>502</v>
@@ -7466,7 +7464,7 @@
         <v>957</v>
       </c>
       <c r="L176">
-        <v>2811</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -7484,7 +7482,7 @@
         <v>145</v>
       </c>
       <c r="F177" s="10">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="G177" s="10">
         <v>504</v>
@@ -7500,7 +7498,7 @@
         <v>964</v>
       </c>
       <c r="L177">
-        <v>2829</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -7514,7 +7512,7 @@
         <v>547</v>
       </c>
       <c r="F178">
-        <v>3229</v>
+        <v>3227</v>
       </c>
       <c r="G178">
         <v>505</v>
@@ -7532,7 +7530,7 @@
         <v>965</v>
       </c>
       <c r="L178">
-        <v>2842</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -7546,10 +7544,10 @@
         <v>549</v>
       </c>
       <c r="D179">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F179">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="I179">
         <v>601</v>
@@ -7561,7 +7559,7 @@
         <v>966</v>
       </c>
       <c r="L179">
-        <v>2850</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -7574,11 +7572,32 @@
       <c r="C180">
         <v>550</v>
       </c>
+      <c r="D180">
+        <v>172</v>
+      </c>
+      <c r="E180">
+        <v>150</v>
+      </c>
       <c r="F180">
-        <v>3245</v>
+        <v>3251</v>
+      </c>
+      <c r="G180">
+        <v>507</v>
+      </c>
+      <c r="H180">
+        <v>317</v>
+      </c>
+      <c r="I180">
+        <v>609</v>
+      </c>
+      <c r="J180">
+        <v>347</v>
+      </c>
+      <c r="K180">
+        <v>968</v>
       </c>
       <c r="L180">
-        <v>2873</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -7589,31 +7608,131 @@
         <v>380</v>
       </c>
       <c r="C181">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E181">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F181">
-        <v>3247</v>
+        <v>3274</v>
       </c>
       <c r="G181">
-        <v>507</v>
-      </c>
-      <c r="H181">
-        <v>317</v>
-      </c>
-      <c r="I181">
-        <v>605</v>
-      </c>
-      <c r="J181">
-        <v>346</v>
+        <v>510</v>
       </c>
       <c r="K181">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="L181">
-        <v>2874</v>
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182" s="9">
+        <v>44062</v>
+      </c>
+      <c r="B182">
+        <v>381</v>
+      </c>
+      <c r="E182">
+        <v>163</v>
+      </c>
+      <c r="F182">
+        <v>3293</v>
+      </c>
+      <c r="G182">
+        <v>511</v>
+      </c>
+      <c r="I182">
+        <v>615</v>
+      </c>
+      <c r="J182">
+        <v>349</v>
+      </c>
+      <c r="K182">
+        <v>990</v>
+      </c>
+      <c r="L182">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B183">
+        <v>382</v>
+      </c>
+      <c r="F183">
+        <v>3309</v>
+      </c>
+      <c r="I183">
+        <v>618</v>
+      </c>
+      <c r="K183">
+        <v>1001</v>
+      </c>
+      <c r="L183">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184" s="9">
+        <v>44064</v>
+      </c>
+      <c r="F184">
+        <v>3315</v>
+      </c>
+      <c r="K184">
+        <v>1012</v>
+      </c>
+      <c r="L184">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" s="9">
+        <v>44065</v>
+      </c>
+      <c r="B185">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B186">
+        <v>385</v>
+      </c>
+      <c r="C186">
+        <v>554</v>
+      </c>
+      <c r="D186">
+        <v>173</v>
+      </c>
+      <c r="E186">
+        <v>165</v>
+      </c>
+      <c r="F186">
+        <v>3317</v>
+      </c>
+      <c r="G186">
+        <v>512</v>
+      </c>
+      <c r="H186">
+        <v>318</v>
+      </c>
+      <c r="I186">
+        <v>620</v>
+      </c>
+      <c r="J186">
+        <v>350</v>
+      </c>
+      <c r="K186">
+        <v>1013</v>
+      </c>
+      <c r="L186">
+        <v>2915</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4FE3C-ACE2-C645-A5A2-98408653F1D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB7C20EB-BCB3-1B4D-BF98-69CE6B489A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20520" yWindow="700" windowWidth="19740" windowHeight="20660" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
+    <workbookView xWindow="21060" yWindow="600" windowWidth="19740" windowHeight="20660" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,12 +91,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -122,6 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -437,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:X186"/>
+  <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="L173" sqref="L173"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="H194" sqref="H194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7610,7 +7618,7 @@
       <c r="C181">
         <v>552</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="11">
         <v>154</v>
       </c>
       <c r="F181">
@@ -7619,6 +7627,7 @@
       <c r="G181">
         <v>510</v>
       </c>
+      <c r="H181" s="11"/>
       <c r="K181">
         <v>973</v>
       </c>
@@ -7633,7 +7642,7 @@
       <c r="B182">
         <v>381</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="11">
         <v>163</v>
       </c>
       <c r="F182">
@@ -7642,6 +7651,7 @@
       <c r="G182">
         <v>511</v>
       </c>
+      <c r="H182" s="11"/>
       <c r="I182">
         <v>615</v>
       </c>
@@ -7662,9 +7672,11 @@
       <c r="B183">
         <v>382</v>
       </c>
+      <c r="E183" s="11"/>
       <c r="F183">
         <v>3309</v>
       </c>
+      <c r="H183" s="11"/>
       <c r="I183">
         <v>618</v>
       </c>
@@ -7679,9 +7691,11 @@
       <c r="A184" s="9">
         <v>44064</v>
       </c>
+      <c r="E184" s="11"/>
       <c r="F184">
         <v>3315</v>
       </c>
+      <c r="H184" s="11"/>
       <c r="K184">
         <v>1012</v>
       </c>
@@ -7696,6 +7710,8 @@
       <c r="B185">
         <v>384</v>
       </c>
+      <c r="E185" s="11"/>
+      <c r="H185" s="11"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
@@ -7710,7 +7726,7 @@
       <c r="D186">
         <v>173</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="11">
         <v>165</v>
       </c>
       <c r="F186">
@@ -7719,7 +7735,7 @@
       <c r="G186">
         <v>512</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="11">
         <v>318</v>
       </c>
       <c r="I186">
@@ -7733,6 +7749,74 @@
       </c>
       <c r="L186">
         <v>2915</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" s="9">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" s="9">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190" s="9">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191" s="9">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192" s="9">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193" s="9">
+        <v>44073</v>
+      </c>
+      <c r="B193">
+        <v>406</v>
+      </c>
+      <c r="C193">
+        <v>568</v>
+      </c>
+      <c r="D193">
+        <v>181</v>
+      </c>
+      <c r="E193">
+        <v>180</v>
+      </c>
+      <c r="F193">
+        <v>3439</v>
+      </c>
+      <c r="G193">
+        <v>526</v>
+      </c>
+      <c r="H193">
+        <v>322</v>
+      </c>
+      <c r="I193">
+        <v>626</v>
+      </c>
+      <c r="J193">
+        <v>356</v>
+      </c>
+      <c r="K193">
+        <v>1062</v>
+      </c>
+      <c r="L193">
+        <v>2976</v>
       </c>
     </row>
   </sheetData>
@@ -7754,9 +7838,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:163" x14ac:dyDescent="0.2">
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2"/>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB7C20EB-BCB3-1B4D-BF98-69CE6B489A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4170D87-978B-6147-868F-1839929642E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21060" yWindow="600" windowWidth="19740" windowHeight="20660" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -445,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:X193"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="H194" sqref="H194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1885,7 +1884,7 @@
         <v>154</v>
       </c>
       <c r="I38">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J38">
         <v>171</v>
@@ -1923,7 +1922,7 @@
         <v>157</v>
       </c>
       <c r="I39">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J39">
         <v>176</v>
@@ -1961,7 +1960,7 @@
         <v>163</v>
       </c>
       <c r="I40">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J40">
         <v>185</v>
@@ -1999,7 +1998,7 @@
         <v>168</v>
       </c>
       <c r="I41">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J41">
         <v>191</v>
@@ -2037,7 +2036,7 @@
         <v>174</v>
       </c>
       <c r="I42">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J42">
         <v>195</v>
@@ -2075,7 +2074,7 @@
         <v>180</v>
       </c>
       <c r="I43">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J43">
         <v>208</v>
@@ -2113,7 +2112,7 @@
         <v>183</v>
       </c>
       <c r="I44">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J44">
         <v>218</v>
@@ -2151,7 +2150,7 @@
         <v>185</v>
       </c>
       <c r="I45">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J45">
         <v>224</v>
@@ -2189,7 +2188,7 @@
         <v>185</v>
       </c>
       <c r="I46">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J46">
         <v>229</v>
@@ -2215,7 +2214,7 @@
         <v>120</v>
       </c>
       <c r="E47">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47">
         <v>1714</v>
@@ -2227,7 +2226,7 @@
         <v>188</v>
       </c>
       <c r="I47">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J47">
         <v>234</v>
@@ -2253,7 +2252,7 @@
         <v>121</v>
       </c>
       <c r="E48">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F48">
         <v>1767</v>
@@ -2265,7 +2264,7 @@
         <v>190</v>
       </c>
       <c r="I48">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J48">
         <v>236</v>
@@ -2291,7 +2290,7 @@
         <v>121</v>
       </c>
       <c r="E49">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49">
         <v>1809</v>
@@ -2303,7 +2302,7 @@
         <v>191</v>
       </c>
       <c r="I49">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J49">
         <v>239</v>
@@ -2329,7 +2328,7 @@
         <v>121</v>
       </c>
       <c r="E50">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50">
         <v>1858</v>
@@ -2341,7 +2340,7 @@
         <v>192</v>
       </c>
       <c r="I50">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J50">
         <v>240</v>
@@ -2367,7 +2366,7 @@
         <v>122</v>
       </c>
       <c r="E51">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F51">
         <v>1888</v>
@@ -2379,7 +2378,7 @@
         <v>194</v>
       </c>
       <c r="I51">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J51">
         <v>241</v>
@@ -2405,7 +2404,7 @@
         <v>123</v>
       </c>
       <c r="E52">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F52">
         <v>1926</v>
@@ -2417,7 +2416,7 @@
         <v>198</v>
       </c>
       <c r="I52">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J52">
         <v>247</v>
@@ -2443,7 +2442,7 @@
         <v>123</v>
       </c>
       <c r="E53">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F53">
         <v>1959</v>
@@ -2455,7 +2454,7 @@
         <v>201</v>
       </c>
       <c r="I53">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J53">
         <v>248</v>
@@ -2481,7 +2480,7 @@
         <v>123</v>
       </c>
       <c r="E54">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F54">
         <v>1991</v>
@@ -2493,7 +2492,7 @@
         <v>205</v>
       </c>
       <c r="I54">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J54">
         <v>250</v>
@@ -2519,7 +2518,7 @@
         <v>123</v>
       </c>
       <c r="E55">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55">
         <v>2032</v>
@@ -2531,7 +2530,7 @@
         <v>206</v>
       </c>
       <c r="I55">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J55">
         <v>251</v>
@@ -2557,7 +2556,7 @@
         <v>124</v>
       </c>
       <c r="E56">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F56">
         <v>2076</v>
@@ -2569,7 +2568,7 @@
         <v>211</v>
       </c>
       <c r="I56">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J56">
         <v>252</v>
@@ -2595,7 +2594,7 @@
         <v>124</v>
       </c>
       <c r="E57">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57">
         <v>2100</v>
@@ -2607,7 +2606,7 @@
         <v>214</v>
       </c>
       <c r="I57">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J57">
         <v>259</v>
@@ -2633,7 +2632,7 @@
         <v>125</v>
       </c>
       <c r="E58">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F58">
         <v>2137</v>
@@ -2645,7 +2644,7 @@
         <v>219</v>
       </c>
       <c r="I58">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J58">
         <v>260</v>
@@ -2671,7 +2670,7 @@
         <v>125</v>
       </c>
       <c r="E59">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F59">
         <v>2154</v>
@@ -2683,7 +2682,7 @@
         <v>224</v>
       </c>
       <c r="I59">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J59">
         <v>261</v>
@@ -2709,7 +2708,7 @@
         <v>125</v>
       </c>
       <c r="E60">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F60">
         <v>2180</v>
@@ -2721,7 +2720,7 @@
         <v>227</v>
       </c>
       <c r="I60">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J60">
         <v>261</v>
@@ -2747,7 +2746,7 @@
         <v>127</v>
       </c>
       <c r="E61">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F61">
         <v>2217</v>
@@ -2759,10 +2758,10 @@
         <v>229</v>
       </c>
       <c r="I61">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J61">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K61">
         <v>810</v>
@@ -2785,7 +2784,7 @@
         <v>127</v>
       </c>
       <c r="E62">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F62">
         <v>2247</v>
@@ -2797,10 +2796,10 @@
         <v>230</v>
       </c>
       <c r="I62">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J62">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K62">
         <v>821</v>
@@ -2823,7 +2822,7 @@
         <v>127</v>
       </c>
       <c r="E63">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F63">
         <v>2283</v>
@@ -2835,10 +2834,10 @@
         <v>233</v>
       </c>
       <c r="I63">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J63">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K63">
         <v>827</v>
@@ -2861,7 +2860,7 @@
         <v>127</v>
       </c>
       <c r="E64">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F64">
         <v>2296</v>
@@ -2873,10 +2872,10 @@
         <v>233</v>
       </c>
       <c r="I64">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J64">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K64">
         <v>830</v>
@@ -2899,7 +2898,7 @@
         <v>127</v>
       </c>
       <c r="E65">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F65">
         <v>2311</v>
@@ -2911,10 +2910,10 @@
         <v>234</v>
       </c>
       <c r="I65">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J65">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K65">
         <v>837</v>
@@ -2937,7 +2936,7 @@
         <v>128</v>
       </c>
       <c r="E66">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F66">
         <v>2320</v>
@@ -2949,10 +2948,10 @@
         <v>234</v>
       </c>
       <c r="I66">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J66">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K66">
         <v>840</v>
@@ -2975,7 +2974,7 @@
         <v>129</v>
       </c>
       <c r="E67">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F67">
         <v>2339</v>
@@ -2987,10 +2986,10 @@
         <v>235</v>
       </c>
       <c r="I67">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J67">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K67">
         <v>841</v>
@@ -3013,7 +3012,7 @@
         <v>130</v>
       </c>
       <c r="E68">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F68">
         <v>2357</v>
@@ -3025,10 +3024,10 @@
         <v>239</v>
       </c>
       <c r="I68">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J68">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K68">
         <v>852</v>
@@ -3051,7 +3050,7 @@
         <v>130</v>
       </c>
       <c r="E69">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F69">
         <v>2376</v>
@@ -3063,10 +3062,10 @@
         <v>242</v>
       </c>
       <c r="I69">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J69">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K69">
         <v>856</v>
@@ -3089,7 +3088,7 @@
         <v>130</v>
       </c>
       <c r="E70">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F70">
         <v>2388</v>
@@ -3101,10 +3100,10 @@
         <v>242</v>
       </c>
       <c r="I70">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J70">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K70">
         <v>859</v>
@@ -3127,7 +3126,7 @@
         <v>131</v>
       </c>
       <c r="E71">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F71">
         <v>2401</v>
@@ -3139,10 +3138,10 @@
         <v>244</v>
       </c>
       <c r="I71">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J71">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K71">
         <v>863</v>
@@ -3165,7 +3164,7 @@
         <v>131</v>
       </c>
       <c r="E72">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F72">
         <v>2423</v>
@@ -3177,10 +3176,10 @@
         <v>244</v>
       </c>
       <c r="I72">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J72">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K72">
         <v>864</v>
@@ -3203,7 +3202,7 @@
         <v>131</v>
       </c>
       <c r="E73">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F73">
         <v>2431</v>
@@ -3215,10 +3214,10 @@
         <v>247</v>
       </c>
       <c r="I73">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J73">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K73">
         <v>867</v>
@@ -3241,7 +3240,7 @@
         <v>131</v>
       </c>
       <c r="E74">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F74">
         <v>2453</v>
@@ -3253,10 +3252,10 @@
         <v>248</v>
       </c>
       <c r="I74">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J74">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K74">
         <v>869</v>
@@ -3279,7 +3278,7 @@
         <v>131</v>
       </c>
       <c r="E75">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F75">
         <v>2469</v>
@@ -3291,10 +3290,10 @@
         <v>248</v>
       </c>
       <c r="I75">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J75">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K75">
         <v>869</v>
@@ -3317,7 +3316,7 @@
         <v>132</v>
       </c>
       <c r="E76">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F76">
         <v>2488</v>
@@ -3329,10 +3328,10 @@
         <v>250</v>
       </c>
       <c r="I76">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J76">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K76">
         <v>871</v>
@@ -3355,7 +3354,7 @@
         <v>132</v>
       </c>
       <c r="E77">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F77">
         <v>2502</v>
@@ -3367,10 +3366,10 @@
         <v>251</v>
       </c>
       <c r="I77">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J77">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K77">
         <v>872</v>
@@ -3393,7 +3392,7 @@
         <v>132</v>
       </c>
       <c r="E78">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F78">
         <v>2513</v>
@@ -3405,10 +3404,10 @@
         <v>251</v>
       </c>
       <c r="I78">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J78">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K78">
         <v>873</v>
@@ -3431,7 +3430,7 @@
         <v>132</v>
       </c>
       <c r="E79">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F79">
         <v>2530</v>
@@ -3443,16 +3442,16 @@
         <v>251</v>
       </c>
       <c r="I79">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J79">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K79">
         <v>874</v>
       </c>
       <c r="L79">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3469,7 +3468,7 @@
         <v>133</v>
       </c>
       <c r="E80">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F80">
         <v>2534</v>
@@ -3481,16 +3480,16 @@
         <v>252</v>
       </c>
       <c r="I80">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J80">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K80">
         <v>875</v>
       </c>
       <c r="L80">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3507,7 +3506,7 @@
         <v>136</v>
       </c>
       <c r="E81">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F81">
         <v>2538</v>
@@ -3519,16 +3518,16 @@
         <v>252</v>
       </c>
       <c r="I81">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J81">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K81">
         <v>875</v>
       </c>
       <c r="L81">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3545,7 +3544,7 @@
         <v>136</v>
       </c>
       <c r="E82">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F82">
         <v>2545</v>
@@ -3557,16 +3556,16 @@
         <v>252</v>
       </c>
       <c r="I82">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J82">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K82">
         <v>876</v>
       </c>
       <c r="L82">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3583,7 +3582,7 @@
         <v>137</v>
       </c>
       <c r="E83">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F83">
         <v>2549</v>
@@ -3595,16 +3594,16 @@
         <v>252</v>
       </c>
       <c r="I83">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J83">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K83">
         <v>876</v>
       </c>
       <c r="L83">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3621,7 +3620,7 @@
         <v>137</v>
       </c>
       <c r="E84">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F84">
         <v>2554</v>
@@ -3633,16 +3632,16 @@
         <v>252</v>
       </c>
       <c r="I84">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J84">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K84">
         <v>876</v>
       </c>
       <c r="L84">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3659,7 +3658,7 @@
         <v>137</v>
       </c>
       <c r="E85">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F85">
         <v>2563</v>
@@ -3671,16 +3670,16 @@
         <v>253</v>
       </c>
       <c r="I85">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J85">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K85">
         <v>876</v>
       </c>
       <c r="L85">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3697,7 +3696,7 @@
         <v>138</v>
       </c>
       <c r="E86">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F86">
         <v>2567</v>
@@ -3709,16 +3708,16 @@
         <v>253</v>
       </c>
       <c r="I86">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J86">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K86">
         <v>876</v>
       </c>
       <c r="L86">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3735,7 +3734,7 @@
         <v>138</v>
       </c>
       <c r="E87">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F87">
         <v>2570</v>
@@ -3747,16 +3746,16 @@
         <v>253</v>
       </c>
       <c r="I87">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J87">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K87">
         <v>876</v>
       </c>
       <c r="L87">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3773,7 +3772,7 @@
         <v>138</v>
       </c>
       <c r="E88">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F88">
         <v>2570</v>
@@ -3785,16 +3784,16 @@
         <v>253</v>
       </c>
       <c r="I88">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J88">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K88">
         <v>876</v>
       </c>
       <c r="L88">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3811,7 +3810,7 @@
         <v>138</v>
       </c>
       <c r="E89">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F89">
         <v>2575</v>
@@ -3823,16 +3822,16 @@
         <v>253</v>
       </c>
       <c r="I89">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J89">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K89">
         <v>877</v>
       </c>
       <c r="L89">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3849,7 +3848,7 @@
         <v>138</v>
       </c>
       <c r="E90">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F90">
         <v>2580</v>
@@ -3861,16 +3860,16 @@
         <v>253</v>
       </c>
       <c r="I90">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J90">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K90">
         <v>878</v>
       </c>
       <c r="L90">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3887,7 +3886,7 @@
         <v>138</v>
       </c>
       <c r="E91">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F91">
         <v>2586</v>
@@ -3899,16 +3898,16 @@
         <v>253</v>
       </c>
       <c r="I91">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J91">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K91">
         <v>878</v>
       </c>
       <c r="L91">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3925,7 +3924,7 @@
         <v>138</v>
       </c>
       <c r="E92">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F92">
         <v>2597</v>
@@ -3937,16 +3936,16 @@
         <v>253</v>
       </c>
       <c r="I92">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J92">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K92">
         <v>878</v>
       </c>
       <c r="L92">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3963,7 +3962,7 @@
         <v>138</v>
       </c>
       <c r="E93">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F93">
         <v>2608</v>
@@ -3975,16 +3974,16 @@
         <v>253</v>
       </c>
       <c r="I93">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J93">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K93">
         <v>879</v>
       </c>
       <c r="L93">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -4001,7 +4000,7 @@
         <v>138</v>
       </c>
       <c r="E94">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F94">
         <v>2614</v>
@@ -4013,16 +4012,16 @@
         <v>253</v>
       </c>
       <c r="I94">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J94">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K94">
         <v>879</v>
       </c>
       <c r="L94">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -4039,7 +4038,7 @@
         <v>138</v>
       </c>
       <c r="E95">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F95">
         <v>2617</v>
@@ -4051,16 +4050,16 @@
         <v>253</v>
       </c>
       <c r="I95">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J95">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K95">
         <v>879</v>
       </c>
       <c r="L95">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -4077,7 +4076,7 @@
         <v>138</v>
       </c>
       <c r="E96">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F96">
         <v>2622</v>
@@ -4089,16 +4088,16 @@
         <v>253</v>
       </c>
       <c r="I96">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J96">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K96">
         <v>879</v>
       </c>
       <c r="L96">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -4115,7 +4114,7 @@
         <v>140</v>
       </c>
       <c r="E97">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F97">
         <v>2624</v>
@@ -4127,16 +4126,16 @@
         <v>253</v>
       </c>
       <c r="I97">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J97">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K97">
         <v>879</v>
       </c>
       <c r="L97">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -4153,7 +4152,7 @@
         <v>140</v>
       </c>
       <c r="E98">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F98">
         <v>2630</v>
@@ -4165,16 +4164,16 @@
         <v>253</v>
       </c>
       <c r="I98">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J98">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K98">
         <v>879</v>
       </c>
       <c r="L98">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -4191,7 +4190,7 @@
         <v>144</v>
       </c>
       <c r="E99">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F99">
         <v>2636</v>
@@ -4203,16 +4202,16 @@
         <v>253</v>
       </c>
       <c r="I99">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J99">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K99">
         <v>879</v>
       </c>
       <c r="L99">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -4229,7 +4228,7 @@
         <v>150</v>
       </c>
       <c r="E100">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F100">
         <v>2639</v>
@@ -4241,16 +4240,16 @@
         <v>253</v>
       </c>
       <c r="I100">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J100">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K100">
         <v>879</v>
       </c>
       <c r="L100">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -4267,7 +4266,7 @@
         <v>150</v>
       </c>
       <c r="E101">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F101">
         <v>2639</v>
@@ -4279,16 +4278,16 @@
         <v>253</v>
       </c>
       <c r="I101">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J101">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K101">
         <v>879</v>
       </c>
       <c r="L101">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -4305,7 +4304,7 @@
         <v>150</v>
       </c>
       <c r="E102">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F102">
         <v>2641</v>
@@ -4317,16 +4316,16 @@
         <v>253</v>
       </c>
       <c r="I102">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J102">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K102">
         <v>879</v>
       </c>
       <c r="L102">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -4343,7 +4342,7 @@
         <v>150</v>
       </c>
       <c r="E103">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F103">
         <v>2645</v>
@@ -4355,16 +4354,16 @@
         <v>253</v>
       </c>
       <c r="I103">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J103">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K103">
         <v>879</v>
       </c>
       <c r="L103">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4381,7 +4380,7 @@
         <v>150</v>
       </c>
       <c r="E104">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F104">
         <v>2669</v>
@@ -4393,16 +4392,16 @@
         <v>253</v>
       </c>
       <c r="I104">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J104">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K104">
         <v>880</v>
       </c>
       <c r="L104">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4419,7 +4418,7 @@
         <v>150</v>
       </c>
       <c r="E105">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F105">
         <v>2674</v>
@@ -4431,16 +4430,16 @@
         <v>253</v>
       </c>
       <c r="I105">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J105">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K105">
         <v>881</v>
       </c>
       <c r="L105">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4457,7 +4456,7 @@
         <v>150</v>
       </c>
       <c r="E106">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F106">
         <v>2689</v>
@@ -4469,16 +4468,16 @@
         <v>253</v>
       </c>
       <c r="I106">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J106">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K106">
         <v>881</v>
       </c>
       <c r="L106">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4495,7 +4494,7 @@
         <v>150</v>
       </c>
       <c r="E107">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F107">
         <v>2710</v>
@@ -4507,16 +4506,16 @@
         <v>253</v>
       </c>
       <c r="I107">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J107">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K107">
         <v>882</v>
       </c>
       <c r="L107">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4533,7 +4532,7 @@
         <v>150</v>
       </c>
       <c r="E108">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F108">
         <v>2716</v>
@@ -4545,16 +4544,16 @@
         <v>253</v>
       </c>
       <c r="I108">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J108">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K108">
         <v>882</v>
       </c>
       <c r="L108">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4571,7 +4570,7 @@
         <v>150</v>
       </c>
       <c r="E109">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F109">
         <v>2724</v>
@@ -4583,16 +4582,16 @@
         <v>253</v>
       </c>
       <c r="I109">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J109">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K109">
         <v>882</v>
       </c>
       <c r="L109">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4609,7 +4608,7 @@
         <v>151</v>
       </c>
       <c r="E110">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F110">
         <v>2729</v>
@@ -4621,16 +4620,16 @@
         <v>254</v>
       </c>
       <c r="I110">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J110">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K110">
         <v>884</v>
       </c>
       <c r="L110">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4647,7 +4646,7 @@
         <v>151</v>
       </c>
       <c r="E111">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F111">
         <v>2737</v>
@@ -4659,16 +4658,16 @@
         <v>254</v>
       </c>
       <c r="I111">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J111">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K111">
         <v>884</v>
       </c>
       <c r="L111">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4685,7 +4684,7 @@
         <v>151</v>
       </c>
       <c r="E112">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F112">
         <v>2750</v>
@@ -4697,16 +4696,16 @@
         <v>254</v>
       </c>
       <c r="I112">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J112">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K112">
         <v>884</v>
       </c>
       <c r="L112">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4723,7 +4722,7 @@
         <v>152</v>
       </c>
       <c r="E113">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F113">
         <v>2756</v>
@@ -4735,16 +4734,16 @@
         <v>254</v>
       </c>
       <c r="I113">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J113">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K113">
         <v>884</v>
       </c>
       <c r="L113">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4761,7 +4760,7 @@
         <v>152</v>
       </c>
       <c r="E114">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F114">
         <v>2762</v>
@@ -4773,16 +4772,16 @@
         <v>254</v>
       </c>
       <c r="I114">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J114">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K114">
         <v>884</v>
       </c>
       <c r="L114">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4799,7 +4798,7 @@
         <v>153</v>
       </c>
       <c r="E115">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F115">
         <v>2766</v>
@@ -4811,16 +4810,16 @@
         <v>254</v>
       </c>
       <c r="I115">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J115">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K115">
         <v>884</v>
       </c>
       <c r="L115">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4837,7 +4836,7 @@
         <v>153</v>
       </c>
       <c r="E116">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F116">
         <v>2772</v>
@@ -4849,16 +4848,16 @@
         <v>254</v>
       </c>
       <c r="I116">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J116">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K116">
         <v>884</v>
       </c>
       <c r="L116">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4875,7 +4874,7 @@
         <v>153</v>
       </c>
       <c r="E117">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F117">
         <v>2779</v>
@@ -4887,16 +4886,16 @@
         <v>254</v>
       </c>
       <c r="I117">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J117">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K117">
         <v>884</v>
       </c>
       <c r="L117">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4913,7 +4912,7 @@
         <v>153</v>
       </c>
       <c r="E118">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F118">
         <v>2802</v>
@@ -4925,16 +4924,16 @@
         <v>254</v>
       </c>
       <c r="I118">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J118">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K118">
         <v>884</v>
       </c>
       <c r="L118">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4951,7 +4950,7 @@
         <v>153</v>
       </c>
       <c r="E119">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F119">
         <v>2806</v>
@@ -4963,16 +4962,16 @@
         <v>254</v>
       </c>
       <c r="I119">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J119">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K119">
         <v>886</v>
       </c>
       <c r="L119">
-        <v>2363</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4989,7 +4988,7 @@
         <v>153</v>
       </c>
       <c r="E120">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F120">
         <v>2813</v>
@@ -5001,16 +5000,16 @@
         <v>254</v>
       </c>
       <c r="I120">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J120">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K120">
         <v>886</v>
       </c>
       <c r="L120">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -5027,7 +5026,7 @@
         <v>153</v>
       </c>
       <c r="E121">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F121">
         <v>2820</v>
@@ -5039,16 +5038,16 @@
         <v>255</v>
       </c>
       <c r="I121">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J121">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K121">
         <v>886</v>
       </c>
       <c r="L121">
-        <v>2372</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -5065,7 +5064,7 @@
         <v>153</v>
       </c>
       <c r="E122">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F122">
         <v>2825</v>
@@ -5077,16 +5076,16 @@
         <v>255</v>
       </c>
       <c r="I122">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J122">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K122">
         <v>886</v>
       </c>
       <c r="L122">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -5103,7 +5102,7 @@
         <v>153</v>
       </c>
       <c r="E123">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F123">
         <v>2827</v>
@@ -5115,16 +5114,16 @@
         <v>255</v>
       </c>
       <c r="I123">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J123">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K123">
         <v>886</v>
       </c>
       <c r="L123">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -5141,7 +5140,7 @@
         <v>153</v>
       </c>
       <c r="E124">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F124">
         <v>2834</v>
@@ -5153,16 +5152,16 @@
         <v>255</v>
       </c>
       <c r="I124">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J124">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K124">
         <v>889</v>
       </c>
       <c r="L124">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -5179,7 +5178,7 @@
         <v>155</v>
       </c>
       <c r="E125">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F125">
         <v>2840</v>
@@ -5191,16 +5190,16 @@
         <v>255</v>
       </c>
       <c r="I125">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J125">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K125">
         <v>889</v>
       </c>
       <c r="L125">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -5217,7 +5216,7 @@
         <v>155</v>
       </c>
       <c r="E126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F126">
         <v>2846</v>
@@ -5229,16 +5228,16 @@
         <v>255</v>
       </c>
       <c r="I126">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J126">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K126">
         <v>889</v>
       </c>
       <c r="L126">
-        <v>2408</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -5255,7 +5254,7 @@
         <v>156</v>
       </c>
       <c r="E127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F127">
         <v>2851</v>
@@ -5267,16 +5266,16 @@
         <v>255</v>
       </c>
       <c r="I127">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J127">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K127">
         <v>890</v>
       </c>
       <c r="L127">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -5293,10 +5292,10 @@
         <v>159</v>
       </c>
       <c r="E128">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F128">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="G128">
         <v>443</v>
@@ -5305,16 +5304,16 @@
         <v>255</v>
       </c>
       <c r="I128">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J128">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K128">
         <v>890</v>
       </c>
       <c r="L128">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -5331,10 +5330,10 @@
         <v>159</v>
       </c>
       <c r="E129">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F129">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="G129">
         <v>443</v>
@@ -5343,16 +5342,16 @@
         <v>255</v>
       </c>
       <c r="I129">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J129">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K129">
         <v>890</v>
       </c>
       <c r="L129">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -5369,10 +5368,10 @@
         <v>159</v>
       </c>
       <c r="E130">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F130">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="G130">
         <v>443</v>
@@ -5381,16 +5380,16 @@
         <v>255</v>
       </c>
       <c r="I130">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J130">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K130">
         <v>890</v>
       </c>
       <c r="L130">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -5407,10 +5406,10 @@
         <v>159</v>
       </c>
       <c r="E131">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F131">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="G131">
         <v>443</v>
@@ -5419,16 +5418,16 @@
         <v>255</v>
       </c>
       <c r="I131">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J131">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K131">
         <v>892</v>
       </c>
       <c r="L131">
-        <v>2450</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -5445,10 +5444,10 @@
         <v>159</v>
       </c>
       <c r="E132">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F132">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="G132">
         <v>444</v>
@@ -5457,16 +5456,16 @@
         <v>255</v>
       </c>
       <c r="I132">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J132">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K132">
         <v>892</v>
       </c>
       <c r="L132">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -5483,10 +5482,10 @@
         <v>159</v>
       </c>
       <c r="E133">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F133">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="G133">
         <v>444</v>
@@ -5495,16 +5494,16 @@
         <v>255</v>
       </c>
       <c r="I133">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J133">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K133">
         <v>893</v>
       </c>
       <c r="L133">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -5521,10 +5520,10 @@
         <v>159</v>
       </c>
       <c r="E134">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F134">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="G134">
         <v>444</v>
@@ -5533,16 +5532,16 @@
         <v>255</v>
       </c>
       <c r="I134">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J134">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K134">
         <v>893</v>
       </c>
       <c r="L134">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -5559,10 +5558,10 @@
         <v>159</v>
       </c>
       <c r="E135">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F135">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="G135">
         <v>444</v>
@@ -5571,16 +5570,16 @@
         <v>255</v>
       </c>
       <c r="I135">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J135">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K135">
         <v>893</v>
       </c>
       <c r="L135">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -5597,10 +5596,10 @@
         <v>159</v>
       </c>
       <c r="E136">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F136">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="G136">
         <v>444</v>
@@ -5609,16 +5608,16 @@
         <v>255</v>
       </c>
       <c r="I136">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J136">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K136">
         <v>893</v>
       </c>
       <c r="L136">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5635,10 +5634,10 @@
         <v>160</v>
       </c>
       <c r="E137">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F137">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="G137">
         <v>444</v>
@@ -5647,16 +5646,16 @@
         <v>255</v>
       </c>
       <c r="I137">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J137">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K137">
         <v>893</v>
       </c>
       <c r="L137">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5673,10 +5672,10 @@
         <v>160</v>
       </c>
       <c r="E138">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F138">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="G138">
         <v>444</v>
@@ -5685,16 +5684,16 @@
         <v>255</v>
       </c>
       <c r="I138">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J138">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K138">
         <v>893</v>
       </c>
       <c r="L138">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5711,10 +5710,10 @@
         <v>160</v>
       </c>
       <c r="E139">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F139">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="G139">
         <v>444</v>
@@ -5723,16 +5722,16 @@
         <v>256</v>
       </c>
       <c r="I139">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J139">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K139">
         <v>893</v>
       </c>
       <c r="L139">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5749,28 +5748,28 @@
         <v>160</v>
       </c>
       <c r="E140">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F140">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="G140">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H140">
         <v>257</v>
       </c>
       <c r="I140">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J140" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K140">
         <v>893</v>
       </c>
       <c r="L140">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5787,10 +5786,10 @@
         <v>160</v>
       </c>
       <c r="E141">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F141">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="G141">
         <v>445</v>
@@ -5799,16 +5798,16 @@
         <v>257</v>
       </c>
       <c r="I141">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J141" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K141">
         <v>895</v>
       </c>
       <c r="L141">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5825,10 +5824,10 @@
         <v>160</v>
       </c>
       <c r="E142">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F142">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="G142">
         <v>445</v>
@@ -5837,16 +5836,16 @@
         <v>257</v>
       </c>
       <c r="I142">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J142" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K142">
         <v>895</v>
       </c>
       <c r="L142">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5863,10 +5862,10 @@
         <v>160</v>
       </c>
       <c r="E143">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F143">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="G143">
         <v>445</v>
@@ -5875,16 +5874,16 @@
         <v>257</v>
       </c>
       <c r="I143">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J143" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K143">
         <v>895</v>
       </c>
       <c r="L143">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5901,10 +5900,10 @@
         <v>160</v>
       </c>
       <c r="E144">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F144">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="G144">
         <v>448</v>
@@ -5913,16 +5912,16 @@
         <v>257</v>
       </c>
       <c r="I144">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J144" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K144">
         <v>895</v>
       </c>
       <c r="L144">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
@@ -5939,10 +5938,10 @@
         <v>160</v>
       </c>
       <c r="E145">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F145">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="G145">
         <v>450</v>
@@ -5951,16 +5950,16 @@
         <v>258</v>
       </c>
       <c r="I145">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J145" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K145">
         <v>895</v>
       </c>
       <c r="L145">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
@@ -5988,10 +5987,10 @@
         <v>160</v>
       </c>
       <c r="E146">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F146">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="G146">
         <v>450</v>
@@ -6000,16 +5999,16 @@
         <v>258</v>
       </c>
       <c r="I146">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J146" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K146">
         <v>895</v>
       </c>
       <c r="L146">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="N146" s="8"/>
       <c r="O146" s="8"/>
@@ -6037,10 +6036,10 @@
         <v>160</v>
       </c>
       <c r="E147">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F147">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="G147">
         <v>450</v>
@@ -6049,16 +6048,16 @@
         <v>258</v>
       </c>
       <c r="I147">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J147" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K147">
         <v>895</v>
       </c>
       <c r="L147">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
@@ -6086,10 +6085,10 @@
         <v>160</v>
       </c>
       <c r="E148">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F148">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="G148">
         <v>450</v>
@@ -6098,16 +6097,16 @@
         <v>258</v>
       </c>
       <c r="I148">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J148" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K148">
         <v>895</v>
       </c>
       <c r="L148">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="N148" s="8"/>
       <c r="O148" s="8"/>
@@ -6135,10 +6134,10 @@
         <v>160</v>
       </c>
       <c r="E149">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F149">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="G149">
         <v>451</v>
@@ -6150,13 +6149,13 @@
         <v>545</v>
       </c>
       <c r="J149" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K149">
         <v>897</v>
       </c>
       <c r="L149">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
@@ -6184,10 +6183,10 @@
         <v>160</v>
       </c>
       <c r="E150">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F150">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="G150">
         <v>451</v>
@@ -6199,13 +6198,13 @@
         <v>545</v>
       </c>
       <c r="J150" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K150">
         <v>897</v>
       </c>
       <c r="L150">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
@@ -6233,10 +6232,10 @@
         <v>160</v>
       </c>
       <c r="E151">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F151">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="G151">
         <v>451</v>
@@ -6248,13 +6247,13 @@
         <v>545</v>
       </c>
       <c r="J151" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K151">
         <v>897</v>
       </c>
       <c r="L151">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="N151" s="8"/>
       <c r="O151" s="8"/>
@@ -6282,10 +6281,10 @@
         <v>160</v>
       </c>
       <c r="E152" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F152">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="G152">
         <v>452</v>
@@ -6297,13 +6296,13 @@
         <v>545</v>
       </c>
       <c r="J152" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K152">
         <v>897</v>
       </c>
       <c r="L152">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
@@ -6331,10 +6330,10 @@
         <v>160</v>
       </c>
       <c r="E153" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F153">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="G153">
         <v>453</v>
@@ -6346,13 +6345,13 @@
         <v>546</v>
       </c>
       <c r="J153" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K153">
         <v>898</v>
       </c>
       <c r="L153">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
@@ -6380,10 +6379,10 @@
         <v>160</v>
       </c>
       <c r="E154" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F154">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="G154">
         <v>453</v>
@@ -6395,13 +6394,13 @@
         <v>549</v>
       </c>
       <c r="J154">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K154">
         <v>900</v>
       </c>
       <c r="L154">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
@@ -6429,10 +6428,10 @@
         <v>160</v>
       </c>
       <c r="E155" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F155">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="G155">
         <v>454</v>
@@ -6444,13 +6443,13 @@
         <v>549</v>
       </c>
       <c r="J155">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K155">
         <v>900</v>
       </c>
       <c r="L155">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="N155" s="8"/>
       <c r="O155" s="8"/>
@@ -6478,13 +6477,13 @@
         <v>160</v>
       </c>
       <c r="E156" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F156">
         <v>2948</v>
       </c>
       <c r="G156">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H156" s="5">
         <v>258</v>
@@ -6493,13 +6492,13 @@
         <v>550</v>
       </c>
       <c r="J156">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K156">
         <v>901</v>
       </c>
       <c r="L156">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
@@ -6527,13 +6526,13 @@
         <v>160</v>
       </c>
       <c r="E157" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F157">
         <v>2952</v>
       </c>
       <c r="G157">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H157" s="5">
         <v>258</v>
@@ -6542,13 +6541,13 @@
         <v>550</v>
       </c>
       <c r="J157">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K157" s="5">
         <v>901</v>
       </c>
       <c r="L157">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
@@ -6576,13 +6575,13 @@
         <v>160</v>
       </c>
       <c r="E158" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F158">
         <v>2952</v>
       </c>
       <c r="G158">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H158" s="5">
         <v>258</v>
@@ -6591,13 +6590,13 @@
         <v>551</v>
       </c>
       <c r="J158">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K158" s="5">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L158">
-        <v>2542</v>
+        <v>2546</v>
       </c>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
@@ -6631,7 +6630,7 @@
         <v>2960</v>
       </c>
       <c r="G159" s="6">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H159" s="6">
         <v>258</v>
@@ -6640,13 +6639,13 @@
         <v>552</v>
       </c>
       <c r="J159" s="6">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K159" s="6">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="L159" s="6">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="N159" s="8"/>
       <c r="O159" s="8"/>
@@ -6680,7 +6679,7 @@
         <v>2965</v>
       </c>
       <c r="G160" s="6">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H160" s="6">
         <v>258</v>
@@ -6689,13 +6688,13 @@
         <v>554</v>
       </c>
       <c r="J160" s="6">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K160" s="6">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="L160" s="6">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="N160" s="8"/>
       <c r="O160" s="8"/>
@@ -6729,7 +6728,7 @@
         <v>2972</v>
       </c>
       <c r="G161" s="6">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H161" s="6">
         <v>258</v>
@@ -6738,13 +6737,13 @@
         <v>554</v>
       </c>
       <c r="J161" s="6">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K161" s="6">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="L161" s="6">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="N161" s="8"/>
       <c r="O161" s="8"/>
@@ -6775,10 +6774,10 @@
         <v>130</v>
       </c>
       <c r="F162" s="6">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="G162" s="6">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H162" s="6">
         <v>258</v>
@@ -6787,13 +6786,13 @@
         <v>556</v>
       </c>
       <c r="J162" s="6">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K162" s="6">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="L162" s="6">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="N162" s="8"/>
       <c r="O162" s="8"/>
@@ -6824,10 +6823,10 @@
         <v>131</v>
       </c>
       <c r="F163" s="6">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="G163" s="6">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H163" s="6">
         <v>289</v>
@@ -6836,13 +6835,13 @@
         <v>556</v>
       </c>
       <c r="J163" s="6">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K163" s="6">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L163" s="6">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="N163" s="8"/>
       <c r="O163" s="8"/>
@@ -6873,10 +6872,10 @@
         <v>131</v>
       </c>
       <c r="F164" s="6">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="G164" s="6">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H164" s="6">
         <v>290</v>
@@ -6885,13 +6884,13 @@
         <v>556</v>
       </c>
       <c r="J164" s="6">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K164" s="6">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="L164" s="6">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="N164" s="8"/>
       <c r="O164" s="8"/>
@@ -6922,10 +6921,10 @@
         <v>131</v>
       </c>
       <c r="F165">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="G165">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H165">
         <v>291</v>
@@ -6934,13 +6933,13 @@
         <v>557</v>
       </c>
       <c r="J165">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K165">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="L165">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="N165" s="8"/>
       <c r="O165" s="8"/>
@@ -6971,10 +6970,10 @@
         <v>133</v>
       </c>
       <c r="F166" s="10">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="G166" s="10">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H166" s="10">
         <v>294</v>
@@ -6983,13 +6982,13 @@
         <v>560</v>
       </c>
       <c r="J166" s="10">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K166" s="10">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L166" s="10">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="N166" s="8"/>
       <c r="O166" s="8"/>
@@ -7020,10 +7019,10 @@
         <v>136</v>
       </c>
       <c r="F167" s="10">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="G167" s="10">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H167" s="10">
         <v>294</v>
@@ -7032,13 +7031,13 @@
         <v>564</v>
       </c>
       <c r="J167" s="10">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K167" s="10">
         <v>931</v>
       </c>
       <c r="L167" s="10">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="N167" s="8"/>
       <c r="O167" s="8"/>
@@ -7069,10 +7068,10 @@
         <v>138</v>
       </c>
       <c r="F168" s="10">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="G168" s="10">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H168" s="10">
         <v>296</v>
@@ -7081,13 +7080,13 @@
         <v>567</v>
       </c>
       <c r="J168" s="10">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K168" s="10">
         <v>935</v>
       </c>
       <c r="L168" s="10">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="N168" s="8"/>
       <c r="O168" s="8"/>
@@ -7118,10 +7117,10 @@
         <v>138</v>
       </c>
       <c r="F169" s="10">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="G169" s="10">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H169" s="10">
         <v>300</v>
@@ -7130,13 +7129,13 @@
         <v>571</v>
       </c>
       <c r="J169" s="10">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K169" s="10">
         <v>941</v>
       </c>
       <c r="L169" s="10">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="N169" s="8"/>
       <c r="O169" s="8"/>
@@ -7167,10 +7166,10 @@
         <v>138</v>
       </c>
       <c r="F170" s="10">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="G170" s="10">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H170" s="10">
         <v>300</v>
@@ -7179,13 +7178,13 @@
         <v>574</v>
       </c>
       <c r="J170" s="10">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K170" s="10">
         <v>942</v>
       </c>
       <c r="L170" s="10">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="N170" s="8"/>
       <c r="O170" s="8"/>
@@ -7216,10 +7215,10 @@
         <v>138</v>
       </c>
       <c r="F171" s="10">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="G171" s="10">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H171" s="10">
         <v>300</v>
@@ -7228,13 +7227,13 @@
         <v>579</v>
       </c>
       <c r="J171" s="10">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K171" s="10">
         <v>942</v>
       </c>
       <c r="L171" s="10">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="N171" s="8"/>
       <c r="O171" s="8"/>
@@ -7265,10 +7264,10 @@
         <v>138</v>
       </c>
       <c r="F172" s="10">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="G172" s="10">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H172" s="10">
         <v>300</v>
@@ -7277,13 +7276,13 @@
         <v>581</v>
       </c>
       <c r="J172" s="10">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K172">
         <v>943</v>
       </c>
       <c r="L172">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="N172" s="8"/>
       <c r="O172" s="8"/>
@@ -7314,10 +7313,10 @@
         <v>140</v>
       </c>
       <c r="F173" s="10">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="G173" s="10">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H173" s="10">
         <v>301</v>
@@ -7332,7 +7331,7 @@
         <v>946</v>
       </c>
       <c r="L173">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="N173" s="8"/>
       <c r="O173" s="8"/>
@@ -7357,16 +7356,16 @@
         <v>530</v>
       </c>
       <c r="D174" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E174" s="10">
         <v>140</v>
       </c>
       <c r="F174" s="10">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="G174" s="10">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H174" s="10">
         <v>302</v>
@@ -7406,13 +7405,17 @@
         <v>534</v>
       </c>
       <c r="D175" s="10">
-        <v>169</v>
-      </c>
-      <c r="E175" s="10"/>
+        <v>170</v>
+      </c>
+      <c r="E175" s="10">
+        <v>143</v>
+      </c>
       <c r="F175" s="10">
-        <v>3165</v>
-      </c>
-      <c r="G175" s="10"/>
+        <v>3164</v>
+      </c>
+      <c r="G175" s="10">
+        <v>503</v>
+      </c>
       <c r="H175" s="10">
         <v>308</v>
       </c>
@@ -7449,15 +7452,17 @@
       <c r="C176" s="10">
         <v>537</v>
       </c>
-      <c r="D176" s="10"/>
+      <c r="D176" s="10">
+        <v>172</v>
+      </c>
       <c r="E176" s="10">
         <v>143</v>
       </c>
       <c r="F176" s="10">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="G176" s="10">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H176" s="10">
         <v>310</v>
@@ -7485,15 +7490,17 @@
       <c r="C177" s="10">
         <v>546</v>
       </c>
-      <c r="D177" s="10"/>
+      <c r="D177" s="10">
+        <v>172</v>
+      </c>
       <c r="E177" s="10">
         <v>145</v>
       </c>
       <c r="F177" s="10">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="G177" s="10">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H177" s="10">
         <v>312</v>
@@ -7501,7 +7508,9 @@
       <c r="I177" s="10">
         <v>594</v>
       </c>
-      <c r="J177" s="10"/>
+      <c r="J177" s="10">
+        <v>340</v>
+      </c>
       <c r="K177">
         <v>964</v>
       </c>
@@ -7519,11 +7528,17 @@
       <c r="C178">
         <v>547</v>
       </c>
+      <c r="D178">
+        <v>172</v>
+      </c>
+      <c r="E178">
+        <v>145</v>
+      </c>
       <c r="F178">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="G178">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H178">
         <v>314</v>
@@ -7538,7 +7553,7 @@
         <v>965</v>
       </c>
       <c r="L178">
-        <v>2853</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -7552,10 +7567,19 @@
         <v>549</v>
       </c>
       <c r="D179">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="E179">
+        <v>145</v>
       </c>
       <c r="F179">
-        <v>3234</v>
+        <v>3233</v>
+      </c>
+      <c r="G179">
+        <v>508</v>
+      </c>
+      <c r="H179">
+        <v>317</v>
       </c>
       <c r="I179">
         <v>601</v>
@@ -7581,16 +7605,16 @@
         <v>550</v>
       </c>
       <c r="D180">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E180">
         <v>150</v>
       </c>
       <c r="F180">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="G180">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H180">
         <v>317</v>
@@ -7599,7 +7623,7 @@
         <v>609</v>
       </c>
       <c r="J180">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K180">
         <v>968</v>
@@ -7618,16 +7642,27 @@
       <c r="C181">
         <v>552</v>
       </c>
+      <c r="D181">
+        <v>174</v>
+      </c>
       <c r="E181" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F181">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="G181">
-        <v>510</v>
-      </c>
-      <c r="H181" s="11"/>
+        <v>513</v>
+      </c>
+      <c r="H181" s="11">
+        <v>318</v>
+      </c>
+      <c r="I181">
+        <v>615</v>
+      </c>
+      <c r="J181">
+        <v>348</v>
+      </c>
       <c r="K181">
         <v>973</v>
       </c>
@@ -7642,21 +7677,29 @@
       <c r="B182">
         <v>381</v>
       </c>
+      <c r="C182">
+        <v>554</v>
+      </c>
+      <c r="D182">
+        <v>174</v>
+      </c>
       <c r="E182" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F182">
         <v>3293</v>
       </c>
       <c r="G182">
-        <v>511</v>
-      </c>
-      <c r="H182" s="11"/>
+        <v>513</v>
+      </c>
+      <c r="H182" s="11">
+        <v>320</v>
+      </c>
       <c r="I182">
         <v>615</v>
       </c>
       <c r="J182">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K182">
         <v>990</v>
@@ -7672,35 +7715,73 @@
       <c r="B183">
         <v>382</v>
       </c>
-      <c r="E183" s="11"/>
+      <c r="C183">
+        <v>554</v>
+      </c>
+      <c r="D183">
+        <v>175</v>
+      </c>
+      <c r="E183" s="11">
+        <v>166</v>
+      </c>
       <c r="F183">
         <v>3309</v>
       </c>
-      <c r="H183" s="11"/>
+      <c r="G183">
+        <v>515</v>
+      </c>
+      <c r="H183" s="11">
+        <v>320</v>
+      </c>
       <c r="I183">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="J183">
+        <v>349</v>
       </c>
       <c r="K183">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="L183">
-        <v>2908</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>44064</v>
       </c>
-      <c r="E184" s="11"/>
+      <c r="B184">
+        <v>384</v>
+      </c>
+      <c r="C184">
+        <v>554</v>
+      </c>
+      <c r="D184">
+        <v>176</v>
+      </c>
+      <c r="E184" s="11">
+        <v>172</v>
+      </c>
       <c r="F184">
-        <v>3315</v>
-      </c>
-      <c r="H184" s="11"/>
+        <v>3325</v>
+      </c>
+      <c r="G184">
+        <v>518</v>
+      </c>
+      <c r="H184" s="11">
+        <v>320</v>
+      </c>
+      <c r="I184">
+        <v>621</v>
+      </c>
+      <c r="J184">
+        <v>350</v>
+      </c>
       <c r="K184">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="L184">
-        <v>2911</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -7708,115 +7789,607 @@
         <v>44065</v>
       </c>
       <c r="B185">
-        <v>384</v>
-      </c>
-      <c r="E185" s="11"/>
-      <c r="H185" s="11"/>
+        <v>385</v>
+      </c>
+      <c r="C185">
+        <v>555</v>
+      </c>
+      <c r="D185">
+        <v>177</v>
+      </c>
+      <c r="E185" s="11">
+        <v>173</v>
+      </c>
+      <c r="F185">
+        <v>3338</v>
+      </c>
+      <c r="G185">
+        <v>521</v>
+      </c>
+      <c r="H185" s="11">
+        <v>320</v>
+      </c>
+      <c r="I185">
+        <v>621</v>
+      </c>
+      <c r="J185">
+        <v>351</v>
+      </c>
+      <c r="K185">
+        <v>1029</v>
+      </c>
+      <c r="L185">
+        <v>2929</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
         <v>44066</v>
       </c>
       <c r="B186">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C186">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D186">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E186" s="11">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F186">
-        <v>3317</v>
+        <v>3347</v>
       </c>
       <c r="G186">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="H186" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I186">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J186">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K186">
-        <v>1013</v>
+        <v>1034</v>
       </c>
       <c r="L186">
-        <v>2915</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
         <v>44067</v>
       </c>
+      <c r="B187">
+        <v>392</v>
+      </c>
+      <c r="C187">
+        <v>556</v>
+      </c>
+      <c r="D187">
+        <v>180</v>
+      </c>
+      <c r="E187">
+        <v>177</v>
+      </c>
+      <c r="F187">
+        <v>3376</v>
+      </c>
+      <c r="G187">
+        <v>522</v>
+      </c>
+      <c r="H187">
+        <v>322</v>
+      </c>
+      <c r="I187">
+        <v>622</v>
+      </c>
+      <c r="J187">
+        <v>352</v>
+      </c>
+      <c r="K187">
+        <v>1046</v>
+      </c>
+      <c r="L187">
+        <v>2941</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="9">
         <v>44068</v>
       </c>
+      <c r="B188">
+        <v>394</v>
+      </c>
+      <c r="C188">
+        <v>557</v>
+      </c>
+      <c r="D188">
+        <v>180</v>
+      </c>
+      <c r="E188">
+        <v>177</v>
+      </c>
+      <c r="F188">
+        <v>3396</v>
+      </c>
+      <c r="G188">
+        <v>523</v>
+      </c>
+      <c r="H188">
+        <v>322</v>
+      </c>
+      <c r="I188">
+        <v>624</v>
+      </c>
+      <c r="J188">
+        <v>353</v>
+      </c>
+      <c r="K188">
+        <v>1055</v>
+      </c>
+      <c r="L188">
+        <v>2947</v>
+      </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44069</v>
       </c>
+      <c r="B189">
+        <v>398</v>
+      </c>
+      <c r="C189">
+        <v>558</v>
+      </c>
+      <c r="D189">
+        <v>181</v>
+      </c>
+      <c r="E189">
+        <v>181</v>
+      </c>
+      <c r="F189">
+        <v>3406</v>
+      </c>
+      <c r="G189">
+        <v>525</v>
+      </c>
+      <c r="H189">
+        <v>322</v>
+      </c>
+      <c r="I189">
+        <v>625</v>
+      </c>
+      <c r="J189">
+        <v>354</v>
+      </c>
+      <c r="K189">
+        <v>1062</v>
+      </c>
+      <c r="L189">
+        <v>2956</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="9">
         <v>44070</v>
       </c>
+      <c r="B190">
+        <v>404</v>
+      </c>
+      <c r="C190">
+        <v>567</v>
+      </c>
+      <c r="D190">
+        <v>181</v>
+      </c>
+      <c r="E190">
+        <v>181</v>
+      </c>
+      <c r="F190">
+        <v>3422</v>
+      </c>
+      <c r="G190">
+        <v>527</v>
+      </c>
+      <c r="H190">
+        <v>322</v>
+      </c>
+      <c r="I190">
+        <v>625</v>
+      </c>
+      <c r="J190">
+        <v>356</v>
+      </c>
+      <c r="K190">
+        <v>1065</v>
+      </c>
+      <c r="L190">
+        <v>2969</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="9">
         <v>44071</v>
       </c>
+      <c r="B191">
+        <v>406</v>
+      </c>
+      <c r="C191">
+        <v>571</v>
+      </c>
+      <c r="D191">
+        <v>182</v>
+      </c>
+      <c r="E191">
+        <v>181</v>
+      </c>
+      <c r="F191">
+        <v>3447</v>
+      </c>
+      <c r="G191">
+        <v>529</v>
+      </c>
+      <c r="H191">
+        <v>322</v>
+      </c>
+      <c r="I191">
+        <v>626</v>
+      </c>
+      <c r="J191">
+        <v>356</v>
+      </c>
+      <c r="K191">
+        <v>1086</v>
+      </c>
+      <c r="L191">
+        <v>2997</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="9">
         <v>44072</v>
       </c>
+      <c r="B192">
+        <v>407</v>
+      </c>
+      <c r="C192">
+        <v>576</v>
+      </c>
+      <c r="D192">
+        <v>183</v>
+      </c>
+      <c r="E192">
+        <v>181</v>
+      </c>
+      <c r="F192">
+        <v>3459</v>
+      </c>
+      <c r="G192">
+        <v>529</v>
+      </c>
+      <c r="H192">
+        <v>323</v>
+      </c>
+      <c r="I192">
+        <v>626</v>
+      </c>
+      <c r="J192">
+        <v>357</v>
+      </c>
+      <c r="K192">
+        <v>1089</v>
+      </c>
+      <c r="L192">
+        <v>3014</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="9">
         <v>44073</v>
       </c>
       <c r="B193">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C193">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="D193">
+        <v>184</v>
+      </c>
+      <c r="E193">
         <v>181</v>
       </c>
-      <c r="E193">
-        <v>180</v>
-      </c>
       <c r="F193">
-        <v>3439</v>
+        <v>3470</v>
       </c>
       <c r="G193">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="H193">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I193">
         <v>626</v>
       </c>
       <c r="J193">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K193">
-        <v>1062</v>
+        <v>1100</v>
       </c>
       <c r="L193">
-        <v>2976</v>
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194" s="9">
+        <v>44074</v>
+      </c>
+      <c r="B194">
+        <v>414</v>
+      </c>
+      <c r="C194">
+        <v>580</v>
+      </c>
+      <c r="D194">
+        <v>187</v>
+      </c>
+      <c r="E194">
+        <v>182</v>
+      </c>
+      <c r="F194">
+        <v>3497</v>
+      </c>
+      <c r="G194">
+        <v>539</v>
+      </c>
+      <c r="H194">
+        <v>325</v>
+      </c>
+      <c r="I194">
+        <v>627</v>
+      </c>
+      <c r="J194">
+        <v>361</v>
+      </c>
+      <c r="K194">
+        <v>1132</v>
+      </c>
+      <c r="L194">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195" s="9">
+        <v>44075</v>
+      </c>
+      <c r="B195">
+        <v>416</v>
+      </c>
+      <c r="C195">
+        <v>587</v>
+      </c>
+      <c r="D195">
+        <v>188</v>
+      </c>
+      <c r="E195">
+        <v>184</v>
+      </c>
+      <c r="F195">
+        <v>3523</v>
+      </c>
+      <c r="G195">
+        <v>543</v>
+      </c>
+      <c r="H195">
+        <v>326</v>
+      </c>
+      <c r="I195">
+        <v>627</v>
+      </c>
+      <c r="J195">
+        <v>364</v>
+      </c>
+      <c r="K195">
+        <v>1143</v>
+      </c>
+      <c r="L195">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196" s="9">
+        <v>44076</v>
+      </c>
+      <c r="B196">
+        <v>417</v>
+      </c>
+      <c r="C196">
+        <v>588</v>
+      </c>
+      <c r="D196">
+        <v>188</v>
+      </c>
+      <c r="E196">
+        <v>184</v>
+      </c>
+      <c r="F196">
+        <v>3542</v>
+      </c>
+      <c r="G196">
+        <v>547</v>
+      </c>
+      <c r="H196">
+        <v>326</v>
+      </c>
+      <c r="I196">
+        <v>627</v>
+      </c>
+      <c r="J196">
+        <v>364</v>
+      </c>
+      <c r="K196">
+        <v>1161</v>
+      </c>
+      <c r="L196">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197" s="9">
+        <v>44077</v>
+      </c>
+      <c r="B197">
+        <v>418</v>
+      </c>
+      <c r="C197">
+        <v>588</v>
+      </c>
+      <c r="D197">
+        <v>188</v>
+      </c>
+      <c r="E197">
+        <v>184</v>
+      </c>
+      <c r="F197">
+        <v>3554</v>
+      </c>
+      <c r="G197">
+        <v>552</v>
+      </c>
+      <c r="H197">
+        <v>327</v>
+      </c>
+      <c r="I197">
+        <v>628</v>
+      </c>
+      <c r="J197">
+        <v>366</v>
+      </c>
+      <c r="K197">
+        <v>1181</v>
+      </c>
+      <c r="L197">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198" s="9">
+        <v>44078</v>
+      </c>
+      <c r="B198">
+        <v>419</v>
+      </c>
+      <c r="C198">
+        <v>589</v>
+      </c>
+      <c r="D198">
+        <v>188</v>
+      </c>
+      <c r="E198">
+        <v>185</v>
+      </c>
+      <c r="F198">
+        <v>3564</v>
+      </c>
+      <c r="G198">
+        <v>553</v>
+      </c>
+      <c r="H198">
+        <v>327</v>
+      </c>
+      <c r="I198">
+        <v>630</v>
+      </c>
+      <c r="J198">
+        <v>366</v>
+      </c>
+      <c r="K198">
+        <v>1203</v>
+      </c>
+      <c r="L198">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" s="9">
+        <v>44079</v>
+      </c>
+      <c r="B199">
+        <v>419</v>
+      </c>
+      <c r="C199">
+        <v>589</v>
+      </c>
+      <c r="D199">
+        <v>188</v>
+      </c>
+      <c r="E199">
+        <v>185</v>
+      </c>
+      <c r="F199">
+        <v>3574</v>
+      </c>
+      <c r="G199">
+        <v>555</v>
+      </c>
+      <c r="H199">
+        <v>327</v>
+      </c>
+      <c r="I199">
+        <v>630</v>
+      </c>
+      <c r="J199">
+        <v>366</v>
+      </c>
+      <c r="K199">
+        <v>1203</v>
+      </c>
+      <c r="L199">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" s="9">
+        <v>44080</v>
+      </c>
+      <c r="B200">
+        <v>419</v>
+      </c>
+      <c r="C200">
+        <v>589</v>
+      </c>
+      <c r="D200">
+        <v>188</v>
+      </c>
+      <c r="E200">
+        <v>185</v>
+      </c>
+      <c r="F200">
+        <v>3580</v>
+      </c>
+      <c r="G200">
+        <v>555</v>
+      </c>
+      <c r="H200">
+        <v>327</v>
+      </c>
+      <c r="I200">
+        <v>630</v>
+      </c>
+      <c r="J200">
+        <v>366</v>
+      </c>
+      <c r="K200">
+        <v>1203</v>
+      </c>
+      <c r="L200">
+        <v>3343</v>
       </c>
     </row>
   </sheetData>
@@ -7826,15 +8399,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46004C74-2EDF-764B-8198-01B7AB12DF1A}">
-  <dimension ref="A1:FG152"/>
+  <dimension ref="A1:FG200"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:163" x14ac:dyDescent="0.2">
@@ -7855,9 +8429,15 @@
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="2">
+        <v>43882</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -7867,9 +8447,15 @@
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="2">
+        <v>43883</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -7879,9 +8465,15 @@
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="2">
+        <v>43884</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -7891,9 +8483,15 @@
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="2">
+        <v>43885</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -7903,9 +8501,15 @@
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="2">
+        <v>43886</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -7915,9 +8519,15 @@
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="2">
+        <v>43887</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -7926,9 +8536,15 @@
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="2">
+        <v>43888</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -7938,9 +8554,15 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="2">
+        <v>43889</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -7950,9 +8572,15 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="H10" s="2">
+        <v>43890</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -8112,9 +8740,15 @@
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="2">
+        <v>43891</v>
+      </c>
+      <c r="I11" s="3">
+        <v>6</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -8124,9 +8758,15 @@
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="H12" s="2">
+        <v>43892</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -8136,9 +8776,15 @@
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="H13" s="2">
+        <v>43893</v>
+      </c>
+      <c r="I13" s="3">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -8148,9 +8794,15 @@
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="2">
+        <v>43894</v>
+      </c>
+      <c r="I14" s="3">
+        <v>22</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -8160,9 +8812,15 @@
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="H15" s="2">
+        <v>43895</v>
+      </c>
+      <c r="I15" s="3">
+        <v>27</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -8172,9 +8830,15 @@
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="H16" s="2">
+        <v>43896</v>
+      </c>
+      <c r="I16" s="3">
+        <v>36</v>
+      </c>
+      <c r="J16" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -8184,9 +8848,15 @@
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="H17" s="2">
+        <v>43897</v>
+      </c>
+      <c r="I17" s="3">
+        <v>40</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
@@ -8196,9 +8866,15 @@
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="H18" s="2">
+        <v>43898</v>
+      </c>
+      <c r="I18" s="3">
+        <v>59</v>
+      </c>
+      <c r="J18" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -8208,9 +8884,15 @@
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="H19" s="2">
+        <v>43899</v>
+      </c>
+      <c r="I19" s="3">
+        <v>131</v>
+      </c>
+      <c r="J19" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -8220,9 +8902,15 @@
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="H20" s="2">
+        <v>43900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>176</v>
+      </c>
+      <c r="J20" s="3">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
@@ -8232,9 +8920,15 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="H21" s="2">
+        <v>43901</v>
+      </c>
+      <c r="I21" s="3">
+        <v>219</v>
+      </c>
+      <c r="J21" s="3">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
@@ -8244,9 +8938,15 @@
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="H22" s="2">
+        <v>43902</v>
+      </c>
+      <c r="I22" s="3">
+        <v>275</v>
+      </c>
+      <c r="J22" s="3">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -8256,9 +8956,15 @@
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="H23" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I23" s="3">
+        <v>331</v>
+      </c>
+      <c r="J23" s="3">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
@@ -8268,9 +8974,15 @@
       <c r="E24" s="3"/>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="H24" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I24" s="3">
+        <v>371</v>
+      </c>
+      <c r="J24" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -8280,9 +8992,15 @@
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="H25" s="2">
+        <v>43905</v>
+      </c>
+      <c r="I25" s="3">
+        <v>401</v>
+      </c>
+      <c r="J25" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
@@ -8292,9 +9010,15 @@
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="H26" s="2">
+        <v>43906</v>
+      </c>
+      <c r="I26" s="3">
+        <v>461</v>
+      </c>
+      <c r="J26" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
@@ -8304,9 +9028,15 @@
       <c r="E27" s="3"/>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="H27" s="2">
+        <v>43907</v>
+      </c>
+      <c r="I27" s="3">
+        <v>527</v>
+      </c>
+      <c r="J27" s="3">
+        <v>66</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
@@ -8316,9 +9046,15 @@
       <c r="E28" s="3"/>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="H28" s="2">
+        <v>43908</v>
+      </c>
+      <c r="I28" s="3">
+        <v>595</v>
+      </c>
+      <c r="J28" s="3">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -8328,9 +9064,15 @@
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="H29" s="2">
+        <v>43909</v>
+      </c>
+      <c r="I29" s="3">
+        <v>660</v>
+      </c>
+      <c r="J29" s="3">
+        <v>65</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -8340,9 +9082,15 @@
       <c r="E30" s="3"/>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="H30" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I30" s="3">
+        <v>732</v>
+      </c>
+      <c r="J30" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
@@ -8352,9 +9100,15 @@
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="H31" s="2">
+        <v>43911</v>
+      </c>
+      <c r="I31" s="3">
+        <v>784</v>
+      </c>
+      <c r="J31" s="3">
+        <v>52</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -8364,9 +9118,15 @@
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="H32" s="2">
+        <v>43912</v>
+      </c>
+      <c r="I32" s="3">
+        <v>838</v>
+      </c>
+      <c r="J32" s="3">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
@@ -8376,9 +9136,15 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="H33" s="2">
+        <v>43913</v>
+      </c>
+      <c r="I33" s="3">
+        <v>908</v>
+      </c>
+      <c r="J33" s="3">
+        <v>70</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -8388,9 +9154,15 @@
       <c r="E34" s="3"/>
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="H34" s="2">
+        <v>43914</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J34" s="3">
+        <v>93</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
@@ -8400,9 +9172,15 @@
       <c r="E35" s="3"/>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="H35" s="2">
+        <v>43915</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1081</v>
+      </c>
+      <c r="J35" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
@@ -8412,9 +9190,15 @@
       <c r="E36" s="3"/>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="H36" s="2">
+        <v>43916</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1141</v>
+      </c>
+      <c r="J36" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
@@ -8424,9 +9208,15 @@
       <c r="E37" s="3"/>
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="H37" s="2">
+        <v>43917</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1207</v>
+      </c>
+      <c r="J37" s="3">
+        <v>66</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
@@ -8436,9 +9226,15 @@
       <c r="E38" s="3"/>
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="H38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1245</v>
+      </c>
+      <c r="J38" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
@@ -8448,9 +9244,15 @@
       <c r="E39" s="3"/>
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="H39" s="2">
+        <v>43919</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1286</v>
+      </c>
+      <c r="J39" s="3">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
@@ -8460,9 +9262,15 @@
       <c r="E40" s="3"/>
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="H40" s="2">
+        <v>43920</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1363</v>
+      </c>
+      <c r="J40" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
@@ -8472,9 +9280,15 @@
       <c r="E41" s="3"/>
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="H41" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1419</v>
+      </c>
+      <c r="J41" s="3">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
@@ -8484,9 +9298,15 @@
       <c r="E42" s="3"/>
       <c r="F42" s="2"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="H42" s="2">
+        <v>43922</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1476</v>
+      </c>
+      <c r="J42" s="3">
+        <v>57</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
@@ -8496,9 +9316,15 @@
       <c r="E43" s="3"/>
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="H43" s="2">
+        <v>43923</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1528</v>
+      </c>
+      <c r="J43" s="3">
+        <v>52</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
@@ -8508,9 +9334,15 @@
       <c r="E44" s="3"/>
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="H44" s="2">
+        <v>43924</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1570</v>
+      </c>
+      <c r="J44" s="3">
+        <v>42</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
@@ -8520,9 +9352,15 @@
       <c r="E45" s="3"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="H45" s="2">
+        <v>43925</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1599</v>
+      </c>
+      <c r="J45" s="3">
+        <v>29</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
@@ -8532,9 +9370,15 @@
       <c r="E46" s="3"/>
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="H46" s="2">
+        <v>43926</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1624</v>
+      </c>
+      <c r="J46" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -8544,9 +9388,15 @@
       <c r="E47" s="3"/>
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="H47" s="2">
+        <v>43927</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1664</v>
+      </c>
+      <c r="J47" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
@@ -8556,9 +9406,15 @@
       <c r="E48" s="3"/>
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="H48" s="2">
+        <v>43928</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>36</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -8568,9 +9424,15 @@
       <c r="E49" s="3"/>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="H49" s="2">
+        <v>43929</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1725</v>
+      </c>
+      <c r="J49" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
@@ -8580,9 +9442,15 @@
       <c r="E50" s="3"/>
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="H50" s="2">
+        <v>43930</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1751</v>
+      </c>
+      <c r="J50" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
@@ -8592,9 +9460,15 @@
       <c r="E51" s="3"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="H51" s="2">
+        <v>43931</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1768</v>
+      </c>
+      <c r="J51" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
@@ -8604,9 +9478,15 @@
       <c r="E52" s="3"/>
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="H52" s="2">
+        <v>43932</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1787</v>
+      </c>
+      <c r="J52" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
@@ -8616,9 +9496,15 @@
       <c r="E53" s="3"/>
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="H53" s="2">
+        <v>43933</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1809</v>
+      </c>
+      <c r="J53" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
@@ -8628,9 +9514,15 @@
       <c r="E54" s="3"/>
       <c r="F54" s="2"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="H54" s="2">
+        <v>43934</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1830</v>
+      </c>
+      <c r="J54" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
@@ -8640,9 +9532,15 @@
       <c r="E55" s="3"/>
       <c r="F55" s="2"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="H55" s="2">
+        <v>43935</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1855</v>
+      </c>
+      <c r="J55" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
@@ -8652,9 +9550,15 @@
       <c r="E56" s="3"/>
       <c r="F56" s="2"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="H56" s="2">
+        <v>43936</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1878</v>
+      </c>
+      <c r="J56" s="3">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
@@ -8664,9 +9568,15 @@
       <c r="E57" s="3"/>
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="H57" s="2">
+        <v>43937</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1894</v>
+      </c>
+      <c r="J57" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
@@ -8676,9 +9586,15 @@
       <c r="E58" s="3"/>
       <c r="F58" s="2"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="H58" s="2">
+        <v>43938</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1930</v>
+      </c>
+      <c r="J58" s="3">
+        <v>36</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
@@ -8688,9 +9604,15 @@
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="H59" s="2">
+        <v>43939</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1938</v>
+      </c>
+      <c r="J59" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
@@ -8700,9 +9622,15 @@
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="H60" s="2">
+        <v>43940</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1942</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
@@ -8712,9 +9640,15 @@
       <c r="E61" s="3"/>
       <c r="F61" s="2"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="H61" s="2">
+        <v>43941</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1965</v>
+      </c>
+      <c r="J61" s="3">
+        <v>23</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
@@ -8724,9 +9658,15 @@
       <c r="E62" s="3"/>
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="H62" s="2">
+        <v>43942</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1981</v>
+      </c>
+      <c r="J62" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
@@ -8736,9 +9676,15 @@
       <c r="E63" s="3"/>
       <c r="F63" s="2"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="H63" s="2">
+        <v>43943</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1999</v>
+      </c>
+      <c r="J63" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
@@ -8748,9 +9694,15 @@
       <c r="E64" s="3"/>
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="H64" s="2">
+        <v>43944</v>
+      </c>
+      <c r="I64" s="3">
+        <v>2012</v>
+      </c>
+      <c r="J64" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
@@ -8760,9 +9712,15 @@
       <c r="E65" s="3"/>
       <c r="F65" s="2"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
+      <c r="H65" s="2">
+        <v>43945</v>
+      </c>
+      <c r="I65" s="3">
+        <v>2025</v>
+      </c>
+      <c r="J65" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
@@ -8772,9 +9730,15 @@
       <c r="E66" s="3"/>
       <c r="F66" s="2"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+      <c r="H66" s="2">
+        <v>43946</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2028</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
@@ -8784,9 +9748,15 @@
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="H67" s="2">
+        <v>43947</v>
+      </c>
+      <c r="I67" s="3">
+        <v>2032</v>
+      </c>
+      <c r="J67" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
@@ -8796,9 +9766,15 @@
       <c r="E68" s="3"/>
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="H68" s="2">
+        <v>43948</v>
+      </c>
+      <c r="I68" s="3">
+        <v>2050</v>
+      </c>
+      <c r="J68" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
@@ -8808,9 +9784,15 @@
       <c r="E69" s="3"/>
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="H69" s="2">
+        <v>43949</v>
+      </c>
+      <c r="I69" s="3">
+        <v>2066</v>
+      </c>
+      <c r="J69" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
@@ -8820,9 +9802,15 @@
       <c r="E70" s="3"/>
       <c r="F70" s="2"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="H70" s="2">
+        <v>43950</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2073</v>
+      </c>
+      <c r="J70" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
@@ -8832,9 +9820,15 @@
       <c r="E71" s="3"/>
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="H71" s="2">
+        <v>43951</v>
+      </c>
+      <c r="I71" s="3">
+        <v>2083</v>
+      </c>
+      <c r="J71" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
@@ -8844,9 +9838,15 @@
       <c r="E72" s="3"/>
       <c r="F72" s="2"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+      <c r="H72" s="2">
+        <v>43952</v>
+      </c>
+      <c r="I72" s="3">
+        <v>2086</v>
+      </c>
+      <c r="J72" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
@@ -8856,9 +9856,15 @@
       <c r="E73" s="3"/>
       <c r="F73" s="2"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+      <c r="H73" s="2">
+        <v>43953</v>
+      </c>
+      <c r="I73" s="3">
+        <v>2093</v>
+      </c>
+      <c r="J73" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
@@ -8868,9 +9874,15 @@
       <c r="E74" s="3"/>
       <c r="F74" s="2"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="H74" s="2">
+        <v>43954</v>
+      </c>
+      <c r="I74" s="3">
+        <v>2102</v>
+      </c>
+      <c r="J74" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
@@ -8880,9 +9892,15 @@
       <c r="E75" s="3"/>
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="H75" s="2">
+        <v>43955</v>
+      </c>
+      <c r="I75" s="3">
+        <v>2120</v>
+      </c>
+      <c r="J75" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
@@ -8892,9 +9910,15 @@
       <c r="E76" s="3"/>
       <c r="F76" s="2"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="H76" s="2">
+        <v>43956</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2133</v>
+      </c>
+      <c r="J76" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
@@ -8904,9 +9928,15 @@
       <c r="E77" s="3"/>
       <c r="F77" s="2"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="H77" s="2">
+        <v>43957</v>
+      </c>
+      <c r="I77" s="3">
+        <v>2144</v>
+      </c>
+      <c r="J77" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
@@ -8916,9 +9946,15 @@
       <c r="E78" s="3"/>
       <c r="F78" s="2"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="H78" s="2">
+        <v>43958</v>
+      </c>
+      <c r="I78" s="3">
+        <v>2156</v>
+      </c>
+      <c r="J78" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
@@ -8928,9 +9964,15 @@
       <c r="E79" s="3"/>
       <c r="F79" s="2"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="H79" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I79" s="3">
+        <v>2174</v>
+      </c>
+      <c r="J79" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
@@ -8940,9 +9982,15 @@
       <c r="E80" s="3"/>
       <c r="F80" s="2"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="H80" s="2">
+        <v>43960</v>
+      </c>
+      <c r="I80" s="3">
+        <v>2177</v>
+      </c>
+      <c r="J80" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
@@ -8952,9 +10000,15 @@
       <c r="E81" s="3"/>
       <c r="F81" s="2"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="H81" s="2">
+        <v>43961</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2178</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
@@ -8964,9 +10018,15 @@
       <c r="E82" s="3"/>
       <c r="F82" s="2"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="H82" s="2">
+        <v>43962</v>
+      </c>
+      <c r="I82" s="3">
+        <v>2187</v>
+      </c>
+      <c r="J82" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
@@ -8976,9 +10036,15 @@
       <c r="E83" s="3"/>
       <c r="F83" s="2"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="H83" s="2">
+        <v>43963</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2194</v>
+      </c>
+      <c r="J83" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
@@ -8988,9 +10054,15 @@
       <c r="E84" s="3"/>
       <c r="F84" s="2"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="H84" s="2">
+        <v>43964</v>
+      </c>
+      <c r="I84" s="3">
+        <v>2204</v>
+      </c>
+      <c r="J84" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
@@ -9000,9 +10072,15 @@
       <c r="E85" s="3"/>
       <c r="F85" s="2"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="H85" s="2">
+        <v>43965</v>
+      </c>
+      <c r="I85" s="3">
+        <v>2211</v>
+      </c>
+      <c r="J85" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
@@ -9012,9 +10090,15 @@
       <c r="E86" s="3"/>
       <c r="F86" s="2"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="H86" s="2">
+        <v>43966</v>
+      </c>
+      <c r="I86" s="3">
+        <v>2221</v>
+      </c>
+      <c r="J86" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
@@ -9024,9 +10108,15 @@
       <c r="E87" s="3"/>
       <c r="F87" s="2"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="H87" s="2">
+        <v>43967</v>
+      </c>
+      <c r="I87" s="3">
+        <v>2227</v>
+      </c>
+      <c r="J87" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
@@ -9036,9 +10126,15 @@
       <c r="E88" s="3"/>
       <c r="F88" s="2"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="H88" s="2">
+        <v>43968</v>
+      </c>
+      <c r="I88" s="3">
+        <v>2229</v>
+      </c>
+      <c r="J88" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
@@ -9048,9 +10144,15 @@
       <c r="E89" s="3"/>
       <c r="F89" s="2"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="H89" s="2">
+        <v>43969</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2239</v>
+      </c>
+      <c r="J89" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
@@ -9060,9 +10162,15 @@
       <c r="E90" s="3"/>
       <c r="F90" s="2"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+      <c r="H90" s="2">
+        <v>43970</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2246</v>
+      </c>
+      <c r="J90" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
@@ -9072,9 +10180,15 @@
       <c r="E91" s="3"/>
       <c r="F91" s="2"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="H91" s="2">
+        <v>43971</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2254</v>
+      </c>
+      <c r="J91" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
@@ -9084,9 +10198,15 @@
       <c r="E92" s="3"/>
       <c r="F92" s="2"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="H92" s="2">
+        <v>43972</v>
+      </c>
+      <c r="I92" s="3">
+        <v>2255</v>
+      </c>
+      <c r="J92" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
@@ -9096,9 +10216,15 @@
       <c r="E93" s="3"/>
       <c r="F93" s="2"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="H93" s="2">
+        <v>43973</v>
+      </c>
+      <c r="I93" s="3">
+        <v>2265</v>
+      </c>
+      <c r="J93" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
@@ -9108,9 +10234,15 @@
       <c r="E94" s="3"/>
       <c r="F94" s="2"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+      <c r="H94" s="2">
+        <v>43974</v>
+      </c>
+      <c r="I94" s="3">
+        <v>2265</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
@@ -9120,9 +10252,15 @@
       <c r="E95" s="3"/>
       <c r="F95" s="2"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
+      <c r="H95" s="2">
+        <v>43975</v>
+      </c>
+      <c r="I95" s="3">
+        <v>2268</v>
+      </c>
+      <c r="J95" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
@@ -9132,9 +10270,15 @@
       <c r="E96" s="3"/>
       <c r="F96" s="2"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="H96" s="2">
+        <v>43976</v>
+      </c>
+      <c r="I96" s="3">
+        <v>2276</v>
+      </c>
+      <c r="J96" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
@@ -9144,9 +10288,15 @@
       <c r="E97" s="3"/>
       <c r="F97" s="2"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="H97" s="2">
+        <v>43977</v>
+      </c>
+      <c r="I97" s="3">
+        <v>2280</v>
+      </c>
+      <c r="J97" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
@@ -9156,9 +10306,15 @@
       <c r="E98" s="3"/>
       <c r="F98" s="2"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="H98" s="2">
+        <v>43978</v>
+      </c>
+      <c r="I98" s="3">
+        <v>2288</v>
+      </c>
+      <c r="J98" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
@@ -9168,9 +10324,15 @@
       <c r="E99" s="3"/>
       <c r="F99" s="2"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="H99" s="2">
+        <v>43979</v>
+      </c>
+      <c r="I99" s="3">
+        <v>2291</v>
+      </c>
+      <c r="J99" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
@@ -9180,9 +10342,15 @@
       <c r="E100" s="3"/>
       <c r="F100" s="2"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="H100" s="2">
+        <v>43980</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2294</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
@@ -9192,9 +10360,15 @@
       <c r="E101" s="3"/>
       <c r="F101" s="2"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="H101" s="2">
+        <v>43981</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2294</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
@@ -9204,9 +10378,15 @@
       <c r="E102" s="3"/>
       <c r="F102" s="2"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
+      <c r="H102" s="2">
+        <v>43982</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2296</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
@@ -9216,9 +10396,15 @@
       <c r="E103" s="3"/>
       <c r="F103" s="2"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
+      <c r="H103" s="2">
+        <v>43983</v>
+      </c>
+      <c r="I103" s="3">
+        <v>2298</v>
+      </c>
+      <c r="J103" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
@@ -9228,9 +10414,15 @@
       <c r="E104" s="3"/>
       <c r="F104" s="2"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="H104" s="2">
+        <v>43984</v>
+      </c>
+      <c r="I104" s="3">
+        <v>2301</v>
+      </c>
+      <c r="J104" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
@@ -9240,9 +10432,15 @@
       <c r="E105" s="3"/>
       <c r="F105" s="2"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+      <c r="H105" s="2">
+        <v>43985</v>
+      </c>
+      <c r="I105" s="3">
+        <v>2306</v>
+      </c>
+      <c r="J105" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
@@ -9252,9 +10450,15 @@
       <c r="E106" s="3"/>
       <c r="F106" s="2"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+      <c r="H106" s="2">
+        <v>43986</v>
+      </c>
+      <c r="I106" s="3">
+        <v>2307</v>
+      </c>
+      <c r="J106" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
@@ -9264,9 +10468,15 @@
       <c r="E107" s="3"/>
       <c r="F107" s="2"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="H107" s="2">
+        <v>43987</v>
+      </c>
+      <c r="I107" s="3">
+        <v>2311</v>
+      </c>
+      <c r="J107" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
@@ -9276,9 +10486,15 @@
       <c r="E108" s="3"/>
       <c r="F108" s="2"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="H108" s="2">
+        <v>43988</v>
+      </c>
+      <c r="I108" s="3">
+        <v>2313</v>
+      </c>
+      <c r="J108" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
@@ -9288,9 +10504,15 @@
       <c r="E109" s="3"/>
       <c r="F109" s="2"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
+      <c r="H109" s="2">
+        <v>43989</v>
+      </c>
+      <c r="I109" s="3">
+        <v>2313</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
@@ -9300,9 +10522,15 @@
       <c r="E110" s="3"/>
       <c r="F110" s="2"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
+      <c r="H110" s="2">
+        <v>43990</v>
+      </c>
+      <c r="I110" s="3">
+        <v>2320</v>
+      </c>
+      <c r="J110" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
@@ -9312,9 +10540,15 @@
       <c r="E111" s="3"/>
       <c r="F111" s="2"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
+      <c r="H111" s="2">
+        <v>43991</v>
+      </c>
+      <c r="I111" s="3">
+        <v>2324</v>
+      </c>
+      <c r="J111" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
@@ -9324,9 +10558,15 @@
       <c r="E112" s="3"/>
       <c r="F112" s="2"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="H112" s="2">
+        <v>43992</v>
+      </c>
+      <c r="I112" s="3">
+        <v>2325</v>
+      </c>
+      <c r="J112" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
@@ -9336,9 +10576,15 @@
       <c r="E113" s="3"/>
       <c r="F113" s="2"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="H113" s="2">
+        <v>43993</v>
+      </c>
+      <c r="I113" s="3">
+        <v>2328</v>
+      </c>
+      <c r="J113" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
@@ -9348,9 +10594,15 @@
       <c r="E114" s="3"/>
       <c r="F114" s="2"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="H114" s="2">
+        <v>43994</v>
+      </c>
+      <c r="I114" s="3">
+        <v>2334</v>
+      </c>
+      <c r="J114" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
@@ -9360,9 +10612,15 @@
       <c r="E115" s="3"/>
       <c r="F115" s="2"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="H115" s="2">
+        <v>43995</v>
+      </c>
+      <c r="I115" s="3">
+        <v>2336</v>
+      </c>
+      <c r="J115" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
@@ -9372,9 +10630,15 @@
       <c r="E116" s="3"/>
       <c r="F116" s="2"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
+      <c r="H116" s="2">
+        <v>43996</v>
+      </c>
+      <c r="I116" s="3">
+        <v>2336</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
@@ -9384,9 +10648,15 @@
       <c r="E117" s="3"/>
       <c r="F117" s="2"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="H117" s="2">
+        <v>43997</v>
+      </c>
+      <c r="I117" s="3">
+        <v>2345</v>
+      </c>
+      <c r="J117" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
@@ -9396,9 +10666,15 @@
       <c r="E118" s="3"/>
       <c r="F118" s="2"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="H118" s="2">
+        <v>43998</v>
+      </c>
+      <c r="I118" s="3">
+        <v>2354</v>
+      </c>
+      <c r="J118" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
@@ -9408,9 +10684,15 @@
       <c r="E119" s="3"/>
       <c r="F119" s="2"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
+      <c r="H119" s="2">
+        <v>43999</v>
+      </c>
+      <c r="I119" s="3">
+        <v>2361</v>
+      </c>
+      <c r="J119" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
@@ -9420,9 +10702,15 @@
       <c r="E120" s="3"/>
       <c r="F120" s="2"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+      <c r="H120" s="2">
+        <v>44000</v>
+      </c>
+      <c r="I120" s="3">
+        <v>2366</v>
+      </c>
+      <c r="J120" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
@@ -9432,9 +10720,15 @@
       <c r="E121" s="3"/>
       <c r="F121" s="2"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="H121" s="2">
+        <v>44001</v>
+      </c>
+      <c r="I121" s="3">
+        <v>2370</v>
+      </c>
+      <c r="J121" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
@@ -9444,9 +10738,15 @@
       <c r="E122" s="3"/>
       <c r="F122" s="2"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="H122" s="2">
+        <v>44002</v>
+      </c>
+      <c r="I122" s="3">
+        <v>2371</v>
+      </c>
+      <c r="J122" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
@@ -9456,9 +10756,15 @@
       <c r="E123" s="3"/>
       <c r="F123" s="2"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="H123" s="2">
+        <v>44003</v>
+      </c>
+      <c r="I123" s="3">
+        <v>2372</v>
+      </c>
+      <c r="J123" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
@@ -9468,9 +10774,15 @@
       <c r="E124" s="3"/>
       <c r="F124" s="2"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
+      <c r="H124" s="2">
+        <v>44004</v>
+      </c>
+      <c r="I124" s="3">
+        <v>2386</v>
+      </c>
+      <c r="J124" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
@@ -9480,9 +10792,15 @@
       <c r="E125" s="3"/>
       <c r="F125" s="2"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
+      <c r="H125" s="2">
+        <v>44005</v>
+      </c>
+      <c r="I125" s="3">
+        <v>2391</v>
+      </c>
+      <c r="J125" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
@@ -9492,9 +10810,15 @@
       <c r="E126" s="3"/>
       <c r="F126" s="2"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
+      <c r="H126" s="2">
+        <v>44006</v>
+      </c>
+      <c r="I126" s="3">
+        <v>2406</v>
+      </c>
+      <c r="J126" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
@@ -9504,9 +10828,15 @@
       <c r="E127" s="3"/>
       <c r="F127" s="2"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
+      <c r="H127" s="2">
+        <v>44007</v>
+      </c>
+      <c r="I127" s="3">
+        <v>2414</v>
+      </c>
+      <c r="J127" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
@@ -9516,9 +10846,15 @@
       <c r="E128" s="3"/>
       <c r="F128" s="2"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="H128" s="2">
+        <v>44008</v>
+      </c>
+      <c r="I128" s="3">
+        <v>2428</v>
+      </c>
+      <c r="J128" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
@@ -9528,9 +10864,15 @@
       <c r="E129" s="3"/>
       <c r="F129" s="2"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="H129" s="2">
+        <v>44009</v>
+      </c>
+      <c r="I129" s="3">
+        <v>2431</v>
+      </c>
+      <c r="J129" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
@@ -9540,9 +10882,15 @@
       <c r="E130" s="3"/>
       <c r="F130" s="2"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
+      <c r="H130" s="2">
+        <v>44010</v>
+      </c>
+      <c r="I130" s="3">
+        <v>2431</v>
+      </c>
+      <c r="J130" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
@@ -9552,9 +10900,15 @@
       <c r="E131" s="3"/>
       <c r="F131" s="2"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+      <c r="H131" s="2">
+        <v>44011</v>
+      </c>
+      <c r="I131" s="3">
+        <v>2448</v>
+      </c>
+      <c r="J131" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
@@ -9564,9 +10918,15 @@
       <c r="E132" s="3"/>
       <c r="F132" s="2"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="H132" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I132" s="3">
+        <v>2450</v>
+      </c>
+      <c r="J132" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
@@ -9576,9 +10936,15 @@
       <c r="E133" s="3"/>
       <c r="F133" s="2"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="H133" s="2">
+        <v>44013</v>
+      </c>
+      <c r="I133" s="3">
+        <v>2453</v>
+      </c>
+      <c r="J133" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
@@ -9588,9 +10954,15 @@
       <c r="E134" s="3"/>
       <c r="F134" s="2"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
+      <c r="H134" s="2">
+        <v>44014</v>
+      </c>
+      <c r="I134" s="3">
+        <v>2456</v>
+      </c>
+      <c r="J134" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
@@ -9600,9 +10972,15 @@
       <c r="E135" s="3"/>
       <c r="F135" s="2"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
+      <c r="H135" s="2">
+        <v>44015</v>
+      </c>
+      <c r="I135" s="3">
+        <v>2461</v>
+      </c>
+      <c r="J135" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
@@ -9612,9 +10990,15 @@
       <c r="E136" s="3"/>
       <c r="F136" s="2"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
+      <c r="H136" s="2">
+        <v>44016</v>
+      </c>
+      <c r="I136" s="3">
+        <v>2462</v>
+      </c>
+      <c r="J136" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
@@ -9624,9 +11008,15 @@
       <c r="E137" s="3"/>
       <c r="F137" s="2"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="H137" s="2">
+        <v>44017</v>
+      </c>
+      <c r="I137" s="3">
+        <v>2462</v>
+      </c>
+      <c r="J137" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
@@ -9636,9 +11026,15 @@
       <c r="E138" s="3"/>
       <c r="F138" s="2"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
+      <c r="H138" s="2">
+        <v>44018</v>
+      </c>
+      <c r="I138" s="3">
+        <v>2473</v>
+      </c>
+      <c r="J138" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
@@ -9648,9 +11044,15 @@
       <c r="E139" s="3"/>
       <c r="F139" s="2"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="H139" s="2">
+        <v>44019</v>
+      </c>
+      <c r="I139" s="3">
+        <v>2477</v>
+      </c>
+      <c r="J139" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
@@ -9660,9 +11062,15 @@
       <c r="E140" s="3"/>
       <c r="F140" s="2"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+      <c r="H140" s="2">
+        <v>44020</v>
+      </c>
+      <c r="I140" s="3">
+        <v>2480</v>
+      </c>
+      <c r="J140" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
@@ -9672,9 +11080,15 @@
       <c r="E141" s="3"/>
       <c r="F141" s="2"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
+      <c r="H141" s="2">
+        <v>44021</v>
+      </c>
+      <c r="I141" s="3">
+        <v>2481</v>
+      </c>
+      <c r="J141" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
@@ -9684,9 +11098,15 @@
       <c r="E142" s="3"/>
       <c r="F142" s="2"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
+      <c r="H142" s="2">
+        <v>44022</v>
+      </c>
+      <c r="I142" s="3">
+        <v>2485</v>
+      </c>
+      <c r="J142" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
@@ -9696,9 +11116,15 @@
       <c r="E143" s="3"/>
       <c r="F143" s="2"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
+      <c r="H143" s="2">
+        <v>44023</v>
+      </c>
+      <c r="I143" s="3">
+        <v>2485</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
@@ -9708,9 +11134,15 @@
       <c r="E144" s="3"/>
       <c r="F144" s="2"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+      <c r="H144" s="2">
+        <v>44024</v>
+      </c>
+      <c r="I144" s="3">
+        <v>2487</v>
+      </c>
+      <c r="J144" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
@@ -9720,9 +11152,15 @@
       <c r="E145" s="3"/>
       <c r="F145" s="2"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+      <c r="H145" s="2">
+        <v>44025</v>
+      </c>
+      <c r="I145" s="3">
+        <v>2494</v>
+      </c>
+      <c r="J145" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
@@ -9732,9 +11170,15 @@
       <c r="E146" s="3"/>
       <c r="F146" s="2"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+      <c r="H146" s="2">
+        <v>44026</v>
+      </c>
+      <c r="I146" s="3">
+        <v>2498</v>
+      </c>
+      <c r="J146" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
@@ -9744,9 +11188,15 @@
       <c r="E147" s="3"/>
       <c r="F147" s="2"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
+      <c r="H147" s="2">
+        <v>44027</v>
+      </c>
+      <c r="I147" s="3">
+        <v>2499</v>
+      </c>
+      <c r="J147" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
@@ -9756,9 +11206,15 @@
       <c r="E148" s="3"/>
       <c r="F148" s="2"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
+      <c r="H148" s="2">
+        <v>44028</v>
+      </c>
+      <c r="I148" s="3">
+        <v>2499</v>
+      </c>
+      <c r="J148" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
@@ -9768,9 +11224,15 @@
       <c r="E149" s="3"/>
       <c r="F149" s="2"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
+      <c r="H149" s="2">
+        <v>44029</v>
+      </c>
+      <c r="I149" s="3">
+        <v>2501</v>
+      </c>
+      <c r="J149" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
@@ -9780,21 +11242,570 @@
       <c r="E150" s="3"/>
       <c r="F150" s="2"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
+      <c r="H150" s="2">
+        <v>44030</v>
+      </c>
+      <c r="I150" s="3">
+        <v>2501</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
+      <c r="H151" s="2">
+        <v>44031</v>
+      </c>
+      <c r="I151" s="3">
+        <v>2501</v>
+      </c>
+      <c r="J151" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
+      <c r="H152" s="2">
+        <v>44032</v>
+      </c>
+      <c r="I152" s="3">
+        <v>2512</v>
+      </c>
+      <c r="J152" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H153" s="2">
+        <v>44033</v>
+      </c>
+      <c r="I153" s="3">
+        <v>2512</v>
+      </c>
+      <c r="J153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H154" s="2">
+        <v>44034</v>
+      </c>
+      <c r="I154" s="3">
+        <v>2523</v>
+      </c>
+      <c r="J154" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H155" s="2">
+        <v>44035</v>
+      </c>
+      <c r="I155" s="3">
+        <v>2526</v>
+      </c>
+      <c r="J155" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H156" s="2">
+        <v>44036</v>
+      </c>
+      <c r="I156" s="3">
+        <v>2540</v>
+      </c>
+      <c r="J156" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H157" s="2">
+        <v>44037</v>
+      </c>
+      <c r="I157" s="3">
+        <v>2540</v>
+      </c>
+      <c r="J157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H158" s="2">
+        <v>44038</v>
+      </c>
+      <c r="I158" s="3">
+        <v>2546</v>
+      </c>
+      <c r="J158" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H159" s="2">
+        <v>44039</v>
+      </c>
+      <c r="I159" s="3">
+        <v>2553</v>
+      </c>
+      <c r="J159" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H160" s="2">
+        <v>44040</v>
+      </c>
+      <c r="I160" s="3">
+        <v>2558</v>
+      </c>
+      <c r="J160" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H161" s="2">
+        <v>44041</v>
+      </c>
+      <c r="I161" s="3">
+        <v>2566</v>
+      </c>
+      <c r="J161" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H162" s="2">
+        <v>44042</v>
+      </c>
+      <c r="I162" s="3">
+        <v>2571</v>
+      </c>
+      <c r="J162" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H163" s="2">
+        <v>44043</v>
+      </c>
+      <c r="I163" s="3">
+        <v>2581</v>
+      </c>
+      <c r="J163" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H164" s="2">
+        <v>44044</v>
+      </c>
+      <c r="I164" s="3">
+        <v>2588</v>
+      </c>
+      <c r="J164" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H165" s="2">
+        <v>44045</v>
+      </c>
+      <c r="I165" s="3">
+        <v>2591</v>
+      </c>
+      <c r="J165" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H166" s="2">
+        <v>44046</v>
+      </c>
+      <c r="I166" s="3">
+        <v>2599</v>
+      </c>
+      <c r="J166" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H167" s="2">
+        <v>44047</v>
+      </c>
+      <c r="I167" s="3">
+        <v>2615</v>
+      </c>
+      <c r="J167" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H168" s="2">
+        <v>44048</v>
+      </c>
+      <c r="I168" s="3">
+        <v>2634</v>
+      </c>
+      <c r="J168" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H169" s="2">
+        <v>44049</v>
+      </c>
+      <c r="I169" s="3">
+        <v>2663</v>
+      </c>
+      <c r="J169" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H170" s="2">
+        <v>44050</v>
+      </c>
+      <c r="I170" s="3">
+        <v>2706</v>
+      </c>
+      <c r="J170" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="171" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H171" s="2">
+        <v>44051</v>
+      </c>
+      <c r="I171" s="3">
+        <v>2722</v>
+      </c>
+      <c r="J171" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H172" s="2">
+        <v>44052</v>
+      </c>
+      <c r="I172" s="3">
+        <v>2740</v>
+      </c>
+      <c r="J172" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H173" s="2">
+        <v>44053</v>
+      </c>
+      <c r="I173" s="3">
+        <v>2763</v>
+      </c>
+      <c r="J173" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H174" s="2">
+        <v>44054</v>
+      </c>
+      <c r="I174" s="3">
+        <v>2782</v>
+      </c>
+      <c r="J174" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H175" s="2">
+        <v>44055</v>
+      </c>
+      <c r="I175" s="3">
+        <v>2799</v>
+      </c>
+      <c r="J175" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H176" s="2">
+        <v>44056</v>
+      </c>
+      <c r="I176" s="3">
+        <v>2812</v>
+      </c>
+      <c r="J176" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H177" s="2">
+        <v>44057</v>
+      </c>
+      <c r="I177" s="3">
+        <v>2830</v>
+      </c>
+      <c r="J177" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H178" s="2">
+        <v>44058</v>
+      </c>
+      <c r="I178" s="3">
+        <v>2843</v>
+      </c>
+      <c r="J178" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H179" s="2">
+        <v>44059</v>
+      </c>
+      <c r="I179" s="3">
+        <v>2851</v>
+      </c>
+      <c r="J179" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H180" s="2">
+        <v>44060</v>
+      </c>
+      <c r="I180" s="3">
+        <v>2881</v>
+      </c>
+      <c r="J180" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H181" s="2">
+        <v>44061</v>
+      </c>
+      <c r="I181" s="3">
+        <v>2891</v>
+      </c>
+      <c r="J181" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H182" s="2">
+        <v>44062</v>
+      </c>
+      <c r="I182" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J182" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H183" s="2">
+        <v>44063</v>
+      </c>
+      <c r="I183" s="3">
+        <v>2911</v>
+      </c>
+      <c r="J183" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H184" s="2">
+        <v>44064</v>
+      </c>
+      <c r="I184" s="3">
+        <v>2917</v>
+      </c>
+      <c r="J184" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H185" s="2">
+        <v>44065</v>
+      </c>
+      <c r="I185" s="3">
+        <v>2929</v>
+      </c>
+      <c r="J185" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H186" s="2">
+        <v>44066</v>
+      </c>
+      <c r="I186" s="3">
+        <v>2929</v>
+      </c>
+      <c r="J186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H187" s="2">
+        <v>44067</v>
+      </c>
+      <c r="I187" s="3">
+        <v>2941</v>
+      </c>
+      <c r="J187" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H188" s="2">
+        <v>44068</v>
+      </c>
+      <c r="I188" s="3">
+        <v>2947</v>
+      </c>
+      <c r="J188" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H189" s="2">
+        <v>44069</v>
+      </c>
+      <c r="I189" s="3">
+        <v>2956</v>
+      </c>
+      <c r="J189" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H190" s="2">
+        <v>44070</v>
+      </c>
+      <c r="I190" s="3">
+        <v>2969</v>
+      </c>
+      <c r="J190" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H191" s="2">
+        <v>44071</v>
+      </c>
+      <c r="I191" s="3">
+        <v>2997</v>
+      </c>
+      <c r="J191" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H192" s="2">
+        <v>44072</v>
+      </c>
+      <c r="I192" s="3">
+        <v>3014</v>
+      </c>
+      <c r="J192" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H193" s="2">
+        <v>44073</v>
+      </c>
+      <c r="I193" s="3">
+        <v>3032</v>
+      </c>
+      <c r="J193" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H194" s="2">
+        <v>44074</v>
+      </c>
+      <c r="I194" s="3">
+        <v>3098</v>
+      </c>
+      <c r="J194" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H195" s="2">
+        <v>44075</v>
+      </c>
+      <c r="I195" s="3">
+        <v>3155</v>
+      </c>
+      <c r="J195" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H196" s="2">
+        <v>44076</v>
+      </c>
+      <c r="I196" s="3">
+        <v>3205</v>
+      </c>
+      <c r="J196" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H197" s="2">
+        <v>44077</v>
+      </c>
+      <c r="I197" s="3">
+        <v>3275</v>
+      </c>
+      <c r="J197" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="198" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H198" s="2">
+        <v>44078</v>
+      </c>
+      <c r="I198" s="3">
+        <v>3327</v>
+      </c>
+      <c r="J198" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="199" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H199" s="2">
+        <v>44079</v>
+      </c>
+      <c r="I199" s="3">
+        <v>3342</v>
+      </c>
+      <c r="J199" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H200" s="2">
+        <v>44080</v>
+      </c>
+      <c r="I200" s="3">
+        <v>3343</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4170D87-978B-6147-868F-1839929642E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1040D1AB-4F98-9646-87CE-2CC446DE427C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21060" yWindow="600" windowWidth="19740" windowHeight="20660" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:X200"/>
+  <dimension ref="A1:X207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="D12:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2232,10 +2232,10 @@
         <v>234</v>
       </c>
       <c r="K47">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L47">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2270,10 +2270,10 @@
         <v>236</v>
       </c>
       <c r="K48">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L48">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2308,10 +2308,10 @@
         <v>239</v>
       </c>
       <c r="K49">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L49">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2346,10 +2346,10 @@
         <v>240</v>
       </c>
       <c r="K50">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L50">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2384,10 +2384,10 @@
         <v>241</v>
       </c>
       <c r="K51">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L51">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2422,10 +2422,10 @@
         <v>247</v>
       </c>
       <c r="K52">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L52">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2460,10 +2460,10 @@
         <v>248</v>
       </c>
       <c r="K53">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L53">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2498,10 +2498,10 @@
         <v>250</v>
       </c>
       <c r="K54">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L54">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2536,10 +2536,10 @@
         <v>251</v>
       </c>
       <c r="K55">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L55">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2574,10 +2574,10 @@
         <v>252</v>
       </c>
       <c r="K56">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L56">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2612,10 +2612,10 @@
         <v>259</v>
       </c>
       <c r="K57">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L57">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2650,10 +2650,10 @@
         <v>260</v>
       </c>
       <c r="K58">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L58">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2688,10 +2688,10 @@
         <v>261</v>
       </c>
       <c r="K59">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L59">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2726,10 +2726,10 @@
         <v>261</v>
       </c>
       <c r="K60">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L60">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2764,10 +2764,10 @@
         <v>261</v>
       </c>
       <c r="K61">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L61">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2802,10 +2802,10 @@
         <v>262</v>
       </c>
       <c r="K62">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L62">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2840,10 +2840,10 @@
         <v>265</v>
       </c>
       <c r="K63">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="L63">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2878,10 +2878,10 @@
         <v>268</v>
       </c>
       <c r="K64">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="L64">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2916,10 +2916,10 @@
         <v>268</v>
       </c>
       <c r="K65">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="L65">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2954,10 +2954,10 @@
         <v>269</v>
       </c>
       <c r="K66">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="L66">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2992,10 +2992,10 @@
         <v>269</v>
       </c>
       <c r="K67">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="L67">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -3030,10 +3030,10 @@
         <v>269</v>
       </c>
       <c r="K68">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L68">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -3068,10 +3068,10 @@
         <v>271</v>
       </c>
       <c r="K69">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="L69">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -3106,10 +3106,10 @@
         <v>272</v>
       </c>
       <c r="K70">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="L70">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -3144,10 +3144,10 @@
         <v>273</v>
       </c>
       <c r="K71">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="L71">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -3182,10 +3182,10 @@
         <v>273</v>
       </c>
       <c r="K72">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="L72">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -3220,10 +3220,10 @@
         <v>273</v>
       </c>
       <c r="K73">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="L73">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -3258,10 +3258,10 @@
         <v>273</v>
       </c>
       <c r="K74">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="L74">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3296,10 +3296,10 @@
         <v>273</v>
       </c>
       <c r="K75">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="L75">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3334,10 +3334,10 @@
         <v>274</v>
       </c>
       <c r="K76">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="L76">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3372,10 +3372,10 @@
         <v>275</v>
       </c>
       <c r="K77">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="L77">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3410,10 +3410,10 @@
         <v>276</v>
       </c>
       <c r="K78">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L78">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3448,10 +3448,10 @@
         <v>276</v>
       </c>
       <c r="K79">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="L79">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3486,10 +3486,10 @@
         <v>276</v>
       </c>
       <c r="K80">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="L80">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3524,10 +3524,10 @@
         <v>276</v>
       </c>
       <c r="K81">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="L81">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3562,10 +3562,10 @@
         <v>276</v>
       </c>
       <c r="K82">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L82">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3600,10 +3600,10 @@
         <v>278</v>
       </c>
       <c r="K83">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L83">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3638,10 +3638,10 @@
         <v>279</v>
       </c>
       <c r="K84">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L84">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3676,10 +3676,10 @@
         <v>279</v>
       </c>
       <c r="K85">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L85">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3714,10 +3714,10 @@
         <v>280</v>
       </c>
       <c r="K86">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L86">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3752,10 +3752,10 @@
         <v>280</v>
       </c>
       <c r="K87">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L87">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3790,10 +3790,10 @@
         <v>280</v>
       </c>
       <c r="K88">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L88">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3828,10 +3828,10 @@
         <v>280</v>
       </c>
       <c r="K89">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="L89">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3866,10 +3866,10 @@
         <v>282</v>
       </c>
       <c r="K90">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L90">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3904,10 +3904,10 @@
         <v>282</v>
       </c>
       <c r="K91">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L91">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3942,10 +3942,10 @@
         <v>283</v>
       </c>
       <c r="K92">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L92">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3980,10 +3980,10 @@
         <v>284</v>
       </c>
       <c r="K93">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L93">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -4018,10 +4018,10 @@
         <v>284</v>
       </c>
       <c r="K94">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L94">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -4056,10 +4056,10 @@
         <v>284</v>
       </c>
       <c r="K95">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L95">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -4094,10 +4094,10 @@
         <v>284</v>
       </c>
       <c r="K96">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L96">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -4132,10 +4132,10 @@
         <v>285</v>
       </c>
       <c r="K97">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L97">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -4170,10 +4170,10 @@
         <v>285</v>
       </c>
       <c r="K98">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L98">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -4208,10 +4208,10 @@
         <v>285</v>
       </c>
       <c r="K99">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L99">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -4246,10 +4246,10 @@
         <v>285</v>
       </c>
       <c r="K100">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L100">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -4284,10 +4284,10 @@
         <v>285</v>
       </c>
       <c r="K101">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L101">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -4322,10 +4322,10 @@
         <v>285</v>
       </c>
       <c r="K102">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L102">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -4360,10 +4360,10 @@
         <v>285</v>
       </c>
       <c r="K103">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L103">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4398,10 +4398,10 @@
         <v>286</v>
       </c>
       <c r="K104">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L104">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4436,10 +4436,10 @@
         <v>286</v>
       </c>
       <c r="K105">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="L105">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4474,10 +4474,10 @@
         <v>286</v>
       </c>
       <c r="K106">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="L106">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4512,10 +4512,10 @@
         <v>288</v>
       </c>
       <c r="K107">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L107">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4550,10 +4550,10 @@
         <v>288</v>
       </c>
       <c r="K108">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L108">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4588,10 +4588,10 @@
         <v>288</v>
       </c>
       <c r="K109">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L109">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4626,10 +4626,10 @@
         <v>289</v>
       </c>
       <c r="K110">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L110">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4664,10 +4664,10 @@
         <v>289</v>
       </c>
       <c r="K111">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L111">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4702,10 +4702,10 @@
         <v>289</v>
       </c>
       <c r="K112">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L112">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4740,10 +4740,10 @@
         <v>289</v>
       </c>
       <c r="K113">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L113">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4778,10 +4778,10 @@
         <v>289</v>
       </c>
       <c r="K114">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L114">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4816,10 +4816,10 @@
         <v>289</v>
       </c>
       <c r="K115">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L115">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4854,10 +4854,10 @@
         <v>289</v>
       </c>
       <c r="K116">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L116">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4892,10 +4892,10 @@
         <v>290</v>
       </c>
       <c r="K117">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L117">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4930,10 +4930,10 @@
         <v>291</v>
       </c>
       <c r="K118">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L118">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4968,10 +4968,10 @@
         <v>291</v>
       </c>
       <c r="K119">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L119">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -5006,10 +5006,10 @@
         <v>291</v>
       </c>
       <c r="K120">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L120">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -5044,10 +5044,10 @@
         <v>294</v>
       </c>
       <c r="K121">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L121">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -5082,10 +5082,10 @@
         <v>294</v>
       </c>
       <c r="K122">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L122">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -5120,10 +5120,10 @@
         <v>294</v>
       </c>
       <c r="K123">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L123">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -5158,10 +5158,10 @@
         <v>294</v>
       </c>
       <c r="K124">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="L124">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -5196,10 +5196,10 @@
         <v>294</v>
       </c>
       <c r="K125">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="L125">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -5234,10 +5234,10 @@
         <v>294</v>
       </c>
       <c r="K126">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="L126">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -5272,10 +5272,10 @@
         <v>294</v>
       </c>
       <c r="K127">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L127">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -5310,10 +5310,10 @@
         <v>294</v>
       </c>
       <c r="K128">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L128">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -5348,10 +5348,10 @@
         <v>294</v>
       </c>
       <c r="K129">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L129">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -5386,10 +5386,10 @@
         <v>294</v>
       </c>
       <c r="K130">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L130">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -5424,10 +5424,10 @@
         <v>294</v>
       </c>
       <c r="K131">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="L131">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -5462,10 +5462,10 @@
         <v>294</v>
       </c>
       <c r="K132">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="L132">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -5500,10 +5500,10 @@
         <v>295</v>
       </c>
       <c r="K133">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L133">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -5538,10 +5538,10 @@
         <v>296</v>
       </c>
       <c r="K134">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L134">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -5576,10 +5576,10 @@
         <v>296</v>
       </c>
       <c r="K135">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L135">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -5614,10 +5614,10 @@
         <v>296</v>
       </c>
       <c r="K136">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L136">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5652,10 +5652,10 @@
         <v>296</v>
       </c>
       <c r="K137">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L137">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5690,10 +5690,10 @@
         <v>297</v>
       </c>
       <c r="K138">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L138">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5728,10 +5728,10 @@
         <v>299</v>
       </c>
       <c r="K139">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L139">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5766,10 +5766,10 @@
         <v>299</v>
       </c>
       <c r="K140">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L140">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5804,10 +5804,10 @@
         <v>299</v>
       </c>
       <c r="K141">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L141">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5842,10 +5842,10 @@
         <v>299</v>
       </c>
       <c r="K142">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L142">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5880,10 +5880,10 @@
         <v>299</v>
       </c>
       <c r="K143">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L143">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5918,10 +5918,10 @@
         <v>299</v>
       </c>
       <c r="K144">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L144">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
@@ -5956,10 +5956,10 @@
         <v>299</v>
       </c>
       <c r="K145">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L145">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
@@ -6005,10 +6005,10 @@
         <v>299</v>
       </c>
       <c r="K146">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L146">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="N146" s="8"/>
       <c r="O146" s="8"/>
@@ -6054,10 +6054,10 @@
         <v>299</v>
       </c>
       <c r="K147">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L147">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
@@ -6103,10 +6103,10 @@
         <v>299</v>
       </c>
       <c r="K148">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L148">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="N148" s="8"/>
       <c r="O148" s="8"/>
@@ -6152,10 +6152,10 @@
         <v>299</v>
       </c>
       <c r="K149">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="L149">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
@@ -6201,10 +6201,10 @@
         <v>299</v>
       </c>
       <c r="K150">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="L150">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
@@ -6250,10 +6250,10 @@
         <v>299</v>
       </c>
       <c r="K151">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="L151">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="N151" s="8"/>
       <c r="O151" s="8"/>
@@ -6299,10 +6299,10 @@
         <v>299</v>
       </c>
       <c r="K152">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="L152">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
@@ -6348,10 +6348,10 @@
         <v>299</v>
       </c>
       <c r="K153">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="L153">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
@@ -6397,10 +6397,10 @@
         <v>300</v>
       </c>
       <c r="K154">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="L154">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
@@ -6446,10 +6446,10 @@
         <v>300</v>
       </c>
       <c r="K155">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="L155">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="N155" s="8"/>
       <c r="O155" s="8"/>
@@ -6495,10 +6495,10 @@
         <v>301</v>
       </c>
       <c r="K156">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="L156">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
@@ -6544,10 +6544,10 @@
         <v>301</v>
       </c>
       <c r="K157" s="5">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="L157">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
@@ -6593,10 +6593,10 @@
         <v>303</v>
       </c>
       <c r="K158" s="5">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="L158">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
@@ -6642,10 +6642,10 @@
         <v>306</v>
       </c>
       <c r="K159" s="6">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="L159" s="6">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="N159" s="8"/>
       <c r="O159" s="8"/>
@@ -6691,10 +6691,10 @@
         <v>306</v>
       </c>
       <c r="K160" s="6">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="L160" s="6">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="N160" s="8"/>
       <c r="O160" s="8"/>
@@ -6740,10 +6740,10 @@
         <v>310</v>
       </c>
       <c r="K161" s="6">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="L161" s="6">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="N161" s="8"/>
       <c r="O161" s="8"/>
@@ -6789,10 +6789,10 @@
         <v>310</v>
       </c>
       <c r="K162" s="6">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="L162" s="6">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="N162" s="8"/>
       <c r="O162" s="8"/>
@@ -6838,10 +6838,10 @@
         <v>312</v>
       </c>
       <c r="K163" s="6">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="L163" s="6">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="N163" s="8"/>
       <c r="O163" s="8"/>
@@ -6887,10 +6887,10 @@
         <v>312</v>
       </c>
       <c r="K164" s="6">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="L164" s="6">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="N164" s="8"/>
       <c r="O164" s="8"/>
@@ -6936,10 +6936,10 @@
         <v>312</v>
       </c>
       <c r="K165">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L165">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="N165" s="8"/>
       <c r="O165" s="8"/>
@@ -6985,10 +6985,10 @@
         <v>314</v>
       </c>
       <c r="K166" s="10">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="L166" s="10">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="N166" s="8"/>
       <c r="O166" s="8"/>
@@ -7034,10 +7034,10 @@
         <v>314</v>
       </c>
       <c r="K167" s="10">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="L167" s="10">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="N167" s="8"/>
       <c r="O167" s="8"/>
@@ -7083,10 +7083,10 @@
         <v>317</v>
       </c>
       <c r="K168" s="10">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="L168" s="10">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="N168" s="8"/>
       <c r="O168" s="8"/>
@@ -7132,10 +7132,10 @@
         <v>319</v>
       </c>
       <c r="K169" s="10">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="L169" s="10">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="N169" s="8"/>
       <c r="O169" s="8"/>
@@ -7181,10 +7181,10 @@
         <v>324</v>
       </c>
       <c r="K170" s="10">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="L170" s="10">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="N170" s="8"/>
       <c r="O170" s="8"/>
@@ -7230,10 +7230,10 @@
         <v>326</v>
       </c>
       <c r="K171" s="10">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="L171" s="10">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="N171" s="8"/>
       <c r="O171" s="8"/>
@@ -7279,10 +7279,10 @@
         <v>327</v>
       </c>
       <c r="K172">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="L172">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="N172" s="8"/>
       <c r="O172" s="8"/>
@@ -7328,10 +7328,10 @@
         <v>331</v>
       </c>
       <c r="K173">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="L173">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="N173" s="8"/>
       <c r="O173" s="8"/>
@@ -7377,10 +7377,10 @@
         <v>332</v>
       </c>
       <c r="K174" s="8">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="L174">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="N174" s="8"/>
       <c r="O174" s="8"/>
@@ -7426,10 +7426,10 @@
         <v>333</v>
       </c>
       <c r="K175">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="L175">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
@@ -7474,10 +7474,10 @@
         <v>337</v>
       </c>
       <c r="K176">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="L176">
-        <v>2812</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -7512,10 +7512,10 @@
         <v>340</v>
       </c>
       <c r="K177">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="L177">
-        <v>2830</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -7550,10 +7550,10 @@
         <v>342</v>
       </c>
       <c r="K178">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="L178">
-        <v>2843</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -7588,10 +7588,10 @@
         <v>343</v>
       </c>
       <c r="K179">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="L179">
-        <v>2851</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -7626,10 +7626,10 @@
         <v>346</v>
       </c>
       <c r="K180">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="L180">
-        <v>2881</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -7664,10 +7664,10 @@
         <v>348</v>
       </c>
       <c r="K181">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="L181">
-        <v>2891</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -7702,10 +7702,10 @@
         <v>348</v>
       </c>
       <c r="K182">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="L182">
-        <v>2900</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -7740,10 +7740,10 @@
         <v>349</v>
       </c>
       <c r="K183">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="L183">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -7778,10 +7778,10 @@
         <v>350</v>
       </c>
       <c r="K184">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="L184">
-        <v>2917</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -7816,10 +7816,10 @@
         <v>351</v>
       </c>
       <c r="K185">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="L185">
-        <v>2929</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -7854,10 +7854,10 @@
         <v>351</v>
       </c>
       <c r="K186">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="L186">
-        <v>2929</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -7892,10 +7892,10 @@
         <v>352</v>
       </c>
       <c r="K187">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="L187">
-        <v>2941</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -7930,10 +7930,10 @@
         <v>353</v>
       </c>
       <c r="K188">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="L188">
-        <v>2947</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -7968,10 +7968,10 @@
         <v>354</v>
       </c>
       <c r="K189">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="L189">
-        <v>2956</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -8006,10 +8006,10 @@
         <v>356</v>
       </c>
       <c r="K190">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="L190">
-        <v>2969</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -8044,10 +8044,10 @@
         <v>356</v>
       </c>
       <c r="K191">
-        <v>1086</v>
+        <v>1098</v>
       </c>
       <c r="L191">
-        <v>2997</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -8082,10 +8082,10 @@
         <v>357</v>
       </c>
       <c r="K192">
-        <v>1089</v>
+        <v>1103</v>
       </c>
       <c r="L192">
-        <v>3014</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -8120,10 +8120,10 @@
         <v>360</v>
       </c>
       <c r="K193">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="L193">
-        <v>3032</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -8158,10 +8158,10 @@
         <v>361</v>
       </c>
       <c r="K194">
-        <v>1132</v>
+        <v>1159</v>
       </c>
       <c r="L194">
-        <v>3098</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -8196,10 +8196,10 @@
         <v>364</v>
       </c>
       <c r="K195">
-        <v>1143</v>
+        <v>1173</v>
       </c>
       <c r="L195">
-        <v>3155</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -8219,7 +8219,7 @@
         <v>184</v>
       </c>
       <c r="F196">
-        <v>3542</v>
+        <v>3546</v>
       </c>
       <c r="G196">
         <v>547</v>
@@ -8231,13 +8231,13 @@
         <v>627</v>
       </c>
       <c r="J196">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K196">
-        <v>1161</v>
+        <v>1195</v>
       </c>
       <c r="L196">
-        <v>3205</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -8248,7 +8248,7 @@
         <v>418</v>
       </c>
       <c r="C197">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D197">
         <v>188</v>
@@ -8257,7 +8257,7 @@
         <v>184</v>
       </c>
       <c r="F197">
-        <v>3554</v>
+        <v>3563</v>
       </c>
       <c r="G197">
         <v>552</v>
@@ -8266,16 +8266,16 @@
         <v>327</v>
       </c>
       <c r="I197">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J197">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K197">
-        <v>1181</v>
+        <v>1219</v>
       </c>
       <c r="L197">
-        <v>3275</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -8286,7 +8286,7 @@
         <v>419</v>
       </c>
       <c r="C198">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D198">
         <v>188</v>
@@ -8295,25 +8295,25 @@
         <v>185</v>
       </c>
       <c r="F198">
-        <v>3564</v>
+        <v>3582</v>
       </c>
       <c r="G198">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H198">
         <v>327</v>
       </c>
       <c r="I198">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="J198">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K198">
-        <v>1203</v>
+        <v>1252</v>
       </c>
       <c r="L198">
-        <v>3327</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -8324,34 +8324,34 @@
         <v>419</v>
       </c>
       <c r="C199">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D199">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E199">
         <v>185</v>
       </c>
       <c r="F199">
-        <v>3574</v>
+        <v>3600</v>
       </c>
       <c r="G199">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H199">
         <v>327</v>
       </c>
       <c r="I199">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="J199">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K199">
-        <v>1203</v>
+        <v>1267</v>
       </c>
       <c r="L199">
-        <v>3342</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -8359,37 +8359,279 @@
         <v>44080</v>
       </c>
       <c r="B200">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C200">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D200">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E200">
         <v>185</v>
       </c>
       <c r="F200">
-        <v>3580</v>
+        <v>3614</v>
       </c>
       <c r="G200">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="H200">
         <v>327</v>
       </c>
       <c r="I200">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="J200">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K200">
-        <v>1203</v>
+        <v>1287</v>
       </c>
       <c r="L200">
-        <v>3343</v>
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201" s="9">
+        <v>44081</v>
+      </c>
+      <c r="B201">
+        <v>421</v>
+      </c>
+      <c r="C201">
+        <v>598</v>
+      </c>
+      <c r="D201">
+        <v>192</v>
+      </c>
+      <c r="E201">
+        <v>186</v>
+      </c>
+      <c r="F201">
+        <v>3645</v>
+      </c>
+      <c r="G201">
+        <v>567</v>
+      </c>
+      <c r="H201">
+        <v>328</v>
+      </c>
+      <c r="I201">
+        <v>636</v>
+      </c>
+      <c r="J201">
+        <v>371</v>
+      </c>
+      <c r="K201">
+        <v>1327</v>
+      </c>
+      <c r="L201">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" s="9">
+        <v>44082</v>
+      </c>
+      <c r="B202">
+        <v>422</v>
+      </c>
+      <c r="C202">
+        <v>599</v>
+      </c>
+      <c r="D202">
+        <v>193</v>
+      </c>
+      <c r="E202">
+        <v>187</v>
+      </c>
+      <c r="F202">
+        <v>3678</v>
+      </c>
+      <c r="G202">
+        <v>572</v>
+      </c>
+      <c r="H202">
+        <v>329</v>
+      </c>
+      <c r="I202">
+        <v>638</v>
+      </c>
+      <c r="J202">
+        <v>376</v>
+      </c>
+      <c r="K202">
+        <v>1357</v>
+      </c>
+      <c r="L202">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" s="9">
+        <v>44083</v>
+      </c>
+      <c r="B203">
+        <v>424</v>
+      </c>
+      <c r="C203">
+        <v>601</v>
+      </c>
+      <c r="E203">
+        <v>189</v>
+      </c>
+      <c r="F203">
+        <v>3707</v>
+      </c>
+      <c r="G203">
+        <v>575</v>
+      </c>
+      <c r="H203">
+        <v>329</v>
+      </c>
+      <c r="I203">
+        <v>638</v>
+      </c>
+      <c r="J203">
+        <v>377</v>
+      </c>
+      <c r="K203">
+        <v>1404</v>
+      </c>
+      <c r="L203">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A204" s="9">
+        <v>44084</v>
+      </c>
+      <c r="B204">
+        <v>427</v>
+      </c>
+      <c r="C204">
+        <v>604</v>
+      </c>
+      <c r="D204">
+        <v>194</v>
+      </c>
+      <c r="E204">
+        <v>191</v>
+      </c>
+      <c r="F204">
+        <v>3747</v>
+      </c>
+      <c r="G204">
+        <v>576</v>
+      </c>
+      <c r="H204">
+        <v>330</v>
+      </c>
+      <c r="I204">
+        <v>641</v>
+      </c>
+      <c r="J204">
+        <v>378</v>
+      </c>
+      <c r="K204">
+        <v>1450</v>
+      </c>
+      <c r="L204">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" s="9">
+        <v>44085</v>
+      </c>
+      <c r="C205">
+        <v>606</v>
+      </c>
+      <c r="E205">
+        <v>196</v>
+      </c>
+      <c r="F205">
+        <v>3779</v>
+      </c>
+      <c r="G205">
+        <v>578</v>
+      </c>
+      <c r="H205">
+        <v>331</v>
+      </c>
+      <c r="I205">
+        <v>642</v>
+      </c>
+      <c r="J205">
+        <v>382</v>
+      </c>
+      <c r="K205">
+        <v>1471</v>
+      </c>
+      <c r="L205">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206" s="9">
+        <v>44086</v>
+      </c>
+      <c r="C206">
+        <v>606</v>
+      </c>
+      <c r="E206">
+        <v>197</v>
+      </c>
+      <c r="F206">
+        <v>3786</v>
+      </c>
+      <c r="G206">
+        <v>578</v>
+      </c>
+      <c r="H206">
+        <v>332</v>
+      </c>
+      <c r="I206">
+        <v>643</v>
+      </c>
+      <c r="J206">
+        <v>382</v>
+      </c>
+      <c r="K206">
+        <v>1472</v>
+      </c>
+      <c r="L206">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207" s="9">
+        <v>44087</v>
+      </c>
+      <c r="C207">
+        <v>606</v>
+      </c>
+      <c r="F207">
+        <v>3789</v>
+      </c>
+      <c r="G207">
+        <v>578</v>
+      </c>
+      <c r="H207">
+        <v>332</v>
+      </c>
+      <c r="I207">
+        <v>644</v>
+      </c>
+      <c r="J207">
+        <v>383</v>
+      </c>
+      <c r="K207">
+        <v>1472</v>
+      </c>
+      <c r="L207">
+        <v>3532</v>
       </c>
     </row>
   </sheetData>
@@ -8399,10 +8641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46004C74-2EDF-764B-8198-01B7AB12DF1A}">
-  <dimension ref="A1:FG200"/>
+  <dimension ref="A1:FG207"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I200"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9392,10 +9634,10 @@
         <v>43927</v>
       </c>
       <c r="I47" s="3">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="J47" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -9410,7 +9652,7 @@
         <v>43928</v>
       </c>
       <c r="I48" s="3">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="J48" s="3">
         <v>36</v>
@@ -9428,7 +9670,7 @@
         <v>43929</v>
       </c>
       <c r="I49" s="3">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="J49" s="3">
         <v>25</v>
@@ -9446,7 +9688,7 @@
         <v>43930</v>
       </c>
       <c r="I50" s="3">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="J50" s="3">
         <v>26</v>
@@ -9464,7 +9706,7 @@
         <v>43931</v>
       </c>
       <c r="I51" s="3">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="J51" s="3">
         <v>17</v>
@@ -9482,7 +9724,7 @@
         <v>43932</v>
       </c>
       <c r="I52" s="3">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="J52" s="3">
         <v>19</v>
@@ -9500,7 +9742,7 @@
         <v>43933</v>
       </c>
       <c r="I53" s="3">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="J53" s="3">
         <v>22</v>
@@ -9518,7 +9760,7 @@
         <v>43934</v>
       </c>
       <c r="I54" s="3">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="J54" s="3">
         <v>21</v>
@@ -9536,7 +9778,7 @@
         <v>43935</v>
       </c>
       <c r="I55" s="3">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="J55" s="3">
         <v>25</v>
@@ -9554,7 +9796,7 @@
         <v>43936</v>
       </c>
       <c r="I56" s="3">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="J56" s="3">
         <v>23</v>
@@ -9572,7 +9814,7 @@
         <v>43937</v>
       </c>
       <c r="I57" s="3">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="J57" s="3">
         <v>16</v>
@@ -9590,7 +9832,7 @@
         <v>43938</v>
       </c>
       <c r="I58" s="3">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="J58" s="3">
         <v>36</v>
@@ -9608,7 +9850,7 @@
         <v>43939</v>
       </c>
       <c r="I59" s="3">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="J59" s="3">
         <v>8</v>
@@ -9626,7 +9868,7 @@
         <v>43940</v>
       </c>
       <c r="I60" s="3">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="J60" s="3">
         <v>4</v>
@@ -9644,7 +9886,7 @@
         <v>43941</v>
       </c>
       <c r="I61" s="3">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="J61" s="3">
         <v>23</v>
@@ -9662,7 +9904,7 @@
         <v>43942</v>
       </c>
       <c r="I62" s="3">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="J62" s="3">
         <v>16</v>
@@ -9680,7 +9922,7 @@
         <v>43943</v>
       </c>
       <c r="I63" s="3">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="J63" s="3">
         <v>18</v>
@@ -9698,7 +9940,7 @@
         <v>43944</v>
       </c>
       <c r="I64" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="J64" s="3">
         <v>13</v>
@@ -9716,7 +9958,7 @@
         <v>43945</v>
       </c>
       <c r="I65" s="3">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J65" s="3">
         <v>13</v>
@@ -9734,7 +9976,7 @@
         <v>43946</v>
       </c>
       <c r="I66" s="3">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="J66" s="3">
         <v>3</v>
@@ -9752,7 +9994,7 @@
         <v>43947</v>
       </c>
       <c r="I67" s="3">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="J67" s="3">
         <v>4</v>
@@ -9770,7 +10012,7 @@
         <v>43948</v>
       </c>
       <c r="I68" s="3">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="J68" s="3">
         <v>18</v>
@@ -9788,7 +10030,7 @@
         <v>43949</v>
       </c>
       <c r="I69" s="3">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="J69" s="3">
         <v>16</v>
@@ -9806,7 +10048,7 @@
         <v>43950</v>
       </c>
       <c r="I70" s="3">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="J70" s="3">
         <v>7</v>
@@ -9824,7 +10066,7 @@
         <v>43951</v>
       </c>
       <c r="I71" s="3">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J71" s="3">
         <v>10</v>
@@ -9842,7 +10084,7 @@
         <v>43952</v>
       </c>
       <c r="I72" s="3">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="J72" s="3">
         <v>3</v>
@@ -9860,7 +10102,7 @@
         <v>43953</v>
       </c>
       <c r="I73" s="3">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="J73" s="3">
         <v>7</v>
@@ -9878,7 +10120,7 @@
         <v>43954</v>
       </c>
       <c r="I74" s="3">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="J74" s="3">
         <v>9</v>
@@ -9896,7 +10138,7 @@
         <v>43955</v>
       </c>
       <c r="I75" s="3">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="J75" s="3">
         <v>18</v>
@@ -9914,7 +10156,7 @@
         <v>43956</v>
       </c>
       <c r="I76" s="3">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="J76" s="3">
         <v>13</v>
@@ -9932,7 +10174,7 @@
         <v>43957</v>
       </c>
       <c r="I77" s="3">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="J77" s="3">
         <v>11</v>
@@ -9950,7 +10192,7 @@
         <v>43958</v>
       </c>
       <c r="I78" s="3">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="J78" s="3">
         <v>12</v>
@@ -9968,7 +10210,7 @@
         <v>43959</v>
       </c>
       <c r="I79" s="3">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="J79" s="3">
         <v>18</v>
@@ -9986,7 +10228,7 @@
         <v>43960</v>
       </c>
       <c r="I80" s="3">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="J80" s="3">
         <v>3</v>
@@ -10004,7 +10246,7 @@
         <v>43961</v>
       </c>
       <c r="I81" s="3">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="J81" s="3">
         <v>1</v>
@@ -10022,7 +10264,7 @@
         <v>43962</v>
       </c>
       <c r="I82" s="3">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="J82" s="3">
         <v>9</v>
@@ -10040,7 +10282,7 @@
         <v>43963</v>
       </c>
       <c r="I83" s="3">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="J83" s="3">
         <v>7</v>
@@ -10058,7 +10300,7 @@
         <v>43964</v>
       </c>
       <c r="I84" s="3">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="J84" s="3">
         <v>10</v>
@@ -10076,7 +10318,7 @@
         <v>43965</v>
       </c>
       <c r="I85" s="3">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="J85" s="3">
         <v>7</v>
@@ -10094,7 +10336,7 @@
         <v>43966</v>
       </c>
       <c r="I86" s="3">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="J86" s="3">
         <v>10</v>
@@ -10112,7 +10354,7 @@
         <v>43967</v>
       </c>
       <c r="I87" s="3">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="J87" s="3">
         <v>6</v>
@@ -10130,7 +10372,7 @@
         <v>43968</v>
       </c>
       <c r="I88" s="3">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="J88" s="3">
         <v>2</v>
@@ -10148,7 +10390,7 @@
         <v>43969</v>
       </c>
       <c r="I89" s="3">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="J89" s="3">
         <v>10</v>
@@ -10166,7 +10408,7 @@
         <v>43970</v>
       </c>
       <c r="I90" s="3">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="J90" s="3">
         <v>7</v>
@@ -10184,7 +10426,7 @@
         <v>43971</v>
       </c>
       <c r="I91" s="3">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="J91" s="3">
         <v>8</v>
@@ -10202,7 +10444,7 @@
         <v>43972</v>
       </c>
       <c r="I92" s="3">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="J92" s="3">
         <v>1</v>
@@ -10220,7 +10462,7 @@
         <v>43973</v>
       </c>
       <c r="I93" s="3">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="J93" s="3">
         <v>10</v>
@@ -10238,7 +10480,7 @@
         <v>43974</v>
       </c>
       <c r="I94" s="3">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -10256,7 +10498,7 @@
         <v>43975</v>
       </c>
       <c r="I95" s="3">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="J95" s="3">
         <v>3</v>
@@ -10274,7 +10516,7 @@
         <v>43976</v>
       </c>
       <c r="I96" s="3">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="J96" s="3">
         <v>8</v>
@@ -10292,7 +10534,7 @@
         <v>43977</v>
       </c>
       <c r="I97" s="3">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="J97" s="3">
         <v>4</v>
@@ -10310,7 +10552,7 @@
         <v>43978</v>
       </c>
       <c r="I98" s="3">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="J98" s="3">
         <v>8</v>
@@ -10328,7 +10570,7 @@
         <v>43979</v>
       </c>
       <c r="I99" s="3">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="J99" s="3">
         <v>3</v>
@@ -10346,7 +10588,7 @@
         <v>43980</v>
       </c>
       <c r="I100" s="3">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="J100" s="3">
         <v>3</v>
@@ -10364,7 +10606,7 @@
         <v>43981</v>
       </c>
       <c r="I101" s="3">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -10382,7 +10624,7 @@
         <v>43982</v>
       </c>
       <c r="I102" s="3">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="J102" s="3">
         <v>2</v>
@@ -10400,7 +10642,7 @@
         <v>43983</v>
       </c>
       <c r="I103" s="3">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="J103" s="3">
         <v>2</v>
@@ -10418,7 +10660,7 @@
         <v>43984</v>
       </c>
       <c r="I104" s="3">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="J104" s="3">
         <v>3</v>
@@ -10436,7 +10678,7 @@
         <v>43985</v>
       </c>
       <c r="I105" s="3">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="J105" s="3">
         <v>5</v>
@@ -10454,7 +10696,7 @@
         <v>43986</v>
       </c>
       <c r="I106" s="3">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="J106" s="3">
         <v>1</v>
@@ -10472,7 +10714,7 @@
         <v>43987</v>
       </c>
       <c r="I107" s="3">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="J107" s="3">
         <v>4</v>
@@ -10490,7 +10732,7 @@
         <v>43988</v>
       </c>
       <c r="I108" s="3">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="J108" s="3">
         <v>2</v>
@@ -10508,7 +10750,7 @@
         <v>43989</v>
       </c>
       <c r="I109" s="3">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="J109" s="3">
         <v>0</v>
@@ -10526,7 +10768,7 @@
         <v>43990</v>
       </c>
       <c r="I110" s="3">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="J110" s="3">
         <v>7</v>
@@ -10544,7 +10786,7 @@
         <v>43991</v>
       </c>
       <c r="I111" s="3">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="J111" s="3">
         <v>4</v>
@@ -10562,7 +10804,7 @@
         <v>43992</v>
       </c>
       <c r="I112" s="3">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="J112" s="3">
         <v>1</v>
@@ -10580,7 +10822,7 @@
         <v>43993</v>
       </c>
       <c r="I113" s="3">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="J113" s="3">
         <v>3</v>
@@ -10598,7 +10840,7 @@
         <v>43994</v>
       </c>
       <c r="I114" s="3">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="J114" s="3">
         <v>6</v>
@@ -10616,7 +10858,7 @@
         <v>43995</v>
       </c>
       <c r="I115" s="3">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="J115" s="3">
         <v>2</v>
@@ -10634,7 +10876,7 @@
         <v>43996</v>
       </c>
       <c r="I116" s="3">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="J116" s="3">
         <v>0</v>
@@ -10652,7 +10894,7 @@
         <v>43997</v>
       </c>
       <c r="I117" s="3">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="J117" s="3">
         <v>9</v>
@@ -10670,7 +10912,7 @@
         <v>43998</v>
       </c>
       <c r="I118" s="3">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="J118" s="3">
         <v>9</v>
@@ -10688,7 +10930,7 @@
         <v>43999</v>
       </c>
       <c r="I119" s="3">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="J119" s="3">
         <v>7</v>
@@ -10706,7 +10948,7 @@
         <v>44000</v>
       </c>
       <c r="I120" s="3">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="J120" s="3">
         <v>5</v>
@@ -10724,7 +10966,7 @@
         <v>44001</v>
       </c>
       <c r="I121" s="3">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="J121" s="3">
         <v>4</v>
@@ -10742,7 +10984,7 @@
         <v>44002</v>
       </c>
       <c r="I122" s="3">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
@@ -10760,7 +11002,7 @@
         <v>44003</v>
       </c>
       <c r="I123" s="3">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="J123" s="3">
         <v>1</v>
@@ -10778,7 +11020,7 @@
         <v>44004</v>
       </c>
       <c r="I124" s="3">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="J124" s="3">
         <v>14</v>
@@ -10796,7 +11038,7 @@
         <v>44005</v>
       </c>
       <c r="I125" s="3">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="J125" s="3">
         <v>5</v>
@@ -10814,7 +11056,7 @@
         <v>44006</v>
       </c>
       <c r="I126" s="3">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="J126" s="3">
         <v>15</v>
@@ -10832,7 +11074,7 @@
         <v>44007</v>
       </c>
       <c r="I127" s="3">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="J127" s="3">
         <v>8</v>
@@ -10850,7 +11092,7 @@
         <v>44008</v>
       </c>
       <c r="I128" s="3">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="J128" s="3">
         <v>14</v>
@@ -10868,7 +11110,7 @@
         <v>44009</v>
       </c>
       <c r="I129" s="3">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="J129" s="3">
         <v>3</v>
@@ -10886,7 +11128,7 @@
         <v>44010</v>
       </c>
       <c r="I130" s="3">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="J130" s="3">
         <v>0</v>
@@ -10904,7 +11146,7 @@
         <v>44011</v>
       </c>
       <c r="I131" s="3">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="J131" s="3">
         <v>17</v>
@@ -10922,7 +11164,7 @@
         <v>44012</v>
       </c>
       <c r="I132" s="3">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="J132" s="3">
         <v>2</v>
@@ -10940,7 +11182,7 @@
         <v>44013</v>
       </c>
       <c r="I133" s="3">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="J133" s="3">
         <v>3</v>
@@ -10958,7 +11200,7 @@
         <v>44014</v>
       </c>
       <c r="I134" s="3">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="J134" s="3">
         <v>3</v>
@@ -10976,7 +11218,7 @@
         <v>44015</v>
       </c>
       <c r="I135" s="3">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="J135" s="3">
         <v>5</v>
@@ -10994,7 +11236,7 @@
         <v>44016</v>
       </c>
       <c r="I136" s="3">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="J136" s="3">
         <v>1</v>
@@ -11012,7 +11254,7 @@
         <v>44017</v>
       </c>
       <c r="I137" s="3">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="J137" s="3">
         <v>0</v>
@@ -11030,7 +11272,7 @@
         <v>44018</v>
       </c>
       <c r="I138" s="3">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="J138" s="3">
         <v>11</v>
@@ -11048,7 +11290,7 @@
         <v>44019</v>
       </c>
       <c r="I139" s="3">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="J139" s="3">
         <v>4</v>
@@ -11066,7 +11308,7 @@
         <v>44020</v>
       </c>
       <c r="I140" s="3">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="J140" s="3">
         <v>3</v>
@@ -11084,7 +11326,7 @@
         <v>44021</v>
       </c>
       <c r="I141" s="3">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="J141" s="3">
         <v>1</v>
@@ -11102,7 +11344,7 @@
         <v>44022</v>
       </c>
       <c r="I142" s="3">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="J142" s="3">
         <v>4</v>
@@ -11120,7 +11362,7 @@
         <v>44023</v>
       </c>
       <c r="I143" s="3">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="J143" s="3">
         <v>0</v>
@@ -11138,7 +11380,7 @@
         <v>44024</v>
       </c>
       <c r="I144" s="3">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="J144" s="3">
         <v>2</v>
@@ -11156,7 +11398,7 @@
         <v>44025</v>
       </c>
       <c r="I145" s="3">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="J145" s="3">
         <v>7</v>
@@ -11174,7 +11416,7 @@
         <v>44026</v>
       </c>
       <c r="I146" s="3">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="J146" s="3">
         <v>4</v>
@@ -11192,7 +11434,7 @@
         <v>44027</v>
       </c>
       <c r="I147" s="3">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="J147" s="3">
         <v>1</v>
@@ -11210,7 +11452,7 @@
         <v>44028</v>
       </c>
       <c r="I148" s="3">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="J148" s="3">
         <v>0</v>
@@ -11228,10 +11470,10 @@
         <v>44029</v>
       </c>
       <c r="I149" s="3">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="J149" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -11246,7 +11488,7 @@
         <v>44030</v>
       </c>
       <c r="I150" s="3">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="J150" s="3">
         <v>0</v>
@@ -11261,7 +11503,7 @@
         <v>44031</v>
       </c>
       <c r="I151" s="3">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="J151" s="3">
         <v>0</v>
@@ -11276,7 +11518,7 @@
         <v>44032</v>
       </c>
       <c r="I152" s="3">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="J152" s="3">
         <v>11</v>
@@ -11287,7 +11529,7 @@
         <v>44033</v>
       </c>
       <c r="I153" s="3">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="J153" s="3">
         <v>0</v>
@@ -11298,7 +11540,7 @@
         <v>44034</v>
       </c>
       <c r="I154" s="3">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="J154" s="3">
         <v>11</v>
@@ -11309,7 +11551,7 @@
         <v>44035</v>
       </c>
       <c r="I155" s="3">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="J155" s="3">
         <v>3</v>
@@ -11320,7 +11562,7 @@
         <v>44036</v>
       </c>
       <c r="I156" s="3">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="J156" s="3">
         <v>14</v>
@@ -11331,7 +11573,7 @@
         <v>44037</v>
       </c>
       <c r="I157" s="3">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="J157" s="3">
         <v>0</v>
@@ -11342,7 +11584,7 @@
         <v>44038</v>
       </c>
       <c r="I158" s="3">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="J158" s="3">
         <v>6</v>
@@ -11353,7 +11595,7 @@
         <v>44039</v>
       </c>
       <c r="I159" s="3">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="J159" s="3">
         <v>7</v>
@@ -11364,7 +11606,7 @@
         <v>44040</v>
       </c>
       <c r="I160" s="3">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="J160" s="3">
         <v>5</v>
@@ -11375,7 +11617,7 @@
         <v>44041</v>
       </c>
       <c r="I161" s="3">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="J161" s="3">
         <v>8</v>
@@ -11386,7 +11628,7 @@
         <v>44042</v>
       </c>
       <c r="I162" s="3">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="J162" s="3">
         <v>5</v>
@@ -11397,7 +11639,7 @@
         <v>44043</v>
       </c>
       <c r="I163" s="3">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="J163" s="3">
         <v>10</v>
@@ -11408,7 +11650,7 @@
         <v>44044</v>
       </c>
       <c r="I164" s="3">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="J164" s="3">
         <v>7</v>
@@ -11419,7 +11661,7 @@
         <v>44045</v>
       </c>
       <c r="I165" s="3">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="J165" s="3">
         <v>3</v>
@@ -11430,7 +11672,7 @@
         <v>44046</v>
       </c>
       <c r="I166" s="3">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="J166" s="3">
         <v>8</v>
@@ -11441,7 +11683,7 @@
         <v>44047</v>
       </c>
       <c r="I167" s="3">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="J167" s="3">
         <v>16</v>
@@ -11452,7 +11694,7 @@
         <v>44048</v>
       </c>
       <c r="I168" s="3">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="J168" s="3">
         <v>19</v>
@@ -11463,7 +11705,7 @@
         <v>44049</v>
       </c>
       <c r="I169" s="3">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="J169" s="3">
         <v>29</v>
@@ -11474,7 +11716,7 @@
         <v>44050</v>
       </c>
       <c r="I170" s="3">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="J170" s="3">
         <v>43</v>
@@ -11485,7 +11727,7 @@
         <v>44051</v>
       </c>
       <c r="I171" s="3">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="J171" s="3">
         <v>16</v>
@@ -11496,7 +11738,7 @@
         <v>44052</v>
       </c>
       <c r="I172" s="3">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="J172" s="3">
         <v>18</v>
@@ -11507,7 +11749,7 @@
         <v>44053</v>
       </c>
       <c r="I173" s="3">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="J173" s="3">
         <v>23</v>
@@ -11518,7 +11760,7 @@
         <v>44054</v>
       </c>
       <c r="I174" s="3">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="J174" s="3">
         <v>19</v>
@@ -11529,7 +11771,7 @@
         <v>44055</v>
       </c>
       <c r="I175" s="3">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="J175" s="3">
         <v>17</v>
@@ -11540,7 +11782,7 @@
         <v>44056</v>
       </c>
       <c r="I176" s="3">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="J176" s="3">
         <v>13</v>
@@ -11551,7 +11793,7 @@
         <v>44057</v>
       </c>
       <c r="I177" s="3">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="J177" s="3">
         <v>18</v>
@@ -11562,7 +11804,7 @@
         <v>44058</v>
       </c>
       <c r="I178" s="3">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="J178" s="3">
         <v>13</v>
@@ -11573,7 +11815,7 @@
         <v>44059</v>
       </c>
       <c r="I179" s="3">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="J179" s="3">
         <v>8</v>
@@ -11584,7 +11826,7 @@
         <v>44060</v>
       </c>
       <c r="I180" s="3">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="J180" s="3">
         <v>30</v>
@@ -11595,7 +11837,7 @@
         <v>44061</v>
       </c>
       <c r="I181" s="3">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="J181" s="3">
         <v>10</v>
@@ -11606,7 +11848,7 @@
         <v>44062</v>
       </c>
       <c r="I182" s="3">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="J182" s="3">
         <v>9</v>
@@ -11617,7 +11859,7 @@
         <v>44063</v>
       </c>
       <c r="I183" s="3">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="J183" s="3">
         <v>11</v>
@@ -11628,7 +11870,7 @@
         <v>44064</v>
       </c>
       <c r="I184" s="3">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="J184" s="3">
         <v>6</v>
@@ -11639,10 +11881,10 @@
         <v>44065</v>
       </c>
       <c r="I185" s="3">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="J185" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="8:10" x14ac:dyDescent="0.2">
@@ -11650,7 +11892,7 @@
         <v>44066</v>
       </c>
       <c r="I186" s="3">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="J186" s="3">
         <v>0</v>
@@ -11661,10 +11903,10 @@
         <v>44067</v>
       </c>
       <c r="I187" s="3">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="J187" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="8:10" x14ac:dyDescent="0.2">
@@ -11672,7 +11914,7 @@
         <v>44068</v>
       </c>
       <c r="I188" s="3">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="J188" s="3">
         <v>6</v>
@@ -11683,10 +11925,10 @@
         <v>44069</v>
       </c>
       <c r="I189" s="3">
-        <v>2956</v>
+        <v>2950</v>
       </c>
       <c r="J189" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="8:10" x14ac:dyDescent="0.2">
@@ -11694,10 +11936,10 @@
         <v>44070</v>
       </c>
       <c r="I190" s="3">
-        <v>2969</v>
+        <v>2962</v>
       </c>
       <c r="J190" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="8:10" x14ac:dyDescent="0.2">
@@ -11705,10 +11947,10 @@
         <v>44071</v>
       </c>
       <c r="I191" s="3">
-        <v>2997</v>
+        <v>2985</v>
       </c>
       <c r="J191" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="8:10" x14ac:dyDescent="0.2">
@@ -11716,10 +11958,10 @@
         <v>44072</v>
       </c>
       <c r="I192" s="3">
-        <v>3014</v>
+        <v>3000</v>
       </c>
       <c r="J192" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="8:10" x14ac:dyDescent="0.2">
@@ -11727,10 +11969,10 @@
         <v>44073</v>
       </c>
       <c r="I193" s="3">
-        <v>3032</v>
+        <v>3014</v>
       </c>
       <c r="J193" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="8:10" x14ac:dyDescent="0.2">
@@ -11738,10 +11980,10 @@
         <v>44074</v>
       </c>
       <c r="I194" s="3">
-        <v>3098</v>
+        <v>3071</v>
       </c>
       <c r="J194" s="3">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="8:10" x14ac:dyDescent="0.2">
@@ -11749,10 +11991,10 @@
         <v>44075</v>
       </c>
       <c r="I195" s="3">
-        <v>3155</v>
+        <v>3126</v>
       </c>
       <c r="J195" s="3">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196" spans="8:10" x14ac:dyDescent="0.2">
@@ -11760,10 +12002,10 @@
         <v>44076</v>
       </c>
       <c r="I196" s="3">
-        <v>3205</v>
+        <v>3175</v>
       </c>
       <c r="J196" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="8:10" x14ac:dyDescent="0.2">
@@ -11771,10 +12013,10 @@
         <v>44077</v>
       </c>
       <c r="I197" s="3">
-        <v>3275</v>
+        <v>3246</v>
       </c>
       <c r="J197" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" spans="8:10" x14ac:dyDescent="0.2">
@@ -11782,10 +12024,10 @@
         <v>44078</v>
       </c>
       <c r="I198" s="3">
-        <v>3327</v>
+        <v>3301</v>
       </c>
       <c r="J198" s="3">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="8:10" x14ac:dyDescent="0.2">
@@ -11793,10 +12035,10 @@
         <v>44079</v>
       </c>
       <c r="I199" s="3">
-        <v>3342</v>
+        <v>3334</v>
       </c>
       <c r="J199" s="3">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200" spans="8:10" x14ac:dyDescent="0.2">
@@ -11804,7 +12046,84 @@
         <v>44080</v>
       </c>
       <c r="I200" s="3">
-        <v>3343</v>
+        <v>3352</v>
+      </c>
+      <c r="J200" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H201" s="2">
+        <v>44081</v>
+      </c>
+      <c r="I201" s="3">
+        <v>3393</v>
+      </c>
+      <c r="J201" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H202" s="2">
+        <v>44082</v>
+      </c>
+      <c r="I202" s="3">
+        <v>3424</v>
+      </c>
+      <c r="J202" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H203" s="2">
+        <v>44083</v>
+      </c>
+      <c r="I203" s="3">
+        <v>3460</v>
+      </c>
+      <c r="J203" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="204" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H204" s="2">
+        <v>44084</v>
+      </c>
+      <c r="I204" s="3">
+        <v>3489</v>
+      </c>
+      <c r="J204" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H205" s="2">
+        <v>44085</v>
+      </c>
+      <c r="I205" s="3">
+        <v>3519</v>
+      </c>
+      <c r="J205" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H206" s="2">
+        <v>44086</v>
+      </c>
+      <c r="I206" s="3">
+        <v>3532</v>
+      </c>
+      <c r="J206" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H207" s="2">
+        <v>44087</v>
+      </c>
+      <c r="I207" s="3">
+        <v>3532</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1040D1AB-4F98-9646-87CE-2CC446DE427C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D6F203-7B77-C848-8D4E-DA359E856EAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21060" yWindow="600" windowWidth="19740" windowHeight="20660" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:X207"/>
+  <dimension ref="A1:X214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L207"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -931,13 +931,13 @@
         <v>6</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>6</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>19</v>
@@ -957,7 +957,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>12</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K14">
         <v>24</v>
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1007,13 +1007,13 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I15">
         <v>17</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K15">
         <v>28</v>
@@ -1033,7 +1033,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>16</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I16">
         <v>17</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K16">
         <v>30</v>
@@ -1071,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1083,13 +1083,13 @@
         <v>20</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I17">
         <v>18</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K17">
         <v>30</v>
@@ -1109,7 +1109,7 @@
         <v>19</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1121,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I18">
         <v>23</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="K18">
         <v>31</v>
@@ -1147,7 +1147,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1159,13 +1159,13 @@
         <v>71</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I19">
         <v>38</v>
       </c>
       <c r="J19">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K19">
         <v>52</v>
@@ -1185,7 +1185,7 @@
         <v>54</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1197,13 +1197,13 @@
         <v>105</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I20">
         <v>54</v>
       </c>
       <c r="J20">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K20">
         <v>70</v>
@@ -1223,7 +1223,7 @@
         <v>62</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -1235,13 +1235,13 @@
         <v>133</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="I21">
         <v>64</v>
       </c>
       <c r="J21">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="K21">
         <v>86</v>
@@ -1261,7 +1261,7 @@
         <v>77</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -1273,13 +1273,13 @@
         <v>152</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I22">
         <v>67</v>
       </c>
       <c r="J22">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K22">
         <v>113</v>
@@ -1299,7 +1299,7 @@
         <v>89</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -1311,13 +1311,13 @@
         <v>163</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I23">
         <v>70</v>
       </c>
       <c r="J23">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K23">
         <v>129</v>
@@ -1337,7 +1337,7 @@
         <v>99</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -1349,13 +1349,13 @@
         <v>165</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="I24">
         <v>79</v>
       </c>
       <c r="J24">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K24">
         <v>135</v>
@@ -1375,7 +1375,7 @@
         <v>107</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E25">
         <v>12</v>
@@ -1387,13 +1387,13 @@
         <v>171</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I25">
         <v>87</v>
       </c>
       <c r="J25">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K25">
         <v>151</v>
@@ -1413,7 +1413,7 @@
         <v>121</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="E26">
         <v>14</v>
@@ -1425,13 +1425,13 @@
         <v>186</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="I26">
         <v>96</v>
       </c>
       <c r="J26">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="K26">
         <v>176</v>
@@ -1451,7 +1451,7 @@
         <v>129</v>
       </c>
       <c r="D27">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="E27">
         <v>18</v>
@@ -1463,13 +1463,13 @@
         <v>202</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K27">
         <v>195</v>
@@ -1489,7 +1489,7 @@
         <v>142</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="E28">
         <v>18</v>
@@ -1501,13 +1501,13 @@
         <v>219</v>
       </c>
       <c r="H28">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="I28">
         <v>119</v>
       </c>
       <c r="J28">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K28">
         <v>217</v>
@@ -1527,7 +1527,7 @@
         <v>168</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="E29">
         <v>18</v>
@@ -1539,13 +1539,13 @@
         <v>242</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="I29">
         <v>140</v>
       </c>
       <c r="J29">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="K29">
         <v>253</v>
@@ -1565,7 +1565,7 @@
         <v>185</v>
       </c>
       <c r="D30">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -1577,13 +1577,13 @@
         <v>266</v>
       </c>
       <c r="H30">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="I30">
         <v>169</v>
       </c>
       <c r="J30">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="K30">
         <v>289</v>
@@ -1603,7 +1603,7 @@
         <v>194</v>
       </c>
       <c r="D31">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="E31">
         <v>22</v>
@@ -1615,13 +1615,13 @@
         <v>273</v>
       </c>
       <c r="H31">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="I31">
         <v>189</v>
       </c>
       <c r="J31">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="K31">
         <v>305</v>
@@ -1641,7 +1641,7 @@
         <v>197</v>
       </c>
       <c r="D32">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="E32">
         <v>23</v>
@@ -1653,13 +1653,13 @@
         <v>276</v>
       </c>
       <c r="H32">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="I32">
         <v>191</v>
       </c>
       <c r="J32">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="K32">
         <v>313</v>
@@ -1679,7 +1679,7 @@
         <v>220</v>
       </c>
       <c r="D33">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="E33">
         <v>28</v>
@@ -1691,13 +1691,13 @@
         <v>294</v>
       </c>
       <c r="H33">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="I33">
         <v>213</v>
       </c>
       <c r="J33">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="K33">
         <v>353</v>
@@ -1717,7 +1717,7 @@
         <v>248</v>
       </c>
       <c r="D34">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="E34">
         <v>29</v>
@@ -1729,13 +1729,13 @@
         <v>308</v>
       </c>
       <c r="H34">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="I34">
         <v>236</v>
       </c>
       <c r="J34">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="K34">
         <v>384</v>
@@ -1755,7 +1755,7 @@
         <v>256</v>
       </c>
       <c r="D35">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="E35">
         <v>37</v>
@@ -1767,13 +1767,13 @@
         <v>315</v>
       </c>
       <c r="H35">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="I35">
         <v>256</v>
       </c>
       <c r="J35">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="K35">
         <v>417</v>
@@ -1793,7 +1793,7 @@
         <v>280</v>
       </c>
       <c r="D36">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="E36">
         <v>43</v>
@@ -1805,13 +1805,13 @@
         <v>325</v>
       </c>
       <c r="H36">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="I36">
         <v>277</v>
       </c>
       <c r="J36">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="K36">
         <v>444</v>
@@ -1831,7 +1831,7 @@
         <v>293</v>
       </c>
       <c r="D37">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="E37">
         <v>46</v>
@@ -1843,13 +1843,13 @@
         <v>333</v>
       </c>
       <c r="H37">
-        <v>149</v>
+        <v>333</v>
       </c>
       <c r="I37">
         <v>295</v>
       </c>
       <c r="J37">
-        <v>162</v>
+        <v>295</v>
       </c>
       <c r="K37">
         <v>466</v>
@@ -1869,7 +1869,7 @@
         <v>304</v>
       </c>
       <c r="D38">
-        <v>101</v>
+        <v>304</v>
       </c>
       <c r="E38">
         <v>49</v>
@@ -1881,13 +1881,13 @@
         <v>344</v>
       </c>
       <c r="H38">
-        <v>154</v>
+        <v>344</v>
       </c>
       <c r="I38">
         <v>310</v>
       </c>
       <c r="J38">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="K38">
         <v>480</v>
@@ -1907,7 +1907,7 @@
         <v>305</v>
       </c>
       <c r="D39">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -1919,13 +1919,13 @@
         <v>348</v>
       </c>
       <c r="H39">
-        <v>157</v>
+        <v>348</v>
       </c>
       <c r="I39">
         <v>313</v>
       </c>
       <c r="J39">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="K39">
         <v>482</v>
@@ -1945,7 +1945,7 @@
         <v>316</v>
       </c>
       <c r="D40">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="E40">
         <v>61</v>
@@ -1957,13 +1957,13 @@
         <v>357</v>
       </c>
       <c r="H40">
-        <v>163</v>
+        <v>357</v>
       </c>
       <c r="I40">
         <v>323</v>
       </c>
       <c r="J40">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="K40">
         <v>509</v>
@@ -1983,7 +1983,7 @@
         <v>331</v>
       </c>
       <c r="D41">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="E41">
         <v>65</v>
@@ -1995,13 +1995,13 @@
         <v>360</v>
       </c>
       <c r="H41">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="I41">
         <v>333</v>
       </c>
       <c r="J41">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="K41">
         <v>525</v>
@@ -2021,7 +2021,7 @@
         <v>342</v>
       </c>
       <c r="D42">
-        <v>114</v>
+        <v>342</v>
       </c>
       <c r="E42">
         <v>71</v>
@@ -2033,13 +2033,13 @@
         <v>366</v>
       </c>
       <c r="H42">
-        <v>174</v>
+        <v>366</v>
       </c>
       <c r="I42">
         <v>345</v>
       </c>
       <c r="J42">
-        <v>195</v>
+        <v>345</v>
       </c>
       <c r="K42">
         <v>538</v>
@@ -2059,7 +2059,7 @@
         <v>347</v>
       </c>
       <c r="D43">
-        <v>116</v>
+        <v>347</v>
       </c>
       <c r="E43">
         <v>73</v>
@@ -2071,13 +2071,13 @@
         <v>373</v>
       </c>
       <c r="H43">
-        <v>180</v>
+        <v>373</v>
       </c>
       <c r="I43">
         <v>354</v>
       </c>
       <c r="J43">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="K43">
         <v>559</v>
@@ -2097,7 +2097,7 @@
         <v>353</v>
       </c>
       <c r="D44">
-        <v>119</v>
+        <v>353</v>
       </c>
       <c r="E44">
         <v>74</v>
@@ -2109,13 +2109,13 @@
         <v>375</v>
       </c>
       <c r="H44">
-        <v>183</v>
+        <v>375</v>
       </c>
       <c r="I44">
         <v>362</v>
       </c>
       <c r="J44">
-        <v>218</v>
+        <v>362</v>
       </c>
       <c r="K44">
         <v>580</v>
@@ -2135,7 +2135,7 @@
         <v>358</v>
       </c>
       <c r="D45">
-        <v>119</v>
+        <v>358</v>
       </c>
       <c r="E45">
         <v>75</v>
@@ -2147,13 +2147,13 @@
         <v>377</v>
       </c>
       <c r="H45">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="I45">
         <v>363</v>
       </c>
       <c r="J45">
-        <v>224</v>
+        <v>363</v>
       </c>
       <c r="K45">
         <v>585</v>
@@ -2173,7 +2173,7 @@
         <v>360</v>
       </c>
       <c r="D46">
-        <v>119</v>
+        <v>360</v>
       </c>
       <c r="E46">
         <v>76</v>
@@ -2185,13 +2185,13 @@
         <v>378</v>
       </c>
       <c r="H46">
-        <v>185</v>
+        <v>378</v>
       </c>
       <c r="I46">
         <v>367</v>
       </c>
       <c r="J46">
-        <v>229</v>
+        <v>367</v>
       </c>
       <c r="K46">
         <v>588</v>
@@ -2211,7 +2211,7 @@
         <v>371</v>
       </c>
       <c r="D47">
-        <v>120</v>
+        <v>371</v>
       </c>
       <c r="E47">
         <v>80</v>
@@ -2223,13 +2223,13 @@
         <v>380</v>
       </c>
       <c r="H47">
-        <v>188</v>
+        <v>380</v>
       </c>
       <c r="I47">
         <v>371</v>
       </c>
       <c r="J47">
-        <v>234</v>
+        <v>371</v>
       </c>
       <c r="K47">
         <v>620</v>
@@ -2249,7 +2249,7 @@
         <v>376</v>
       </c>
       <c r="D48">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="E48">
         <v>87</v>
@@ -2261,13 +2261,13 @@
         <v>384</v>
       </c>
       <c r="H48">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="I48">
         <v>382</v>
       </c>
       <c r="J48">
-        <v>236</v>
+        <v>382</v>
       </c>
       <c r="K48">
         <v>634</v>
@@ -2287,7 +2287,7 @@
         <v>379</v>
       </c>
       <c r="D49">
-        <v>121</v>
+        <v>379</v>
       </c>
       <c r="E49">
         <v>90</v>
@@ -2299,13 +2299,13 @@
         <v>385</v>
       </c>
       <c r="H49">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="I49">
         <v>385</v>
       </c>
       <c r="J49">
-        <v>239</v>
+        <v>385</v>
       </c>
       <c r="K49">
         <v>650</v>
@@ -2325,7 +2325,7 @@
         <v>380</v>
       </c>
       <c r="D50">
-        <v>121</v>
+        <v>380</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2337,13 +2337,13 @@
         <v>385</v>
       </c>
       <c r="H50">
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="I50">
         <v>387</v>
       </c>
       <c r="J50">
-        <v>240</v>
+        <v>387</v>
       </c>
       <c r="K50">
         <v>670</v>
@@ -2363,7 +2363,7 @@
         <v>381</v>
       </c>
       <c r="D51">
-        <v>122</v>
+        <v>381</v>
       </c>
       <c r="E51">
         <v>93</v>
@@ -2375,13 +2375,13 @@
         <v>386</v>
       </c>
       <c r="H51">
-        <v>194</v>
+        <v>386</v>
       </c>
       <c r="I51">
         <v>394</v>
       </c>
       <c r="J51">
-        <v>241</v>
+        <v>394</v>
       </c>
       <c r="K51">
         <v>672</v>
@@ -2401,7 +2401,7 @@
         <v>384</v>
       </c>
       <c r="D52">
-        <v>123</v>
+        <v>384</v>
       </c>
       <c r="E52">
         <v>97</v>
@@ -2413,13 +2413,13 @@
         <v>386</v>
       </c>
       <c r="H52">
-        <v>198</v>
+        <v>386</v>
       </c>
       <c r="I52">
         <v>394</v>
       </c>
       <c r="J52">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="K52">
         <v>706</v>
@@ -2439,7 +2439,7 @@
         <v>385</v>
       </c>
       <c r="D53">
-        <v>123</v>
+        <v>385</v>
       </c>
       <c r="E53">
         <v>97</v>
@@ -2451,13 +2451,13 @@
         <v>387</v>
       </c>
       <c r="H53">
-        <v>201</v>
+        <v>387</v>
       </c>
       <c r="I53">
         <v>397</v>
       </c>
       <c r="J53">
-        <v>248</v>
+        <v>397</v>
       </c>
       <c r="K53">
         <v>713</v>
@@ -2477,7 +2477,7 @@
         <v>387</v>
       </c>
       <c r="D54">
-        <v>123</v>
+        <v>387</v>
       </c>
       <c r="E54">
         <v>102</v>
@@ -2489,13 +2489,13 @@
         <v>388</v>
       </c>
       <c r="H54">
-        <v>205</v>
+        <v>388</v>
       </c>
       <c r="I54">
         <v>399</v>
       </c>
       <c r="J54">
-        <v>250</v>
+        <v>399</v>
       </c>
       <c r="K54">
         <v>721</v>
@@ -2515,7 +2515,7 @@
         <v>391</v>
       </c>
       <c r="D55">
-        <v>123</v>
+        <v>391</v>
       </c>
       <c r="E55">
         <v>106</v>
@@ -2527,13 +2527,13 @@
         <v>389</v>
       </c>
       <c r="H55">
-        <v>206</v>
+        <v>389</v>
       </c>
       <c r="I55">
         <v>400</v>
       </c>
       <c r="J55">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="K55">
         <v>756</v>
@@ -2553,7 +2553,7 @@
         <v>394</v>
       </c>
       <c r="D56">
-        <v>124</v>
+        <v>394</v>
       </c>
       <c r="E56">
         <v>109</v>
@@ -2565,13 +2565,13 @@
         <v>390</v>
       </c>
       <c r="H56">
-        <v>211</v>
+        <v>390</v>
       </c>
       <c r="I56">
         <v>404</v>
       </c>
       <c r="J56">
-        <v>252</v>
+        <v>404</v>
       </c>
       <c r="K56">
         <v>772</v>
@@ -2591,7 +2591,7 @@
         <v>398</v>
       </c>
       <c r="D57">
-        <v>124</v>
+        <v>398</v>
       </c>
       <c r="E57">
         <v>109</v>
@@ -2603,13 +2603,13 @@
         <v>392</v>
       </c>
       <c r="H57">
-        <v>214</v>
+        <v>392</v>
       </c>
       <c r="I57">
         <v>408</v>
       </c>
       <c r="J57">
-        <v>259</v>
+        <v>408</v>
       </c>
       <c r="K57">
         <v>787</v>
@@ -2629,7 +2629,7 @@
         <v>401</v>
       </c>
       <c r="D58">
-        <v>125</v>
+        <v>401</v>
       </c>
       <c r="E58">
         <v>109</v>
@@ -2641,13 +2641,13 @@
         <v>393</v>
       </c>
       <c r="H58">
-        <v>219</v>
+        <v>393</v>
       </c>
       <c r="I58">
         <v>412</v>
       </c>
       <c r="J58">
-        <v>260</v>
+        <v>412</v>
       </c>
       <c r="K58">
         <v>797</v>
@@ -2667,7 +2667,7 @@
         <v>403</v>
       </c>
       <c r="D59">
-        <v>125</v>
+        <v>403</v>
       </c>
       <c r="E59">
         <v>110</v>
@@ -2679,13 +2679,13 @@
         <v>393</v>
       </c>
       <c r="H59">
-        <v>224</v>
+        <v>393</v>
       </c>
       <c r="I59">
         <v>415</v>
       </c>
       <c r="J59">
-        <v>261</v>
+        <v>415</v>
       </c>
       <c r="K59">
         <v>804</v>
@@ -2705,7 +2705,7 @@
         <v>404</v>
       </c>
       <c r="D60">
-        <v>125</v>
+        <v>404</v>
       </c>
       <c r="E60">
         <v>110</v>
@@ -2717,13 +2717,13 @@
         <v>393</v>
       </c>
       <c r="H60">
-        <v>227</v>
+        <v>393</v>
       </c>
       <c r="I60">
         <v>416</v>
       </c>
       <c r="J60">
-        <v>261</v>
+        <v>416</v>
       </c>
       <c r="K60">
         <v>805</v>
@@ -2743,7 +2743,7 @@
         <v>407</v>
       </c>
       <c r="D61">
-        <v>127</v>
+        <v>407</v>
       </c>
       <c r="E61">
         <v>110</v>
@@ -2755,13 +2755,13 @@
         <v>396</v>
       </c>
       <c r="H61">
-        <v>229</v>
+        <v>396</v>
       </c>
       <c r="I61">
         <v>417</v>
       </c>
       <c r="J61">
-        <v>261</v>
+        <v>417</v>
       </c>
       <c r="K61">
         <v>811</v>
@@ -2781,7 +2781,7 @@
         <v>410</v>
       </c>
       <c r="D62">
-        <v>127</v>
+        <v>410</v>
       </c>
       <c r="E62">
         <v>111</v>
@@ -2793,13 +2793,13 @@
         <v>398</v>
       </c>
       <c r="H62">
-        <v>230</v>
+        <v>398</v>
       </c>
       <c r="I62">
         <v>426</v>
       </c>
       <c r="J62">
-        <v>262</v>
+        <v>426</v>
       </c>
       <c r="K62">
         <v>822</v>
@@ -2819,7 +2819,7 @@
         <v>413</v>
       </c>
       <c r="D63">
-        <v>127</v>
+        <v>413</v>
       </c>
       <c r="E63">
         <v>112</v>
@@ -2831,13 +2831,13 @@
         <v>398</v>
       </c>
       <c r="H63">
-        <v>233</v>
+        <v>398</v>
       </c>
       <c r="I63">
         <v>428</v>
       </c>
       <c r="J63">
-        <v>265</v>
+        <v>428</v>
       </c>
       <c r="K63">
         <v>828</v>
@@ -2857,7 +2857,7 @@
         <v>414</v>
       </c>
       <c r="D64">
-        <v>127</v>
+        <v>414</v>
       </c>
       <c r="E64">
         <v>113</v>
@@ -2869,13 +2869,13 @@
         <v>420</v>
       </c>
       <c r="H64">
-        <v>233</v>
+        <v>420</v>
       </c>
       <c r="I64">
         <v>439</v>
       </c>
       <c r="J64">
-        <v>268</v>
+        <v>439</v>
       </c>
       <c r="K64">
         <v>831</v>
@@ -2895,7 +2895,7 @@
         <v>419</v>
       </c>
       <c r="D65">
-        <v>127</v>
+        <v>419</v>
       </c>
       <c r="E65">
         <v>114</v>
@@ -2907,13 +2907,13 @@
         <v>421</v>
       </c>
       <c r="H65">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="I65">
         <v>448</v>
       </c>
       <c r="J65">
-        <v>268</v>
+        <v>448</v>
       </c>
       <c r="K65">
         <v>838</v>
@@ -2933,7 +2933,7 @@
         <v>419</v>
       </c>
       <c r="D66">
-        <v>128</v>
+        <v>419</v>
       </c>
       <c r="E66">
         <v>114</v>
@@ -2945,13 +2945,13 @@
         <v>421</v>
       </c>
       <c r="H66">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="I66">
         <v>455</v>
       </c>
       <c r="J66">
-        <v>269</v>
+        <v>455</v>
       </c>
       <c r="K66">
         <v>841</v>
@@ -2971,7 +2971,7 @@
         <v>420</v>
       </c>
       <c r="D67">
-        <v>129</v>
+        <v>420</v>
       </c>
       <c r="E67">
         <v>114</v>
@@ -2983,13 +2983,13 @@
         <v>421</v>
       </c>
       <c r="H67">
-        <v>235</v>
+        <v>421</v>
       </c>
       <c r="I67">
         <v>465</v>
       </c>
       <c r="J67">
-        <v>269</v>
+        <v>465</v>
       </c>
       <c r="K67">
         <v>842</v>
@@ -3009,7 +3009,7 @@
         <v>424</v>
       </c>
       <c r="D68">
-        <v>130</v>
+        <v>424</v>
       </c>
       <c r="E68">
         <v>114</v>
@@ -3021,13 +3021,13 @@
         <v>429</v>
       </c>
       <c r="H68">
-        <v>239</v>
+        <v>429</v>
       </c>
       <c r="I68">
         <v>468</v>
       </c>
       <c r="J68">
-        <v>269</v>
+        <v>468</v>
       </c>
       <c r="K68">
         <v>853</v>
@@ -3047,7 +3047,7 @@
         <v>426</v>
       </c>
       <c r="D69">
-        <v>130</v>
+        <v>426</v>
       </c>
       <c r="E69">
         <v>114</v>
@@ -3059,13 +3059,13 @@
         <v>429</v>
       </c>
       <c r="H69">
-        <v>242</v>
+        <v>429</v>
       </c>
       <c r="I69">
         <v>471</v>
       </c>
       <c r="J69">
-        <v>271</v>
+        <v>471</v>
       </c>
       <c r="K69">
         <v>857</v>
@@ -3085,7 +3085,7 @@
         <v>432</v>
       </c>
       <c r="D70">
-        <v>130</v>
+        <v>432</v>
       </c>
       <c r="E70">
         <v>115</v>
@@ -3097,13 +3097,13 @@
         <v>433</v>
       </c>
       <c r="H70">
-        <v>242</v>
+        <v>433</v>
       </c>
       <c r="I70">
         <v>475</v>
       </c>
       <c r="J70">
-        <v>272</v>
+        <v>475</v>
       </c>
       <c r="K70">
         <v>860</v>
@@ -3123,7 +3123,7 @@
         <v>433</v>
       </c>
       <c r="D71">
-        <v>131</v>
+        <v>433</v>
       </c>
       <c r="E71">
         <v>115</v>
@@ -3135,13 +3135,13 @@
         <v>433</v>
       </c>
       <c r="H71">
-        <v>244</v>
+        <v>433</v>
       </c>
       <c r="I71">
         <v>479</v>
       </c>
       <c r="J71">
-        <v>273</v>
+        <v>479</v>
       </c>
       <c r="K71">
         <v>864</v>
@@ -3161,7 +3161,7 @@
         <v>434</v>
       </c>
       <c r="D72">
-        <v>131</v>
+        <v>434</v>
       </c>
       <c r="E72">
         <v>116</v>
@@ -3173,13 +3173,13 @@
         <v>433</v>
       </c>
       <c r="H72">
-        <v>244</v>
+        <v>433</v>
       </c>
       <c r="I72">
         <v>493</v>
       </c>
       <c r="J72">
-        <v>273</v>
+        <v>493</v>
       </c>
       <c r="K72">
         <v>865</v>
@@ -3199,7 +3199,7 @@
         <v>434</v>
       </c>
       <c r="D73">
-        <v>131</v>
+        <v>434</v>
       </c>
       <c r="E73">
         <v>116</v>
@@ -3211,13 +3211,13 @@
         <v>433</v>
       </c>
       <c r="H73">
-        <v>247</v>
+        <v>433</v>
       </c>
       <c r="I73">
         <v>494</v>
       </c>
       <c r="J73">
-        <v>273</v>
+        <v>494</v>
       </c>
       <c r="K73">
         <v>868</v>
@@ -3237,7 +3237,7 @@
         <v>438</v>
       </c>
       <c r="D74">
-        <v>131</v>
+        <v>438</v>
       </c>
       <c r="E74">
         <v>116</v>
@@ -3249,13 +3249,13 @@
         <v>433</v>
       </c>
       <c r="H74">
-        <v>248</v>
+        <v>433</v>
       </c>
       <c r="I74">
         <v>498</v>
       </c>
       <c r="J74">
-        <v>273</v>
+        <v>498</v>
       </c>
       <c r="K74">
         <v>870</v>
@@ -3275,7 +3275,7 @@
         <v>442</v>
       </c>
       <c r="D75">
-        <v>131</v>
+        <v>442</v>
       </c>
       <c r="E75">
         <v>116</v>
@@ -3287,13 +3287,13 @@
         <v>434</v>
       </c>
       <c r="H75">
-        <v>248</v>
+        <v>434</v>
       </c>
       <c r="I75">
         <v>503</v>
       </c>
       <c r="J75">
-        <v>273</v>
+        <v>503</v>
       </c>
       <c r="K75">
         <v>870</v>
@@ -3313,7 +3313,7 @@
         <v>445</v>
       </c>
       <c r="D76">
-        <v>132</v>
+        <v>445</v>
       </c>
       <c r="E76">
         <v>116</v>
@@ -3325,13 +3325,13 @@
         <v>434</v>
       </c>
       <c r="H76">
-        <v>250</v>
+        <v>434</v>
       </c>
       <c r="I76">
         <v>505</v>
       </c>
       <c r="J76">
-        <v>274</v>
+        <v>505</v>
       </c>
       <c r="K76">
         <v>872</v>
@@ -3351,7 +3351,7 @@
         <v>448</v>
       </c>
       <c r="D77">
-        <v>132</v>
+        <v>448</v>
       </c>
       <c r="E77">
         <v>116</v>
@@ -3363,13 +3363,13 @@
         <v>435</v>
       </c>
       <c r="H77">
-        <v>251</v>
+        <v>435</v>
       </c>
       <c r="I77">
         <v>510</v>
       </c>
       <c r="J77">
-        <v>275</v>
+        <v>510</v>
       </c>
       <c r="K77">
         <v>873</v>
@@ -3389,7 +3389,7 @@
         <v>449</v>
       </c>
       <c r="D78">
-        <v>132</v>
+        <v>449</v>
       </c>
       <c r="E78">
         <v>116</v>
@@ -3401,13 +3401,13 @@
         <v>435</v>
       </c>
       <c r="H78">
-        <v>251</v>
+        <v>435</v>
       </c>
       <c r="I78">
         <v>513</v>
       </c>
       <c r="J78">
-        <v>276</v>
+        <v>513</v>
       </c>
       <c r="K78">
         <v>874</v>
@@ -3427,7 +3427,7 @@
         <v>452</v>
       </c>
       <c r="D79">
-        <v>132</v>
+        <v>452</v>
       </c>
       <c r="E79">
         <v>116</v>
@@ -3439,13 +3439,13 @@
         <v>435</v>
       </c>
       <c r="H79">
-        <v>251</v>
+        <v>435</v>
       </c>
       <c r="I79">
         <v>514</v>
       </c>
       <c r="J79">
-        <v>276</v>
+        <v>514</v>
       </c>
       <c r="K79">
         <v>875</v>
@@ -3465,7 +3465,7 @@
         <v>452</v>
       </c>
       <c r="D80">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="E80">
         <v>116</v>
@@ -3477,13 +3477,13 @@
         <v>435</v>
       </c>
       <c r="H80">
-        <v>252</v>
+        <v>435</v>
       </c>
       <c r="I80">
         <v>515</v>
       </c>
       <c r="J80">
-        <v>276</v>
+        <v>515</v>
       </c>
       <c r="K80">
         <v>876</v>
@@ -3503,7 +3503,7 @@
         <v>455</v>
       </c>
       <c r="D81">
-        <v>136</v>
+        <v>455</v>
       </c>
       <c r="E81">
         <v>116</v>
@@ -3515,13 +3515,13 @@
         <v>435</v>
       </c>
       <c r="H81">
-        <v>252</v>
+        <v>435</v>
       </c>
       <c r="I81">
         <v>516</v>
       </c>
       <c r="J81">
-        <v>276</v>
+        <v>516</v>
       </c>
       <c r="K81">
         <v>876</v>
@@ -3541,7 +3541,7 @@
         <v>459</v>
       </c>
       <c r="D82">
-        <v>136</v>
+        <v>459</v>
       </c>
       <c r="E82">
         <v>116</v>
@@ -3553,13 +3553,13 @@
         <v>435</v>
       </c>
       <c r="H82">
-        <v>252</v>
+        <v>435</v>
       </c>
       <c r="I82">
         <v>518</v>
       </c>
       <c r="J82">
-        <v>276</v>
+        <v>518</v>
       </c>
       <c r="K82">
         <v>877</v>
@@ -3579,7 +3579,7 @@
         <v>460</v>
       </c>
       <c r="D83">
-        <v>137</v>
+        <v>460</v>
       </c>
       <c r="E83">
         <v>117</v>
@@ -3591,13 +3591,13 @@
         <v>436</v>
       </c>
       <c r="H83">
-        <v>252</v>
+        <v>436</v>
       </c>
       <c r="I83">
         <v>520</v>
       </c>
       <c r="J83">
-        <v>278</v>
+        <v>520</v>
       </c>
       <c r="K83">
         <v>877</v>
@@ -3617,7 +3617,7 @@
         <v>463</v>
       </c>
       <c r="D84">
-        <v>137</v>
+        <v>463</v>
       </c>
       <c r="E84">
         <v>117</v>
@@ -3629,13 +3629,13 @@
         <v>436</v>
       </c>
       <c r="H84">
-        <v>252</v>
+        <v>436</v>
       </c>
       <c r="I84">
         <v>520</v>
       </c>
       <c r="J84">
-        <v>279</v>
+        <v>520</v>
       </c>
       <c r="K84">
         <v>877</v>
@@ -3655,7 +3655,7 @@
         <v>467</v>
       </c>
       <c r="D85">
-        <v>137</v>
+        <v>467</v>
       </c>
       <c r="E85">
         <v>117</v>
@@ -3667,13 +3667,13 @@
         <v>436</v>
       </c>
       <c r="H85">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I85">
         <v>522</v>
       </c>
       <c r="J85">
-        <v>279</v>
+        <v>522</v>
       </c>
       <c r="K85">
         <v>877</v>
@@ -3693,7 +3693,7 @@
         <v>469</v>
       </c>
       <c r="D86">
-        <v>138</v>
+        <v>469</v>
       </c>
       <c r="E86">
         <v>117</v>
@@ -3705,13 +3705,13 @@
         <v>436</v>
       </c>
       <c r="H86">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I86">
         <v>523</v>
       </c>
       <c r="J86">
-        <v>280</v>
+        <v>523</v>
       </c>
       <c r="K86">
         <v>877</v>
@@ -3731,7 +3731,7 @@
         <v>469</v>
       </c>
       <c r="D87">
-        <v>138</v>
+        <v>469</v>
       </c>
       <c r="E87">
         <v>117</v>
@@ -3743,13 +3743,13 @@
         <v>436</v>
       </c>
       <c r="H87">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I87">
         <v>527</v>
       </c>
       <c r="J87">
-        <v>280</v>
+        <v>527</v>
       </c>
       <c r="K87">
         <v>877</v>
@@ -3769,7 +3769,7 @@
         <v>469</v>
       </c>
       <c r="D88">
-        <v>138</v>
+        <v>469</v>
       </c>
       <c r="E88">
         <v>117</v>
@@ -3781,13 +3781,13 @@
         <v>436</v>
       </c>
       <c r="H88">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I88">
         <v>528</v>
       </c>
       <c r="J88">
-        <v>280</v>
+        <v>528</v>
       </c>
       <c r="K88">
         <v>877</v>
@@ -3807,7 +3807,7 @@
         <v>469</v>
       </c>
       <c r="D89">
-        <v>138</v>
+        <v>469</v>
       </c>
       <c r="E89">
         <v>117</v>
@@ -3819,13 +3819,13 @@
         <v>436</v>
       </c>
       <c r="H89">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I89">
         <v>529</v>
       </c>
       <c r="J89">
-        <v>280</v>
+        <v>529</v>
       </c>
       <c r="K89">
         <v>878</v>
@@ -3845,7 +3845,7 @@
         <v>472</v>
       </c>
       <c r="D90">
-        <v>138</v>
+        <v>472</v>
       </c>
       <c r="E90">
         <v>119</v>
@@ -3857,13 +3857,13 @@
         <v>436</v>
       </c>
       <c r="H90">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I90">
         <v>529</v>
       </c>
       <c r="J90">
-        <v>282</v>
+        <v>529</v>
       </c>
       <c r="K90">
         <v>879</v>
@@ -3883,7 +3883,7 @@
         <v>475</v>
       </c>
       <c r="D91">
-        <v>138</v>
+        <v>475</v>
       </c>
       <c r="E91">
         <v>120</v>
@@ -3895,13 +3895,13 @@
         <v>436</v>
       </c>
       <c r="H91">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I91">
         <v>530</v>
       </c>
       <c r="J91">
-        <v>282</v>
+        <v>530</v>
       </c>
       <c r="K91">
         <v>879</v>
@@ -3921,7 +3921,7 @@
         <v>476</v>
       </c>
       <c r="D92">
-        <v>138</v>
+        <v>476</v>
       </c>
       <c r="E92">
         <v>120</v>
@@ -3933,13 +3933,13 @@
         <v>436</v>
       </c>
       <c r="H92">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I92">
         <v>530</v>
       </c>
       <c r="J92">
-        <v>283</v>
+        <v>530</v>
       </c>
       <c r="K92">
         <v>879</v>
@@ -3959,7 +3959,7 @@
         <v>479</v>
       </c>
       <c r="D93">
-        <v>138</v>
+        <v>479</v>
       </c>
       <c r="E93">
         <v>120</v>
@@ -3971,13 +3971,13 @@
         <v>436</v>
       </c>
       <c r="H93">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I93">
         <v>530</v>
       </c>
       <c r="J93">
-        <v>284</v>
+        <v>530</v>
       </c>
       <c r="K93">
         <v>880</v>
@@ -3997,7 +3997,7 @@
         <v>479</v>
       </c>
       <c r="D94">
-        <v>138</v>
+        <v>479</v>
       </c>
       <c r="E94">
         <v>120</v>
@@ -4009,13 +4009,13 @@
         <v>436</v>
       </c>
       <c r="H94">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I94">
         <v>530</v>
       </c>
       <c r="J94">
-        <v>284</v>
+        <v>530</v>
       </c>
       <c r="K94">
         <v>880</v>
@@ -4035,7 +4035,7 @@
         <v>479</v>
       </c>
       <c r="D95">
-        <v>138</v>
+        <v>479</v>
       </c>
       <c r="E95">
         <v>120</v>
@@ -4047,13 +4047,13 @@
         <v>436</v>
       </c>
       <c r="H95">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I95">
         <v>530</v>
       </c>
       <c r="J95">
-        <v>284</v>
+        <v>530</v>
       </c>
       <c r="K95">
         <v>880</v>
@@ -4073,7 +4073,7 @@
         <v>484</v>
       </c>
       <c r="D96">
-        <v>138</v>
+        <v>484</v>
       </c>
       <c r="E96">
         <v>120</v>
@@ -4085,13 +4085,13 @@
         <v>436</v>
       </c>
       <c r="H96">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I96">
         <v>530</v>
       </c>
       <c r="J96">
-        <v>284</v>
+        <v>530</v>
       </c>
       <c r="K96">
         <v>880</v>
@@ -4111,7 +4111,7 @@
         <v>485</v>
       </c>
       <c r="D97">
-        <v>140</v>
+        <v>485</v>
       </c>
       <c r="E97">
         <v>120</v>
@@ -4123,13 +4123,13 @@
         <v>436</v>
       </c>
       <c r="H97">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I97">
         <v>532</v>
       </c>
       <c r="J97">
-        <v>285</v>
+        <v>532</v>
       </c>
       <c r="K97">
         <v>880</v>
@@ -4149,7 +4149,7 @@
         <v>489</v>
       </c>
       <c r="D98">
-        <v>140</v>
+        <v>489</v>
       </c>
       <c r="E98">
         <v>120</v>
@@ -4161,13 +4161,13 @@
         <v>436</v>
       </c>
       <c r="H98">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="I98">
         <v>532</v>
       </c>
       <c r="J98">
-        <v>285</v>
+        <v>532</v>
       </c>
       <c r="K98">
         <v>880</v>
@@ -4187,7 +4187,7 @@
         <v>490</v>
       </c>
       <c r="D99">
-        <v>144</v>
+        <v>490</v>
       </c>
       <c r="E99">
         <v>120</v>
@@ -4199,13 +4199,13 @@
         <v>437</v>
       </c>
       <c r="H99">
-        <v>253</v>
+        <v>437</v>
       </c>
       <c r="I99">
         <v>533</v>
       </c>
       <c r="J99">
-        <v>285</v>
+        <v>533</v>
       </c>
       <c r="K99">
         <v>880</v>
@@ -4225,7 +4225,7 @@
         <v>494</v>
       </c>
       <c r="D100">
-        <v>150</v>
+        <v>494</v>
       </c>
       <c r="E100">
         <v>120</v>
@@ -4237,13 +4237,13 @@
         <v>437</v>
       </c>
       <c r="H100">
-        <v>253</v>
+        <v>437</v>
       </c>
       <c r="I100">
         <v>533</v>
       </c>
       <c r="J100">
-        <v>285</v>
+        <v>533</v>
       </c>
       <c r="K100">
         <v>880</v>
@@ -4263,7 +4263,7 @@
         <v>494</v>
       </c>
       <c r="D101">
-        <v>150</v>
+        <v>494</v>
       </c>
       <c r="E101">
         <v>120</v>
@@ -4275,13 +4275,13 @@
         <v>437</v>
       </c>
       <c r="H101">
-        <v>253</v>
+        <v>437</v>
       </c>
       <c r="I101">
         <v>533</v>
       </c>
       <c r="J101">
-        <v>285</v>
+        <v>533</v>
       </c>
       <c r="K101">
         <v>880</v>
@@ -4301,7 +4301,7 @@
         <v>496</v>
       </c>
       <c r="D102">
-        <v>150</v>
+        <v>496</v>
       </c>
       <c r="E102">
         <v>120</v>
@@ -4313,13 +4313,13 @@
         <v>437</v>
       </c>
       <c r="H102">
-        <v>253</v>
+        <v>437</v>
       </c>
       <c r="I102">
         <v>533</v>
       </c>
       <c r="J102">
-        <v>285</v>
+        <v>533</v>
       </c>
       <c r="K102">
         <v>880</v>
@@ -4339,7 +4339,7 @@
         <v>497</v>
       </c>
       <c r="D103">
-        <v>150</v>
+        <v>497</v>
       </c>
       <c r="E103">
         <v>120</v>
@@ -4351,13 +4351,13 @@
         <v>437</v>
       </c>
       <c r="H103">
-        <v>253</v>
+        <v>437</v>
       </c>
       <c r="I103">
         <v>533</v>
       </c>
       <c r="J103">
-        <v>285</v>
+        <v>533</v>
       </c>
       <c r="K103">
         <v>880</v>
@@ -4377,7 +4377,7 @@
         <v>498</v>
       </c>
       <c r="D104">
-        <v>150</v>
+        <v>498</v>
       </c>
       <c r="E104">
         <v>120</v>
@@ -4389,13 +4389,13 @@
         <v>438</v>
       </c>
       <c r="H104">
-        <v>253</v>
+        <v>438</v>
       </c>
       <c r="I104">
         <v>533</v>
       </c>
       <c r="J104">
-        <v>286</v>
+        <v>533</v>
       </c>
       <c r="K104">
         <v>881</v>
@@ -4415,7 +4415,7 @@
         <v>498</v>
       </c>
       <c r="D105">
-        <v>150</v>
+        <v>498</v>
       </c>
       <c r="E105">
         <v>120</v>
@@ -4427,13 +4427,13 @@
         <v>439</v>
       </c>
       <c r="H105">
-        <v>253</v>
+        <v>439</v>
       </c>
       <c r="I105">
         <v>533</v>
       </c>
       <c r="J105">
-        <v>286</v>
+        <v>533</v>
       </c>
       <c r="K105">
         <v>882</v>
@@ -4453,7 +4453,7 @@
         <v>498</v>
       </c>
       <c r="D106">
-        <v>150</v>
+        <v>498</v>
       </c>
       <c r="E106">
         <v>121</v>
@@ -4465,13 +4465,13 @@
         <v>439</v>
       </c>
       <c r="H106">
-        <v>253</v>
+        <v>439</v>
       </c>
       <c r="I106">
         <v>533</v>
       </c>
       <c r="J106">
-        <v>286</v>
+        <v>533</v>
       </c>
       <c r="K106">
         <v>882</v>
@@ -4491,7 +4491,7 @@
         <v>498</v>
       </c>
       <c r="D107">
-        <v>150</v>
+        <v>498</v>
       </c>
       <c r="E107">
         <v>121</v>
@@ -4503,13 +4503,13 @@
         <v>440</v>
       </c>
       <c r="H107">
-        <v>253</v>
+        <v>440</v>
       </c>
       <c r="I107">
         <v>533</v>
       </c>
       <c r="J107">
-        <v>288</v>
+        <v>533</v>
       </c>
       <c r="K107">
         <v>883</v>
@@ -4529,7 +4529,7 @@
         <v>498</v>
       </c>
       <c r="D108">
-        <v>150</v>
+        <v>498</v>
       </c>
       <c r="E108">
         <v>121</v>
@@ -4541,13 +4541,13 @@
         <v>440</v>
       </c>
       <c r="H108">
-        <v>253</v>
+        <v>440</v>
       </c>
       <c r="I108">
         <v>533</v>
       </c>
       <c r="J108">
-        <v>288</v>
+        <v>533</v>
       </c>
       <c r="K108">
         <v>883</v>
@@ -4567,7 +4567,7 @@
         <v>499</v>
       </c>
       <c r="D109">
-        <v>150</v>
+        <v>499</v>
       </c>
       <c r="E109">
         <v>121</v>
@@ -4579,13 +4579,13 @@
         <v>440</v>
       </c>
       <c r="H109">
-        <v>253</v>
+        <v>440</v>
       </c>
       <c r="I109">
         <v>533</v>
       </c>
       <c r="J109">
-        <v>288</v>
+        <v>533</v>
       </c>
       <c r="K109">
         <v>883</v>
@@ -4605,7 +4605,7 @@
         <v>499</v>
       </c>
       <c r="D110">
-        <v>151</v>
+        <v>499</v>
       </c>
       <c r="E110">
         <v>121</v>
@@ -4617,13 +4617,13 @@
         <v>441</v>
       </c>
       <c r="H110">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="I110">
         <v>533</v>
       </c>
       <c r="J110">
-        <v>289</v>
+        <v>533</v>
       </c>
       <c r="K110">
         <v>885</v>
@@ -4643,7 +4643,7 @@
         <v>499</v>
       </c>
       <c r="D111">
-        <v>151</v>
+        <v>499</v>
       </c>
       <c r="E111">
         <v>121</v>
@@ -4655,13 +4655,13 @@
         <v>441</v>
       </c>
       <c r="H111">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="I111">
         <v>533</v>
       </c>
       <c r="J111">
-        <v>289</v>
+        <v>533</v>
       </c>
       <c r="K111">
         <v>885</v>
@@ -4681,7 +4681,7 @@
         <v>499</v>
       </c>
       <c r="D112">
-        <v>151</v>
+        <v>499</v>
       </c>
       <c r="E112">
         <v>121</v>
@@ -4693,13 +4693,13 @@
         <v>441</v>
       </c>
       <c r="H112">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="I112">
         <v>533</v>
       </c>
       <c r="J112">
-        <v>289</v>
+        <v>533</v>
       </c>
       <c r="K112">
         <v>885</v>
@@ -4719,7 +4719,7 @@
         <v>500</v>
       </c>
       <c r="D113">
-        <v>152</v>
+        <v>500</v>
       </c>
       <c r="E113">
         <v>121</v>
@@ -4731,13 +4731,13 @@
         <v>441</v>
       </c>
       <c r="H113">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="I113">
         <v>533</v>
       </c>
       <c r="J113">
-        <v>289</v>
+        <v>533</v>
       </c>
       <c r="K113">
         <v>885</v>
@@ -4757,7 +4757,7 @@
         <v>501</v>
       </c>
       <c r="D114">
-        <v>152</v>
+        <v>501</v>
       </c>
       <c r="E114">
         <v>121</v>
@@ -4769,13 +4769,13 @@
         <v>441</v>
       </c>
       <c r="H114">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="I114">
         <v>533</v>
       </c>
       <c r="J114">
-        <v>289</v>
+        <v>533</v>
       </c>
       <c r="K114">
         <v>885</v>
@@ -4795,7 +4795,7 @@
         <v>501</v>
       </c>
       <c r="D115">
-        <v>153</v>
+        <v>501</v>
       </c>
       <c r="E115">
         <v>121</v>
@@ -4807,13 +4807,13 @@
         <v>441</v>
       </c>
       <c r="H115">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="I115">
         <v>533</v>
       </c>
       <c r="J115">
-        <v>289</v>
+        <v>533</v>
       </c>
       <c r="K115">
         <v>885</v>
@@ -4833,7 +4833,7 @@
         <v>501</v>
       </c>
       <c r="D116">
-        <v>153</v>
+        <v>501</v>
       </c>
       <c r="E116">
         <v>121</v>
@@ -4845,13 +4845,13 @@
         <v>441</v>
       </c>
       <c r="H116">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="I116">
         <v>533</v>
       </c>
       <c r="J116">
-        <v>289</v>
+        <v>533</v>
       </c>
       <c r="K116">
         <v>885</v>
@@ -4871,7 +4871,7 @@
         <v>501</v>
       </c>
       <c r="D117">
-        <v>153</v>
+        <v>501</v>
       </c>
       <c r="E117">
         <v>121</v>
@@ -4883,13 +4883,13 @@
         <v>441</v>
       </c>
       <c r="H117">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="I117">
         <v>533</v>
       </c>
       <c r="J117">
-        <v>290</v>
+        <v>533</v>
       </c>
       <c r="K117">
         <v>885</v>
@@ -4909,7 +4909,7 @@
         <v>501</v>
       </c>
       <c r="D118">
-        <v>153</v>
+        <v>501</v>
       </c>
       <c r="E118">
         <v>122</v>
@@ -4921,13 +4921,13 @@
         <v>441</v>
       </c>
       <c r="H118">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="I118">
         <v>534</v>
       </c>
       <c r="J118">
-        <v>291</v>
+        <v>534</v>
       </c>
       <c r="K118">
         <v>885</v>
@@ -4947,7 +4947,7 @@
         <v>501</v>
       </c>
       <c r="D119">
-        <v>153</v>
+        <v>501</v>
       </c>
       <c r="E119">
         <v>122</v>
@@ -4959,13 +4959,13 @@
         <v>442</v>
       </c>
       <c r="H119">
-        <v>254</v>
+        <v>442</v>
       </c>
       <c r="I119">
         <v>534</v>
       </c>
       <c r="J119">
-        <v>291</v>
+        <v>534</v>
       </c>
       <c r="K119">
         <v>887</v>
@@ -4985,7 +4985,7 @@
         <v>501</v>
       </c>
       <c r="D120">
-        <v>153</v>
+        <v>501</v>
       </c>
       <c r="E120">
         <v>123</v>
@@ -4997,13 +4997,13 @@
         <v>442</v>
       </c>
       <c r="H120">
-        <v>254</v>
+        <v>442</v>
       </c>
       <c r="I120">
         <v>534</v>
       </c>
       <c r="J120">
-        <v>291</v>
+        <v>534</v>
       </c>
       <c r="K120">
         <v>887</v>
@@ -5023,7 +5023,7 @@
         <v>502</v>
       </c>
       <c r="D121">
-        <v>153</v>
+        <v>502</v>
       </c>
       <c r="E121">
         <v>124</v>
@@ -5035,13 +5035,13 @@
         <v>442</v>
       </c>
       <c r="H121">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="I121">
         <v>535</v>
       </c>
       <c r="J121">
-        <v>294</v>
+        <v>535</v>
       </c>
       <c r="K121">
         <v>887</v>
@@ -5061,7 +5061,7 @@
         <v>502</v>
       </c>
       <c r="D122">
-        <v>153</v>
+        <v>502</v>
       </c>
       <c r="E122">
         <v>124</v>
@@ -5073,13 +5073,13 @@
         <v>442</v>
       </c>
       <c r="H122">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="I122">
         <v>535</v>
       </c>
       <c r="J122">
-        <v>294</v>
+        <v>535</v>
       </c>
       <c r="K122">
         <v>887</v>
@@ -5099,7 +5099,7 @@
         <v>502</v>
       </c>
       <c r="D123">
-        <v>153</v>
+        <v>502</v>
       </c>
       <c r="E123">
         <v>124</v>
@@ -5111,13 +5111,13 @@
         <v>442</v>
       </c>
       <c r="H123">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="I123">
         <v>535</v>
       </c>
       <c r="J123">
-        <v>294</v>
+        <v>535</v>
       </c>
       <c r="K123">
         <v>887</v>
@@ -5137,7 +5137,7 @@
         <v>503</v>
       </c>
       <c r="D124">
-        <v>153</v>
+        <v>503</v>
       </c>
       <c r="E124">
         <v>124</v>
@@ -5149,13 +5149,13 @@
         <v>442</v>
       </c>
       <c r="H124">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="I124">
         <v>537</v>
       </c>
       <c r="J124">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="K124">
         <v>890</v>
@@ -5175,7 +5175,7 @@
         <v>503</v>
       </c>
       <c r="D125">
-        <v>155</v>
+        <v>503</v>
       </c>
       <c r="E125">
         <v>124</v>
@@ -5187,13 +5187,13 @@
         <v>442</v>
       </c>
       <c r="H125">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="I125">
         <v>537</v>
       </c>
       <c r="J125">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="K125">
         <v>890</v>
@@ -5213,7 +5213,7 @@
         <v>503</v>
       </c>
       <c r="D126">
-        <v>155</v>
+        <v>503</v>
       </c>
       <c r="E126">
         <v>124</v>
@@ -5225,13 +5225,13 @@
         <v>442</v>
       </c>
       <c r="H126">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="I126">
         <v>537</v>
       </c>
       <c r="J126">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="K126">
         <v>890</v>
@@ -5251,7 +5251,7 @@
         <v>503</v>
       </c>
       <c r="D127">
-        <v>156</v>
+        <v>503</v>
       </c>
       <c r="E127">
         <v>125</v>
@@ -5263,13 +5263,13 @@
         <v>443</v>
       </c>
       <c r="H127">
-        <v>255</v>
+        <v>443</v>
       </c>
       <c r="I127">
         <v>537</v>
       </c>
       <c r="J127">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="K127">
         <v>891</v>
@@ -5289,7 +5289,7 @@
         <v>503</v>
       </c>
       <c r="D128">
-        <v>159</v>
+        <v>503</v>
       </c>
       <c r="E128">
         <v>125</v>
@@ -5301,13 +5301,13 @@
         <v>443</v>
       </c>
       <c r="H128">
-        <v>255</v>
+        <v>443</v>
       </c>
       <c r="I128">
         <v>537</v>
       </c>
       <c r="J128">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="K128">
         <v>891</v>
@@ -5327,7 +5327,7 @@
         <v>503</v>
       </c>
       <c r="D129">
-        <v>159</v>
+        <v>503</v>
       </c>
       <c r="E129">
         <v>125</v>
@@ -5339,13 +5339,13 @@
         <v>443</v>
       </c>
       <c r="H129">
-        <v>255</v>
+        <v>443</v>
       </c>
       <c r="I129">
         <v>537</v>
       </c>
       <c r="J129">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="K129">
         <v>891</v>
@@ -5365,7 +5365,7 @@
         <v>503</v>
       </c>
       <c r="D130">
-        <v>159</v>
+        <v>503</v>
       </c>
       <c r="E130">
         <v>125</v>
@@ -5377,13 +5377,13 @@
         <v>443</v>
       </c>
       <c r="H130">
-        <v>255</v>
+        <v>443</v>
       </c>
       <c r="I130">
         <v>537</v>
       </c>
       <c r="J130">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="K130">
         <v>891</v>
@@ -5403,7 +5403,7 @@
         <v>503</v>
       </c>
       <c r="D131">
-        <v>159</v>
+        <v>503</v>
       </c>
       <c r="E131">
         <v>126</v>
@@ -5415,13 +5415,13 @@
         <v>443</v>
       </c>
       <c r="H131">
-        <v>255</v>
+        <v>443</v>
       </c>
       <c r="I131">
         <v>537</v>
       </c>
       <c r="J131">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="K131">
         <v>893</v>
@@ -5441,7 +5441,7 @@
         <v>503</v>
       </c>
       <c r="D132">
-        <v>159</v>
+        <v>503</v>
       </c>
       <c r="E132">
         <v>126</v>
@@ -5453,13 +5453,13 @@
         <v>444</v>
       </c>
       <c r="H132">
-        <v>255</v>
+        <v>444</v>
       </c>
       <c r="I132">
         <v>537</v>
       </c>
       <c r="J132">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="K132">
         <v>893</v>
@@ -5479,7 +5479,7 @@
         <v>503</v>
       </c>
       <c r="D133">
-        <v>159</v>
+        <v>503</v>
       </c>
       <c r="E133">
         <v>126</v>
@@ -5491,13 +5491,13 @@
         <v>444</v>
       </c>
       <c r="H133">
-        <v>255</v>
+        <v>444</v>
       </c>
       <c r="I133">
         <v>537</v>
       </c>
       <c r="J133">
-        <v>295</v>
+        <v>537</v>
       </c>
       <c r="K133">
         <v>894</v>
@@ -5517,7 +5517,7 @@
         <v>503</v>
       </c>
       <c r="D134">
-        <v>159</v>
+        <v>503</v>
       </c>
       <c r="E134">
         <v>127</v>
@@ -5529,13 +5529,13 @@
         <v>444</v>
       </c>
       <c r="H134">
-        <v>255</v>
+        <v>444</v>
       </c>
       <c r="I134">
         <v>538</v>
       </c>
       <c r="J134">
-        <v>296</v>
+        <v>538</v>
       </c>
       <c r="K134">
         <v>894</v>
@@ -5555,7 +5555,7 @@
         <v>504</v>
       </c>
       <c r="D135">
-        <v>159</v>
+        <v>504</v>
       </c>
       <c r="E135">
         <v>127</v>
@@ -5567,13 +5567,13 @@
         <v>444</v>
       </c>
       <c r="H135">
-        <v>255</v>
+        <v>444</v>
       </c>
       <c r="I135">
         <v>538</v>
       </c>
       <c r="J135">
-        <v>296</v>
+        <v>538</v>
       </c>
       <c r="K135">
         <v>894</v>
@@ -5593,7 +5593,7 @@
         <v>504</v>
       </c>
       <c r="D136">
-        <v>159</v>
+        <v>504</v>
       </c>
       <c r="E136">
         <v>127</v>
@@ -5605,13 +5605,13 @@
         <v>444</v>
       </c>
       <c r="H136">
-        <v>255</v>
+        <v>444</v>
       </c>
       <c r="I136">
         <v>538</v>
       </c>
       <c r="J136">
-        <v>296</v>
+        <v>538</v>
       </c>
       <c r="K136">
         <v>894</v>
@@ -5631,7 +5631,7 @@
         <v>504</v>
       </c>
       <c r="D137">
-        <v>160</v>
+        <v>504</v>
       </c>
       <c r="E137">
         <v>127</v>
@@ -5643,13 +5643,13 @@
         <v>444</v>
       </c>
       <c r="H137">
-        <v>255</v>
+        <v>444</v>
       </c>
       <c r="I137">
         <v>538</v>
       </c>
       <c r="J137">
-        <v>296</v>
+        <v>538</v>
       </c>
       <c r="K137">
         <v>894</v>
@@ -5669,7 +5669,7 @@
         <v>505</v>
       </c>
       <c r="D138">
-        <v>160</v>
+        <v>505</v>
       </c>
       <c r="E138">
         <v>127</v>
@@ -5681,13 +5681,13 @@
         <v>444</v>
       </c>
       <c r="H138">
-        <v>255</v>
+        <v>444</v>
       </c>
       <c r="I138">
         <v>538</v>
       </c>
       <c r="J138">
-        <v>297</v>
+        <v>538</v>
       </c>
       <c r="K138">
         <v>894</v>
@@ -5707,7 +5707,7 @@
         <v>505</v>
       </c>
       <c r="D139">
-        <v>160</v>
+        <v>505</v>
       </c>
       <c r="E139">
         <v>127</v>
@@ -5719,13 +5719,13 @@
         <v>444</v>
       </c>
       <c r="H139">
-        <v>256</v>
+        <v>444</v>
       </c>
       <c r="I139">
         <v>538</v>
       </c>
       <c r="J139">
-        <v>299</v>
+        <v>538</v>
       </c>
       <c r="K139">
         <v>894</v>
@@ -5745,7 +5745,7 @@
         <v>505</v>
       </c>
       <c r="D140">
-        <v>160</v>
+        <v>505</v>
       </c>
       <c r="E140">
         <v>128</v>
@@ -5757,13 +5757,13 @@
         <v>444</v>
       </c>
       <c r="H140">
-        <v>257</v>
+        <v>444</v>
       </c>
       <c r="I140">
         <v>539</v>
       </c>
       <c r="J140" s="5">
-        <v>299</v>
+        <v>539</v>
       </c>
       <c r="K140">
         <v>894</v>
@@ -5783,7 +5783,7 @@
         <v>505</v>
       </c>
       <c r="D141">
-        <v>160</v>
+        <v>505</v>
       </c>
       <c r="E141">
         <v>128</v>
@@ -5795,13 +5795,13 @@
         <v>445</v>
       </c>
       <c r="H141">
-        <v>257</v>
+        <v>445</v>
       </c>
       <c r="I141">
         <v>539</v>
       </c>
       <c r="J141" s="5">
-        <v>299</v>
+        <v>539</v>
       </c>
       <c r="K141">
         <v>896</v>
@@ -5821,7 +5821,7 @@
         <v>508</v>
       </c>
       <c r="D142">
-        <v>160</v>
+        <v>508</v>
       </c>
       <c r="E142">
         <v>129</v>
@@ -5833,13 +5833,13 @@
         <v>445</v>
       </c>
       <c r="H142">
-        <v>257</v>
+        <v>445</v>
       </c>
       <c r="I142">
         <v>539</v>
       </c>
       <c r="J142" s="5">
-        <v>299</v>
+        <v>539</v>
       </c>
       <c r="K142">
         <v>896</v>
@@ -5859,7 +5859,7 @@
         <v>508</v>
       </c>
       <c r="D143">
-        <v>160</v>
+        <v>508</v>
       </c>
       <c r="E143">
         <v>129</v>
@@ -5871,13 +5871,13 @@
         <v>445</v>
       </c>
       <c r="H143">
-        <v>257</v>
+        <v>445</v>
       </c>
       <c r="I143">
         <v>539</v>
       </c>
       <c r="J143" s="5">
-        <v>299</v>
+        <v>539</v>
       </c>
       <c r="K143">
         <v>896</v>
@@ -5897,7 +5897,7 @@
         <v>508</v>
       </c>
       <c r="D144">
-        <v>160</v>
+        <v>508</v>
       </c>
       <c r="E144">
         <v>129</v>
@@ -5909,13 +5909,13 @@
         <v>448</v>
       </c>
       <c r="H144">
-        <v>257</v>
+        <v>448</v>
       </c>
       <c r="I144">
         <v>539</v>
       </c>
       <c r="J144" s="5">
-        <v>299</v>
+        <v>539</v>
       </c>
       <c r="K144">
         <v>896</v>
@@ -5935,7 +5935,7 @@
         <v>509</v>
       </c>
       <c r="D145">
-        <v>160</v>
+        <v>509</v>
       </c>
       <c r="E145">
         <v>129</v>
@@ -5947,13 +5947,13 @@
         <v>450</v>
       </c>
       <c r="H145">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="I145">
         <v>539</v>
       </c>
       <c r="J145" s="5">
-        <v>299</v>
+        <v>539</v>
       </c>
       <c r="K145">
         <v>896</v>
@@ -5984,7 +5984,7 @@
         <v>509</v>
       </c>
       <c r="D146">
-        <v>160</v>
+        <v>509</v>
       </c>
       <c r="E146">
         <v>129</v>
@@ -5996,13 +5996,13 @@
         <v>450</v>
       </c>
       <c r="H146">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="I146">
         <v>540</v>
       </c>
       <c r="J146" s="5">
-        <v>299</v>
+        <v>540</v>
       </c>
       <c r="K146">
         <v>896</v>
@@ -6033,7 +6033,7 @@
         <v>509</v>
       </c>
       <c r="D147">
-        <v>160</v>
+        <v>509</v>
       </c>
       <c r="E147">
         <v>129</v>
@@ -6045,13 +6045,13 @@
         <v>450</v>
       </c>
       <c r="H147">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="I147">
         <v>541</v>
       </c>
       <c r="J147" s="5">
-        <v>299</v>
+        <v>541</v>
       </c>
       <c r="K147">
         <v>896</v>
@@ -6082,7 +6082,7 @@
         <v>509</v>
       </c>
       <c r="D148">
-        <v>160</v>
+        <v>509</v>
       </c>
       <c r="E148">
         <v>129</v>
@@ -6094,13 +6094,13 @@
         <v>450</v>
       </c>
       <c r="H148">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="I148">
         <v>543</v>
       </c>
       <c r="J148" s="5">
-        <v>299</v>
+        <v>543</v>
       </c>
       <c r="K148">
         <v>896</v>
@@ -6131,7 +6131,7 @@
         <v>509</v>
       </c>
       <c r="D149">
-        <v>160</v>
+        <v>509</v>
       </c>
       <c r="E149">
         <v>129</v>
@@ -6143,13 +6143,13 @@
         <v>451</v>
       </c>
       <c r="H149">
-        <v>258</v>
+        <v>451</v>
       </c>
       <c r="I149" s="5">
         <v>545</v>
       </c>
       <c r="J149" s="5">
-        <v>299</v>
+        <v>545</v>
       </c>
       <c r="K149">
         <v>899</v>
@@ -6180,7 +6180,7 @@
         <v>509</v>
       </c>
       <c r="D150">
-        <v>160</v>
+        <v>509</v>
       </c>
       <c r="E150">
         <v>129</v>
@@ -6192,13 +6192,13 @@
         <v>451</v>
       </c>
       <c r="H150">
-        <v>258</v>
+        <v>451</v>
       </c>
       <c r="I150" s="5">
         <v>545</v>
       </c>
       <c r="J150" s="5">
-        <v>299</v>
+        <v>545</v>
       </c>
       <c r="K150">
         <v>899</v>
@@ -6229,7 +6229,7 @@
         <v>509</v>
       </c>
       <c r="D151">
-        <v>160</v>
+        <v>509</v>
       </c>
       <c r="E151">
         <v>129</v>
@@ -6241,13 +6241,13 @@
         <v>451</v>
       </c>
       <c r="H151">
-        <v>258</v>
+        <v>451</v>
       </c>
       <c r="I151" s="5">
         <v>545</v>
       </c>
       <c r="J151" s="5">
-        <v>299</v>
+        <v>545</v>
       </c>
       <c r="K151">
         <v>899</v>
@@ -6278,7 +6278,7 @@
         <v>513</v>
       </c>
       <c r="D152" s="5">
-        <v>160</v>
+        <v>513</v>
       </c>
       <c r="E152" s="5">
         <v>129</v>
@@ -6290,13 +6290,13 @@
         <v>452</v>
       </c>
       <c r="H152" s="5">
-        <v>258</v>
+        <v>452</v>
       </c>
       <c r="I152">
         <v>545</v>
       </c>
       <c r="J152" s="5">
-        <v>299</v>
+        <v>545</v>
       </c>
       <c r="K152">
         <v>899</v>
@@ -6327,7 +6327,7 @@
         <v>514</v>
       </c>
       <c r="D153" s="5">
-        <v>160</v>
+        <v>514</v>
       </c>
       <c r="E153" s="5">
         <v>129</v>
@@ -6339,13 +6339,13 @@
         <v>453</v>
       </c>
       <c r="H153" s="5">
-        <v>258</v>
+        <v>453</v>
       </c>
       <c r="I153">
         <v>546</v>
       </c>
       <c r="J153" s="5">
-        <v>299</v>
+        <v>546</v>
       </c>
       <c r="K153">
         <v>900</v>
@@ -6376,7 +6376,7 @@
         <v>515</v>
       </c>
       <c r="D154" s="5">
-        <v>160</v>
+        <v>515</v>
       </c>
       <c r="E154" s="5">
         <v>129</v>
@@ -6388,13 +6388,13 @@
         <v>453</v>
       </c>
       <c r="H154" s="5">
-        <v>258</v>
+        <v>453</v>
       </c>
       <c r="I154">
         <v>549</v>
       </c>
       <c r="J154">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="K154">
         <v>902</v>
@@ -6425,7 +6425,7 @@
         <v>515</v>
       </c>
       <c r="D155" s="5">
-        <v>160</v>
+        <v>515</v>
       </c>
       <c r="E155" s="5">
         <v>129</v>
@@ -6437,13 +6437,13 @@
         <v>454</v>
       </c>
       <c r="H155" s="5">
-        <v>258</v>
+        <v>454</v>
       </c>
       <c r="I155" s="5">
         <v>549</v>
       </c>
       <c r="J155">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="K155">
         <v>902</v>
@@ -6474,7 +6474,7 @@
         <v>515</v>
       </c>
       <c r="D156" s="5">
-        <v>160</v>
+        <v>515</v>
       </c>
       <c r="E156" s="5">
         <v>129</v>
@@ -6486,13 +6486,13 @@
         <v>456</v>
       </c>
       <c r="H156" s="5">
-        <v>258</v>
+        <v>456</v>
       </c>
       <c r="I156">
         <v>550</v>
       </c>
       <c r="J156">
-        <v>301</v>
+        <v>550</v>
       </c>
       <c r="K156">
         <v>903</v>
@@ -6523,7 +6523,7 @@
         <v>515</v>
       </c>
       <c r="D157" s="5">
-        <v>160</v>
+        <v>515</v>
       </c>
       <c r="E157" s="5">
         <v>129</v>
@@ -6535,13 +6535,13 @@
         <v>457</v>
       </c>
       <c r="H157" s="5">
-        <v>258</v>
+        <v>457</v>
       </c>
       <c r="I157" s="5">
         <v>550</v>
       </c>
       <c r="J157">
-        <v>301</v>
+        <v>550</v>
       </c>
       <c r="K157" s="5">
         <v>903</v>
@@ -6572,7 +6572,7 @@
         <v>515</v>
       </c>
       <c r="D158" s="5">
-        <v>160</v>
+        <v>515</v>
       </c>
       <c r="E158" s="5">
         <v>129</v>
@@ -6584,13 +6584,13 @@
         <v>457</v>
       </c>
       <c r="H158" s="5">
-        <v>258</v>
+        <v>457</v>
       </c>
       <c r="I158" s="5">
         <v>551</v>
       </c>
       <c r="J158">
-        <v>303</v>
+        <v>551</v>
       </c>
       <c r="K158" s="5">
         <v>903</v>
@@ -6621,7 +6621,7 @@
         <v>516</v>
       </c>
       <c r="D159" s="6">
-        <v>160</v>
+        <v>516</v>
       </c>
       <c r="E159" s="6">
         <v>130</v>
@@ -6633,13 +6633,13 @@
         <v>460</v>
       </c>
       <c r="H159" s="6">
-        <v>258</v>
+        <v>460</v>
       </c>
       <c r="I159" s="6">
         <v>552</v>
       </c>
       <c r="J159" s="6">
-        <v>306</v>
+        <v>552</v>
       </c>
       <c r="K159" s="6">
         <v>904</v>
@@ -6670,7 +6670,7 @@
         <v>516</v>
       </c>
       <c r="D160" s="6">
-        <v>160</v>
+        <v>516</v>
       </c>
       <c r="E160" s="6">
         <v>130</v>
@@ -6682,13 +6682,13 @@
         <v>462</v>
       </c>
       <c r="H160" s="6">
-        <v>258</v>
+        <v>462</v>
       </c>
       <c r="I160" s="6">
         <v>554</v>
       </c>
       <c r="J160" s="6">
-        <v>306</v>
+        <v>554</v>
       </c>
       <c r="K160" s="6">
         <v>906</v>
@@ -6719,7 +6719,7 @@
         <v>518</v>
       </c>
       <c r="D161" s="6">
-        <v>160</v>
+        <v>518</v>
       </c>
       <c r="E161" s="6">
         <v>130</v>
@@ -6731,13 +6731,13 @@
         <v>465</v>
       </c>
       <c r="H161" s="6">
-        <v>258</v>
+        <v>465</v>
       </c>
       <c r="I161" s="6">
         <v>554</v>
       </c>
       <c r="J161" s="6">
-        <v>310</v>
+        <v>554</v>
       </c>
       <c r="K161" s="6">
         <v>918</v>
@@ -6768,7 +6768,7 @@
         <v>519</v>
       </c>
       <c r="D162" s="7">
-        <v>160</v>
+        <v>519</v>
       </c>
       <c r="E162" s="6">
         <v>130</v>
@@ -6780,13 +6780,13 @@
         <v>466</v>
       </c>
       <c r="H162" s="6">
-        <v>258</v>
+        <v>466</v>
       </c>
       <c r="I162" s="6">
         <v>556</v>
       </c>
       <c r="J162" s="6">
-        <v>310</v>
+        <v>556</v>
       </c>
       <c r="K162" s="6">
         <v>923</v>
@@ -6817,7 +6817,7 @@
         <v>521</v>
       </c>
       <c r="D163" s="7">
-        <v>160</v>
+        <v>521</v>
       </c>
       <c r="E163" s="6">
         <v>131</v>
@@ -6829,13 +6829,13 @@
         <v>471</v>
       </c>
       <c r="H163" s="6">
-        <v>289</v>
+        <v>471</v>
       </c>
       <c r="I163" s="6">
         <v>556</v>
       </c>
       <c r="J163" s="6">
-        <v>312</v>
+        <v>556</v>
       </c>
       <c r="K163" s="6">
         <v>929</v>
@@ -6866,7 +6866,7 @@
         <v>521</v>
       </c>
       <c r="D164" s="6">
-        <v>161</v>
+        <v>521</v>
       </c>
       <c r="E164" s="6">
         <v>131</v>
@@ -6878,13 +6878,13 @@
         <v>472</v>
       </c>
       <c r="H164" s="6">
-        <v>290</v>
+        <v>472</v>
       </c>
       <c r="I164" s="6">
         <v>556</v>
       </c>
       <c r="J164" s="6">
-        <v>312</v>
+        <v>556</v>
       </c>
       <c r="K164" s="6">
         <v>930</v>
@@ -6915,7 +6915,7 @@
         <v>521</v>
       </c>
       <c r="D165" s="7">
-        <v>161</v>
+        <v>521</v>
       </c>
       <c r="E165">
         <v>131</v>
@@ -6927,13 +6927,13 @@
         <v>472</v>
       </c>
       <c r="H165">
-        <v>291</v>
+        <v>472</v>
       </c>
       <c r="I165">
         <v>557</v>
       </c>
       <c r="J165">
-        <v>312</v>
+        <v>557</v>
       </c>
       <c r="K165">
         <v>931</v>
@@ -6964,7 +6964,7 @@
         <v>522</v>
       </c>
       <c r="D166" s="10">
-        <v>161</v>
+        <v>522</v>
       </c>
       <c r="E166" s="10">
         <v>133</v>
@@ -6976,13 +6976,13 @@
         <v>476</v>
       </c>
       <c r="H166" s="10">
-        <v>294</v>
+        <v>476</v>
       </c>
       <c r="I166" s="10">
         <v>560</v>
       </c>
       <c r="J166" s="10">
-        <v>314</v>
+        <v>560</v>
       </c>
       <c r="K166" s="10">
         <v>933</v>
@@ -7013,7 +7013,7 @@
         <v>523</v>
       </c>
       <c r="D167" s="10">
-        <v>161</v>
+        <v>523</v>
       </c>
       <c r="E167" s="10">
         <v>136</v>
@@ -7025,13 +7025,13 @@
         <v>476</v>
       </c>
       <c r="H167" s="10">
-        <v>294</v>
+        <v>476</v>
       </c>
       <c r="I167" s="10">
         <v>564</v>
       </c>
       <c r="J167" s="10">
-        <v>314</v>
+        <v>564</v>
       </c>
       <c r="K167" s="10">
         <v>933</v>
@@ -7062,7 +7062,7 @@
         <v>525</v>
       </c>
       <c r="D168" s="10">
-        <v>163</v>
+        <v>525</v>
       </c>
       <c r="E168" s="10">
         <v>138</v>
@@ -7074,13 +7074,13 @@
         <v>479</v>
       </c>
       <c r="H168" s="10">
-        <v>296</v>
+        <v>479</v>
       </c>
       <c r="I168" s="10">
         <v>567</v>
       </c>
       <c r="J168" s="10">
-        <v>317</v>
+        <v>567</v>
       </c>
       <c r="K168" s="10">
         <v>937</v>
@@ -7111,7 +7111,7 @@
         <v>527</v>
       </c>
       <c r="D169" s="10">
-        <v>165</v>
+        <v>527</v>
       </c>
       <c r="E169" s="10">
         <v>138</v>
@@ -7123,13 +7123,13 @@
         <v>485</v>
       </c>
       <c r="H169" s="10">
-        <v>300</v>
+        <v>485</v>
       </c>
       <c r="I169" s="10">
         <v>571</v>
       </c>
       <c r="J169" s="10">
-        <v>319</v>
+        <v>571</v>
       </c>
       <c r="K169" s="10">
         <v>943</v>
@@ -7160,7 +7160,7 @@
         <v>527</v>
       </c>
       <c r="D170" s="8">
-        <v>166</v>
+        <v>527</v>
       </c>
       <c r="E170" s="10">
         <v>138</v>
@@ -7172,13 +7172,13 @@
         <v>486</v>
       </c>
       <c r="H170" s="10">
-        <v>300</v>
+        <v>486</v>
       </c>
       <c r="I170" s="10">
         <v>574</v>
       </c>
       <c r="J170" s="10">
-        <v>324</v>
+        <v>574</v>
       </c>
       <c r="K170" s="10">
         <v>944</v>
@@ -7209,7 +7209,7 @@
         <v>527</v>
       </c>
       <c r="D171" s="8">
-        <v>166</v>
+        <v>527</v>
       </c>
       <c r="E171" s="10">
         <v>138</v>
@@ -7221,13 +7221,13 @@
         <v>487</v>
       </c>
       <c r="H171" s="10">
-        <v>300</v>
+        <v>487</v>
       </c>
       <c r="I171" s="10">
         <v>579</v>
       </c>
       <c r="J171" s="10">
-        <v>326</v>
+        <v>579</v>
       </c>
       <c r="K171" s="10">
         <v>944</v>
@@ -7258,7 +7258,7 @@
         <v>527</v>
       </c>
       <c r="D172" s="10">
-        <v>166</v>
+        <v>527</v>
       </c>
       <c r="E172" s="10">
         <v>138</v>
@@ -7270,13 +7270,13 @@
         <v>489</v>
       </c>
       <c r="H172" s="10">
-        <v>300</v>
+        <v>489</v>
       </c>
       <c r="I172" s="10">
         <v>581</v>
       </c>
       <c r="J172" s="10">
-        <v>327</v>
+        <v>581</v>
       </c>
       <c r="K172">
         <v>945</v>
@@ -7307,7 +7307,7 @@
         <v>528</v>
       </c>
       <c r="D173" s="10">
-        <v>168</v>
+        <v>528</v>
       </c>
       <c r="E173" s="10">
         <v>140</v>
@@ -7319,13 +7319,13 @@
         <v>494</v>
       </c>
       <c r="H173" s="10">
-        <v>301</v>
+        <v>494</v>
       </c>
       <c r="I173" s="10">
         <v>586</v>
       </c>
       <c r="J173" s="10">
-        <v>331</v>
+        <v>586</v>
       </c>
       <c r="K173">
         <v>948</v>
@@ -7356,7 +7356,7 @@
         <v>530</v>
       </c>
       <c r="D174" s="10">
-        <v>169</v>
+        <v>530</v>
       </c>
       <c r="E174" s="10">
         <v>140</v>
@@ -7368,13 +7368,13 @@
         <v>498</v>
       </c>
       <c r="H174" s="10">
-        <v>302</v>
+        <v>498</v>
       </c>
       <c r="I174" s="10">
         <v>587</v>
       </c>
       <c r="J174" s="10">
-        <v>332</v>
+        <v>587</v>
       </c>
       <c r="K174" s="8">
         <v>951</v>
@@ -7405,7 +7405,7 @@
         <v>534</v>
       </c>
       <c r="D175" s="10">
-        <v>170</v>
+        <v>534</v>
       </c>
       <c r="E175" s="10">
         <v>143</v>
@@ -7417,13 +7417,13 @@
         <v>503</v>
       </c>
       <c r="H175" s="10">
-        <v>308</v>
+        <v>503</v>
       </c>
       <c r="I175" s="10">
         <v>587</v>
       </c>
       <c r="J175" s="10">
-        <v>333</v>
+        <v>587</v>
       </c>
       <c r="K175">
         <v>955</v>
@@ -7453,7 +7453,7 @@
         <v>537</v>
       </c>
       <c r="D176" s="10">
-        <v>172</v>
+        <v>537</v>
       </c>
       <c r="E176" s="10">
         <v>143</v>
@@ -7465,13 +7465,13 @@
         <v>503</v>
       </c>
       <c r="H176" s="10">
-        <v>310</v>
+        <v>503</v>
       </c>
       <c r="I176" s="10">
         <v>590</v>
       </c>
       <c r="J176" s="10">
-        <v>337</v>
+        <v>590</v>
       </c>
       <c r="K176">
         <v>959</v>
@@ -7491,7 +7491,7 @@
         <v>546</v>
       </c>
       <c r="D177" s="10">
-        <v>172</v>
+        <v>546</v>
       </c>
       <c r="E177" s="10">
         <v>145</v>
@@ -7503,13 +7503,13 @@
         <v>505</v>
       </c>
       <c r="H177" s="10">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="I177" s="10">
         <v>594</v>
       </c>
       <c r="J177" s="10">
-        <v>340</v>
+        <v>594</v>
       </c>
       <c r="K177">
         <v>966</v>
@@ -7529,7 +7529,7 @@
         <v>547</v>
       </c>
       <c r="D178">
-        <v>172</v>
+        <v>547</v>
       </c>
       <c r="E178">
         <v>145</v>
@@ -7541,13 +7541,13 @@
         <v>506</v>
       </c>
       <c r="H178">
-        <v>314</v>
+        <v>506</v>
       </c>
       <c r="I178">
         <v>598</v>
       </c>
       <c r="J178">
-        <v>342</v>
+        <v>598</v>
       </c>
       <c r="K178">
         <v>967</v>
@@ -7567,7 +7567,7 @@
         <v>549</v>
       </c>
       <c r="D179">
-        <v>172</v>
+        <v>549</v>
       </c>
       <c r="E179">
         <v>145</v>
@@ -7579,13 +7579,13 @@
         <v>508</v>
       </c>
       <c r="H179">
-        <v>317</v>
+        <v>508</v>
       </c>
       <c r="I179">
         <v>601</v>
       </c>
       <c r="J179">
-        <v>343</v>
+        <v>601</v>
       </c>
       <c r="K179">
         <v>968</v>
@@ -7605,7 +7605,7 @@
         <v>550</v>
       </c>
       <c r="D180">
-        <v>173</v>
+        <v>550</v>
       </c>
       <c r="E180">
         <v>150</v>
@@ -7617,13 +7617,13 @@
         <v>511</v>
       </c>
       <c r="H180">
-        <v>317</v>
+        <v>511</v>
       </c>
       <c r="I180">
         <v>609</v>
       </c>
       <c r="J180">
-        <v>346</v>
+        <v>609</v>
       </c>
       <c r="K180">
         <v>970</v>
@@ -7643,7 +7643,7 @@
         <v>552</v>
       </c>
       <c r="D181">
-        <v>174</v>
+        <v>552</v>
       </c>
       <c r="E181" s="11">
         <v>155</v>
@@ -7655,13 +7655,13 @@
         <v>513</v>
       </c>
       <c r="H181" s="11">
-        <v>318</v>
+        <v>513</v>
       </c>
       <c r="I181">
         <v>615</v>
       </c>
       <c r="J181">
-        <v>348</v>
+        <v>615</v>
       </c>
       <c r="K181">
         <v>975</v>
@@ -7681,7 +7681,7 @@
         <v>554</v>
       </c>
       <c r="D182">
-        <v>174</v>
+        <v>554</v>
       </c>
       <c r="E182" s="11">
         <v>164</v>
@@ -7693,13 +7693,13 @@
         <v>513</v>
       </c>
       <c r="H182" s="11">
-        <v>320</v>
+        <v>513</v>
       </c>
       <c r="I182">
         <v>615</v>
       </c>
       <c r="J182">
-        <v>348</v>
+        <v>615</v>
       </c>
       <c r="K182">
         <v>992</v>
@@ -7719,7 +7719,7 @@
         <v>554</v>
       </c>
       <c r="D183">
-        <v>175</v>
+        <v>554</v>
       </c>
       <c r="E183" s="11">
         <v>166</v>
@@ -7731,13 +7731,13 @@
         <v>515</v>
       </c>
       <c r="H183" s="11">
-        <v>320</v>
+        <v>515</v>
       </c>
       <c r="I183">
         <v>619</v>
       </c>
       <c r="J183">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="K183">
         <v>1004</v>
@@ -7757,7 +7757,7 @@
         <v>554</v>
       </c>
       <c r="D184">
-        <v>176</v>
+        <v>554</v>
       </c>
       <c r="E184" s="11">
         <v>172</v>
@@ -7769,13 +7769,13 @@
         <v>518</v>
       </c>
       <c r="H184" s="11">
-        <v>320</v>
+        <v>518</v>
       </c>
       <c r="I184">
         <v>621</v>
       </c>
       <c r="J184">
-        <v>350</v>
+        <v>621</v>
       </c>
       <c r="K184">
         <v>1020</v>
@@ -7795,7 +7795,7 @@
         <v>555</v>
       </c>
       <c r="D185">
-        <v>177</v>
+        <v>555</v>
       </c>
       <c r="E185" s="11">
         <v>173</v>
@@ -7807,13 +7807,13 @@
         <v>521</v>
       </c>
       <c r="H185" s="11">
-        <v>320</v>
+        <v>521</v>
       </c>
       <c r="I185">
         <v>621</v>
       </c>
       <c r="J185">
-        <v>351</v>
+        <v>621</v>
       </c>
       <c r="K185">
         <v>1033</v>
@@ -7833,7 +7833,7 @@
         <v>555</v>
       </c>
       <c r="D186">
-        <v>177</v>
+        <v>555</v>
       </c>
       <c r="E186" s="11">
         <v>176</v>
@@ -7845,13 +7845,13 @@
         <v>522</v>
       </c>
       <c r="H186" s="11">
-        <v>320</v>
+        <v>522</v>
       </c>
       <c r="I186">
         <v>621</v>
       </c>
       <c r="J186">
-        <v>351</v>
+        <v>621</v>
       </c>
       <c r="K186">
         <v>1038</v>
@@ -7871,28 +7871,28 @@
         <v>556</v>
       </c>
       <c r="D187">
-        <v>180</v>
+        <v>556</v>
       </c>
       <c r="E187">
         <v>177</v>
       </c>
       <c r="F187">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="G187">
         <v>522</v>
       </c>
       <c r="H187">
-        <v>322</v>
+        <v>522</v>
       </c>
       <c r="I187">
         <v>622</v>
       </c>
       <c r="J187">
-        <v>352</v>
+        <v>622</v>
       </c>
       <c r="K187">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="L187">
         <v>2937</v>
@@ -7909,28 +7909,28 @@
         <v>557</v>
       </c>
       <c r="D188">
-        <v>180</v>
+        <v>557</v>
       </c>
       <c r="E188">
         <v>177</v>
       </c>
       <c r="F188">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="G188">
         <v>523</v>
       </c>
       <c r="H188">
-        <v>322</v>
+        <v>523</v>
       </c>
       <c r="I188">
         <v>624</v>
       </c>
       <c r="J188">
-        <v>353</v>
+        <v>624</v>
       </c>
       <c r="K188">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="L188">
         <v>2943</v>
@@ -7947,28 +7947,28 @@
         <v>558</v>
       </c>
       <c r="D189">
-        <v>181</v>
+        <v>558</v>
       </c>
       <c r="E189">
         <v>181</v>
       </c>
       <c r="F189">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="G189">
         <v>525</v>
       </c>
       <c r="H189">
-        <v>322</v>
+        <v>525</v>
       </c>
       <c r="I189">
         <v>625</v>
       </c>
       <c r="J189">
-        <v>354</v>
+        <v>625</v>
       </c>
       <c r="K189">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="L189">
         <v>2950</v>
@@ -7985,28 +7985,28 @@
         <v>567</v>
       </c>
       <c r="D190">
-        <v>181</v>
+        <v>567</v>
       </c>
       <c r="E190">
         <v>181</v>
       </c>
       <c r="F190">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="G190">
         <v>527</v>
       </c>
       <c r="H190">
-        <v>322</v>
+        <v>527</v>
       </c>
       <c r="I190">
         <v>625</v>
       </c>
       <c r="J190">
-        <v>356</v>
+        <v>625</v>
       </c>
       <c r="K190">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="L190">
         <v>2962</v>
@@ -8023,28 +8023,28 @@
         <v>571</v>
       </c>
       <c r="D191">
-        <v>182</v>
+        <v>571</v>
       </c>
       <c r="E191">
         <v>181</v>
       </c>
       <c r="F191">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="G191">
         <v>529</v>
       </c>
       <c r="H191">
-        <v>322</v>
+        <v>529</v>
       </c>
       <c r="I191">
         <v>626</v>
       </c>
       <c r="J191">
-        <v>356</v>
+        <v>626</v>
       </c>
       <c r="K191">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="L191">
         <v>2985</v>
@@ -8061,28 +8061,28 @@
         <v>576</v>
       </c>
       <c r="D192">
-        <v>183</v>
+        <v>576</v>
       </c>
       <c r="E192">
         <v>181</v>
       </c>
       <c r="F192">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="G192">
         <v>529</v>
       </c>
       <c r="H192">
-        <v>323</v>
+        <v>529</v>
       </c>
       <c r="I192">
         <v>626</v>
       </c>
       <c r="J192">
-        <v>357</v>
+        <v>626</v>
       </c>
       <c r="K192">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="L192">
         <v>3000</v>
@@ -8099,28 +8099,28 @@
         <v>578</v>
       </c>
       <c r="D193">
-        <v>184</v>
+        <v>578</v>
       </c>
       <c r="E193">
         <v>181</v>
       </c>
       <c r="F193">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="G193">
         <v>533</v>
       </c>
       <c r="H193">
-        <v>323</v>
+        <v>533</v>
       </c>
       <c r="I193">
         <v>626</v>
       </c>
       <c r="J193">
-        <v>360</v>
+        <v>626</v>
       </c>
       <c r="K193">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="L193">
         <v>3014</v>
@@ -8137,28 +8137,28 @@
         <v>580</v>
       </c>
       <c r="D194">
-        <v>187</v>
+        <v>580</v>
       </c>
       <c r="E194">
         <v>182</v>
       </c>
       <c r="F194">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="G194">
         <v>539</v>
       </c>
       <c r="H194">
-        <v>325</v>
+        <v>539</v>
       </c>
       <c r="I194">
         <v>627</v>
       </c>
       <c r="J194">
-        <v>361</v>
+        <v>627</v>
       </c>
       <c r="K194">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="L194">
         <v>3071</v>
@@ -8175,28 +8175,28 @@
         <v>587</v>
       </c>
       <c r="D195">
-        <v>188</v>
+        <v>587</v>
       </c>
       <c r="E195">
         <v>184</v>
       </c>
       <c r="F195">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="G195">
         <v>543</v>
       </c>
       <c r="H195">
-        <v>326</v>
+        <v>543</v>
       </c>
       <c r="I195">
         <v>627</v>
       </c>
       <c r="J195">
-        <v>364</v>
+        <v>627</v>
       </c>
       <c r="K195">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="L195">
         <v>3126</v>
@@ -8213,28 +8213,28 @@
         <v>588</v>
       </c>
       <c r="D196">
-        <v>188</v>
+        <v>588</v>
       </c>
       <c r="E196">
         <v>184</v>
       </c>
       <c r="F196">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G196">
         <v>547</v>
       </c>
       <c r="H196">
-        <v>326</v>
+        <v>547</v>
       </c>
       <c r="I196">
         <v>627</v>
       </c>
       <c r="J196">
-        <v>365</v>
+        <v>627</v>
       </c>
       <c r="K196">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="L196">
         <v>3175</v>
@@ -8251,31 +8251,31 @@
         <v>589</v>
       </c>
       <c r="D197">
-        <v>188</v>
+        <v>589</v>
       </c>
       <c r="E197">
         <v>184</v>
       </c>
       <c r="F197">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="G197">
         <v>552</v>
       </c>
       <c r="H197">
-        <v>327</v>
+        <v>552</v>
       </c>
       <c r="I197">
         <v>629</v>
       </c>
       <c r="J197">
-        <v>367</v>
+        <v>629</v>
       </c>
       <c r="K197">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="L197">
-        <v>3246</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -8289,31 +8289,31 @@
         <v>593</v>
       </c>
       <c r="D198">
-        <v>188</v>
+        <v>593</v>
       </c>
       <c r="E198">
         <v>185</v>
       </c>
       <c r="F198">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="G198">
         <v>554</v>
       </c>
       <c r="H198">
-        <v>327</v>
+        <v>554</v>
       </c>
       <c r="I198">
         <v>632</v>
       </c>
       <c r="J198">
-        <v>368</v>
+        <v>632</v>
       </c>
       <c r="K198">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="L198">
-        <v>3301</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -8327,31 +8327,31 @@
         <v>594</v>
       </c>
       <c r="D199">
-        <v>190</v>
+        <v>594</v>
       </c>
       <c r="E199">
         <v>185</v>
       </c>
       <c r="F199">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="G199">
         <v>558</v>
       </c>
       <c r="H199">
-        <v>327</v>
+        <v>558</v>
       </c>
       <c r="I199">
         <v>632</v>
       </c>
       <c r="J199">
-        <v>368</v>
+        <v>632</v>
       </c>
       <c r="K199">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="L199">
-        <v>3334</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -8365,31 +8365,31 @@
         <v>595</v>
       </c>
       <c r="D200">
-        <v>190</v>
+        <v>595</v>
       </c>
       <c r="E200">
         <v>185</v>
       </c>
       <c r="F200">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="G200">
         <v>561</v>
       </c>
       <c r="H200">
-        <v>327</v>
+        <v>561</v>
       </c>
       <c r="I200">
         <v>633</v>
       </c>
       <c r="J200">
-        <v>370</v>
+        <v>633</v>
       </c>
       <c r="K200">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="L200">
-        <v>3352</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -8400,10 +8400,10 @@
         <v>421</v>
       </c>
       <c r="C201">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D201">
-        <v>192</v>
+        <v>597</v>
       </c>
       <c r="E201">
         <v>186</v>
@@ -8415,16 +8415,16 @@
         <v>567</v>
       </c>
       <c r="H201">
-        <v>328</v>
+        <v>567</v>
       </c>
       <c r="I201">
         <v>636</v>
       </c>
       <c r="J201">
-        <v>371</v>
+        <v>636</v>
       </c>
       <c r="K201">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="L201">
         <v>3393</v>
@@ -8438,34 +8438,34 @@
         <v>422</v>
       </c>
       <c r="C202">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D202">
-        <v>193</v>
+        <v>598</v>
       </c>
       <c r="E202">
         <v>187</v>
       </c>
       <c r="F202">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="G202">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H202">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="I202">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J202">
-        <v>376</v>
+        <v>637</v>
       </c>
       <c r="K202">
-        <v>1357</v>
+        <v>1365</v>
       </c>
       <c r="L202">
-        <v>3424</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -8476,28 +8476,31 @@
         <v>424</v>
       </c>
       <c r="C203">
-        <v>601</v>
+        <v>600</v>
+      </c>
+      <c r="D203">
+        <v>600</v>
       </c>
       <c r="E203">
         <v>189</v>
       </c>
       <c r="F203">
-        <v>3707</v>
+        <v>3711</v>
       </c>
       <c r="G203">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H203">
-        <v>329</v>
+        <v>574</v>
       </c>
       <c r="I203">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J203">
-        <v>377</v>
+        <v>637</v>
       </c>
       <c r="K203">
-        <v>1404</v>
+        <v>1411</v>
       </c>
       <c r="L203">
         <v>3460</v>
@@ -8508,130 +8511,417 @@
         <v>44084</v>
       </c>
       <c r="B204">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C204">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D204">
-        <v>194</v>
+        <v>603</v>
       </c>
       <c r="E204">
         <v>191</v>
       </c>
       <c r="F204">
-        <v>3747</v>
+        <v>3757</v>
       </c>
       <c r="G204">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H204">
-        <v>330</v>
+        <v>575</v>
       </c>
       <c r="I204">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J204">
-        <v>378</v>
+        <v>639</v>
       </c>
       <c r="K204">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="L204">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <v>44085</v>
       </c>
+      <c r="B205">
+        <v>426</v>
+      </c>
       <c r="C205">
-        <v>606</v>
+        <v>605</v>
+      </c>
+      <c r="D205">
+        <v>605</v>
       </c>
       <c r="E205">
         <v>196</v>
       </c>
       <c r="F205">
-        <v>3779</v>
+        <v>3786</v>
       </c>
       <c r="G205">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H205">
-        <v>331</v>
+        <v>577</v>
       </c>
       <c r="I205">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J205">
-        <v>382</v>
+        <v>641</v>
       </c>
       <c r="K205">
-        <v>1471</v>
+        <v>1499</v>
       </c>
       <c r="L205">
-        <v>3519</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="9">
         <v>44086</v>
       </c>
+      <c r="B206">
+        <v>426</v>
+      </c>
       <c r="C206">
-        <v>606</v>
+        <v>605</v>
+      </c>
+      <c r="D206">
+        <v>605</v>
       </c>
       <c r="E206">
         <v>197</v>
       </c>
       <c r="F206">
-        <v>3786</v>
+        <v>3811</v>
       </c>
       <c r="G206">
         <v>578</v>
       </c>
       <c r="H206">
-        <v>332</v>
+        <v>578</v>
       </c>
       <c r="I206">
         <v>643</v>
       </c>
       <c r="J206">
-        <v>382</v>
+        <v>643</v>
       </c>
       <c r="K206">
-        <v>1472</v>
+        <v>1520</v>
       </c>
       <c r="L206">
-        <v>3532</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
         <v>44087</v>
       </c>
+      <c r="B207">
+        <v>427</v>
+      </c>
       <c r="C207">
-        <v>606</v>
+        <v>605</v>
+      </c>
+      <c r="D207">
+        <v>605</v>
+      </c>
+      <c r="E207">
+        <v>197</v>
       </c>
       <c r="F207">
-        <v>3789</v>
+        <v>3835</v>
       </c>
       <c r="G207">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="H207">
-        <v>332</v>
+        <v>586</v>
       </c>
       <c r="I207">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="J207">
-        <v>383</v>
+        <v>646</v>
       </c>
       <c r="K207">
-        <v>1472</v>
+        <v>1545</v>
       </c>
       <c r="L207">
-        <v>3532</v>
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A208" s="9">
+        <v>44088</v>
+      </c>
+      <c r="B208">
+        <v>428</v>
+      </c>
+      <c r="C208">
+        <v>608</v>
+      </c>
+      <c r="D208">
+        <v>608</v>
+      </c>
+      <c r="E208">
+        <v>201</v>
+      </c>
+      <c r="F208">
+        <v>3871</v>
+      </c>
+      <c r="G208">
+        <v>592</v>
+      </c>
+      <c r="H208">
+        <v>592</v>
+      </c>
+      <c r="I208">
+        <v>648</v>
+      </c>
+      <c r="J208">
+        <v>648</v>
+      </c>
+      <c r="K208">
+        <v>1576</v>
+      </c>
+      <c r="L208">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209" s="9">
+        <v>44089</v>
+      </c>
+      <c r="B209">
+        <v>431</v>
+      </c>
+      <c r="C209">
+        <v>610</v>
+      </c>
+      <c r="D209">
+        <v>610</v>
+      </c>
+      <c r="E209">
+        <v>203</v>
+      </c>
+      <c r="F209">
+        <v>3930</v>
+      </c>
+      <c r="G209">
+        <v>597</v>
+      </c>
+      <c r="H209">
+        <v>597</v>
+      </c>
+      <c r="I209">
+        <v>652</v>
+      </c>
+      <c r="J209">
+        <v>652</v>
+      </c>
+      <c r="K209">
+        <v>1600</v>
+      </c>
+      <c r="L209">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A210" s="9">
+        <v>44090</v>
+      </c>
+      <c r="B210">
+        <v>433</v>
+      </c>
+      <c r="C210">
+        <v>615</v>
+      </c>
+      <c r="D210">
+        <v>615</v>
+      </c>
+      <c r="E210">
+        <v>203</v>
+      </c>
+      <c r="F210">
+        <v>3984</v>
+      </c>
+      <c r="G210">
+        <v>598</v>
+      </c>
+      <c r="H210">
+        <v>598</v>
+      </c>
+      <c r="I210">
+        <v>654</v>
+      </c>
+      <c r="J210">
+        <v>654</v>
+      </c>
+      <c r="K210">
+        <v>1624</v>
+      </c>
+      <c r="L210">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" s="9">
+        <v>44091</v>
+      </c>
+      <c r="B211">
+        <v>439</v>
+      </c>
+      <c r="C211">
+        <v>620</v>
+      </c>
+      <c r="D211">
+        <v>620</v>
+      </c>
+      <c r="E211">
+        <v>204</v>
+      </c>
+      <c r="F211">
+        <v>4038</v>
+      </c>
+      <c r="G211">
+        <v>601</v>
+      </c>
+      <c r="H211">
+        <v>601</v>
+      </c>
+      <c r="I211">
+        <v>654</v>
+      </c>
+      <c r="J211">
+        <v>654</v>
+      </c>
+      <c r="K211">
+        <v>1640</v>
+      </c>
+      <c r="L211">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212" s="9">
+        <v>44092</v>
+      </c>
+      <c r="B212">
+        <v>444</v>
+      </c>
+      <c r="C212">
+        <v>621</v>
+      </c>
+      <c r="D212">
+        <v>621</v>
+      </c>
+      <c r="E212">
+        <v>205</v>
+      </c>
+      <c r="F212">
+        <v>4072</v>
+      </c>
+      <c r="G212">
+        <v>604</v>
+      </c>
+      <c r="H212">
+        <v>604</v>
+      </c>
+      <c r="I212">
+        <v>655</v>
+      </c>
+      <c r="J212">
+        <v>655</v>
+      </c>
+      <c r="K212">
+        <v>1655</v>
+      </c>
+      <c r="L212">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A213" s="9">
+        <v>44093</v>
+      </c>
+      <c r="B213">
+        <v>445</v>
+      </c>
+      <c r="C213">
+        <v>623</v>
+      </c>
+      <c r="D213">
+        <v>623</v>
+      </c>
+      <c r="E213">
+        <v>206</v>
+      </c>
+      <c r="F213">
+        <v>4088</v>
+      </c>
+      <c r="G213">
+        <v>604</v>
+      </c>
+      <c r="H213">
+        <v>604</v>
+      </c>
+      <c r="I213">
+        <v>656</v>
+      </c>
+      <c r="J213">
+        <v>656</v>
+      </c>
+      <c r="K213">
+        <v>1655</v>
+      </c>
+      <c r="L213">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A214" s="9">
+        <v>44094</v>
+      </c>
+      <c r="B214">
+        <v>445</v>
+      </c>
+      <c r="C214">
+        <v>623</v>
+      </c>
+      <c r="D214">
+        <v>623</v>
+      </c>
+      <c r="E214">
+        <v>206</v>
+      </c>
+      <c r="F214">
+        <v>4091</v>
+      </c>
+      <c r="G214">
+        <v>604</v>
+      </c>
+      <c r="H214">
+        <v>604</v>
+      </c>
+      <c r="I214">
+        <v>656</v>
+      </c>
+      <c r="J214">
+        <v>656</v>
+      </c>
+      <c r="K214">
+        <v>1655</v>
+      </c>
+      <c r="L214">
+        <v>3684</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46004C74-2EDF-764B-8198-01B7AB12DF1A}">
-  <dimension ref="A1:FG207"/>
+  <dimension ref="A1:FG214"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I207"/>
+      <selection activeCell="I2" sqref="I2:I214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12013,10 +12303,10 @@
         <v>44077</v>
       </c>
       <c r="I197" s="3">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="J197" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="198" spans="8:10" x14ac:dyDescent="0.2">
@@ -12024,7 +12314,7 @@
         <v>44078</v>
       </c>
       <c r="I198" s="3">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="J198" s="3">
         <v>55</v>
@@ -12035,7 +12325,7 @@
         <v>44079</v>
       </c>
       <c r="I199" s="3">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="J199" s="3">
         <v>33</v>
@@ -12046,7 +12336,7 @@
         <v>44080</v>
       </c>
       <c r="I200" s="3">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="J200" s="3">
         <v>18</v>
@@ -12060,7 +12350,7 @@
         <v>3393</v>
       </c>
       <c r="J201" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202" spans="8:10" x14ac:dyDescent="0.2">
@@ -12068,10 +12358,10 @@
         <v>44082</v>
       </c>
       <c r="I202" s="3">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="J202" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203" spans="8:10" x14ac:dyDescent="0.2">
@@ -12082,7 +12372,7 @@
         <v>3460</v>
       </c>
       <c r="J203" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="8:10" x14ac:dyDescent="0.2">
@@ -12090,10 +12380,10 @@
         <v>44084</v>
       </c>
       <c r="I204" s="3">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="J204" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="205" spans="8:10" x14ac:dyDescent="0.2">
@@ -12101,10 +12391,10 @@
         <v>44085</v>
       </c>
       <c r="I205" s="3">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="J205" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206" spans="8:10" x14ac:dyDescent="0.2">
@@ -12112,10 +12402,10 @@
         <v>44086</v>
       </c>
       <c r="I206" s="3">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="J206" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="8:10" x14ac:dyDescent="0.2">
@@ -12123,7 +12413,87 @@
         <v>44087</v>
       </c>
       <c r="I207" s="3">
-        <v>3532</v>
+        <v>3547</v>
+      </c>
+      <c r="J207" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H208" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I208" s="3">
+        <v>3564</v>
+      </c>
+      <c r="J208" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H209" s="2">
+        <v>44089</v>
+      </c>
+      <c r="I209" s="3">
+        <v>3589</v>
+      </c>
+      <c r="J209" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H210" s="2">
+        <v>44090</v>
+      </c>
+      <c r="I210" s="3">
+        <v>3632</v>
+      </c>
+      <c r="J210" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H211" s="2">
+        <v>44091</v>
+      </c>
+      <c r="I211" s="3">
+        <v>3656</v>
+      </c>
+      <c r="J211" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H212" s="2">
+        <v>44092</v>
+      </c>
+      <c r="I212" s="3">
+        <v>3673</v>
+      </c>
+      <c r="J212" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H213" s="2">
+        <v>44093</v>
+      </c>
+      <c r="I213" s="3">
+        <v>3682</v>
+      </c>
+      <c r="J213" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H214" s="2">
+        <v>44094</v>
+      </c>
+      <c r="I214" s="3">
+        <v>3684</v>
+      </c>
+      <c r="J214" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D6F203-7B77-C848-8D4E-DA359E856EAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF718BEC-04F7-D94A-95B9-94821E003DB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21060" yWindow="600" windowWidth="19740" windowHeight="20660" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:X214"/>
+  <dimension ref="A1:X221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="H219" sqref="H219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,7 +500,7 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>0</v>
       </c>
       <c r="E2">
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -538,7 +538,7 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
       <c r="E3">
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -576,7 +576,7 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
       <c r="E4">
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -614,7 +614,7 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
       <c r="E5">
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -652,7 +652,7 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
       <c r="E6">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -690,7 +690,7 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
       <c r="E7">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -728,7 +728,7 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
       <c r="E8">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -766,7 +766,7 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
       <c r="E9">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -804,7 +804,7 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <v>0</v>
       </c>
       <c r="E10">
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -842,8 +842,8 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>3</v>
+      <c r="D11" s="10">
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,8 +880,8 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>3</v>
+      <c r="D12" s="10">
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,8 +918,8 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>4</v>
+      <c r="D13" s="10">
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -931,13 +931,13 @@
         <v>6</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>6</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>19</v>
@@ -956,8 +956,8 @@
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>7</v>
+      <c r="D14" s="10">
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>12</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <v>24</v>
@@ -994,8 +994,8 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>14</v>
+      <c r="D15" s="10">
+        <v>2</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1007,13 +1007,13 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>17</v>
       </c>
       <c r="J15">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>28</v>
@@ -1032,8 +1032,8 @@
       <c r="C16">
         <v>14</v>
       </c>
-      <c r="D16">
-        <v>14</v>
+      <c r="D16" s="10">
+        <v>2</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>16</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>17</v>
       </c>
       <c r="J16">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>30</v>
@@ -1070,8 +1070,8 @@
       <c r="C17">
         <v>18</v>
       </c>
-      <c r="D17">
-        <v>18</v>
+      <c r="D17" s="10">
+        <v>2</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1083,13 +1083,13 @@
         <v>20</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>18</v>
       </c>
       <c r="J17">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>30</v>
@@ -1108,8 +1108,8 @@
       <c r="C18">
         <v>19</v>
       </c>
-      <c r="D18">
-        <v>19</v>
+      <c r="D18" s="10">
+        <v>2</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1121,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>23</v>
       </c>
       <c r="J18">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K18">
         <v>31</v>
@@ -1146,8 +1146,8 @@
       <c r="C19">
         <v>31</v>
       </c>
-      <c r="D19">
-        <v>31</v>
+      <c r="D19" s="10">
+        <v>6</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1159,13 +1159,13 @@
         <v>71</v>
       </c>
       <c r="H19">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>38</v>
       </c>
       <c r="J19">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K19">
         <v>52</v>
@@ -1184,8 +1184,8 @@
       <c r="C20">
         <v>54</v>
       </c>
-      <c r="D20">
-        <v>54</v>
+      <c r="D20" s="10">
+        <v>7</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1197,13 +1197,13 @@
         <v>105</v>
       </c>
       <c r="H20">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="I20">
         <v>54</v>
       </c>
       <c r="J20">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K20">
         <v>70</v>
@@ -1222,8 +1222,8 @@
       <c r="C21">
         <v>62</v>
       </c>
-      <c r="D21">
-        <v>62</v>
+      <c r="D21" s="10">
+        <v>10</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -1235,13 +1235,13 @@
         <v>133</v>
       </c>
       <c r="H21">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="I21">
         <v>64</v>
       </c>
       <c r="J21">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>86</v>
@@ -1260,8 +1260,8 @@
       <c r="C22">
         <v>77</v>
       </c>
-      <c r="D22">
-        <v>77</v>
+      <c r="D22" s="10">
+        <v>18</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -1273,13 +1273,13 @@
         <v>152</v>
       </c>
       <c r="H22">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="I22">
         <v>67</v>
       </c>
       <c r="J22">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K22">
         <v>113</v>
@@ -1298,8 +1298,8 @@
       <c r="C23">
         <v>89</v>
       </c>
-      <c r="D23">
-        <v>89</v>
+      <c r="D23" s="10">
+        <v>21</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -1311,13 +1311,13 @@
         <v>163</v>
       </c>
       <c r="H23">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="I23">
         <v>70</v>
       </c>
       <c r="J23">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K23">
         <v>129</v>
@@ -1336,8 +1336,8 @@
       <c r="C24">
         <v>99</v>
       </c>
-      <c r="D24">
-        <v>99</v>
+      <c r="D24" s="10">
+        <v>22</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -1349,13 +1349,13 @@
         <v>165</v>
       </c>
       <c r="H24">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="I24">
         <v>79</v>
       </c>
       <c r="J24">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K24">
         <v>135</v>
@@ -1374,8 +1374,8 @@
       <c r="C25">
         <v>107</v>
       </c>
-      <c r="D25">
-        <v>107</v>
+      <c r="D25" s="10">
+        <v>23</v>
       </c>
       <c r="E25">
         <v>12</v>
@@ -1387,13 +1387,13 @@
         <v>171</v>
       </c>
       <c r="H25">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="I25">
         <v>87</v>
       </c>
       <c r="J25">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="K25">
         <v>151</v>
@@ -1412,8 +1412,8 @@
       <c r="C26">
         <v>121</v>
       </c>
-      <c r="D26">
-        <v>121</v>
+      <c r="D26" s="10">
+        <v>32</v>
       </c>
       <c r="E26">
         <v>14</v>
@@ -1425,13 +1425,13 @@
         <v>186</v>
       </c>
       <c r="H26">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="I26">
         <v>96</v>
       </c>
       <c r="J26">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K26">
         <v>176</v>
@@ -1450,8 +1450,8 @@
       <c r="C27">
         <v>129</v>
       </c>
-      <c r="D27">
-        <v>129</v>
+      <c r="D27" s="10">
+        <v>35</v>
       </c>
       <c r="E27">
         <v>18</v>
@@ -1463,13 +1463,13 @@
         <v>202</v>
       </c>
       <c r="H27">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K27">
         <v>195</v>
@@ -1488,8 +1488,8 @@
       <c r="C28">
         <v>142</v>
       </c>
-      <c r="D28">
-        <v>142</v>
+      <c r="D28" s="10">
+        <v>40</v>
       </c>
       <c r="E28">
         <v>18</v>
@@ -1501,13 +1501,13 @@
         <v>219</v>
       </c>
       <c r="H28">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="I28">
         <v>119</v>
       </c>
       <c r="J28">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="K28">
         <v>217</v>
@@ -1526,8 +1526,8 @@
       <c r="C29">
         <v>168</v>
       </c>
-      <c r="D29">
-        <v>168</v>
+      <c r="D29" s="10">
+        <v>50</v>
       </c>
       <c r="E29">
         <v>18</v>
@@ -1539,13 +1539,13 @@
         <v>242</v>
       </c>
       <c r="H29">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="I29">
         <v>140</v>
       </c>
       <c r="J29">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="K29">
         <v>253</v>
@@ -1564,8 +1564,8 @@
       <c r="C30">
         <v>185</v>
       </c>
-      <c r="D30">
-        <v>185</v>
+      <c r="D30" s="10">
+        <v>57</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -1577,13 +1577,13 @@
         <v>266</v>
       </c>
       <c r="H30">
-        <v>266</v>
+        <v>55</v>
       </c>
       <c r="I30">
         <v>169</v>
       </c>
       <c r="J30">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="K30">
         <v>289</v>
@@ -1602,8 +1602,8 @@
       <c r="C31">
         <v>194</v>
       </c>
-      <c r="D31">
-        <v>194</v>
+      <c r="D31" s="10">
+        <v>63</v>
       </c>
       <c r="E31">
         <v>22</v>
@@ -1615,13 +1615,13 @@
         <v>273</v>
       </c>
       <c r="H31">
-        <v>273</v>
+        <v>60</v>
       </c>
       <c r="I31">
         <v>189</v>
       </c>
       <c r="J31">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="K31">
         <v>305</v>
@@ -1640,8 +1640,8 @@
       <c r="C32">
         <v>197</v>
       </c>
-      <c r="D32">
-        <v>197</v>
+      <c r="D32" s="10">
+        <v>65</v>
       </c>
       <c r="E32">
         <v>23</v>
@@ -1653,13 +1653,13 @@
         <v>276</v>
       </c>
       <c r="H32">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="I32">
         <v>191</v>
       </c>
       <c r="J32">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="K32">
         <v>313</v>
@@ -1678,8 +1678,8 @@
       <c r="C33">
         <v>220</v>
       </c>
-      <c r="D33">
-        <v>220</v>
+      <c r="D33" s="10">
+        <v>72</v>
       </c>
       <c r="E33">
         <v>28</v>
@@ -1691,13 +1691,13 @@
         <v>294</v>
       </c>
       <c r="H33">
-        <v>294</v>
+        <v>93</v>
       </c>
       <c r="I33">
         <v>213</v>
       </c>
       <c r="J33">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="K33">
         <v>353</v>
@@ -1716,8 +1716,8 @@
       <c r="C34">
         <v>248</v>
       </c>
-      <c r="D34">
-        <v>248</v>
+      <c r="D34" s="10">
+        <v>78</v>
       </c>
       <c r="E34">
         <v>29</v>
@@ -1729,13 +1729,13 @@
         <v>308</v>
       </c>
       <c r="H34">
-        <v>308</v>
+        <v>103</v>
       </c>
       <c r="I34">
         <v>236</v>
       </c>
       <c r="J34">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="K34">
         <v>384</v>
@@ -1754,8 +1754,8 @@
       <c r="C35">
         <v>256</v>
       </c>
-      <c r="D35">
-        <v>256</v>
+      <c r="D35" s="10">
+        <v>85</v>
       </c>
       <c r="E35">
         <v>37</v>
@@ -1767,13 +1767,13 @@
         <v>315</v>
       </c>
       <c r="H35">
-        <v>315</v>
+        <v>124</v>
       </c>
       <c r="I35">
         <v>256</v>
       </c>
       <c r="J35">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="K35">
         <v>417</v>
@@ -1792,8 +1792,8 @@
       <c r="C36">
         <v>280</v>
       </c>
-      <c r="D36">
-        <v>280</v>
+      <c r="D36" s="10">
+        <v>95</v>
       </c>
       <c r="E36">
         <v>43</v>
@@ -1805,13 +1805,13 @@
         <v>325</v>
       </c>
       <c r="H36">
-        <v>325</v>
+        <v>134</v>
       </c>
       <c r="I36">
         <v>277</v>
       </c>
       <c r="J36">
-        <v>277</v>
+        <v>151</v>
       </c>
       <c r="K36">
         <v>444</v>
@@ -1830,8 +1830,8 @@
       <c r="C37">
         <v>293</v>
       </c>
-      <c r="D37">
-        <v>293</v>
+      <c r="D37" s="10">
+        <v>99</v>
       </c>
       <c r="E37">
         <v>46</v>
@@ -1843,13 +1843,13 @@
         <v>333</v>
       </c>
       <c r="H37">
-        <v>333</v>
+        <v>149</v>
       </c>
       <c r="I37">
         <v>295</v>
       </c>
       <c r="J37">
-        <v>295</v>
+        <v>162</v>
       </c>
       <c r="K37">
         <v>466</v>
@@ -1868,8 +1868,8 @@
       <c r="C38">
         <v>304</v>
       </c>
-      <c r="D38">
-        <v>304</v>
+      <c r="D38" s="10">
+        <v>101</v>
       </c>
       <c r="E38">
         <v>49</v>
@@ -1881,13 +1881,13 @@
         <v>344</v>
       </c>
       <c r="H38">
-        <v>344</v>
+        <v>154</v>
       </c>
       <c r="I38">
         <v>310</v>
       </c>
       <c r="J38">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="K38">
         <v>480</v>
@@ -1906,8 +1906,8 @@
       <c r="C39">
         <v>305</v>
       </c>
-      <c r="D39">
-        <v>305</v>
+      <c r="D39" s="10">
+        <v>106</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -1919,13 +1919,13 @@
         <v>348</v>
       </c>
       <c r="H39">
-        <v>348</v>
+        <v>157</v>
       </c>
       <c r="I39">
         <v>313</v>
       </c>
       <c r="J39">
-        <v>313</v>
+        <v>176</v>
       </c>
       <c r="K39">
         <v>482</v>
@@ -1944,8 +1944,8 @@
       <c r="C40">
         <v>316</v>
       </c>
-      <c r="D40">
-        <v>316</v>
+      <c r="D40" s="10">
+        <v>111</v>
       </c>
       <c r="E40">
         <v>61</v>
@@ -1957,13 +1957,13 @@
         <v>357</v>
       </c>
       <c r="H40">
-        <v>357</v>
+        <v>163</v>
       </c>
       <c r="I40">
         <v>323</v>
       </c>
       <c r="J40">
-        <v>323</v>
+        <v>185</v>
       </c>
       <c r="K40">
         <v>509</v>
@@ -1982,8 +1982,8 @@
       <c r="C41">
         <v>331</v>
       </c>
-      <c r="D41">
-        <v>331</v>
+      <c r="D41" s="10">
+        <v>113</v>
       </c>
       <c r="E41">
         <v>65</v>
@@ -1995,13 +1995,13 @@
         <v>360</v>
       </c>
       <c r="H41">
-        <v>360</v>
+        <v>168</v>
       </c>
       <c r="I41">
         <v>333</v>
       </c>
       <c r="J41">
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="K41">
         <v>525</v>
@@ -2020,8 +2020,8 @@
       <c r="C42">
         <v>342</v>
       </c>
-      <c r="D42">
-        <v>342</v>
+      <c r="D42" s="10">
+        <v>114</v>
       </c>
       <c r="E42">
         <v>71</v>
@@ -2033,13 +2033,13 @@
         <v>366</v>
       </c>
       <c r="H42">
-        <v>366</v>
+        <v>174</v>
       </c>
       <c r="I42">
         <v>345</v>
       </c>
       <c r="J42">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="K42">
         <v>538</v>
@@ -2058,8 +2058,8 @@
       <c r="C43">
         <v>347</v>
       </c>
-      <c r="D43">
-        <v>347</v>
+      <c r="D43" s="10">
+        <v>116</v>
       </c>
       <c r="E43">
         <v>73</v>
@@ -2071,13 +2071,13 @@
         <v>373</v>
       </c>
       <c r="H43">
-        <v>373</v>
+        <v>180</v>
       </c>
       <c r="I43">
         <v>354</v>
       </c>
       <c r="J43">
-        <v>354</v>
+        <v>208</v>
       </c>
       <c r="K43">
         <v>559</v>
@@ -2096,8 +2096,8 @@
       <c r="C44">
         <v>353</v>
       </c>
-      <c r="D44">
-        <v>353</v>
+      <c r="D44" s="10">
+        <v>119</v>
       </c>
       <c r="E44">
         <v>74</v>
@@ -2109,13 +2109,13 @@
         <v>375</v>
       </c>
       <c r="H44">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="I44">
         <v>362</v>
       </c>
       <c r="J44">
-        <v>362</v>
+        <v>218</v>
       </c>
       <c r="K44">
         <v>580</v>
@@ -2134,8 +2134,8 @@
       <c r="C45">
         <v>358</v>
       </c>
-      <c r="D45">
-        <v>358</v>
+      <c r="D45" s="10">
+        <v>119</v>
       </c>
       <c r="E45">
         <v>75</v>
@@ -2147,13 +2147,13 @@
         <v>377</v>
       </c>
       <c r="H45">
-        <v>377</v>
+        <v>185</v>
       </c>
       <c r="I45">
         <v>363</v>
       </c>
       <c r="J45">
-        <v>363</v>
+        <v>224</v>
       </c>
       <c r="K45">
         <v>585</v>
@@ -2172,8 +2172,8 @@
       <c r="C46">
         <v>360</v>
       </c>
-      <c r="D46">
-        <v>360</v>
+      <c r="D46" s="10">
+        <v>119</v>
       </c>
       <c r="E46">
         <v>76</v>
@@ -2185,13 +2185,13 @@
         <v>378</v>
       </c>
       <c r="H46">
-        <v>378</v>
+        <v>185</v>
       </c>
       <c r="I46">
         <v>367</v>
       </c>
       <c r="J46">
-        <v>367</v>
+        <v>229</v>
       </c>
       <c r="K46">
         <v>588</v>
@@ -2210,8 +2210,8 @@
       <c r="C47">
         <v>371</v>
       </c>
-      <c r="D47">
-        <v>371</v>
+      <c r="D47" s="10">
+        <v>120</v>
       </c>
       <c r="E47">
         <v>80</v>
@@ -2223,13 +2223,13 @@
         <v>380</v>
       </c>
       <c r="H47">
-        <v>380</v>
+        <v>188</v>
       </c>
       <c r="I47">
         <v>371</v>
       </c>
       <c r="J47">
-        <v>371</v>
+        <v>234</v>
       </c>
       <c r="K47">
         <v>620</v>
@@ -2248,8 +2248,8 @@
       <c r="C48">
         <v>376</v>
       </c>
-      <c r="D48">
-        <v>376</v>
+      <c r="D48" s="10">
+        <v>121</v>
       </c>
       <c r="E48">
         <v>87</v>
@@ -2261,13 +2261,13 @@
         <v>384</v>
       </c>
       <c r="H48">
-        <v>384</v>
+        <v>190</v>
       </c>
       <c r="I48">
         <v>382</v>
       </c>
       <c r="J48">
-        <v>382</v>
+        <v>236</v>
       </c>
       <c r="K48">
         <v>634</v>
@@ -2286,8 +2286,8 @@
       <c r="C49">
         <v>379</v>
       </c>
-      <c r="D49">
-        <v>379</v>
+      <c r="D49" s="10">
+        <v>121</v>
       </c>
       <c r="E49">
         <v>90</v>
@@ -2299,13 +2299,13 @@
         <v>385</v>
       </c>
       <c r="H49">
-        <v>385</v>
+        <v>191</v>
       </c>
       <c r="I49">
         <v>385</v>
       </c>
       <c r="J49">
-        <v>385</v>
+        <v>239</v>
       </c>
       <c r="K49">
         <v>650</v>
@@ -2324,8 +2324,8 @@
       <c r="C50">
         <v>380</v>
       </c>
-      <c r="D50">
-        <v>380</v>
+      <c r="D50" s="10">
+        <v>121</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2337,13 +2337,13 @@
         <v>385</v>
       </c>
       <c r="H50">
-        <v>385</v>
+        <v>192</v>
       </c>
       <c r="I50">
         <v>387</v>
       </c>
       <c r="J50">
-        <v>387</v>
+        <v>240</v>
       </c>
       <c r="K50">
         <v>670</v>
@@ -2362,8 +2362,8 @@
       <c r="C51">
         <v>381</v>
       </c>
-      <c r="D51">
-        <v>381</v>
+      <c r="D51" s="10">
+        <v>122</v>
       </c>
       <c r="E51">
         <v>93</v>
@@ -2375,13 +2375,13 @@
         <v>386</v>
       </c>
       <c r="H51">
-        <v>386</v>
+        <v>194</v>
       </c>
       <c r="I51">
         <v>394</v>
       </c>
       <c r="J51">
-        <v>394</v>
+        <v>241</v>
       </c>
       <c r="K51">
         <v>672</v>
@@ -2400,8 +2400,8 @@
       <c r="C52">
         <v>384</v>
       </c>
-      <c r="D52">
-        <v>384</v>
+      <c r="D52" s="10">
+        <v>123</v>
       </c>
       <c r="E52">
         <v>97</v>
@@ -2413,13 +2413,13 @@
         <v>386</v>
       </c>
       <c r="H52">
-        <v>386</v>
+        <v>198</v>
       </c>
       <c r="I52">
         <v>394</v>
       </c>
       <c r="J52">
-        <v>394</v>
+        <v>247</v>
       </c>
       <c r="K52">
         <v>706</v>
@@ -2438,8 +2438,8 @@
       <c r="C53">
         <v>385</v>
       </c>
-      <c r="D53">
-        <v>385</v>
+      <c r="D53" s="10">
+        <v>123</v>
       </c>
       <c r="E53">
         <v>97</v>
@@ -2451,13 +2451,13 @@
         <v>387</v>
       </c>
       <c r="H53">
-        <v>387</v>
+        <v>201</v>
       </c>
       <c r="I53">
         <v>397</v>
       </c>
       <c r="J53">
-        <v>397</v>
+        <v>248</v>
       </c>
       <c r="K53">
         <v>713</v>
@@ -2476,8 +2476,8 @@
       <c r="C54">
         <v>387</v>
       </c>
-      <c r="D54">
-        <v>387</v>
+      <c r="D54" s="10">
+        <v>123</v>
       </c>
       <c r="E54">
         <v>102</v>
@@ -2489,13 +2489,13 @@
         <v>388</v>
       </c>
       <c r="H54">
-        <v>388</v>
+        <v>205</v>
       </c>
       <c r="I54">
         <v>399</v>
       </c>
       <c r="J54">
-        <v>399</v>
+        <v>250</v>
       </c>
       <c r="K54">
         <v>721</v>
@@ -2514,8 +2514,8 @@
       <c r="C55">
         <v>391</v>
       </c>
-      <c r="D55">
-        <v>391</v>
+      <c r="D55" s="10">
+        <v>123</v>
       </c>
       <c r="E55">
         <v>106</v>
@@ -2527,13 +2527,13 @@
         <v>389</v>
       </c>
       <c r="H55">
-        <v>389</v>
+        <v>206</v>
       </c>
       <c r="I55">
         <v>400</v>
       </c>
       <c r="J55">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="K55">
         <v>756</v>
@@ -2552,8 +2552,8 @@
       <c r="C56">
         <v>394</v>
       </c>
-      <c r="D56">
-        <v>394</v>
+      <c r="D56" s="10">
+        <v>124</v>
       </c>
       <c r="E56">
         <v>109</v>
@@ -2565,13 +2565,13 @@
         <v>390</v>
       </c>
       <c r="H56">
-        <v>390</v>
+        <v>211</v>
       </c>
       <c r="I56">
         <v>404</v>
       </c>
       <c r="J56">
-        <v>404</v>
+        <v>252</v>
       </c>
       <c r="K56">
         <v>772</v>
@@ -2590,8 +2590,8 @@
       <c r="C57">
         <v>398</v>
       </c>
-      <c r="D57">
-        <v>398</v>
+      <c r="D57" s="10">
+        <v>124</v>
       </c>
       <c r="E57">
         <v>109</v>
@@ -2603,13 +2603,13 @@
         <v>392</v>
       </c>
       <c r="H57">
-        <v>392</v>
+        <v>214</v>
       </c>
       <c r="I57">
         <v>408</v>
       </c>
       <c r="J57">
-        <v>408</v>
+        <v>259</v>
       </c>
       <c r="K57">
         <v>787</v>
@@ -2628,8 +2628,8 @@
       <c r="C58">
         <v>401</v>
       </c>
-      <c r="D58">
-        <v>401</v>
+      <c r="D58" s="10">
+        <v>125</v>
       </c>
       <c r="E58">
         <v>109</v>
@@ -2641,13 +2641,13 @@
         <v>393</v>
       </c>
       <c r="H58">
-        <v>393</v>
+        <v>219</v>
       </c>
       <c r="I58">
         <v>412</v>
       </c>
       <c r="J58">
-        <v>412</v>
+        <v>260</v>
       </c>
       <c r="K58">
         <v>797</v>
@@ -2666,8 +2666,8 @@
       <c r="C59">
         <v>403</v>
       </c>
-      <c r="D59">
-        <v>403</v>
+      <c r="D59" s="10">
+        <v>125</v>
       </c>
       <c r="E59">
         <v>110</v>
@@ -2679,13 +2679,13 @@
         <v>393</v>
       </c>
       <c r="H59">
-        <v>393</v>
+        <v>224</v>
       </c>
       <c r="I59">
         <v>415</v>
       </c>
       <c r="J59">
-        <v>415</v>
+        <v>261</v>
       </c>
       <c r="K59">
         <v>804</v>
@@ -2704,8 +2704,8 @@
       <c r="C60">
         <v>404</v>
       </c>
-      <c r="D60">
-        <v>404</v>
+      <c r="D60" s="10">
+        <v>125</v>
       </c>
       <c r="E60">
         <v>110</v>
@@ -2717,13 +2717,13 @@
         <v>393</v>
       </c>
       <c r="H60">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="I60">
         <v>416</v>
       </c>
       <c r="J60">
-        <v>416</v>
+        <v>261</v>
       </c>
       <c r="K60">
         <v>805</v>
@@ -2742,8 +2742,8 @@
       <c r="C61">
         <v>407</v>
       </c>
-      <c r="D61">
-        <v>407</v>
+      <c r="D61" s="10">
+        <v>127</v>
       </c>
       <c r="E61">
         <v>110</v>
@@ -2755,13 +2755,13 @@
         <v>396</v>
       </c>
       <c r="H61">
-        <v>396</v>
+        <v>229</v>
       </c>
       <c r="I61">
         <v>417</v>
       </c>
       <c r="J61">
-        <v>417</v>
+        <v>261</v>
       </c>
       <c r="K61">
         <v>811</v>
@@ -2780,8 +2780,8 @@
       <c r="C62">
         <v>410</v>
       </c>
-      <c r="D62">
-        <v>410</v>
+      <c r="D62" s="10">
+        <v>127</v>
       </c>
       <c r="E62">
         <v>111</v>
@@ -2793,13 +2793,13 @@
         <v>398</v>
       </c>
       <c r="H62">
-        <v>398</v>
+        <v>230</v>
       </c>
       <c r="I62">
         <v>426</v>
       </c>
       <c r="J62">
-        <v>426</v>
+        <v>262</v>
       </c>
       <c r="K62">
         <v>822</v>
@@ -2818,8 +2818,8 @@
       <c r="C63">
         <v>413</v>
       </c>
-      <c r="D63">
-        <v>413</v>
+      <c r="D63" s="10">
+        <v>127</v>
       </c>
       <c r="E63">
         <v>112</v>
@@ -2831,13 +2831,13 @@
         <v>398</v>
       </c>
       <c r="H63">
-        <v>398</v>
+        <v>233</v>
       </c>
       <c r="I63">
         <v>428</v>
       </c>
       <c r="J63">
-        <v>428</v>
+        <v>265</v>
       </c>
       <c r="K63">
         <v>828</v>
@@ -2856,8 +2856,8 @@
       <c r="C64">
         <v>414</v>
       </c>
-      <c r="D64">
-        <v>414</v>
+      <c r="D64" s="10">
+        <v>127</v>
       </c>
       <c r="E64">
         <v>113</v>
@@ -2869,13 +2869,13 @@
         <v>420</v>
       </c>
       <c r="H64">
-        <v>420</v>
+        <v>233</v>
       </c>
       <c r="I64">
         <v>439</v>
       </c>
       <c r="J64">
-        <v>439</v>
+        <v>268</v>
       </c>
       <c r="K64">
         <v>831</v>
@@ -2894,8 +2894,8 @@
       <c r="C65">
         <v>419</v>
       </c>
-      <c r="D65">
-        <v>419</v>
+      <c r="D65" s="10">
+        <v>127</v>
       </c>
       <c r="E65">
         <v>114</v>
@@ -2907,13 +2907,13 @@
         <v>421</v>
       </c>
       <c r="H65">
-        <v>421</v>
+        <v>234</v>
       </c>
       <c r="I65">
         <v>448</v>
       </c>
       <c r="J65">
-        <v>448</v>
+        <v>268</v>
       </c>
       <c r="K65">
         <v>838</v>
@@ -2932,8 +2932,8 @@
       <c r="C66">
         <v>419</v>
       </c>
-      <c r="D66">
-        <v>419</v>
+      <c r="D66" s="10">
+        <v>128</v>
       </c>
       <c r="E66">
         <v>114</v>
@@ -2945,13 +2945,13 @@
         <v>421</v>
       </c>
       <c r="H66">
-        <v>421</v>
+        <v>234</v>
       </c>
       <c r="I66">
         <v>455</v>
       </c>
       <c r="J66">
-        <v>455</v>
+        <v>269</v>
       </c>
       <c r="K66">
         <v>841</v>
@@ -2970,8 +2970,8 @@
       <c r="C67">
         <v>420</v>
       </c>
-      <c r="D67">
-        <v>420</v>
+      <c r="D67" s="10">
+        <v>129</v>
       </c>
       <c r="E67">
         <v>114</v>
@@ -2983,13 +2983,13 @@
         <v>421</v>
       </c>
       <c r="H67">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="I67">
         <v>465</v>
       </c>
       <c r="J67">
-        <v>465</v>
+        <v>269</v>
       </c>
       <c r="K67">
         <v>842</v>
@@ -3008,8 +3008,8 @@
       <c r="C68">
         <v>424</v>
       </c>
-      <c r="D68">
-        <v>424</v>
+      <c r="D68" s="10">
+        <v>130</v>
       </c>
       <c r="E68">
         <v>114</v>
@@ -3021,13 +3021,13 @@
         <v>429</v>
       </c>
       <c r="H68">
-        <v>429</v>
+        <v>239</v>
       </c>
       <c r="I68">
         <v>468</v>
       </c>
       <c r="J68">
-        <v>468</v>
+        <v>269</v>
       </c>
       <c r="K68">
         <v>853</v>
@@ -3046,8 +3046,8 @@
       <c r="C69">
         <v>426</v>
       </c>
-      <c r="D69">
-        <v>426</v>
+      <c r="D69" s="10">
+        <v>130</v>
       </c>
       <c r="E69">
         <v>114</v>
@@ -3059,13 +3059,13 @@
         <v>429</v>
       </c>
       <c r="H69">
-        <v>429</v>
+        <v>242</v>
       </c>
       <c r="I69">
         <v>471</v>
       </c>
       <c r="J69">
-        <v>471</v>
+        <v>271</v>
       </c>
       <c r="K69">
         <v>857</v>
@@ -3084,8 +3084,8 @@
       <c r="C70">
         <v>432</v>
       </c>
-      <c r="D70">
-        <v>432</v>
+      <c r="D70" s="10">
+        <v>130</v>
       </c>
       <c r="E70">
         <v>115</v>
@@ -3097,13 +3097,13 @@
         <v>433</v>
       </c>
       <c r="H70">
-        <v>433</v>
+        <v>242</v>
       </c>
       <c r="I70">
         <v>475</v>
       </c>
       <c r="J70">
-        <v>475</v>
+        <v>272</v>
       </c>
       <c r="K70">
         <v>860</v>
@@ -3122,8 +3122,8 @@
       <c r="C71">
         <v>433</v>
       </c>
-      <c r="D71">
-        <v>433</v>
+      <c r="D71" s="10">
+        <v>131</v>
       </c>
       <c r="E71">
         <v>115</v>
@@ -3135,13 +3135,13 @@
         <v>433</v>
       </c>
       <c r="H71">
-        <v>433</v>
+        <v>244</v>
       </c>
       <c r="I71">
         <v>479</v>
       </c>
       <c r="J71">
-        <v>479</v>
+        <v>273</v>
       </c>
       <c r="K71">
         <v>864</v>
@@ -3160,8 +3160,8 @@
       <c r="C72">
         <v>434</v>
       </c>
-      <c r="D72">
-        <v>434</v>
+      <c r="D72" s="10">
+        <v>131</v>
       </c>
       <c r="E72">
         <v>116</v>
@@ -3173,13 +3173,13 @@
         <v>433</v>
       </c>
       <c r="H72">
-        <v>433</v>
+        <v>244</v>
       </c>
       <c r="I72">
         <v>493</v>
       </c>
       <c r="J72">
-        <v>493</v>
+        <v>273</v>
       </c>
       <c r="K72">
         <v>865</v>
@@ -3198,8 +3198,8 @@
       <c r="C73">
         <v>434</v>
       </c>
-      <c r="D73">
-        <v>434</v>
+      <c r="D73" s="10">
+        <v>131</v>
       </c>
       <c r="E73">
         <v>116</v>
@@ -3211,13 +3211,13 @@
         <v>433</v>
       </c>
       <c r="H73">
-        <v>433</v>
+        <v>247</v>
       </c>
       <c r="I73">
         <v>494</v>
       </c>
       <c r="J73">
-        <v>494</v>
+        <v>273</v>
       </c>
       <c r="K73">
         <v>868</v>
@@ -3236,8 +3236,8 @@
       <c r="C74">
         <v>438</v>
       </c>
-      <c r="D74">
-        <v>438</v>
+      <c r="D74" s="10">
+        <v>131</v>
       </c>
       <c r="E74">
         <v>116</v>
@@ -3249,13 +3249,13 @@
         <v>433</v>
       </c>
       <c r="H74">
-        <v>433</v>
+        <v>248</v>
       </c>
       <c r="I74">
         <v>498</v>
       </c>
       <c r="J74">
-        <v>498</v>
+        <v>273</v>
       </c>
       <c r="K74">
         <v>870</v>
@@ -3274,8 +3274,8 @@
       <c r="C75">
         <v>442</v>
       </c>
-      <c r="D75">
-        <v>442</v>
+      <c r="D75" s="10">
+        <v>131</v>
       </c>
       <c r="E75">
         <v>116</v>
@@ -3287,13 +3287,13 @@
         <v>434</v>
       </c>
       <c r="H75">
-        <v>434</v>
+        <v>248</v>
       </c>
       <c r="I75">
         <v>503</v>
       </c>
       <c r="J75">
-        <v>503</v>
+        <v>273</v>
       </c>
       <c r="K75">
         <v>870</v>
@@ -3312,8 +3312,8 @@
       <c r="C76">
         <v>445</v>
       </c>
-      <c r="D76">
-        <v>445</v>
+      <c r="D76" s="10">
+        <v>132</v>
       </c>
       <c r="E76">
         <v>116</v>
@@ -3325,13 +3325,13 @@
         <v>434</v>
       </c>
       <c r="H76">
-        <v>434</v>
+        <v>250</v>
       </c>
       <c r="I76">
         <v>505</v>
       </c>
       <c r="J76">
-        <v>505</v>
+        <v>274</v>
       </c>
       <c r="K76">
         <v>872</v>
@@ -3350,8 +3350,8 @@
       <c r="C77">
         <v>448</v>
       </c>
-      <c r="D77">
-        <v>448</v>
+      <c r="D77" s="10">
+        <v>132</v>
       </c>
       <c r="E77">
         <v>116</v>
@@ -3363,13 +3363,13 @@
         <v>435</v>
       </c>
       <c r="H77">
-        <v>435</v>
+        <v>251</v>
       </c>
       <c r="I77">
         <v>510</v>
       </c>
       <c r="J77">
-        <v>510</v>
+        <v>275</v>
       </c>
       <c r="K77">
         <v>873</v>
@@ -3388,8 +3388,8 @@
       <c r="C78">
         <v>449</v>
       </c>
-      <c r="D78">
-        <v>449</v>
+      <c r="D78" s="10">
+        <v>132</v>
       </c>
       <c r="E78">
         <v>116</v>
@@ -3401,13 +3401,13 @@
         <v>435</v>
       </c>
       <c r="H78">
-        <v>435</v>
+        <v>251</v>
       </c>
       <c r="I78">
         <v>513</v>
       </c>
       <c r="J78">
-        <v>513</v>
+        <v>276</v>
       </c>
       <c r="K78">
         <v>874</v>
@@ -3426,8 +3426,8 @@
       <c r="C79">
         <v>452</v>
       </c>
-      <c r="D79">
-        <v>452</v>
+      <c r="D79" s="10">
+        <v>132</v>
       </c>
       <c r="E79">
         <v>116</v>
@@ -3439,13 +3439,13 @@
         <v>435</v>
       </c>
       <c r="H79">
-        <v>435</v>
+        <v>251</v>
       </c>
       <c r="I79">
         <v>514</v>
       </c>
       <c r="J79">
-        <v>514</v>
+        <v>276</v>
       </c>
       <c r="K79">
         <v>875</v>
@@ -3464,8 +3464,8 @@
       <c r="C80">
         <v>452</v>
       </c>
-      <c r="D80">
-        <v>452</v>
+      <c r="D80" s="10">
+        <v>133</v>
       </c>
       <c r="E80">
         <v>116</v>
@@ -3477,13 +3477,13 @@
         <v>435</v>
       </c>
       <c r="H80">
-        <v>435</v>
+        <v>252</v>
       </c>
       <c r="I80">
         <v>515</v>
       </c>
       <c r="J80">
-        <v>515</v>
+        <v>276</v>
       </c>
       <c r="K80">
         <v>876</v>
@@ -3502,8 +3502,8 @@
       <c r="C81">
         <v>455</v>
       </c>
-      <c r="D81">
-        <v>455</v>
+      <c r="D81" s="10">
+        <v>136</v>
       </c>
       <c r="E81">
         <v>116</v>
@@ -3515,13 +3515,13 @@
         <v>435</v>
       </c>
       <c r="H81">
-        <v>435</v>
+        <v>252</v>
       </c>
       <c r="I81">
         <v>516</v>
       </c>
       <c r="J81">
-        <v>516</v>
+        <v>276</v>
       </c>
       <c r="K81">
         <v>876</v>
@@ -3540,8 +3540,8 @@
       <c r="C82">
         <v>459</v>
       </c>
-      <c r="D82">
-        <v>459</v>
+      <c r="D82" s="10">
+        <v>136</v>
       </c>
       <c r="E82">
         <v>116</v>
@@ -3553,13 +3553,13 @@
         <v>435</v>
       </c>
       <c r="H82">
-        <v>435</v>
+        <v>252</v>
       </c>
       <c r="I82">
         <v>518</v>
       </c>
       <c r="J82">
-        <v>518</v>
+        <v>276</v>
       </c>
       <c r="K82">
         <v>877</v>
@@ -3578,8 +3578,8 @@
       <c r="C83">
         <v>460</v>
       </c>
-      <c r="D83">
-        <v>460</v>
+      <c r="D83" s="10">
+        <v>137</v>
       </c>
       <c r="E83">
         <v>117</v>
@@ -3591,13 +3591,13 @@
         <v>436</v>
       </c>
       <c r="H83">
-        <v>436</v>
+        <v>252</v>
       </c>
       <c r="I83">
         <v>520</v>
       </c>
       <c r="J83">
-        <v>520</v>
+        <v>278</v>
       </c>
       <c r="K83">
         <v>877</v>
@@ -3616,8 +3616,8 @@
       <c r="C84">
         <v>463</v>
       </c>
-      <c r="D84">
-        <v>463</v>
+      <c r="D84" s="10">
+        <v>137</v>
       </c>
       <c r="E84">
         <v>117</v>
@@ -3629,13 +3629,13 @@
         <v>436</v>
       </c>
       <c r="H84">
-        <v>436</v>
+        <v>252</v>
       </c>
       <c r="I84">
         <v>520</v>
       </c>
       <c r="J84">
-        <v>520</v>
+        <v>279</v>
       </c>
       <c r="K84">
         <v>877</v>
@@ -3654,8 +3654,8 @@
       <c r="C85">
         <v>467</v>
       </c>
-      <c r="D85">
-        <v>467</v>
+      <c r="D85" s="10">
+        <v>137</v>
       </c>
       <c r="E85">
         <v>117</v>
@@ -3667,13 +3667,13 @@
         <v>436</v>
       </c>
       <c r="H85">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I85">
         <v>522</v>
       </c>
       <c r="J85">
-        <v>522</v>
+        <v>279</v>
       </c>
       <c r="K85">
         <v>877</v>
@@ -3692,8 +3692,8 @@
       <c r="C86">
         <v>469</v>
       </c>
-      <c r="D86">
-        <v>469</v>
+      <c r="D86" s="10">
+        <v>138</v>
       </c>
       <c r="E86">
         <v>117</v>
@@ -3705,13 +3705,13 @@
         <v>436</v>
       </c>
       <c r="H86">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I86">
         <v>523</v>
       </c>
       <c r="J86">
-        <v>523</v>
+        <v>280</v>
       </c>
       <c r="K86">
         <v>877</v>
@@ -3730,8 +3730,8 @@
       <c r="C87">
         <v>469</v>
       </c>
-      <c r="D87">
-        <v>469</v>
+      <c r="D87" s="10">
+        <v>138</v>
       </c>
       <c r="E87">
         <v>117</v>
@@ -3743,13 +3743,13 @@
         <v>436</v>
       </c>
       <c r="H87">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I87">
         <v>527</v>
       </c>
       <c r="J87">
-        <v>527</v>
+        <v>280</v>
       </c>
       <c r="K87">
         <v>877</v>
@@ -3768,8 +3768,8 @@
       <c r="C88">
         <v>469</v>
       </c>
-      <c r="D88">
-        <v>469</v>
+      <c r="D88" s="10">
+        <v>138</v>
       </c>
       <c r="E88">
         <v>117</v>
@@ -3781,13 +3781,13 @@
         <v>436</v>
       </c>
       <c r="H88">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I88">
         <v>528</v>
       </c>
       <c r="J88">
-        <v>528</v>
+        <v>280</v>
       </c>
       <c r="K88">
         <v>877</v>
@@ -3806,8 +3806,8 @@
       <c r="C89">
         <v>469</v>
       </c>
-      <c r="D89">
-        <v>469</v>
+      <c r="D89" s="10">
+        <v>138</v>
       </c>
       <c r="E89">
         <v>117</v>
@@ -3819,13 +3819,13 @@
         <v>436</v>
       </c>
       <c r="H89">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I89">
         <v>529</v>
       </c>
       <c r="J89">
-        <v>529</v>
+        <v>280</v>
       </c>
       <c r="K89">
         <v>878</v>
@@ -3844,8 +3844,8 @@
       <c r="C90">
         <v>472</v>
       </c>
-      <c r="D90">
-        <v>472</v>
+      <c r="D90" s="10">
+        <v>138</v>
       </c>
       <c r="E90">
         <v>119</v>
@@ -3857,13 +3857,13 @@
         <v>436</v>
       </c>
       <c r="H90">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I90">
         <v>529</v>
       </c>
       <c r="J90">
-        <v>529</v>
+        <v>282</v>
       </c>
       <c r="K90">
         <v>879</v>
@@ -3882,8 +3882,8 @@
       <c r="C91">
         <v>475</v>
       </c>
-      <c r="D91">
-        <v>475</v>
+      <c r="D91" s="10">
+        <v>138</v>
       </c>
       <c r="E91">
         <v>120</v>
@@ -3895,13 +3895,13 @@
         <v>436</v>
       </c>
       <c r="H91">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I91">
         <v>530</v>
       </c>
       <c r="J91">
-        <v>530</v>
+        <v>282</v>
       </c>
       <c r="K91">
         <v>879</v>
@@ -3920,8 +3920,8 @@
       <c r="C92">
         <v>476</v>
       </c>
-      <c r="D92">
-        <v>476</v>
+      <c r="D92" s="10">
+        <v>138</v>
       </c>
       <c r="E92">
         <v>120</v>
@@ -3933,13 +3933,13 @@
         <v>436</v>
       </c>
       <c r="H92">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I92">
         <v>530</v>
       </c>
       <c r="J92">
-        <v>530</v>
+        <v>283</v>
       </c>
       <c r="K92">
         <v>879</v>
@@ -3958,8 +3958,8 @@
       <c r="C93">
         <v>479</v>
       </c>
-      <c r="D93">
-        <v>479</v>
+      <c r="D93" s="10">
+        <v>138</v>
       </c>
       <c r="E93">
         <v>120</v>
@@ -3971,13 +3971,13 @@
         <v>436</v>
       </c>
       <c r="H93">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I93">
         <v>530</v>
       </c>
       <c r="J93">
-        <v>530</v>
+        <v>284</v>
       </c>
       <c r="K93">
         <v>880</v>
@@ -3996,8 +3996,8 @@
       <c r="C94">
         <v>479</v>
       </c>
-      <c r="D94">
-        <v>479</v>
+      <c r="D94" s="10">
+        <v>138</v>
       </c>
       <c r="E94">
         <v>120</v>
@@ -4009,13 +4009,13 @@
         <v>436</v>
       </c>
       <c r="H94">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I94">
         <v>530</v>
       </c>
       <c r="J94">
-        <v>530</v>
+        <v>284</v>
       </c>
       <c r="K94">
         <v>880</v>
@@ -4034,8 +4034,8 @@
       <c r="C95">
         <v>479</v>
       </c>
-      <c r="D95">
-        <v>479</v>
+      <c r="D95" s="10">
+        <v>138</v>
       </c>
       <c r="E95">
         <v>120</v>
@@ -4047,13 +4047,13 @@
         <v>436</v>
       </c>
       <c r="H95">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I95">
         <v>530</v>
       </c>
       <c r="J95">
-        <v>530</v>
+        <v>284</v>
       </c>
       <c r="K95">
         <v>880</v>
@@ -4072,8 +4072,8 @@
       <c r="C96">
         <v>484</v>
       </c>
-      <c r="D96">
-        <v>484</v>
+      <c r="D96" s="10">
+        <v>138</v>
       </c>
       <c r="E96">
         <v>120</v>
@@ -4085,13 +4085,13 @@
         <v>436</v>
       </c>
       <c r="H96">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I96">
         <v>530</v>
       </c>
       <c r="J96">
-        <v>530</v>
+        <v>284</v>
       </c>
       <c r="K96">
         <v>880</v>
@@ -4110,8 +4110,8 @@
       <c r="C97">
         <v>485</v>
       </c>
-      <c r="D97">
-        <v>485</v>
+      <c r="D97" s="10">
+        <v>140</v>
       </c>
       <c r="E97">
         <v>120</v>
@@ -4123,13 +4123,13 @@
         <v>436</v>
       </c>
       <c r="H97">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I97">
         <v>532</v>
       </c>
       <c r="J97">
-        <v>532</v>
+        <v>285</v>
       </c>
       <c r="K97">
         <v>880</v>
@@ -4148,8 +4148,8 @@
       <c r="C98">
         <v>489</v>
       </c>
-      <c r="D98">
-        <v>489</v>
+      <c r="D98" s="10">
+        <v>140</v>
       </c>
       <c r="E98">
         <v>120</v>
@@ -4161,13 +4161,13 @@
         <v>436</v>
       </c>
       <c r="H98">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="I98">
         <v>532</v>
       </c>
       <c r="J98">
-        <v>532</v>
+        <v>285</v>
       </c>
       <c r="K98">
         <v>880</v>
@@ -4186,8 +4186,8 @@
       <c r="C99">
         <v>490</v>
       </c>
-      <c r="D99">
-        <v>490</v>
+      <c r="D99" s="10">
+        <v>144</v>
       </c>
       <c r="E99">
         <v>120</v>
@@ -4199,13 +4199,13 @@
         <v>437</v>
       </c>
       <c r="H99">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I99">
         <v>533</v>
       </c>
       <c r="J99">
-        <v>533</v>
+        <v>285</v>
       </c>
       <c r="K99">
         <v>880</v>
@@ -4224,8 +4224,8 @@
       <c r="C100">
         <v>494</v>
       </c>
-      <c r="D100">
-        <v>494</v>
+      <c r="D100" s="10">
+        <v>150</v>
       </c>
       <c r="E100">
         <v>120</v>
@@ -4237,13 +4237,13 @@
         <v>437</v>
       </c>
       <c r="H100">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I100">
         <v>533</v>
       </c>
       <c r="J100">
-        <v>533</v>
+        <v>285</v>
       </c>
       <c r="K100">
         <v>880</v>
@@ -4262,8 +4262,8 @@
       <c r="C101">
         <v>494</v>
       </c>
-      <c r="D101">
-        <v>494</v>
+      <c r="D101" s="10">
+        <v>150</v>
       </c>
       <c r="E101">
         <v>120</v>
@@ -4275,13 +4275,13 @@
         <v>437</v>
       </c>
       <c r="H101">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I101">
         <v>533</v>
       </c>
       <c r="J101">
-        <v>533</v>
+        <v>285</v>
       </c>
       <c r="K101">
         <v>880</v>
@@ -4300,8 +4300,8 @@
       <c r="C102">
         <v>496</v>
       </c>
-      <c r="D102">
-        <v>496</v>
+      <c r="D102" s="10">
+        <v>150</v>
       </c>
       <c r="E102">
         <v>120</v>
@@ -4313,13 +4313,13 @@
         <v>437</v>
       </c>
       <c r="H102">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I102">
         <v>533</v>
       </c>
       <c r="J102">
-        <v>533</v>
+        <v>285</v>
       </c>
       <c r="K102">
         <v>880</v>
@@ -4338,8 +4338,8 @@
       <c r="C103">
         <v>497</v>
       </c>
-      <c r="D103">
-        <v>497</v>
+      <c r="D103" s="10">
+        <v>150</v>
       </c>
       <c r="E103">
         <v>120</v>
@@ -4351,13 +4351,13 @@
         <v>437</v>
       </c>
       <c r="H103">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I103">
         <v>533</v>
       </c>
       <c r="J103">
-        <v>533</v>
+        <v>285</v>
       </c>
       <c r="K103">
         <v>880</v>
@@ -4376,8 +4376,8 @@
       <c r="C104">
         <v>498</v>
       </c>
-      <c r="D104">
-        <v>498</v>
+      <c r="D104" s="10">
+        <v>150</v>
       </c>
       <c r="E104">
         <v>120</v>
@@ -4389,13 +4389,13 @@
         <v>438</v>
       </c>
       <c r="H104">
-        <v>438</v>
+        <v>253</v>
       </c>
       <c r="I104">
         <v>533</v>
       </c>
       <c r="J104">
-        <v>533</v>
+        <v>286</v>
       </c>
       <c r="K104">
         <v>881</v>
@@ -4414,8 +4414,8 @@
       <c r="C105">
         <v>498</v>
       </c>
-      <c r="D105">
-        <v>498</v>
+      <c r="D105" s="10">
+        <v>150</v>
       </c>
       <c r="E105">
         <v>120</v>
@@ -4427,13 +4427,13 @@
         <v>439</v>
       </c>
       <c r="H105">
-        <v>439</v>
+        <v>253</v>
       </c>
       <c r="I105">
         <v>533</v>
       </c>
       <c r="J105">
-        <v>533</v>
+        <v>286</v>
       </c>
       <c r="K105">
         <v>882</v>
@@ -4452,8 +4452,8 @@
       <c r="C106">
         <v>498</v>
       </c>
-      <c r="D106">
-        <v>498</v>
+      <c r="D106" s="10">
+        <v>150</v>
       </c>
       <c r="E106">
         <v>121</v>
@@ -4465,13 +4465,13 @@
         <v>439</v>
       </c>
       <c r="H106">
-        <v>439</v>
+        <v>253</v>
       </c>
       <c r="I106">
         <v>533</v>
       </c>
       <c r="J106">
-        <v>533</v>
+        <v>286</v>
       </c>
       <c r="K106">
         <v>882</v>
@@ -4490,8 +4490,8 @@
       <c r="C107">
         <v>498</v>
       </c>
-      <c r="D107">
-        <v>498</v>
+      <c r="D107" s="10">
+        <v>150</v>
       </c>
       <c r="E107">
         <v>121</v>
@@ -4503,13 +4503,13 @@
         <v>440</v>
       </c>
       <c r="H107">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="I107">
         <v>533</v>
       </c>
       <c r="J107">
-        <v>533</v>
+        <v>288</v>
       </c>
       <c r="K107">
         <v>883</v>
@@ -4528,8 +4528,8 @@
       <c r="C108">
         <v>498</v>
       </c>
-      <c r="D108">
-        <v>498</v>
+      <c r="D108" s="10">
+        <v>150</v>
       </c>
       <c r="E108">
         <v>121</v>
@@ -4541,13 +4541,13 @@
         <v>440</v>
       </c>
       <c r="H108">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="I108">
         <v>533</v>
       </c>
       <c r="J108">
-        <v>533</v>
+        <v>288</v>
       </c>
       <c r="K108">
         <v>883</v>
@@ -4566,8 +4566,8 @@
       <c r="C109">
         <v>499</v>
       </c>
-      <c r="D109">
-        <v>499</v>
+      <c r="D109" s="10">
+        <v>150</v>
       </c>
       <c r="E109">
         <v>121</v>
@@ -4579,13 +4579,13 @@
         <v>440</v>
       </c>
       <c r="H109">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="I109">
         <v>533</v>
       </c>
       <c r="J109">
-        <v>533</v>
+        <v>288</v>
       </c>
       <c r="K109">
         <v>883</v>
@@ -4604,8 +4604,8 @@
       <c r="C110">
         <v>499</v>
       </c>
-      <c r="D110">
-        <v>499</v>
+      <c r="D110" s="10">
+        <v>151</v>
       </c>
       <c r="E110">
         <v>121</v>
@@ -4617,13 +4617,13 @@
         <v>441</v>
       </c>
       <c r="H110">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="I110">
         <v>533</v>
       </c>
       <c r="J110">
-        <v>533</v>
+        <v>289</v>
       </c>
       <c r="K110">
         <v>885</v>
@@ -4642,8 +4642,8 @@
       <c r="C111">
         <v>499</v>
       </c>
-      <c r="D111">
-        <v>499</v>
+      <c r="D111" s="10">
+        <v>151</v>
       </c>
       <c r="E111">
         <v>121</v>
@@ -4655,13 +4655,13 @@
         <v>441</v>
       </c>
       <c r="H111">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="I111">
         <v>533</v>
       </c>
       <c r="J111">
-        <v>533</v>
+        <v>289</v>
       </c>
       <c r="K111">
         <v>885</v>
@@ -4680,8 +4680,8 @@
       <c r="C112">
         <v>499</v>
       </c>
-      <c r="D112">
-        <v>499</v>
+      <c r="D112" s="10">
+        <v>151</v>
       </c>
       <c r="E112">
         <v>121</v>
@@ -4693,13 +4693,13 @@
         <v>441</v>
       </c>
       <c r="H112">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="I112">
         <v>533</v>
       </c>
       <c r="J112">
-        <v>533</v>
+        <v>289</v>
       </c>
       <c r="K112">
         <v>885</v>
@@ -4718,8 +4718,8 @@
       <c r="C113">
         <v>500</v>
       </c>
-      <c r="D113">
-        <v>500</v>
+      <c r="D113" s="10">
+        <v>152</v>
       </c>
       <c r="E113">
         <v>121</v>
@@ -4731,13 +4731,13 @@
         <v>441</v>
       </c>
       <c r="H113">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="I113">
         <v>533</v>
       </c>
       <c r="J113">
-        <v>533</v>
+        <v>289</v>
       </c>
       <c r="K113">
         <v>885</v>
@@ -4756,8 +4756,8 @@
       <c r="C114">
         <v>501</v>
       </c>
-      <c r="D114">
-        <v>501</v>
+      <c r="D114" s="10">
+        <v>152</v>
       </c>
       <c r="E114">
         <v>121</v>
@@ -4769,13 +4769,13 @@
         <v>441</v>
       </c>
       <c r="H114">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="I114">
         <v>533</v>
       </c>
       <c r="J114">
-        <v>533</v>
+        <v>289</v>
       </c>
       <c r="K114">
         <v>885</v>
@@ -4794,8 +4794,8 @@
       <c r="C115">
         <v>501</v>
       </c>
-      <c r="D115">
-        <v>501</v>
+      <c r="D115" s="10">
+        <v>153</v>
       </c>
       <c r="E115">
         <v>121</v>
@@ -4807,13 +4807,13 @@
         <v>441</v>
       </c>
       <c r="H115">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="I115">
         <v>533</v>
       </c>
       <c r="J115">
-        <v>533</v>
+        <v>289</v>
       </c>
       <c r="K115">
         <v>885</v>
@@ -4832,8 +4832,8 @@
       <c r="C116">
         <v>501</v>
       </c>
-      <c r="D116">
-        <v>501</v>
+      <c r="D116" s="10">
+        <v>153</v>
       </c>
       <c r="E116">
         <v>121</v>
@@ -4845,13 +4845,13 @@
         <v>441</v>
       </c>
       <c r="H116">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="I116">
         <v>533</v>
       </c>
       <c r="J116">
-        <v>533</v>
+        <v>289</v>
       </c>
       <c r="K116">
         <v>885</v>
@@ -4870,8 +4870,8 @@
       <c r="C117">
         <v>501</v>
       </c>
-      <c r="D117">
-        <v>501</v>
+      <c r="D117" s="10">
+        <v>153</v>
       </c>
       <c r="E117">
         <v>121</v>
@@ -4883,13 +4883,13 @@
         <v>441</v>
       </c>
       <c r="H117">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="I117">
         <v>533</v>
       </c>
       <c r="J117">
-        <v>533</v>
+        <v>290</v>
       </c>
       <c r="K117">
         <v>885</v>
@@ -4908,8 +4908,8 @@
       <c r="C118">
         <v>501</v>
       </c>
-      <c r="D118">
-        <v>501</v>
+      <c r="D118" s="10">
+        <v>153</v>
       </c>
       <c r="E118">
         <v>122</v>
@@ -4921,13 +4921,13 @@
         <v>441</v>
       </c>
       <c r="H118">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="I118">
         <v>534</v>
       </c>
       <c r="J118">
-        <v>534</v>
+        <v>291</v>
       </c>
       <c r="K118">
         <v>885</v>
@@ -4946,8 +4946,8 @@
       <c r="C119">
         <v>501</v>
       </c>
-      <c r="D119">
-        <v>501</v>
+      <c r="D119" s="10">
+        <v>153</v>
       </c>
       <c r="E119">
         <v>122</v>
@@ -4959,13 +4959,13 @@
         <v>442</v>
       </c>
       <c r="H119">
-        <v>442</v>
+        <v>254</v>
       </c>
       <c r="I119">
         <v>534</v>
       </c>
       <c r="J119">
-        <v>534</v>
+        <v>291</v>
       </c>
       <c r="K119">
         <v>887</v>
@@ -4984,8 +4984,8 @@
       <c r="C120">
         <v>501</v>
       </c>
-      <c r="D120">
-        <v>501</v>
+      <c r="D120" s="10">
+        <v>153</v>
       </c>
       <c r="E120">
         <v>123</v>
@@ -4997,13 +4997,13 @@
         <v>442</v>
       </c>
       <c r="H120">
-        <v>442</v>
+        <v>254</v>
       </c>
       <c r="I120">
         <v>534</v>
       </c>
       <c r="J120">
-        <v>534</v>
+        <v>291</v>
       </c>
       <c r="K120">
         <v>887</v>
@@ -5022,8 +5022,8 @@
       <c r="C121">
         <v>502</v>
       </c>
-      <c r="D121">
-        <v>502</v>
+      <c r="D121" s="10">
+        <v>153</v>
       </c>
       <c r="E121">
         <v>124</v>
@@ -5035,13 +5035,13 @@
         <v>442</v>
       </c>
       <c r="H121">
-        <v>442</v>
+        <v>255</v>
       </c>
       <c r="I121">
         <v>535</v>
       </c>
       <c r="J121">
-        <v>535</v>
+        <v>294</v>
       </c>
       <c r="K121">
         <v>887</v>
@@ -5060,8 +5060,8 @@
       <c r="C122">
         <v>502</v>
       </c>
-      <c r="D122">
-        <v>502</v>
+      <c r="D122" s="10">
+        <v>153</v>
       </c>
       <c r="E122">
         <v>124</v>
@@ -5073,13 +5073,13 @@
         <v>442</v>
       </c>
       <c r="H122">
-        <v>442</v>
+        <v>255</v>
       </c>
       <c r="I122">
         <v>535</v>
       </c>
       <c r="J122">
-        <v>535</v>
+        <v>294</v>
       </c>
       <c r="K122">
         <v>887</v>
@@ -5098,8 +5098,8 @@
       <c r="C123">
         <v>502</v>
       </c>
-      <c r="D123">
-        <v>502</v>
+      <c r="D123" s="10">
+        <v>153</v>
       </c>
       <c r="E123">
         <v>124</v>
@@ -5111,13 +5111,13 @@
         <v>442</v>
       </c>
       <c r="H123">
-        <v>442</v>
+        <v>255</v>
       </c>
       <c r="I123">
         <v>535</v>
       </c>
       <c r="J123">
-        <v>535</v>
+        <v>294</v>
       </c>
       <c r="K123">
         <v>887</v>
@@ -5136,8 +5136,8 @@
       <c r="C124">
         <v>503</v>
       </c>
-      <c r="D124">
-        <v>503</v>
+      <c r="D124" s="10">
+        <v>153</v>
       </c>
       <c r="E124">
         <v>124</v>
@@ -5149,13 +5149,13 @@
         <v>442</v>
       </c>
       <c r="H124">
-        <v>442</v>
+        <v>255</v>
       </c>
       <c r="I124">
         <v>537</v>
       </c>
       <c r="J124">
-        <v>537</v>
+        <v>294</v>
       </c>
       <c r="K124">
         <v>890</v>
@@ -5174,8 +5174,8 @@
       <c r="C125">
         <v>503</v>
       </c>
-      <c r="D125">
-        <v>503</v>
+      <c r="D125" s="10">
+        <v>155</v>
       </c>
       <c r="E125">
         <v>124</v>
@@ -5187,13 +5187,13 @@
         <v>442</v>
       </c>
       <c r="H125">
-        <v>442</v>
+        <v>255</v>
       </c>
       <c r="I125">
         <v>537</v>
       </c>
       <c r="J125">
-        <v>537</v>
+        <v>294</v>
       </c>
       <c r="K125">
         <v>890</v>
@@ -5212,8 +5212,8 @@
       <c r="C126">
         <v>503</v>
       </c>
-      <c r="D126">
-        <v>503</v>
+      <c r="D126" s="10">
+        <v>155</v>
       </c>
       <c r="E126">
         <v>124</v>
@@ -5225,13 +5225,13 @@
         <v>442</v>
       </c>
       <c r="H126">
-        <v>442</v>
+        <v>255</v>
       </c>
       <c r="I126">
         <v>537</v>
       </c>
       <c r="J126">
-        <v>537</v>
+        <v>294</v>
       </c>
       <c r="K126">
         <v>890</v>
@@ -5250,8 +5250,8 @@
       <c r="C127">
         <v>503</v>
       </c>
-      <c r="D127">
-        <v>503</v>
+      <c r="D127" s="10">
+        <v>156</v>
       </c>
       <c r="E127">
         <v>125</v>
@@ -5263,13 +5263,13 @@
         <v>443</v>
       </c>
       <c r="H127">
-        <v>443</v>
+        <v>255</v>
       </c>
       <c r="I127">
         <v>537</v>
       </c>
       <c r="J127">
-        <v>537</v>
+        <v>294</v>
       </c>
       <c r="K127">
         <v>891</v>
@@ -5288,8 +5288,8 @@
       <c r="C128">
         <v>503</v>
       </c>
-      <c r="D128">
-        <v>503</v>
+      <c r="D128" s="10">
+        <v>159</v>
       </c>
       <c r="E128">
         <v>125</v>
@@ -5301,13 +5301,13 @@
         <v>443</v>
       </c>
       <c r="H128">
-        <v>443</v>
+        <v>255</v>
       </c>
       <c r="I128">
         <v>537</v>
       </c>
       <c r="J128">
-        <v>537</v>
+        <v>294</v>
       </c>
       <c r="K128">
         <v>891</v>
@@ -5326,8 +5326,8 @@
       <c r="C129">
         <v>503</v>
       </c>
-      <c r="D129">
-        <v>503</v>
+      <c r="D129" s="10">
+        <v>159</v>
       </c>
       <c r="E129">
         <v>125</v>
@@ -5339,13 +5339,13 @@
         <v>443</v>
       </c>
       <c r="H129">
-        <v>443</v>
+        <v>255</v>
       </c>
       <c r="I129">
         <v>537</v>
       </c>
       <c r="J129">
-        <v>537</v>
+        <v>294</v>
       </c>
       <c r="K129">
         <v>891</v>
@@ -5364,8 +5364,8 @@
       <c r="C130">
         <v>503</v>
       </c>
-      <c r="D130">
-        <v>503</v>
+      <c r="D130" s="10">
+        <v>159</v>
       </c>
       <c r="E130">
         <v>125</v>
@@ -5377,13 +5377,13 @@
         <v>443</v>
       </c>
       <c r="H130">
-        <v>443</v>
+        <v>255</v>
       </c>
       <c r="I130">
         <v>537</v>
       </c>
       <c r="J130">
-        <v>537</v>
+        <v>294</v>
       </c>
       <c r="K130">
         <v>891</v>
@@ -5402,8 +5402,8 @@
       <c r="C131">
         <v>503</v>
       </c>
-      <c r="D131">
-        <v>503</v>
+      <c r="D131" s="10">
+        <v>159</v>
       </c>
       <c r="E131">
         <v>126</v>
@@ -5415,13 +5415,13 @@
         <v>443</v>
       </c>
       <c r="H131">
-        <v>443</v>
+        <v>255</v>
       </c>
       <c r="I131">
         <v>537</v>
       </c>
       <c r="J131">
-        <v>537</v>
+        <v>294</v>
       </c>
       <c r="K131">
         <v>893</v>
@@ -5440,8 +5440,8 @@
       <c r="C132">
         <v>503</v>
       </c>
-      <c r="D132">
-        <v>503</v>
+      <c r="D132" s="10">
+        <v>159</v>
       </c>
       <c r="E132">
         <v>126</v>
@@ -5453,13 +5453,13 @@
         <v>444</v>
       </c>
       <c r="H132">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="I132">
         <v>537</v>
       </c>
       <c r="J132">
-        <v>537</v>
+        <v>294</v>
       </c>
       <c r="K132">
         <v>893</v>
@@ -5478,8 +5478,8 @@
       <c r="C133">
         <v>503</v>
       </c>
-      <c r="D133">
-        <v>503</v>
+      <c r="D133" s="10">
+        <v>159</v>
       </c>
       <c r="E133">
         <v>126</v>
@@ -5491,13 +5491,13 @@
         <v>444</v>
       </c>
       <c r="H133">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="I133">
         <v>537</v>
       </c>
       <c r="J133">
-        <v>537</v>
+        <v>295</v>
       </c>
       <c r="K133">
         <v>894</v>
@@ -5516,8 +5516,8 @@
       <c r="C134">
         <v>503</v>
       </c>
-      <c r="D134">
-        <v>503</v>
+      <c r="D134" s="10">
+        <v>159</v>
       </c>
       <c r="E134">
         <v>127</v>
@@ -5529,13 +5529,13 @@
         <v>444</v>
       </c>
       <c r="H134">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="I134">
         <v>538</v>
       </c>
       <c r="J134">
-        <v>538</v>
+        <v>296</v>
       </c>
       <c r="K134">
         <v>894</v>
@@ -5554,8 +5554,8 @@
       <c r="C135">
         <v>504</v>
       </c>
-      <c r="D135">
-        <v>504</v>
+      <c r="D135" s="10">
+        <v>159</v>
       </c>
       <c r="E135">
         <v>127</v>
@@ -5567,13 +5567,13 @@
         <v>444</v>
       </c>
       <c r="H135">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="I135">
         <v>538</v>
       </c>
       <c r="J135">
-        <v>538</v>
+        <v>296</v>
       </c>
       <c r="K135">
         <v>894</v>
@@ -5592,8 +5592,8 @@
       <c r="C136">
         <v>504</v>
       </c>
-      <c r="D136">
-        <v>504</v>
+      <c r="D136" s="10">
+        <v>159</v>
       </c>
       <c r="E136">
         <v>127</v>
@@ -5605,13 +5605,13 @@
         <v>444</v>
       </c>
       <c r="H136">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="I136">
         <v>538</v>
       </c>
       <c r="J136">
-        <v>538</v>
+        <v>296</v>
       </c>
       <c r="K136">
         <v>894</v>
@@ -5630,8 +5630,8 @@
       <c r="C137">
         <v>504</v>
       </c>
-      <c r="D137">
-        <v>504</v>
+      <c r="D137" s="10">
+        <v>160</v>
       </c>
       <c r="E137">
         <v>127</v>
@@ -5643,13 +5643,13 @@
         <v>444</v>
       </c>
       <c r="H137">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="I137">
         <v>538</v>
       </c>
       <c r="J137">
-        <v>538</v>
+        <v>296</v>
       </c>
       <c r="K137">
         <v>894</v>
@@ -5668,8 +5668,8 @@
       <c r="C138">
         <v>505</v>
       </c>
-      <c r="D138">
-        <v>505</v>
+      <c r="D138" s="10">
+        <v>160</v>
       </c>
       <c r="E138">
         <v>127</v>
@@ -5681,13 +5681,13 @@
         <v>444</v>
       </c>
       <c r="H138">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="I138">
         <v>538</v>
       </c>
       <c r="J138">
-        <v>538</v>
+        <v>297</v>
       </c>
       <c r="K138">
         <v>894</v>
@@ -5706,8 +5706,8 @@
       <c r="C139">
         <v>505</v>
       </c>
-      <c r="D139">
-        <v>505</v>
+      <c r="D139" s="10">
+        <v>160</v>
       </c>
       <c r="E139">
         <v>127</v>
@@ -5719,13 +5719,13 @@
         <v>444</v>
       </c>
       <c r="H139">
-        <v>444</v>
+        <v>256</v>
       </c>
       <c r="I139">
         <v>538</v>
       </c>
       <c r="J139">
-        <v>538</v>
+        <v>299</v>
       </c>
       <c r="K139">
         <v>894</v>
@@ -5744,8 +5744,8 @@
       <c r="C140">
         <v>505</v>
       </c>
-      <c r="D140">
-        <v>505</v>
+      <c r="D140" s="10">
+        <v>160</v>
       </c>
       <c r="E140">
         <v>128</v>
@@ -5757,13 +5757,13 @@
         <v>444</v>
       </c>
       <c r="H140">
-        <v>444</v>
+        <v>257</v>
       </c>
       <c r="I140">
         <v>539</v>
       </c>
       <c r="J140" s="5">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="K140">
         <v>894</v>
@@ -5782,8 +5782,8 @@
       <c r="C141">
         <v>505</v>
       </c>
-      <c r="D141">
-        <v>505</v>
+      <c r="D141" s="10">
+        <v>160</v>
       </c>
       <c r="E141">
         <v>128</v>
@@ -5795,13 +5795,13 @@
         <v>445</v>
       </c>
       <c r="H141">
-        <v>445</v>
+        <v>257</v>
       </c>
       <c r="I141">
         <v>539</v>
       </c>
       <c r="J141" s="5">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="K141">
         <v>896</v>
@@ -5820,8 +5820,8 @@
       <c r="C142">
         <v>508</v>
       </c>
-      <c r="D142">
-        <v>508</v>
+      <c r="D142" s="10">
+        <v>160</v>
       </c>
       <c r="E142">
         <v>129</v>
@@ -5833,13 +5833,13 @@
         <v>445</v>
       </c>
       <c r="H142">
-        <v>445</v>
+        <v>257</v>
       </c>
       <c r="I142">
         <v>539</v>
       </c>
       <c r="J142" s="5">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="K142">
         <v>896</v>
@@ -5858,8 +5858,8 @@
       <c r="C143">
         <v>508</v>
       </c>
-      <c r="D143">
-        <v>508</v>
+      <c r="D143" s="10">
+        <v>160</v>
       </c>
       <c r="E143">
         <v>129</v>
@@ -5871,13 +5871,13 @@
         <v>445</v>
       </c>
       <c r="H143">
-        <v>445</v>
+        <v>257</v>
       </c>
       <c r="I143">
         <v>539</v>
       </c>
       <c r="J143" s="5">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="K143">
         <v>896</v>
@@ -5896,8 +5896,8 @@
       <c r="C144">
         <v>508</v>
       </c>
-      <c r="D144">
-        <v>508</v>
+      <c r="D144" s="10">
+        <v>160</v>
       </c>
       <c r="E144">
         <v>129</v>
@@ -5909,13 +5909,13 @@
         <v>448</v>
       </c>
       <c r="H144">
-        <v>448</v>
+        <v>257</v>
       </c>
       <c r="I144">
         <v>539</v>
       </c>
       <c r="J144" s="5">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="K144">
         <v>896</v>
@@ -5934,8 +5934,8 @@
       <c r="C145">
         <v>509</v>
       </c>
-      <c r="D145">
-        <v>509</v>
+      <c r="D145" s="10">
+        <v>160</v>
       </c>
       <c r="E145">
         <v>129</v>
@@ -5947,13 +5947,13 @@
         <v>450</v>
       </c>
       <c r="H145">
-        <v>450</v>
+        <v>258</v>
       </c>
       <c r="I145">
         <v>539</v>
       </c>
       <c r="J145" s="5">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="K145">
         <v>896</v>
@@ -5983,8 +5983,8 @@
       <c r="C146">
         <v>509</v>
       </c>
-      <c r="D146">
-        <v>509</v>
+      <c r="D146" s="10">
+        <v>160</v>
       </c>
       <c r="E146">
         <v>129</v>
@@ -5996,13 +5996,13 @@
         <v>450</v>
       </c>
       <c r="H146">
-        <v>450</v>
+        <v>258</v>
       </c>
       <c r="I146">
         <v>540</v>
       </c>
       <c r="J146" s="5">
-        <v>540</v>
+        <v>299</v>
       </c>
       <c r="K146">
         <v>896</v>
@@ -6032,8 +6032,8 @@
       <c r="C147">
         <v>509</v>
       </c>
-      <c r="D147">
-        <v>509</v>
+      <c r="D147" s="10">
+        <v>160</v>
       </c>
       <c r="E147">
         <v>129</v>
@@ -6045,13 +6045,13 @@
         <v>450</v>
       </c>
       <c r="H147">
-        <v>450</v>
+        <v>258</v>
       </c>
       <c r="I147">
         <v>541</v>
       </c>
       <c r="J147" s="5">
-        <v>541</v>
+        <v>299</v>
       </c>
       <c r="K147">
         <v>896</v>
@@ -6081,8 +6081,8 @@
       <c r="C148">
         <v>509</v>
       </c>
-      <c r="D148">
-        <v>509</v>
+      <c r="D148" s="10">
+        <v>160</v>
       </c>
       <c r="E148">
         <v>129</v>
@@ -6094,13 +6094,13 @@
         <v>450</v>
       </c>
       <c r="H148">
-        <v>450</v>
+        <v>258</v>
       </c>
       <c r="I148">
         <v>543</v>
       </c>
       <c r="J148" s="5">
-        <v>543</v>
+        <v>299</v>
       </c>
       <c r="K148">
         <v>896</v>
@@ -6130,8 +6130,8 @@
       <c r="C149">
         <v>509</v>
       </c>
-      <c r="D149">
-        <v>509</v>
+      <c r="D149" s="10">
+        <v>160</v>
       </c>
       <c r="E149">
         <v>129</v>
@@ -6143,13 +6143,13 @@
         <v>451</v>
       </c>
       <c r="H149">
-        <v>451</v>
+        <v>258</v>
       </c>
       <c r="I149" s="5">
         <v>545</v>
       </c>
       <c r="J149" s="5">
-        <v>545</v>
+        <v>299</v>
       </c>
       <c r="K149">
         <v>899</v>
@@ -6179,8 +6179,8 @@
       <c r="C150">
         <v>509</v>
       </c>
-      <c r="D150">
-        <v>509</v>
+      <c r="D150" s="10">
+        <v>160</v>
       </c>
       <c r="E150">
         <v>129</v>
@@ -6192,13 +6192,13 @@
         <v>451</v>
       </c>
       <c r="H150">
-        <v>451</v>
+        <v>258</v>
       </c>
       <c r="I150" s="5">
         <v>545</v>
       </c>
       <c r="J150" s="5">
-        <v>545</v>
+        <v>299</v>
       </c>
       <c r="K150">
         <v>899</v>
@@ -6228,8 +6228,8 @@
       <c r="C151">
         <v>509</v>
       </c>
-      <c r="D151">
-        <v>509</v>
+      <c r="D151" s="10">
+        <v>160</v>
       </c>
       <c r="E151">
         <v>129</v>
@@ -6241,13 +6241,13 @@
         <v>451</v>
       </c>
       <c r="H151">
-        <v>451</v>
+        <v>258</v>
       </c>
       <c r="I151" s="5">
         <v>545</v>
       </c>
       <c r="J151" s="5">
-        <v>545</v>
+        <v>299</v>
       </c>
       <c r="K151">
         <v>899</v>
@@ -6277,8 +6277,8 @@
       <c r="C152">
         <v>513</v>
       </c>
-      <c r="D152" s="5">
-        <v>513</v>
+      <c r="D152" s="10">
+        <v>160</v>
       </c>
       <c r="E152" s="5">
         <v>129</v>
@@ -6290,13 +6290,13 @@
         <v>452</v>
       </c>
       <c r="H152" s="5">
-        <v>452</v>
+        <v>258</v>
       </c>
       <c r="I152">
         <v>545</v>
       </c>
       <c r="J152" s="5">
-        <v>545</v>
+        <v>299</v>
       </c>
       <c r="K152">
         <v>899</v>
@@ -6326,8 +6326,8 @@
       <c r="C153">
         <v>514</v>
       </c>
-      <c r="D153" s="5">
-        <v>514</v>
+      <c r="D153" s="10">
+        <v>160</v>
       </c>
       <c r="E153" s="5">
         <v>129</v>
@@ -6339,13 +6339,13 @@
         <v>453</v>
       </c>
       <c r="H153" s="5">
-        <v>453</v>
+        <v>258</v>
       </c>
       <c r="I153">
         <v>546</v>
       </c>
       <c r="J153" s="5">
-        <v>546</v>
+        <v>299</v>
       </c>
       <c r="K153">
         <v>900</v>
@@ -6375,8 +6375,8 @@
       <c r="C154">
         <v>515</v>
       </c>
-      <c r="D154" s="5">
-        <v>515</v>
+      <c r="D154" s="10">
+        <v>160</v>
       </c>
       <c r="E154" s="5">
         <v>129</v>
@@ -6388,13 +6388,13 @@
         <v>453</v>
       </c>
       <c r="H154" s="5">
-        <v>453</v>
+        <v>258</v>
       </c>
       <c r="I154">
         <v>549</v>
       </c>
       <c r="J154">
-        <v>549</v>
+        <v>300</v>
       </c>
       <c r="K154">
         <v>902</v>
@@ -6424,8 +6424,8 @@
       <c r="C155" s="5">
         <v>515</v>
       </c>
-      <c r="D155" s="5">
-        <v>515</v>
+      <c r="D155" s="10">
+        <v>160</v>
       </c>
       <c r="E155" s="5">
         <v>129</v>
@@ -6437,13 +6437,13 @@
         <v>454</v>
       </c>
       <c r="H155" s="5">
-        <v>454</v>
+        <v>258</v>
       </c>
       <c r="I155" s="5">
         <v>549</v>
       </c>
       <c r="J155">
-        <v>549</v>
+        <v>300</v>
       </c>
       <c r="K155">
         <v>902</v>
@@ -6473,8 +6473,8 @@
       <c r="C156" s="5">
         <v>515</v>
       </c>
-      <c r="D156" s="5">
-        <v>515</v>
+      <c r="D156" s="10">
+        <v>160</v>
       </c>
       <c r="E156" s="5">
         <v>129</v>
@@ -6486,13 +6486,13 @@
         <v>456</v>
       </c>
       <c r="H156" s="5">
-        <v>456</v>
+        <v>258</v>
       </c>
       <c r="I156">
         <v>550</v>
       </c>
       <c r="J156">
-        <v>550</v>
+        <v>301</v>
       </c>
       <c r="K156">
         <v>903</v>
@@ -6522,8 +6522,8 @@
       <c r="C157" s="5">
         <v>515</v>
       </c>
-      <c r="D157" s="5">
-        <v>515</v>
+      <c r="D157" s="10">
+        <v>160</v>
       </c>
       <c r="E157" s="5">
         <v>129</v>
@@ -6535,13 +6535,13 @@
         <v>457</v>
       </c>
       <c r="H157" s="5">
-        <v>457</v>
+        <v>258</v>
       </c>
       <c r="I157" s="5">
         <v>550</v>
       </c>
       <c r="J157">
-        <v>550</v>
+        <v>301</v>
       </c>
       <c r="K157" s="5">
         <v>903</v>
@@ -6571,8 +6571,8 @@
       <c r="C158" s="5">
         <v>515</v>
       </c>
-      <c r="D158" s="5">
-        <v>515</v>
+      <c r="D158" s="10">
+        <v>160</v>
       </c>
       <c r="E158" s="5">
         <v>129</v>
@@ -6584,13 +6584,13 @@
         <v>457</v>
       </c>
       <c r="H158" s="5">
-        <v>457</v>
+        <v>258</v>
       </c>
       <c r="I158" s="5">
         <v>551</v>
       </c>
       <c r="J158">
-        <v>551</v>
+        <v>303</v>
       </c>
       <c r="K158" s="5">
         <v>903</v>
@@ -6620,8 +6620,8 @@
       <c r="C159" s="6">
         <v>516</v>
       </c>
-      <c r="D159" s="6">
-        <v>516</v>
+      <c r="D159" s="10">
+        <v>160</v>
       </c>
       <c r="E159" s="6">
         <v>130</v>
@@ -6633,13 +6633,13 @@
         <v>460</v>
       </c>
       <c r="H159" s="6">
-        <v>460</v>
+        <v>258</v>
       </c>
       <c r="I159" s="6">
         <v>552</v>
       </c>
       <c r="J159" s="6">
-        <v>552</v>
+        <v>306</v>
       </c>
       <c r="K159" s="6">
         <v>904</v>
@@ -6669,8 +6669,8 @@
       <c r="C160" s="6">
         <v>516</v>
       </c>
-      <c r="D160" s="6">
-        <v>516</v>
+      <c r="D160" s="10">
+        <v>160</v>
       </c>
       <c r="E160" s="6">
         <v>130</v>
@@ -6682,13 +6682,13 @@
         <v>462</v>
       </c>
       <c r="H160" s="6">
-        <v>462</v>
+        <v>258</v>
       </c>
       <c r="I160" s="6">
         <v>554</v>
       </c>
       <c r="J160" s="6">
-        <v>554</v>
+        <v>306</v>
       </c>
       <c r="K160" s="6">
         <v>906</v>
@@ -6718,8 +6718,8 @@
       <c r="C161" s="6">
         <v>518</v>
       </c>
-      <c r="D161" s="6">
-        <v>518</v>
+      <c r="D161" s="10">
+        <v>160</v>
       </c>
       <c r="E161" s="6">
         <v>130</v>
@@ -6731,13 +6731,13 @@
         <v>465</v>
       </c>
       <c r="H161" s="6">
-        <v>465</v>
+        <v>258</v>
       </c>
       <c r="I161" s="6">
         <v>554</v>
       </c>
       <c r="J161" s="6">
-        <v>554</v>
+        <v>310</v>
       </c>
       <c r="K161" s="6">
         <v>918</v>
@@ -6767,8 +6767,8 @@
       <c r="C162" s="6">
         <v>519</v>
       </c>
-      <c r="D162" s="7">
-        <v>519</v>
+      <c r="D162" s="10">
+        <v>160</v>
       </c>
       <c r="E162" s="6">
         <v>130</v>
@@ -6780,13 +6780,13 @@
         <v>466</v>
       </c>
       <c r="H162" s="6">
-        <v>466</v>
+        <v>258</v>
       </c>
       <c r="I162" s="6">
         <v>556</v>
       </c>
       <c r="J162" s="6">
-        <v>556</v>
+        <v>310</v>
       </c>
       <c r="K162" s="6">
         <v>923</v>
@@ -6816,8 +6816,8 @@
       <c r="C163" s="6">
         <v>521</v>
       </c>
-      <c r="D163" s="7">
-        <v>521</v>
+      <c r="D163" s="10">
+        <v>160</v>
       </c>
       <c r="E163" s="6">
         <v>131</v>
@@ -6829,13 +6829,13 @@
         <v>471</v>
       </c>
       <c r="H163" s="6">
-        <v>471</v>
+        <v>289</v>
       </c>
       <c r="I163" s="6">
         <v>556</v>
       </c>
       <c r="J163" s="6">
-        <v>556</v>
+        <v>312</v>
       </c>
       <c r="K163" s="6">
         <v>929</v>
@@ -6865,8 +6865,8 @@
       <c r="C164" s="7">
         <v>521</v>
       </c>
-      <c r="D164" s="6">
-        <v>521</v>
+      <c r="D164" s="10">
+        <v>161</v>
       </c>
       <c r="E164" s="6">
         <v>131</v>
@@ -6878,13 +6878,13 @@
         <v>472</v>
       </c>
       <c r="H164" s="6">
-        <v>472</v>
+        <v>290</v>
       </c>
       <c r="I164" s="6">
         <v>556</v>
       </c>
       <c r="J164" s="6">
-        <v>556</v>
+        <v>312</v>
       </c>
       <c r="K164" s="6">
         <v>930</v>
@@ -6914,8 +6914,8 @@
       <c r="C165" s="7">
         <v>521</v>
       </c>
-      <c r="D165" s="7">
-        <v>521</v>
+      <c r="D165" s="10">
+        <v>161</v>
       </c>
       <c r="E165">
         <v>131</v>
@@ -6927,13 +6927,13 @@
         <v>472</v>
       </c>
       <c r="H165">
-        <v>472</v>
+        <v>291</v>
       </c>
       <c r="I165">
         <v>557</v>
       </c>
       <c r="J165">
-        <v>557</v>
+        <v>312</v>
       </c>
       <c r="K165">
         <v>931</v>
@@ -6964,7 +6964,7 @@
         <v>522</v>
       </c>
       <c r="D166" s="10">
-        <v>522</v>
+        <v>161</v>
       </c>
       <c r="E166" s="10">
         <v>133</v>
@@ -6976,13 +6976,13 @@
         <v>476</v>
       </c>
       <c r="H166" s="10">
-        <v>476</v>
+        <v>294</v>
       </c>
       <c r="I166" s="10">
         <v>560</v>
       </c>
       <c r="J166" s="10">
-        <v>560</v>
+        <v>314</v>
       </c>
       <c r="K166" s="10">
         <v>933</v>
@@ -7013,7 +7013,7 @@
         <v>523</v>
       </c>
       <c r="D167" s="10">
-        <v>523</v>
+        <v>161</v>
       </c>
       <c r="E167" s="10">
         <v>136</v>
@@ -7025,13 +7025,13 @@
         <v>476</v>
       </c>
       <c r="H167" s="10">
-        <v>476</v>
+        <v>294</v>
       </c>
       <c r="I167" s="10">
         <v>564</v>
       </c>
       <c r="J167" s="10">
-        <v>564</v>
+        <v>314</v>
       </c>
       <c r="K167" s="10">
         <v>933</v>
@@ -7062,7 +7062,7 @@
         <v>525</v>
       </c>
       <c r="D168" s="10">
-        <v>525</v>
+        <v>163</v>
       </c>
       <c r="E168" s="10">
         <v>138</v>
@@ -7074,13 +7074,13 @@
         <v>479</v>
       </c>
       <c r="H168" s="10">
-        <v>479</v>
+        <v>296</v>
       </c>
       <c r="I168" s="10">
         <v>567</v>
       </c>
       <c r="J168" s="10">
-        <v>567</v>
+        <v>317</v>
       </c>
       <c r="K168" s="10">
         <v>937</v>
@@ -7111,7 +7111,7 @@
         <v>527</v>
       </c>
       <c r="D169" s="10">
-        <v>527</v>
+        <v>165</v>
       </c>
       <c r="E169" s="10">
         <v>138</v>
@@ -7123,13 +7123,13 @@
         <v>485</v>
       </c>
       <c r="H169" s="10">
-        <v>485</v>
+        <v>300</v>
       </c>
       <c r="I169" s="10">
         <v>571</v>
       </c>
       <c r="J169" s="10">
-        <v>571</v>
+        <v>319</v>
       </c>
       <c r="K169" s="10">
         <v>943</v>
@@ -7159,8 +7159,8 @@
       <c r="C170" s="8">
         <v>527</v>
       </c>
-      <c r="D170" s="8">
-        <v>527</v>
+      <c r="D170" s="10">
+        <v>166</v>
       </c>
       <c r="E170" s="10">
         <v>138</v>
@@ -7172,13 +7172,13 @@
         <v>486</v>
       </c>
       <c r="H170" s="10">
-        <v>486</v>
+        <v>300</v>
       </c>
       <c r="I170" s="10">
         <v>574</v>
       </c>
       <c r="J170" s="10">
-        <v>574</v>
+        <v>324</v>
       </c>
       <c r="K170" s="10">
         <v>944</v>
@@ -7208,8 +7208,8 @@
       <c r="C171" s="8">
         <v>527</v>
       </c>
-      <c r="D171" s="8">
-        <v>527</v>
+      <c r="D171" s="10">
+        <v>166</v>
       </c>
       <c r="E171" s="10">
         <v>138</v>
@@ -7221,13 +7221,13 @@
         <v>487</v>
       </c>
       <c r="H171" s="10">
-        <v>487</v>
+        <v>300</v>
       </c>
       <c r="I171" s="10">
         <v>579</v>
       </c>
       <c r="J171" s="10">
-        <v>579</v>
+        <v>326</v>
       </c>
       <c r="K171" s="10">
         <v>944</v>
@@ -7258,7 +7258,7 @@
         <v>527</v>
       </c>
       <c r="D172" s="10">
-        <v>527</v>
+        <v>166</v>
       </c>
       <c r="E172" s="10">
         <v>138</v>
@@ -7270,13 +7270,13 @@
         <v>489</v>
       </c>
       <c r="H172" s="10">
-        <v>489</v>
+        <v>300</v>
       </c>
       <c r="I172" s="10">
         <v>581</v>
       </c>
       <c r="J172" s="10">
-        <v>581</v>
+        <v>327</v>
       </c>
       <c r="K172">
         <v>945</v>
@@ -7307,7 +7307,7 @@
         <v>528</v>
       </c>
       <c r="D173" s="10">
-        <v>528</v>
+        <v>168</v>
       </c>
       <c r="E173" s="10">
         <v>140</v>
@@ -7319,13 +7319,13 @@
         <v>494</v>
       </c>
       <c r="H173" s="10">
-        <v>494</v>
+        <v>301</v>
       </c>
       <c r="I173" s="10">
         <v>586</v>
       </c>
       <c r="J173" s="10">
-        <v>586</v>
+        <v>331</v>
       </c>
       <c r="K173">
         <v>948</v>
@@ -7356,7 +7356,7 @@
         <v>530</v>
       </c>
       <c r="D174" s="10">
-        <v>530</v>
+        <v>169</v>
       </c>
       <c r="E174" s="10">
         <v>140</v>
@@ -7368,13 +7368,13 @@
         <v>498</v>
       </c>
       <c r="H174" s="10">
-        <v>498</v>
+        <v>302</v>
       </c>
       <c r="I174" s="10">
         <v>587</v>
       </c>
       <c r="J174" s="10">
-        <v>587</v>
+        <v>332</v>
       </c>
       <c r="K174" s="8">
         <v>951</v>
@@ -7405,7 +7405,7 @@
         <v>534</v>
       </c>
       <c r="D175" s="10">
-        <v>534</v>
+        <v>170</v>
       </c>
       <c r="E175" s="10">
         <v>143</v>
@@ -7417,13 +7417,13 @@
         <v>503</v>
       </c>
       <c r="H175" s="10">
-        <v>503</v>
+        <v>308</v>
       </c>
       <c r="I175" s="10">
         <v>587</v>
       </c>
       <c r="J175" s="10">
-        <v>587</v>
+        <v>333</v>
       </c>
       <c r="K175">
         <v>955</v>
@@ -7453,7 +7453,7 @@
         <v>537</v>
       </c>
       <c r="D176" s="10">
-        <v>537</v>
+        <v>172</v>
       </c>
       <c r="E176" s="10">
         <v>143</v>
@@ -7465,13 +7465,13 @@
         <v>503</v>
       </c>
       <c r="H176" s="10">
-        <v>503</v>
+        <v>310</v>
       </c>
       <c r="I176" s="10">
         <v>590</v>
       </c>
       <c r="J176" s="10">
-        <v>590</v>
+        <v>337</v>
       </c>
       <c r="K176">
         <v>959</v>
@@ -7491,7 +7491,7 @@
         <v>546</v>
       </c>
       <c r="D177" s="10">
-        <v>546</v>
+        <v>172</v>
       </c>
       <c r="E177" s="10">
         <v>145</v>
@@ -7503,13 +7503,13 @@
         <v>505</v>
       </c>
       <c r="H177" s="10">
-        <v>505</v>
+        <v>312</v>
       </c>
       <c r="I177" s="10">
         <v>594</v>
       </c>
       <c r="J177" s="10">
-        <v>594</v>
+        <v>340</v>
       </c>
       <c r="K177">
         <v>966</v>
@@ -7528,8 +7528,8 @@
       <c r="C178">
         <v>547</v>
       </c>
-      <c r="D178">
-        <v>547</v>
+      <c r="D178" s="10">
+        <v>172</v>
       </c>
       <c r="E178">
         <v>145</v>
@@ -7541,13 +7541,13 @@
         <v>506</v>
       </c>
       <c r="H178">
-        <v>506</v>
+        <v>314</v>
       </c>
       <c r="I178">
         <v>598</v>
       </c>
       <c r="J178">
-        <v>598</v>
+        <v>342</v>
       </c>
       <c r="K178">
         <v>967</v>
@@ -7566,8 +7566,8 @@
       <c r="C179">
         <v>549</v>
       </c>
-      <c r="D179">
-        <v>549</v>
+      <c r="D179" s="10">
+        <v>172</v>
       </c>
       <c r="E179">
         <v>145</v>
@@ -7579,13 +7579,13 @@
         <v>508</v>
       </c>
       <c r="H179">
-        <v>508</v>
+        <v>317</v>
       </c>
       <c r="I179">
         <v>601</v>
       </c>
       <c r="J179">
-        <v>601</v>
+        <v>343</v>
       </c>
       <c r="K179">
         <v>968</v>
@@ -7604,8 +7604,8 @@
       <c r="C180">
         <v>550</v>
       </c>
-      <c r="D180">
-        <v>550</v>
+      <c r="D180" s="10">
+        <v>173</v>
       </c>
       <c r="E180">
         <v>150</v>
@@ -7617,13 +7617,13 @@
         <v>511</v>
       </c>
       <c r="H180">
-        <v>511</v>
+        <v>317</v>
       </c>
       <c r="I180">
         <v>609</v>
       </c>
       <c r="J180">
-        <v>609</v>
+        <v>346</v>
       </c>
       <c r="K180">
         <v>970</v>
@@ -7642,8 +7642,8 @@
       <c r="C181">
         <v>552</v>
       </c>
-      <c r="D181">
-        <v>552</v>
+      <c r="D181" s="10">
+        <v>174</v>
       </c>
       <c r="E181" s="11">
         <v>155</v>
@@ -7655,13 +7655,13 @@
         <v>513</v>
       </c>
       <c r="H181" s="11">
-        <v>513</v>
+        <v>318</v>
       </c>
       <c r="I181">
         <v>615</v>
       </c>
       <c r="J181">
-        <v>615</v>
+        <v>348</v>
       </c>
       <c r="K181">
         <v>975</v>
@@ -7680,8 +7680,8 @@
       <c r="C182">
         <v>554</v>
       </c>
-      <c r="D182">
-        <v>554</v>
+      <c r="D182" s="10">
+        <v>174</v>
       </c>
       <c r="E182" s="11">
         <v>164</v>
@@ -7693,13 +7693,13 @@
         <v>513</v>
       </c>
       <c r="H182" s="11">
-        <v>513</v>
+        <v>320</v>
       </c>
       <c r="I182">
         <v>615</v>
       </c>
       <c r="J182">
-        <v>615</v>
+        <v>348</v>
       </c>
       <c r="K182">
         <v>992</v>
@@ -7718,8 +7718,8 @@
       <c r="C183">
         <v>554</v>
       </c>
-      <c r="D183">
-        <v>554</v>
+      <c r="D183" s="10">
+        <v>175</v>
       </c>
       <c r="E183" s="11">
         <v>166</v>
@@ -7731,13 +7731,13 @@
         <v>515</v>
       </c>
       <c r="H183" s="11">
-        <v>515</v>
+        <v>320</v>
       </c>
       <c r="I183">
         <v>619</v>
       </c>
       <c r="J183">
-        <v>619</v>
+        <v>349</v>
       </c>
       <c r="K183">
         <v>1004</v>
@@ -7756,8 +7756,8 @@
       <c r="C184">
         <v>554</v>
       </c>
-      <c r="D184">
-        <v>554</v>
+      <c r="D184" s="10">
+        <v>176</v>
       </c>
       <c r="E184" s="11">
         <v>172</v>
@@ -7769,13 +7769,13 @@
         <v>518</v>
       </c>
       <c r="H184" s="11">
-        <v>518</v>
+        <v>320</v>
       </c>
       <c r="I184">
         <v>621</v>
       </c>
       <c r="J184">
-        <v>621</v>
+        <v>350</v>
       </c>
       <c r="K184">
         <v>1020</v>
@@ -7794,8 +7794,8 @@
       <c r="C185">
         <v>555</v>
       </c>
-      <c r="D185">
-        <v>555</v>
+      <c r="D185" s="10">
+        <v>177</v>
       </c>
       <c r="E185" s="11">
         <v>173</v>
@@ -7807,13 +7807,13 @@
         <v>521</v>
       </c>
       <c r="H185" s="11">
-        <v>521</v>
+        <v>320</v>
       </c>
       <c r="I185">
         <v>621</v>
       </c>
       <c r="J185">
-        <v>621</v>
+        <v>351</v>
       </c>
       <c r="K185">
         <v>1033</v>
@@ -7832,8 +7832,8 @@
       <c r="C186">
         <v>555</v>
       </c>
-      <c r="D186">
-        <v>555</v>
+      <c r="D186" s="10">
+        <v>177</v>
       </c>
       <c r="E186" s="11">
         <v>176</v>
@@ -7845,13 +7845,13 @@
         <v>522</v>
       </c>
       <c r="H186" s="11">
-        <v>522</v>
+        <v>320</v>
       </c>
       <c r="I186">
         <v>621</v>
       </c>
       <c r="J186">
-        <v>621</v>
+        <v>351</v>
       </c>
       <c r="K186">
         <v>1038</v>
@@ -7870,8 +7870,8 @@
       <c r="C187">
         <v>556</v>
       </c>
-      <c r="D187">
-        <v>556</v>
+      <c r="D187" s="10">
+        <v>180</v>
       </c>
       <c r="E187">
         <v>177</v>
@@ -7883,13 +7883,13 @@
         <v>522</v>
       </c>
       <c r="H187">
-        <v>522</v>
+        <v>322</v>
       </c>
       <c r="I187">
         <v>622</v>
       </c>
       <c r="J187">
-        <v>622</v>
+        <v>352</v>
       </c>
       <c r="K187">
         <v>1051</v>
@@ -7908,8 +7908,8 @@
       <c r="C188">
         <v>557</v>
       </c>
-      <c r="D188">
-        <v>557</v>
+      <c r="D188" s="10">
+        <v>180</v>
       </c>
       <c r="E188">
         <v>177</v>
@@ -7921,13 +7921,13 @@
         <v>523</v>
       </c>
       <c r="H188">
-        <v>523</v>
+        <v>322</v>
       </c>
       <c r="I188">
         <v>624</v>
       </c>
       <c r="J188">
-        <v>624</v>
+        <v>353</v>
       </c>
       <c r="K188">
         <v>1060</v>
@@ -7946,8 +7946,8 @@
       <c r="C189">
         <v>558</v>
       </c>
-      <c r="D189">
-        <v>558</v>
+      <c r="D189" s="10">
+        <v>181</v>
       </c>
       <c r="E189">
         <v>181</v>
@@ -7959,13 +7959,13 @@
         <v>525</v>
       </c>
       <c r="H189">
-        <v>525</v>
+        <v>322</v>
       </c>
       <c r="I189">
         <v>625</v>
       </c>
       <c r="J189">
-        <v>625</v>
+        <v>354</v>
       </c>
       <c r="K189">
         <v>1069</v>
@@ -7984,8 +7984,8 @@
       <c r="C190">
         <v>567</v>
       </c>
-      <c r="D190">
-        <v>567</v>
+      <c r="D190" s="10">
+        <v>181</v>
       </c>
       <c r="E190">
         <v>181</v>
@@ -7997,13 +7997,13 @@
         <v>527</v>
       </c>
       <c r="H190">
-        <v>527</v>
+        <v>322</v>
       </c>
       <c r="I190">
         <v>625</v>
       </c>
       <c r="J190">
-        <v>625</v>
+        <v>356</v>
       </c>
       <c r="K190">
         <v>1073</v>
@@ -8022,8 +8022,8 @@
       <c r="C191">
         <v>571</v>
       </c>
-      <c r="D191">
-        <v>571</v>
+      <c r="D191" s="10">
+        <v>182</v>
       </c>
       <c r="E191">
         <v>181</v>
@@ -8035,13 +8035,13 @@
         <v>529</v>
       </c>
       <c r="H191">
-        <v>529</v>
+        <v>322</v>
       </c>
       <c r="I191">
         <v>626</v>
       </c>
       <c r="J191">
-        <v>626</v>
+        <v>356</v>
       </c>
       <c r="K191">
         <v>1099</v>
@@ -8060,8 +8060,8 @@
       <c r="C192">
         <v>576</v>
       </c>
-      <c r="D192">
-        <v>576</v>
+      <c r="D192" s="10">
+        <v>183</v>
       </c>
       <c r="E192">
         <v>181</v>
@@ -8073,13 +8073,13 @@
         <v>529</v>
       </c>
       <c r="H192">
-        <v>529</v>
+        <v>323</v>
       </c>
       <c r="I192">
         <v>626</v>
       </c>
       <c r="J192">
-        <v>626</v>
+        <v>357</v>
       </c>
       <c r="K192">
         <v>1104</v>
@@ -8098,8 +8098,8 @@
       <c r="C193">
         <v>578</v>
       </c>
-      <c r="D193">
-        <v>578</v>
+      <c r="D193" s="10">
+        <v>184</v>
       </c>
       <c r="E193">
         <v>181</v>
@@ -8111,13 +8111,13 @@
         <v>533</v>
       </c>
       <c r="H193">
-        <v>533</v>
+        <v>323</v>
       </c>
       <c r="I193">
         <v>626</v>
       </c>
       <c r="J193">
-        <v>626</v>
+        <v>360</v>
       </c>
       <c r="K193">
         <v>1119</v>
@@ -8136,8 +8136,8 @@
       <c r="C194">
         <v>580</v>
       </c>
-      <c r="D194">
-        <v>580</v>
+      <c r="D194" s="10">
+        <v>187</v>
       </c>
       <c r="E194">
         <v>182</v>
@@ -8149,13 +8149,13 @@
         <v>539</v>
       </c>
       <c r="H194">
-        <v>539</v>
+        <v>325</v>
       </c>
       <c r="I194">
         <v>627</v>
       </c>
       <c r="J194">
-        <v>627</v>
+        <v>361</v>
       </c>
       <c r="K194">
         <v>1161</v>
@@ -8174,8 +8174,8 @@
       <c r="C195">
         <v>587</v>
       </c>
-      <c r="D195">
-        <v>587</v>
+      <c r="D195" s="10">
+        <v>188</v>
       </c>
       <c r="E195">
         <v>184</v>
@@ -8187,13 +8187,13 @@
         <v>543</v>
       </c>
       <c r="H195">
-        <v>543</v>
+        <v>326</v>
       </c>
       <c r="I195">
         <v>627</v>
       </c>
       <c r="J195">
-        <v>627</v>
+        <v>364</v>
       </c>
       <c r="K195">
         <v>1175</v>
@@ -8212,8 +8212,8 @@
       <c r="C196">
         <v>588</v>
       </c>
-      <c r="D196">
-        <v>588</v>
+      <c r="D196" s="10">
+        <v>188</v>
       </c>
       <c r="E196">
         <v>184</v>
@@ -8225,13 +8225,13 @@
         <v>547</v>
       </c>
       <c r="H196">
-        <v>547</v>
+        <v>326</v>
       </c>
       <c r="I196">
         <v>627</v>
       </c>
       <c r="J196">
-        <v>627</v>
+        <v>365</v>
       </c>
       <c r="K196">
         <v>1197</v>
@@ -8250,8 +8250,8 @@
       <c r="C197">
         <v>589</v>
       </c>
-      <c r="D197">
-        <v>589</v>
+      <c r="D197" s="10">
+        <v>188</v>
       </c>
       <c r="E197">
         <v>184</v>
@@ -8263,13 +8263,13 @@
         <v>552</v>
       </c>
       <c r="H197">
-        <v>552</v>
+        <v>327</v>
       </c>
       <c r="I197">
         <v>629</v>
       </c>
       <c r="J197">
-        <v>629</v>
+        <v>367</v>
       </c>
       <c r="K197">
         <v>1221</v>
@@ -8288,8 +8288,8 @@
       <c r="C198">
         <v>593</v>
       </c>
-      <c r="D198">
-        <v>593</v>
+      <c r="D198" s="10">
+        <v>188</v>
       </c>
       <c r="E198">
         <v>185</v>
@@ -8301,13 +8301,13 @@
         <v>554</v>
       </c>
       <c r="H198">
-        <v>554</v>
+        <v>327</v>
       </c>
       <c r="I198">
         <v>632</v>
       </c>
       <c r="J198">
-        <v>632</v>
+        <v>368</v>
       </c>
       <c r="K198">
         <v>1254</v>
@@ -8326,8 +8326,8 @@
       <c r="C199">
         <v>594</v>
       </c>
-      <c r="D199">
-        <v>594</v>
+      <c r="D199" s="10">
+        <v>190</v>
       </c>
       <c r="E199">
         <v>185</v>
@@ -8339,13 +8339,13 @@
         <v>558</v>
       </c>
       <c r="H199">
-        <v>558</v>
+        <v>327</v>
       </c>
       <c r="I199">
         <v>632</v>
       </c>
       <c r="J199">
-        <v>632</v>
+        <v>368</v>
       </c>
       <c r="K199">
         <v>1269</v>
@@ -8364,8 +8364,8 @@
       <c r="C200">
         <v>595</v>
       </c>
-      <c r="D200">
-        <v>595</v>
+      <c r="D200" s="10">
+        <v>190</v>
       </c>
       <c r="E200">
         <v>185</v>
@@ -8377,13 +8377,13 @@
         <v>561</v>
       </c>
       <c r="H200">
-        <v>561</v>
+        <v>327</v>
       </c>
       <c r="I200">
         <v>633</v>
       </c>
       <c r="J200">
-        <v>633</v>
+        <v>370</v>
       </c>
       <c r="K200">
         <v>1289</v>
@@ -8402,8 +8402,8 @@
       <c r="C201">
         <v>597</v>
       </c>
-      <c r="D201">
-        <v>597</v>
+      <c r="D201" s="10">
+        <v>192</v>
       </c>
       <c r="E201">
         <v>186</v>
@@ -8415,13 +8415,13 @@
         <v>567</v>
       </c>
       <c r="H201">
-        <v>567</v>
+        <v>328</v>
       </c>
       <c r="I201">
         <v>636</v>
       </c>
       <c r="J201">
-        <v>636</v>
+        <v>371</v>
       </c>
       <c r="K201">
         <v>1331</v>
@@ -8440,8 +8440,8 @@
       <c r="C202">
         <v>598</v>
       </c>
-      <c r="D202">
-        <v>598</v>
+      <c r="D202" s="10">
+        <v>192</v>
       </c>
       <c r="E202">
         <v>187</v>
@@ -8453,13 +8453,13 @@
         <v>571</v>
       </c>
       <c r="H202">
-        <v>571</v>
+        <v>329</v>
       </c>
       <c r="I202">
         <v>637</v>
       </c>
       <c r="J202">
-        <v>637</v>
+        <v>375</v>
       </c>
       <c r="K202">
         <v>1365</v>
@@ -8478,8 +8478,8 @@
       <c r="C203">
         <v>600</v>
       </c>
-      <c r="D203">
-        <v>600</v>
+      <c r="D203" s="10">
+        <v>193</v>
       </c>
       <c r="E203">
         <v>189</v>
@@ -8491,13 +8491,13 @@
         <v>574</v>
       </c>
       <c r="H203">
-        <v>574</v>
+        <v>329</v>
       </c>
       <c r="I203">
         <v>637</v>
       </c>
       <c r="J203">
-        <v>637</v>
+        <v>376</v>
       </c>
       <c r="K203">
         <v>1411</v>
@@ -8516,8 +8516,8 @@
       <c r="C204">
         <v>603</v>
       </c>
-      <c r="D204">
-        <v>603</v>
+      <c r="D204" s="10">
+        <v>194</v>
       </c>
       <c r="E204">
         <v>191</v>
@@ -8529,13 +8529,13 @@
         <v>575</v>
       </c>
       <c r="H204">
-        <v>575</v>
+        <v>330</v>
       </c>
       <c r="I204">
         <v>639</v>
       </c>
       <c r="J204">
-        <v>639</v>
+        <v>376</v>
       </c>
       <c r="K204">
         <v>1460</v>
@@ -8554,8 +8554,8 @@
       <c r="C205">
         <v>605</v>
       </c>
-      <c r="D205">
-        <v>605</v>
+      <c r="D205" s="10">
+        <v>194</v>
       </c>
       <c r="E205">
         <v>196</v>
@@ -8567,13 +8567,13 @@
         <v>577</v>
       </c>
       <c r="H205">
-        <v>577</v>
+        <v>332</v>
       </c>
       <c r="I205">
         <v>641</v>
       </c>
       <c r="J205">
-        <v>641</v>
+        <v>378</v>
       </c>
       <c r="K205">
         <v>1499</v>
@@ -8592,8 +8592,8 @@
       <c r="C206">
         <v>605</v>
       </c>
-      <c r="D206">
-        <v>605</v>
+      <c r="D206" s="10">
+        <v>194</v>
       </c>
       <c r="E206">
         <v>197</v>
@@ -8605,13 +8605,13 @@
         <v>578</v>
       </c>
       <c r="H206">
-        <v>578</v>
+        <v>333</v>
       </c>
       <c r="I206">
         <v>643</v>
       </c>
       <c r="J206">
-        <v>643</v>
+        <v>379</v>
       </c>
       <c r="K206">
         <v>1520</v>
@@ -8630,8 +8630,8 @@
       <c r="C207">
         <v>605</v>
       </c>
-      <c r="D207">
-        <v>605</v>
+      <c r="D207" s="10">
+        <v>194</v>
       </c>
       <c r="E207">
         <v>197</v>
@@ -8643,13 +8643,13 @@
         <v>586</v>
       </c>
       <c r="H207">
-        <v>586</v>
+        <v>333</v>
       </c>
       <c r="I207">
         <v>646</v>
       </c>
       <c r="J207">
-        <v>646</v>
+        <v>384</v>
       </c>
       <c r="K207">
         <v>1545</v>
@@ -8668,8 +8668,8 @@
       <c r="C208">
         <v>608</v>
       </c>
-      <c r="D208">
-        <v>608</v>
+      <c r="D208" s="10">
+        <v>196</v>
       </c>
       <c r="E208">
         <v>201</v>
@@ -8681,13 +8681,13 @@
         <v>592</v>
       </c>
       <c r="H208">
-        <v>592</v>
+        <v>333</v>
       </c>
       <c r="I208">
         <v>648</v>
       </c>
       <c r="J208">
-        <v>648</v>
+        <v>385</v>
       </c>
       <c r="K208">
         <v>1576</v>
@@ -8706,8 +8706,8 @@
       <c r="C209">
         <v>610</v>
       </c>
-      <c r="D209">
-        <v>610</v>
+      <c r="D209" s="10">
+        <v>198</v>
       </c>
       <c r="E209">
         <v>203</v>
@@ -8719,13 +8719,13 @@
         <v>597</v>
       </c>
       <c r="H209">
-        <v>597</v>
+        <v>334</v>
       </c>
       <c r="I209">
         <v>652</v>
       </c>
       <c r="J209">
-        <v>652</v>
+        <v>389</v>
       </c>
       <c r="K209">
         <v>1600</v>
@@ -8744,8 +8744,8 @@
       <c r="C210">
         <v>615</v>
       </c>
-      <c r="D210">
-        <v>615</v>
+      <c r="D210" s="10">
+        <v>199</v>
       </c>
       <c r="E210">
         <v>203</v>
@@ -8757,13 +8757,13 @@
         <v>598</v>
       </c>
       <c r="H210">
-        <v>598</v>
+        <v>335</v>
       </c>
       <c r="I210">
         <v>654</v>
       </c>
       <c r="J210">
-        <v>654</v>
+        <v>389</v>
       </c>
       <c r="K210">
         <v>1624</v>
@@ -8782,8 +8782,8 @@
       <c r="C211">
         <v>620</v>
       </c>
-      <c r="D211">
-        <v>620</v>
+      <c r="D211" s="10">
+        <v>200</v>
       </c>
       <c r="E211">
         <v>204</v>
@@ -8795,13 +8795,13 @@
         <v>601</v>
       </c>
       <c r="H211">
-        <v>601</v>
+        <v>335</v>
       </c>
       <c r="I211">
         <v>654</v>
       </c>
       <c r="J211">
-        <v>654</v>
+        <v>394</v>
       </c>
       <c r="K211">
         <v>1640</v>
@@ -8820,8 +8820,8 @@
       <c r="C212">
         <v>621</v>
       </c>
-      <c r="D212">
-        <v>621</v>
+      <c r="D212" s="10">
+        <v>203</v>
       </c>
       <c r="E212">
         <v>205</v>
@@ -8833,13 +8833,13 @@
         <v>604</v>
       </c>
       <c r="H212">
-        <v>604</v>
+        <v>335</v>
       </c>
       <c r="I212">
         <v>655</v>
       </c>
       <c r="J212">
-        <v>655</v>
+        <v>395</v>
       </c>
       <c r="K212">
         <v>1655</v>
@@ -8858,8 +8858,8 @@
       <c r="C213">
         <v>623</v>
       </c>
-      <c r="D213">
-        <v>623</v>
+      <c r="D213" s="10">
+        <v>203</v>
       </c>
       <c r="E213">
         <v>206</v>
@@ -8871,13 +8871,13 @@
         <v>604</v>
       </c>
       <c r="H213">
-        <v>604</v>
+        <v>335</v>
       </c>
       <c r="I213">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J213">
-        <v>656</v>
+        <v>397</v>
       </c>
       <c r="K213">
         <v>1655</v>
@@ -8896,8 +8896,8 @@
       <c r="C214">
         <v>623</v>
       </c>
-      <c r="D214">
-        <v>623</v>
+      <c r="D214" s="10">
+        <v>203</v>
       </c>
       <c r="E214">
         <v>206</v>
@@ -8909,19 +8909,135 @@
         <v>604</v>
       </c>
       <c r="H214">
-        <v>604</v>
+        <v>335</v>
       </c>
       <c r="I214">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="J214">
-        <v>656</v>
+        <v>397</v>
       </c>
       <c r="K214">
         <v>1655</v>
       </c>
       <c r="L214">
         <v>3684</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A215" s="9">
+        <v>44095</v>
+      </c>
+      <c r="D215" s="10">
+        <v>203</v>
+      </c>
+      <c r="H215">
+        <v>335</v>
+      </c>
+      <c r="I215">
+        <v>661</v>
+      </c>
+      <c r="J215">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216" s="9">
+        <v>44096</v>
+      </c>
+      <c r="D216" s="10">
+        <v>203</v>
+      </c>
+      <c r="H216">
+        <v>335</v>
+      </c>
+      <c r="I216">
+        <v>664</v>
+      </c>
+      <c r="J216">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A217" s="9">
+        <v>44097</v>
+      </c>
+      <c r="D217" s="10">
+        <v>205</v>
+      </c>
+      <c r="H217">
+        <v>335</v>
+      </c>
+      <c r="I217">
+        <v>664</v>
+      </c>
+      <c r="J217">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A218" s="9">
+        <v>44098</v>
+      </c>
+      <c r="D218" s="10">
+        <v>205</v>
+      </c>
+      <c r="H218">
+        <v>335</v>
+      </c>
+      <c r="I218">
+        <v>664</v>
+      </c>
+      <c r="J218">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A219" s="9">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A220" s="9">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A221" s="9">
+        <v>44101</v>
+      </c>
+      <c r="B221">
+        <v>479</v>
+      </c>
+      <c r="C221">
+        <v>648</v>
+      </c>
+      <c r="D221">
+        <v>206</v>
+      </c>
+      <c r="E221">
+        <v>210</v>
+      </c>
+      <c r="F221">
+        <v>4388</v>
+      </c>
+      <c r="G221">
+        <v>697</v>
+      </c>
+      <c r="H221">
+        <v>339</v>
+      </c>
+      <c r="I221">
+        <v>672</v>
+      </c>
+      <c r="J221">
+        <v>413</v>
+      </c>
+      <c r="K221">
+        <v>1804</v>
+      </c>
+      <c r="L221">
+        <v>3841</v>
       </c>
     </row>
   </sheetData>
@@ -8931,10 +9047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46004C74-2EDF-764B-8198-01B7AB12DF1A}">
-  <dimension ref="A1:FG214"/>
+  <dimension ref="A1:FG218"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I214"/>
+      <selection activeCell="I2" sqref="I2:I218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9055,10 +9171,10 @@
         <v>43887</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:163" x14ac:dyDescent="0.2">
@@ -9072,7 +9188,7 @@
         <v>43888</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -9090,10 +9206,10 @@
         <v>43889</v>
       </c>
       <c r="I9" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:163" x14ac:dyDescent="0.2">
@@ -9108,7 +9224,7 @@
         <v>43890</v>
       </c>
       <c r="I10" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -9276,10 +9392,10 @@
         <v>43891</v>
       </c>
       <c r="I11" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:163" x14ac:dyDescent="0.2">
@@ -9294,10 +9410,10 @@
         <v>43892</v>
       </c>
       <c r="I12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:163" x14ac:dyDescent="0.2">
@@ -9312,10 +9428,10 @@
         <v>43893</v>
       </c>
       <c r="I13" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:163" x14ac:dyDescent="0.2">
@@ -9330,10 +9446,10 @@
         <v>43894</v>
       </c>
       <c r="I14" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:163" x14ac:dyDescent="0.2">
@@ -9348,10 +9464,10 @@
         <v>43895</v>
       </c>
       <c r="I15" s="3">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:163" x14ac:dyDescent="0.2">
@@ -9366,10 +9482,10 @@
         <v>43896</v>
       </c>
       <c r="I16" s="3">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -9384,10 +9500,10 @@
         <v>43897</v>
       </c>
       <c r="I17" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -9402,10 +9518,10 @@
         <v>43898</v>
       </c>
       <c r="I18" s="3">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="J18" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -9420,10 +9536,10 @@
         <v>43899</v>
       </c>
       <c r="I19" s="3">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="J19" s="3">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -9438,10 +9554,10 @@
         <v>43900</v>
       </c>
       <c r="I20" s="3">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="J20" s="3">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -9456,10 +9572,10 @@
         <v>43901</v>
       </c>
       <c r="I21" s="3">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="J21" s="3">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -9474,10 +9590,10 @@
         <v>43902</v>
       </c>
       <c r="I22" s="3">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="J22" s="3">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -9492,10 +9608,10 @@
         <v>43903</v>
       </c>
       <c r="I23" s="3">
-        <v>331</v>
+        <v>65</v>
       </c>
       <c r="J23" s="3">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -9510,10 +9626,10 @@
         <v>43904</v>
       </c>
       <c r="I24" s="3">
-        <v>371</v>
+        <v>68</v>
       </c>
       <c r="J24" s="3">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -9528,10 +9644,10 @@
         <v>43905</v>
       </c>
       <c r="I25" s="3">
-        <v>401</v>
+        <v>72</v>
       </c>
       <c r="J25" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -9546,10 +9662,10 @@
         <v>43906</v>
       </c>
       <c r="I26" s="3">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="J26" s="3">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -9564,10 +9680,10 @@
         <v>43907</v>
       </c>
       <c r="I27" s="3">
-        <v>527</v>
+        <v>87</v>
       </c>
       <c r="J27" s="3">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -9582,10 +9698,10 @@
         <v>43908</v>
       </c>
       <c r="I28" s="3">
-        <v>595</v>
+        <v>99</v>
       </c>
       <c r="J28" s="3">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -9600,10 +9716,10 @@
         <v>43909</v>
       </c>
       <c r="I29" s="3">
-        <v>660</v>
+        <v>99</v>
       </c>
       <c r="J29" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -9618,10 +9734,10 @@
         <v>43910</v>
       </c>
       <c r="I30" s="3">
-        <v>732</v>
+        <v>107</v>
       </c>
       <c r="J30" s="3">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -9636,10 +9752,10 @@
         <v>43911</v>
       </c>
       <c r="I31" s="3">
-        <v>784</v>
+        <v>109</v>
       </c>
       <c r="J31" s="3">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -9654,10 +9770,10 @@
         <v>43912</v>
       </c>
       <c r="I32" s="3">
-        <v>838</v>
+        <v>114</v>
       </c>
       <c r="J32" s="3">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -9672,10 +9788,10 @@
         <v>43913</v>
       </c>
       <c r="I33" s="3">
-        <v>908</v>
+        <v>125</v>
       </c>
       <c r="J33" s="3">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -9690,10 +9806,10 @@
         <v>43914</v>
       </c>
       <c r="I34" s="3">
-        <v>1001</v>
+        <v>134</v>
       </c>
       <c r="J34" s="3">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -9708,10 +9824,10 @@
         <v>43915</v>
       </c>
       <c r="I35" s="3">
-        <v>1081</v>
+        <v>143</v>
       </c>
       <c r="J35" s="3">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -9726,10 +9842,10 @@
         <v>43916</v>
       </c>
       <c r="I36" s="3">
-        <v>1141</v>
+        <v>151</v>
       </c>
       <c r="J36" s="3">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -9744,10 +9860,10 @@
         <v>43917</v>
       </c>
       <c r="I37" s="3">
-        <v>1207</v>
+        <v>162</v>
       </c>
       <c r="J37" s="3">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -9762,10 +9878,10 @@
         <v>43918</v>
       </c>
       <c r="I38" s="3">
-        <v>1245</v>
+        <v>171</v>
       </c>
       <c r="J38" s="3">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -9780,10 +9896,10 @@
         <v>43919</v>
       </c>
       <c r="I39" s="3">
-        <v>1286</v>
+        <v>176</v>
       </c>
       <c r="J39" s="3">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -9798,10 +9914,10 @@
         <v>43920</v>
       </c>
       <c r="I40" s="3">
-        <v>1363</v>
+        <v>185</v>
       </c>
       <c r="J40" s="3">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -9816,10 +9932,10 @@
         <v>43921</v>
       </c>
       <c r="I41" s="3">
-        <v>1419</v>
+        <v>191</v>
       </c>
       <c r="J41" s="3">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -9834,10 +9950,10 @@
         <v>43922</v>
       </c>
       <c r="I42" s="3">
-        <v>1476</v>
+        <v>195</v>
       </c>
       <c r="J42" s="3">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -9852,10 +9968,10 @@
         <v>43923</v>
       </c>
       <c r="I43" s="3">
-        <v>1528</v>
+        <v>208</v>
       </c>
       <c r="J43" s="3">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -9870,10 +9986,10 @@
         <v>43924</v>
       </c>
       <c r="I44" s="3">
-        <v>1570</v>
+        <v>218</v>
       </c>
       <c r="J44" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -9888,10 +10004,10 @@
         <v>43925</v>
       </c>
       <c r="I45" s="3">
-        <v>1599</v>
+        <v>224</v>
       </c>
       <c r="J45" s="3">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -9906,10 +10022,10 @@
         <v>43926</v>
       </c>
       <c r="I46" s="3">
-        <v>1624</v>
+        <v>229</v>
       </c>
       <c r="J46" s="3">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -9924,10 +10040,10 @@
         <v>43927</v>
       </c>
       <c r="I47" s="3">
-        <v>1663</v>
+        <v>234</v>
       </c>
       <c r="J47" s="3">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -9942,10 +10058,10 @@
         <v>43928</v>
       </c>
       <c r="I48" s="3">
-        <v>1699</v>
+        <v>236</v>
       </c>
       <c r="J48" s="3">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -9960,10 +10076,10 @@
         <v>43929</v>
       </c>
       <c r="I49" s="3">
-        <v>1724</v>
+        <v>239</v>
       </c>
       <c r="J49" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -9978,10 +10094,10 @@
         <v>43930</v>
       </c>
       <c r="I50" s="3">
-        <v>1750</v>
+        <v>240</v>
       </c>
       <c r="J50" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -9996,10 +10112,10 @@
         <v>43931</v>
       </c>
       <c r="I51" s="3">
-        <v>1767</v>
+        <v>241</v>
       </c>
       <c r="J51" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -10014,10 +10130,10 @@
         <v>43932</v>
       </c>
       <c r="I52" s="3">
-        <v>1786</v>
+        <v>247</v>
       </c>
       <c r="J52" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -10032,10 +10148,10 @@
         <v>43933</v>
       </c>
       <c r="I53" s="3">
-        <v>1808</v>
+        <v>248</v>
       </c>
       <c r="J53" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -10050,10 +10166,10 @@
         <v>43934</v>
       </c>
       <c r="I54" s="3">
-        <v>1829</v>
+        <v>250</v>
       </c>
       <c r="J54" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -10068,10 +10184,10 @@
         <v>43935</v>
       </c>
       <c r="I55" s="3">
-        <v>1854</v>
+        <v>251</v>
       </c>
       <c r="J55" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -10086,10 +10202,10 @@
         <v>43936</v>
       </c>
       <c r="I56" s="3">
-        <v>1877</v>
+        <v>252</v>
       </c>
       <c r="J56" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -10104,10 +10220,10 @@
         <v>43937</v>
       </c>
       <c r="I57" s="3">
-        <v>1893</v>
+        <v>259</v>
       </c>
       <c r="J57" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -10122,10 +10238,10 @@
         <v>43938</v>
       </c>
       <c r="I58" s="3">
-        <v>1929</v>
+        <v>260</v>
       </c>
       <c r="J58" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -10140,10 +10256,10 @@
         <v>43939</v>
       </c>
       <c r="I59" s="3">
-        <v>1937</v>
+        <v>261</v>
       </c>
       <c r="J59" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -10158,10 +10274,10 @@
         <v>43940</v>
       </c>
       <c r="I60" s="3">
-        <v>1941</v>
+        <v>261</v>
       </c>
       <c r="J60" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -10176,10 +10292,10 @@
         <v>43941</v>
       </c>
       <c r="I61" s="3">
-        <v>1964</v>
+        <v>261</v>
       </c>
       <c r="J61" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -10194,10 +10310,10 @@
         <v>43942</v>
       </c>
       <c r="I62" s="3">
-        <v>1980</v>
+        <v>262</v>
       </c>
       <c r="J62" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -10212,10 +10328,10 @@
         <v>43943</v>
       </c>
       <c r="I63" s="3">
-        <v>1998</v>
+        <v>265</v>
       </c>
       <c r="J63" s="3">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -10230,10 +10346,10 @@
         <v>43944</v>
       </c>
       <c r="I64" s="3">
-        <v>2011</v>
+        <v>268</v>
       </c>
       <c r="J64" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -10248,10 +10364,10 @@
         <v>43945</v>
       </c>
       <c r="I65" s="3">
-        <v>2024</v>
+        <v>268</v>
       </c>
       <c r="J65" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -10266,10 +10382,10 @@
         <v>43946</v>
       </c>
       <c r="I66" s="3">
-        <v>2027</v>
+        <v>269</v>
       </c>
       <c r="J66" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -10284,10 +10400,10 @@
         <v>43947</v>
       </c>
       <c r="I67" s="3">
-        <v>2031</v>
+        <v>269</v>
       </c>
       <c r="J67" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -10302,10 +10418,10 @@
         <v>43948</v>
       </c>
       <c r="I68" s="3">
-        <v>2049</v>
+        <v>269</v>
       </c>
       <c r="J68" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -10320,10 +10436,10 @@
         <v>43949</v>
       </c>
       <c r="I69" s="3">
-        <v>2065</v>
+        <v>271</v>
       </c>
       <c r="J69" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -10338,10 +10454,10 @@
         <v>43950</v>
       </c>
       <c r="I70" s="3">
-        <v>2072</v>
+        <v>272</v>
       </c>
       <c r="J70" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -10356,10 +10472,10 @@
         <v>43951</v>
       </c>
       <c r="I71" s="3">
-        <v>2082</v>
+        <v>273</v>
       </c>
       <c r="J71" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -10374,10 +10490,10 @@
         <v>43952</v>
       </c>
       <c r="I72" s="3">
-        <v>2085</v>
+        <v>273</v>
       </c>
       <c r="J72" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -10392,10 +10508,10 @@
         <v>43953</v>
       </c>
       <c r="I73" s="3">
-        <v>2092</v>
+        <v>273</v>
       </c>
       <c r="J73" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -10410,10 +10526,10 @@
         <v>43954</v>
       </c>
       <c r="I74" s="3">
-        <v>2101</v>
+        <v>273</v>
       </c>
       <c r="J74" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -10428,10 +10544,10 @@
         <v>43955</v>
       </c>
       <c r="I75" s="3">
-        <v>2119</v>
+        <v>273</v>
       </c>
       <c r="J75" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -10446,10 +10562,10 @@
         <v>43956</v>
       </c>
       <c r="I76" s="3">
-        <v>2132</v>
+        <v>274</v>
       </c>
       <c r="J76" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -10464,10 +10580,10 @@
         <v>43957</v>
       </c>
       <c r="I77" s="3">
-        <v>2143</v>
+        <v>275</v>
       </c>
       <c r="J77" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -10482,10 +10598,10 @@
         <v>43958</v>
       </c>
       <c r="I78" s="3">
-        <v>2155</v>
+        <v>276</v>
       </c>
       <c r="J78" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -10500,10 +10616,10 @@
         <v>43959</v>
       </c>
       <c r="I79" s="3">
-        <v>2173</v>
+        <v>276</v>
       </c>
       <c r="J79" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -10518,10 +10634,10 @@
         <v>43960</v>
       </c>
       <c r="I80" s="3">
-        <v>2176</v>
+        <v>276</v>
       </c>
       <c r="J80" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -10536,10 +10652,10 @@
         <v>43961</v>
       </c>
       <c r="I81" s="3">
-        <v>2177</v>
+        <v>276</v>
       </c>
       <c r="J81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -10554,10 +10670,10 @@
         <v>43962</v>
       </c>
       <c r="I82" s="3">
-        <v>2186</v>
+        <v>276</v>
       </c>
       <c r="J82" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -10572,10 +10688,10 @@
         <v>43963</v>
       </c>
       <c r="I83" s="3">
-        <v>2193</v>
+        <v>278</v>
       </c>
       <c r="J83" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -10590,10 +10706,10 @@
         <v>43964</v>
       </c>
       <c r="I84" s="3">
-        <v>2203</v>
+        <v>279</v>
       </c>
       <c r="J84" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -10608,10 +10724,10 @@
         <v>43965</v>
       </c>
       <c r="I85" s="3">
-        <v>2210</v>
+        <v>279</v>
       </c>
       <c r="J85" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -10626,10 +10742,10 @@
         <v>43966</v>
       </c>
       <c r="I86" s="3">
-        <v>2220</v>
+        <v>280</v>
       </c>
       <c r="J86" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -10644,10 +10760,10 @@
         <v>43967</v>
       </c>
       <c r="I87" s="3">
-        <v>2226</v>
+        <v>280</v>
       </c>
       <c r="J87" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -10662,10 +10778,10 @@
         <v>43968</v>
       </c>
       <c r="I88" s="3">
-        <v>2228</v>
+        <v>280</v>
       </c>
       <c r="J88" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -10680,10 +10796,10 @@
         <v>43969</v>
       </c>
       <c r="I89" s="3">
-        <v>2238</v>
+        <v>280</v>
       </c>
       <c r="J89" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -10698,10 +10814,10 @@
         <v>43970</v>
       </c>
       <c r="I90" s="3">
-        <v>2245</v>
+        <v>282</v>
       </c>
       <c r="J90" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -10716,10 +10832,10 @@
         <v>43971</v>
       </c>
       <c r="I91" s="3">
-        <v>2253</v>
+        <v>282</v>
       </c>
       <c r="J91" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -10734,7 +10850,7 @@
         <v>43972</v>
       </c>
       <c r="I92" s="3">
-        <v>2254</v>
+        <v>283</v>
       </c>
       <c r="J92" s="3">
         <v>1</v>
@@ -10752,10 +10868,10 @@
         <v>43973</v>
       </c>
       <c r="I93" s="3">
-        <v>2264</v>
+        <v>284</v>
       </c>
       <c r="J93" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -10770,7 +10886,7 @@
         <v>43974</v>
       </c>
       <c r="I94" s="3">
-        <v>2264</v>
+        <v>284</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -10788,10 +10904,10 @@
         <v>43975</v>
       </c>
       <c r="I95" s="3">
-        <v>2267</v>
+        <v>284</v>
       </c>
       <c r="J95" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -10806,10 +10922,10 @@
         <v>43976</v>
       </c>
       <c r="I96" s="3">
-        <v>2275</v>
+        <v>284</v>
       </c>
       <c r="J96" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -10824,10 +10940,10 @@
         <v>43977</v>
       </c>
       <c r="I97" s="3">
-        <v>2279</v>
+        <v>285</v>
       </c>
       <c r="J97" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -10842,10 +10958,10 @@
         <v>43978</v>
       </c>
       <c r="I98" s="3">
-        <v>2287</v>
+        <v>285</v>
       </c>
       <c r="J98" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -10860,10 +10976,10 @@
         <v>43979</v>
       </c>
       <c r="I99" s="3">
-        <v>2290</v>
+        <v>285</v>
       </c>
       <c r="J99" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -10878,10 +10994,10 @@
         <v>43980</v>
       </c>
       <c r="I100" s="3">
-        <v>2293</v>
+        <v>285</v>
       </c>
       <c r="J100" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -10896,7 +11012,7 @@
         <v>43981</v>
       </c>
       <c r="I101" s="3">
-        <v>2293</v>
+        <v>285</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -10914,10 +11030,10 @@
         <v>43982</v>
       </c>
       <c r="I102" s="3">
-        <v>2295</v>
+        <v>285</v>
       </c>
       <c r="J102" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -10932,10 +11048,10 @@
         <v>43983</v>
       </c>
       <c r="I103" s="3">
-        <v>2297</v>
+        <v>285</v>
       </c>
       <c r="J103" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -10950,10 +11066,10 @@
         <v>43984</v>
       </c>
       <c r="I104" s="3">
-        <v>2300</v>
+        <v>286</v>
       </c>
       <c r="J104" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -10968,10 +11084,10 @@
         <v>43985</v>
       </c>
       <c r="I105" s="3">
-        <v>2305</v>
+        <v>286</v>
       </c>
       <c r="J105" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -10986,10 +11102,10 @@
         <v>43986</v>
       </c>
       <c r="I106" s="3">
-        <v>2306</v>
+        <v>286</v>
       </c>
       <c r="J106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -11004,10 +11120,10 @@
         <v>43987</v>
       </c>
       <c r="I107" s="3">
-        <v>2310</v>
+        <v>288</v>
       </c>
       <c r="J107" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -11022,10 +11138,10 @@
         <v>43988</v>
       </c>
       <c r="I108" s="3">
-        <v>2312</v>
+        <v>288</v>
       </c>
       <c r="J108" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -11040,7 +11156,7 @@
         <v>43989</v>
       </c>
       <c r="I109" s="3">
-        <v>2312</v>
+        <v>288</v>
       </c>
       <c r="J109" s="3">
         <v>0</v>
@@ -11058,10 +11174,10 @@
         <v>43990</v>
       </c>
       <c r="I110" s="3">
-        <v>2319</v>
+        <v>289</v>
       </c>
       <c r="J110" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -11076,10 +11192,10 @@
         <v>43991</v>
       </c>
       <c r="I111" s="3">
-        <v>2323</v>
+        <v>289</v>
       </c>
       <c r="J111" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
@@ -11094,10 +11210,10 @@
         <v>43992</v>
       </c>
       <c r="I112" s="3">
-        <v>2324</v>
+        <v>289</v>
       </c>
       <c r="J112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -11112,10 +11228,10 @@
         <v>43993</v>
       </c>
       <c r="I113" s="3">
-        <v>2327</v>
+        <v>289</v>
       </c>
       <c r="J113" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -11130,10 +11246,10 @@
         <v>43994</v>
       </c>
       <c r="I114" s="3">
-        <v>2333</v>
+        <v>289</v>
       </c>
       <c r="J114" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -11148,10 +11264,10 @@
         <v>43995</v>
       </c>
       <c r="I115" s="3">
-        <v>2335</v>
+        <v>289</v>
       </c>
       <c r="J115" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -11166,7 +11282,7 @@
         <v>43996</v>
       </c>
       <c r="I116" s="3">
-        <v>2335</v>
+        <v>289</v>
       </c>
       <c r="J116" s="3">
         <v>0</v>
@@ -11184,10 +11300,10 @@
         <v>43997</v>
       </c>
       <c r="I117" s="3">
-        <v>2344</v>
+        <v>290</v>
       </c>
       <c r="J117" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -11202,10 +11318,10 @@
         <v>43998</v>
       </c>
       <c r="I118" s="3">
-        <v>2353</v>
+        <v>291</v>
       </c>
       <c r="J118" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -11220,10 +11336,10 @@
         <v>43999</v>
       </c>
       <c r="I119" s="3">
-        <v>2360</v>
+        <v>291</v>
       </c>
       <c r="J119" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -11238,10 +11354,10 @@
         <v>44000</v>
       </c>
       <c r="I120" s="3">
-        <v>2365</v>
+        <v>291</v>
       </c>
       <c r="J120" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -11256,10 +11372,10 @@
         <v>44001</v>
       </c>
       <c r="I121" s="3">
-        <v>2369</v>
+        <v>294</v>
       </c>
       <c r="J121" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -11274,10 +11390,10 @@
         <v>44002</v>
       </c>
       <c r="I122" s="3">
-        <v>2370</v>
+        <v>294</v>
       </c>
       <c r="J122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -11292,10 +11408,10 @@
         <v>44003</v>
       </c>
       <c r="I123" s="3">
-        <v>2371</v>
+        <v>294</v>
       </c>
       <c r="J123" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -11310,10 +11426,10 @@
         <v>44004</v>
       </c>
       <c r="I124" s="3">
-        <v>2385</v>
+        <v>294</v>
       </c>
       <c r="J124" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -11328,10 +11444,10 @@
         <v>44005</v>
       </c>
       <c r="I125" s="3">
-        <v>2390</v>
+        <v>294</v>
       </c>
       <c r="J125" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -11346,10 +11462,10 @@
         <v>44006</v>
       </c>
       <c r="I126" s="3">
-        <v>2405</v>
+        <v>294</v>
       </c>
       <c r="J126" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -11364,10 +11480,10 @@
         <v>44007</v>
       </c>
       <c r="I127" s="3">
-        <v>2413</v>
+        <v>294</v>
       </c>
       <c r="J127" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -11382,10 +11498,10 @@
         <v>44008</v>
       </c>
       <c r="I128" s="3">
-        <v>2427</v>
+        <v>294</v>
       </c>
       <c r="J128" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
@@ -11400,10 +11516,10 @@
         <v>44009</v>
       </c>
       <c r="I129" s="3">
-        <v>2430</v>
+        <v>294</v>
       </c>
       <c r="J129" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -11418,7 +11534,7 @@
         <v>44010</v>
       </c>
       <c r="I130" s="3">
-        <v>2430</v>
+        <v>294</v>
       </c>
       <c r="J130" s="3">
         <v>0</v>
@@ -11436,10 +11552,10 @@
         <v>44011</v>
       </c>
       <c r="I131" s="3">
-        <v>2447</v>
+        <v>294</v>
       </c>
       <c r="J131" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -11454,10 +11570,10 @@
         <v>44012</v>
       </c>
       <c r="I132" s="3">
-        <v>2449</v>
+        <v>294</v>
       </c>
       <c r="J132" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -11472,10 +11588,10 @@
         <v>44013</v>
       </c>
       <c r="I133" s="3">
-        <v>2452</v>
+        <v>295</v>
       </c>
       <c r="J133" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -11490,10 +11606,10 @@
         <v>44014</v>
       </c>
       <c r="I134" s="3">
-        <v>2455</v>
+        <v>296</v>
       </c>
       <c r="J134" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -11508,10 +11624,10 @@
         <v>44015</v>
       </c>
       <c r="I135" s="3">
-        <v>2460</v>
+        <v>296</v>
       </c>
       <c r="J135" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -11526,10 +11642,10 @@
         <v>44016</v>
       </c>
       <c r="I136" s="3">
-        <v>2461</v>
+        <v>296</v>
       </c>
       <c r="J136" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -11544,7 +11660,7 @@
         <v>44017</v>
       </c>
       <c r="I137" s="3">
-        <v>2461</v>
+        <v>296</v>
       </c>
       <c r="J137" s="3">
         <v>0</v>
@@ -11562,10 +11678,10 @@
         <v>44018</v>
       </c>
       <c r="I138" s="3">
-        <v>2472</v>
+        <v>297</v>
       </c>
       <c r="J138" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -11580,10 +11696,10 @@
         <v>44019</v>
       </c>
       <c r="I139" s="3">
-        <v>2476</v>
+        <v>299</v>
       </c>
       <c r="J139" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -11598,10 +11714,10 @@
         <v>44020</v>
       </c>
       <c r="I140" s="3">
-        <v>2479</v>
+        <v>299</v>
       </c>
       <c r="J140" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -11616,10 +11732,10 @@
         <v>44021</v>
       </c>
       <c r="I141" s="3">
-        <v>2480</v>
+        <v>299</v>
       </c>
       <c r="J141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -11634,10 +11750,10 @@
         <v>44022</v>
       </c>
       <c r="I142" s="3">
-        <v>2484</v>
+        <v>299</v>
       </c>
       <c r="J142" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -11652,7 +11768,7 @@
         <v>44023</v>
       </c>
       <c r="I143" s="3">
-        <v>2484</v>
+        <v>299</v>
       </c>
       <c r="J143" s="3">
         <v>0</v>
@@ -11670,10 +11786,10 @@
         <v>44024</v>
       </c>
       <c r="I144" s="3">
-        <v>2486</v>
+        <v>299</v>
       </c>
       <c r="J144" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -11688,10 +11804,10 @@
         <v>44025</v>
       </c>
       <c r="I145" s="3">
-        <v>2493</v>
+        <v>299</v>
       </c>
       <c r="J145" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -11706,10 +11822,10 @@
         <v>44026</v>
       </c>
       <c r="I146" s="3">
-        <v>2497</v>
+        <v>299</v>
       </c>
       <c r="J146" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -11724,10 +11840,10 @@
         <v>44027</v>
       </c>
       <c r="I147" s="3">
-        <v>2498</v>
+        <v>299</v>
       </c>
       <c r="J147" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -11742,7 +11858,7 @@
         <v>44028</v>
       </c>
       <c r="I148" s="3">
-        <v>2498</v>
+        <v>299</v>
       </c>
       <c r="J148" s="3">
         <v>0</v>
@@ -11760,10 +11876,10 @@
         <v>44029</v>
       </c>
       <c r="I149" s="3">
-        <v>2499</v>
+        <v>299</v>
       </c>
       <c r="J149" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -11778,7 +11894,7 @@
         <v>44030</v>
       </c>
       <c r="I150" s="3">
-        <v>2499</v>
+        <v>299</v>
       </c>
       <c r="J150" s="3">
         <v>0</v>
@@ -11793,7 +11909,7 @@
         <v>44031</v>
       </c>
       <c r="I151" s="3">
-        <v>2499</v>
+        <v>299</v>
       </c>
       <c r="J151" s="3">
         <v>0</v>
@@ -11808,10 +11924,10 @@
         <v>44032</v>
       </c>
       <c r="I152" s="3">
-        <v>2510</v>
+        <v>299</v>
       </c>
       <c r="J152" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -11819,7 +11935,7 @@
         <v>44033</v>
       </c>
       <c r="I153" s="3">
-        <v>2510</v>
+        <v>299</v>
       </c>
       <c r="J153" s="3">
         <v>0</v>
@@ -11830,10 +11946,10 @@
         <v>44034</v>
       </c>
       <c r="I154" s="3">
-        <v>2521</v>
+        <v>300</v>
       </c>
       <c r="J154" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -11841,10 +11957,10 @@
         <v>44035</v>
       </c>
       <c r="I155" s="3">
-        <v>2524</v>
+        <v>300</v>
       </c>
       <c r="J155" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -11852,10 +11968,10 @@
         <v>44036</v>
       </c>
       <c r="I156" s="3">
-        <v>2538</v>
+        <v>301</v>
       </c>
       <c r="J156" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -11863,7 +11979,7 @@
         <v>44037</v>
       </c>
       <c r="I157" s="3">
-        <v>2538</v>
+        <v>301</v>
       </c>
       <c r="J157" s="3">
         <v>0</v>
@@ -11874,10 +11990,10 @@
         <v>44038</v>
       </c>
       <c r="I158" s="3">
-        <v>2544</v>
+        <v>303</v>
       </c>
       <c r="J158" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -11885,10 +12001,10 @@
         <v>44039</v>
       </c>
       <c r="I159" s="3">
-        <v>2551</v>
+        <v>306</v>
       </c>
       <c r="J159" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -11896,10 +12012,10 @@
         <v>44040</v>
       </c>
       <c r="I160" s="3">
-        <v>2556</v>
+        <v>306</v>
       </c>
       <c r="J160" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="8:10" x14ac:dyDescent="0.2">
@@ -11907,10 +12023,10 @@
         <v>44041</v>
       </c>
       <c r="I161" s="3">
-        <v>2564</v>
+        <v>310</v>
       </c>
       <c r="J161" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="8:10" x14ac:dyDescent="0.2">
@@ -11918,10 +12034,10 @@
         <v>44042</v>
       </c>
       <c r="I162" s="3">
-        <v>2569</v>
+        <v>310</v>
       </c>
       <c r="J162" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="8:10" x14ac:dyDescent="0.2">
@@ -11929,10 +12045,10 @@
         <v>44043</v>
       </c>
       <c r="I163" s="3">
-        <v>2579</v>
+        <v>312</v>
       </c>
       <c r="J163" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="8:10" x14ac:dyDescent="0.2">
@@ -11940,10 +12056,10 @@
         <v>44044</v>
       </c>
       <c r="I164" s="3">
-        <v>2586</v>
+        <v>312</v>
       </c>
       <c r="J164" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="8:10" x14ac:dyDescent="0.2">
@@ -11951,10 +12067,10 @@
         <v>44045</v>
       </c>
       <c r="I165" s="3">
-        <v>2589</v>
+        <v>312</v>
       </c>
       <c r="J165" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="8:10" x14ac:dyDescent="0.2">
@@ -11962,10 +12078,10 @@
         <v>44046</v>
       </c>
       <c r="I166" s="3">
-        <v>2597</v>
+        <v>314</v>
       </c>
       <c r="J166" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="8:10" x14ac:dyDescent="0.2">
@@ -11973,10 +12089,10 @@
         <v>44047</v>
       </c>
       <c r="I167" s="3">
-        <v>2613</v>
+        <v>314</v>
       </c>
       <c r="J167" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="8:10" x14ac:dyDescent="0.2">
@@ -11984,10 +12100,10 @@
         <v>44048</v>
       </c>
       <c r="I168" s="3">
-        <v>2632</v>
+        <v>317</v>
       </c>
       <c r="J168" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="8:10" x14ac:dyDescent="0.2">
@@ -11995,10 +12111,10 @@
         <v>44049</v>
       </c>
       <c r="I169" s="3">
-        <v>2661</v>
+        <v>319</v>
       </c>
       <c r="J169" s="3">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="8:10" x14ac:dyDescent="0.2">
@@ -12006,10 +12122,10 @@
         <v>44050</v>
       </c>
       <c r="I170" s="3">
-        <v>2704</v>
+        <v>324</v>
       </c>
       <c r="J170" s="3">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="8:10" x14ac:dyDescent="0.2">
@@ -12017,10 +12133,10 @@
         <v>44051</v>
       </c>
       <c r="I171" s="3">
-        <v>2720</v>
+        <v>326</v>
       </c>
       <c r="J171" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="8:10" x14ac:dyDescent="0.2">
@@ -12028,10 +12144,10 @@
         <v>44052</v>
       </c>
       <c r="I172" s="3">
-        <v>2738</v>
+        <v>327</v>
       </c>
       <c r="J172" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="8:10" x14ac:dyDescent="0.2">
@@ -12039,10 +12155,10 @@
         <v>44053</v>
       </c>
       <c r="I173" s="3">
-        <v>2761</v>
+        <v>331</v>
       </c>
       <c r="J173" s="3">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="8:10" x14ac:dyDescent="0.2">
@@ -12050,10 +12166,10 @@
         <v>44054</v>
       </c>
       <c r="I174" s="3">
-        <v>2780</v>
+        <v>332</v>
       </c>
       <c r="J174" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="8:10" x14ac:dyDescent="0.2">
@@ -12061,10 +12177,10 @@
         <v>44055</v>
       </c>
       <c r="I175" s="3">
-        <v>2797</v>
+        <v>333</v>
       </c>
       <c r="J175" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="8:10" x14ac:dyDescent="0.2">
@@ -12072,10 +12188,10 @@
         <v>44056</v>
       </c>
       <c r="I176" s="3">
-        <v>2810</v>
+        <v>337</v>
       </c>
       <c r="J176" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="8:10" x14ac:dyDescent="0.2">
@@ -12083,10 +12199,10 @@
         <v>44057</v>
       </c>
       <c r="I177" s="3">
-        <v>2828</v>
+        <v>340</v>
       </c>
       <c r="J177" s="3">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="8:10" x14ac:dyDescent="0.2">
@@ -12094,10 +12210,10 @@
         <v>44058</v>
       </c>
       <c r="I178" s="3">
-        <v>2841</v>
+        <v>342</v>
       </c>
       <c r="J178" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="8:10" x14ac:dyDescent="0.2">
@@ -12105,10 +12221,10 @@
         <v>44059</v>
       </c>
       <c r="I179" s="3">
-        <v>2849</v>
+        <v>343</v>
       </c>
       <c r="J179" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="8:10" x14ac:dyDescent="0.2">
@@ -12116,10 +12232,10 @@
         <v>44060</v>
       </c>
       <c r="I180" s="3">
-        <v>2879</v>
+        <v>346</v>
       </c>
       <c r="J180" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="8:10" x14ac:dyDescent="0.2">
@@ -12127,10 +12243,10 @@
         <v>44061</v>
       </c>
       <c r="I181" s="3">
-        <v>2889</v>
+        <v>348</v>
       </c>
       <c r="J181" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="8:10" x14ac:dyDescent="0.2">
@@ -12138,10 +12254,10 @@
         <v>44062</v>
       </c>
       <c r="I182" s="3">
-        <v>2898</v>
+        <v>348</v>
       </c>
       <c r="J182" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="8:10" x14ac:dyDescent="0.2">
@@ -12149,10 +12265,10 @@
         <v>44063</v>
       </c>
       <c r="I183" s="3">
-        <v>2909</v>
+        <v>349</v>
       </c>
       <c r="J183" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="8:10" x14ac:dyDescent="0.2">
@@ -12160,10 +12276,10 @@
         <v>44064</v>
       </c>
       <c r="I184" s="3">
-        <v>2915</v>
+        <v>350</v>
       </c>
       <c r="J184" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="8:10" x14ac:dyDescent="0.2">
@@ -12171,10 +12287,10 @@
         <v>44065</v>
       </c>
       <c r="I185" s="3">
-        <v>2926</v>
+        <v>351</v>
       </c>
       <c r="J185" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="8:10" x14ac:dyDescent="0.2">
@@ -12182,7 +12298,7 @@
         <v>44066</v>
       </c>
       <c r="I186" s="3">
-        <v>2926</v>
+        <v>351</v>
       </c>
       <c r="J186" s="3">
         <v>0</v>
@@ -12193,10 +12309,10 @@
         <v>44067</v>
       </c>
       <c r="I187" s="3">
-        <v>2937</v>
+        <v>352</v>
       </c>
       <c r="J187" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="8:10" x14ac:dyDescent="0.2">
@@ -12204,10 +12320,10 @@
         <v>44068</v>
       </c>
       <c r="I188" s="3">
-        <v>2943</v>
+        <v>353</v>
       </c>
       <c r="J188" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="8:10" x14ac:dyDescent="0.2">
@@ -12215,10 +12331,10 @@
         <v>44069</v>
       </c>
       <c r="I189" s="3">
-        <v>2950</v>
+        <v>354</v>
       </c>
       <c r="J189" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="8:10" x14ac:dyDescent="0.2">
@@ -12226,10 +12342,10 @@
         <v>44070</v>
       </c>
       <c r="I190" s="3">
-        <v>2962</v>
+        <v>356</v>
       </c>
       <c r="J190" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="8:10" x14ac:dyDescent="0.2">
@@ -12237,10 +12353,10 @@
         <v>44071</v>
       </c>
       <c r="I191" s="3">
-        <v>2985</v>
+        <v>356</v>
       </c>
       <c r="J191" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="8:10" x14ac:dyDescent="0.2">
@@ -12248,10 +12364,10 @@
         <v>44072</v>
       </c>
       <c r="I192" s="3">
-        <v>3000</v>
+        <v>357</v>
       </c>
       <c r="J192" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="8:10" x14ac:dyDescent="0.2">
@@ -12259,10 +12375,10 @@
         <v>44073</v>
       </c>
       <c r="I193" s="3">
-        <v>3014</v>
+        <v>360</v>
       </c>
       <c r="J193" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="8:10" x14ac:dyDescent="0.2">
@@ -12270,10 +12386,10 @@
         <v>44074</v>
       </c>
       <c r="I194" s="3">
-        <v>3071</v>
+        <v>361</v>
       </c>
       <c r="J194" s="3">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="8:10" x14ac:dyDescent="0.2">
@@ -12281,10 +12397,10 @@
         <v>44075</v>
       </c>
       <c r="I195" s="3">
-        <v>3126</v>
+        <v>364</v>
       </c>
       <c r="J195" s="3">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="8:10" x14ac:dyDescent="0.2">
@@ -12292,10 +12408,10 @@
         <v>44076</v>
       </c>
       <c r="I196" s="3">
-        <v>3175</v>
+        <v>365</v>
       </c>
       <c r="J196" s="3">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="8:10" x14ac:dyDescent="0.2">
@@ -12303,10 +12419,10 @@
         <v>44077</v>
       </c>
       <c r="I197" s="3">
-        <v>3247</v>
+        <v>367</v>
       </c>
       <c r="J197" s="3">
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="8:10" x14ac:dyDescent="0.2">
@@ -12314,10 +12430,10 @@
         <v>44078</v>
       </c>
       <c r="I198" s="3">
-        <v>3302</v>
+        <v>368</v>
       </c>
       <c r="J198" s="3">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="8:10" x14ac:dyDescent="0.2">
@@ -12325,10 +12441,10 @@
         <v>44079</v>
       </c>
       <c r="I199" s="3">
-        <v>3335</v>
+        <v>368</v>
       </c>
       <c r="J199" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="8:10" x14ac:dyDescent="0.2">
@@ -12336,10 +12452,10 @@
         <v>44080</v>
       </c>
       <c r="I200" s="3">
-        <v>3353</v>
+        <v>370</v>
       </c>
       <c r="J200" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="8:10" x14ac:dyDescent="0.2">
@@ -12347,10 +12463,10 @@
         <v>44081</v>
       </c>
       <c r="I201" s="3">
-        <v>3393</v>
+        <v>371</v>
       </c>
       <c r="J201" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="8:10" x14ac:dyDescent="0.2">
@@ -12358,10 +12474,10 @@
         <v>44082</v>
       </c>
       <c r="I202" s="3">
-        <v>3425</v>
+        <v>375</v>
       </c>
       <c r="J202" s="3">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="8:10" x14ac:dyDescent="0.2">
@@ -12369,10 +12485,10 @@
         <v>44083</v>
       </c>
       <c r="I203" s="3">
-        <v>3460</v>
+        <v>376</v>
       </c>
       <c r="J203" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="8:10" x14ac:dyDescent="0.2">
@@ -12380,10 +12496,10 @@
         <v>44084</v>
       </c>
       <c r="I204" s="3">
-        <v>3486</v>
+        <v>376</v>
       </c>
       <c r="J204" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="8:10" x14ac:dyDescent="0.2">
@@ -12391,10 +12507,10 @@
         <v>44085</v>
       </c>
       <c r="I205" s="3">
-        <v>3520</v>
+        <v>378</v>
       </c>
       <c r="J205" s="3">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="8:10" x14ac:dyDescent="0.2">
@@ -12402,10 +12518,10 @@
         <v>44086</v>
       </c>
       <c r="I206" s="3">
-        <v>3535</v>
+        <v>379</v>
       </c>
       <c r="J206" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="8:10" x14ac:dyDescent="0.2">
@@ -12413,10 +12529,10 @@
         <v>44087</v>
       </c>
       <c r="I207" s="3">
-        <v>3547</v>
+        <v>384</v>
       </c>
       <c r="J207" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="8:10" x14ac:dyDescent="0.2">
@@ -12424,10 +12540,10 @@
         <v>44088</v>
       </c>
       <c r="I208" s="3">
-        <v>3564</v>
+        <v>385</v>
       </c>
       <c r="J208" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="8:10" x14ac:dyDescent="0.2">
@@ -12435,10 +12551,10 @@
         <v>44089</v>
       </c>
       <c r="I209" s="3">
-        <v>3589</v>
+        <v>389</v>
       </c>
       <c r="J209" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="8:10" x14ac:dyDescent="0.2">
@@ -12446,10 +12562,10 @@
         <v>44090</v>
       </c>
       <c r="I210" s="3">
-        <v>3632</v>
+        <v>389</v>
       </c>
       <c r="J210" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="8:10" x14ac:dyDescent="0.2">
@@ -12457,10 +12573,10 @@
         <v>44091</v>
       </c>
       <c r="I211" s="3">
-        <v>3656</v>
+        <v>394</v>
       </c>
       <c r="J211" s="3">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="8:10" x14ac:dyDescent="0.2">
@@ -12468,10 +12584,10 @@
         <v>44092</v>
       </c>
       <c r="I212" s="3">
-        <v>3673</v>
+        <v>395</v>
       </c>
       <c r="J212" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="8:10" x14ac:dyDescent="0.2">
@@ -12479,10 +12595,10 @@
         <v>44093</v>
       </c>
       <c r="I213" s="3">
-        <v>3682</v>
+        <v>397</v>
       </c>
       <c r="J213" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="8:10" x14ac:dyDescent="0.2">
@@ -12490,10 +12606,51 @@
         <v>44094</v>
       </c>
       <c r="I214" s="3">
-        <v>3684</v>
+        <v>397</v>
       </c>
       <c r="J214" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H215" s="2">
+        <v>44095</v>
+      </c>
+      <c r="I215" s="3">
+        <v>403</v>
+      </c>
+      <c r="J215" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H216" s="2">
+        <v>44096</v>
+      </c>
+      <c r="I216" s="3">
+        <v>404</v>
+      </c>
+      <c r="J216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H217" s="2">
+        <v>44097</v>
+      </c>
+      <c r="I217" s="3">
+        <v>406</v>
+      </c>
+      <c r="J217" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H218" s="2">
+        <v>44098</v>
+      </c>
+      <c r="I218" s="3">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_fylker_standing.xlsx
+++ b/COVID_fylker_standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/familien_nerva-koch/Documents/GitHub/COVID19_Norge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF718BEC-04F7-D94A-95B9-94821E003DB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE1E2FA-B4A2-2245-83C4-B19DBD249999}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21060" yWindow="600" windowWidth="19740" windowHeight="20660" xr2:uid="{4666D06D-23A9-A74C-9FBC-2C7F2CED02B0}"/>
   </bookViews>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20D589-0797-0848-9D85-860D362CD017}">
-  <dimension ref="A1:X221"/>
+  <dimension ref="A1:X228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J218"/>
+      <selection activeCell="H206" sqref="H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8275,7 +8275,7 @@
         <v>1221</v>
       </c>
       <c r="L197">
-        <v>3247</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -8313,7 +8313,7 @@
         <v>1254</v>
       </c>
       <c r="L198">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -8351,7 +8351,7 @@
         <v>1269</v>
       </c>
       <c r="L199">
-        <v>3335</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -8389,7 +8389,7 @@
         <v>1289</v>
       </c>
       <c r="L200">
-        <v>3353</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -8424,10 +8424,10 @@
         <v>371</v>
       </c>
       <c r="K201">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="L201">
-        <v>3393</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -8462,10 +8462,10 @@
         <v>375</v>
       </c>
       <c r="K202">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="L202">
-        <v>3425</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -8500,10 +8500,10 @@
         <v>376</v>
       </c>
       <c r="K203">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="L203">
-        <v>3460</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -8538,10 +8538,10 @@
         <v>376</v>
       </c>
       <c r="K204">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="L204">
-        <v>3486</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -8576,10 +8576,10 @@
         <v>378</v>
       </c>
       <c r="K205">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="L205">
-        <v>3520</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -8614,10 +8614,10 @@
         <v>379</v>
       </c>
       <c r="K206">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="L206">
-        <v>3535</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -8652,10 +8652,10 @@
         <v>384</v>
       </c>
       <c r="K207">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="L207">
-        <v>3547</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="B208">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C208">
         <v>608</v>
@@ -8690,10 +8690,10 @@
         <v>385</v>
       </c>
       <c r="K208">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="L208">
-        <v>3564</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -8701,7 +8701,7 @@
         <v>44089</v>
       </c>
       <c r="B209">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C209">
         <v>610</v>
@@ -8728,7 +8728,7 @@
         <v>389</v>
       </c>
       <c r="K209">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="L209">
         <v>3589</v>
@@ -8739,7 +8739,7 @@
         <v>44090</v>
       </c>
       <c r="B210">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C210">
         <v>615</v>
@@ -8751,10 +8751,10 @@
         <v>203</v>
       </c>
       <c r="F210">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="G210">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H210">
         <v>335</v>
@@ -8766,7 +8766,7 @@
         <v>389</v>
       </c>
       <c r="K210">
-        <v>1624</v>
+        <v>1633</v>
       </c>
       <c r="L210">
         <v>3632</v>
@@ -8777,7 +8777,7 @@
         <v>44091</v>
       </c>
       <c r="B211">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C211">
         <v>620</v>
@@ -8789,7 +8789,7 @@
         <v>204</v>
       </c>
       <c r="F211">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="G211">
         <v>601</v>
@@ -8804,7 +8804,7 @@
         <v>394</v>
       </c>
       <c r="K211">
-        <v>1640</v>
+        <v>1652</v>
       </c>
       <c r="L211">
         <v>3656</v>
@@ -8815,19 +8815,19 @@
         <v>44092</v>
       </c>
       <c r="B212">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C212">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D212" s="10">
         <v>203</v>
       </c>
       <c r="E212">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F212">
-        <v>4072</v>
+        <v>4075</v>
       </c>
       <c r="G212">
         <v>604</v>
@@ -8839,13 +8839,13 @@
         <v>655</v>
       </c>
       <c r="J212">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K212">
-        <v>1655</v>
+        <v>1668</v>
       </c>
       <c r="L212">
-        <v>3673</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -8853,22 +8853,22 @@
         <v>44093</v>
       </c>
       <c r="B213">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C213">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D213" s="10">
         <v>203</v>
       </c>
       <c r="E213">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F213">
-        <v>4088</v>
+        <v>4093</v>
       </c>
       <c r="G213">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="H213">
         <v>335</v>
@@ -8877,13 +8877,13 @@
         <v>657</v>
       </c>
       <c r="J213">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K213">
-        <v>1655</v>
+        <v>1674</v>
       </c>
       <c r="L213">
-        <v>3682</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -8891,22 +8891,22 @@
         <v>44094</v>
       </c>
       <c r="B214">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C214">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D214" s="10">
         <v>203</v>
       </c>
       <c r="E214">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F214">
-        <v>4091</v>
+        <v>4118</v>
       </c>
       <c r="G214">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="H214">
         <v>335</v>
@@ -8915,22 +8915,37 @@
         <v>660</v>
       </c>
       <c r="J214">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K214">
-        <v>1655</v>
+        <v>1688</v>
       </c>
       <c r="L214">
-        <v>3684</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="9">
         <v>44095</v>
       </c>
+      <c r="B215">
+        <v>446</v>
+      </c>
+      <c r="C215">
+        <v>631</v>
+      </c>
       <c r="D215" s="10">
         <v>203</v>
       </c>
+      <c r="E215">
+        <v>208</v>
+      </c>
+      <c r="F215">
+        <v>4176</v>
+      </c>
+      <c r="G215">
+        <v>665</v>
+      </c>
       <c r="H215">
         <v>335</v>
       </c>
@@ -8938,16 +8953,37 @@
         <v>661</v>
       </c>
       <c r="J215">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="K215">
+        <v>1714</v>
+      </c>
+      <c r="L215">
+        <v>3738</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="9">
         <v>44096</v>
       </c>
+      <c r="B216">
+        <v>450</v>
+      </c>
+      <c r="C216">
+        <v>634</v>
+      </c>
       <c r="D216" s="10">
         <v>203</v>
       </c>
+      <c r="E216">
+        <v>208</v>
+      </c>
+      <c r="F216">
+        <v>4224</v>
+      </c>
+      <c r="G216">
+        <v>669</v>
+      </c>
       <c r="H216">
         <v>335</v>
       </c>
@@ -8955,89 +8991,469 @@
         <v>664</v>
       </c>
       <c r="J216">
-        <v>404</v>
+        <v>405</v>
+      </c>
+      <c r="K216">
+        <v>1731</v>
+      </c>
+      <c r="L216">
+        <v>3759</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="9">
         <v>44097</v>
       </c>
+      <c r="B217">
+        <v>456</v>
+      </c>
+      <c r="C217">
+        <v>639</v>
+      </c>
       <c r="D217" s="10">
         <v>205</v>
       </c>
+      <c r="E217">
+        <v>208</v>
+      </c>
+      <c r="F217">
+        <v>4279</v>
+      </c>
+      <c r="G217">
+        <v>681</v>
+      </c>
       <c r="H217">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I217">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J217">
-        <v>406</v>
+        <v>410</v>
+      </c>
+      <c r="K217">
+        <v>1754</v>
+      </c>
+      <c r="L217">
+        <v>3792</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="9">
         <v>44098</v>
       </c>
+      <c r="B218">
+        <v>467</v>
+      </c>
+      <c r="C218">
+        <v>646</v>
+      </c>
       <c r="D218" s="10">
         <v>205</v>
       </c>
+      <c r="E218">
+        <v>209</v>
+      </c>
+      <c r="F218">
+        <v>4324</v>
+      </c>
+      <c r="G218">
+        <v>692</v>
+      </c>
       <c r="H218">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I218">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="J218">
-        <v>406</v>
+        <v>411</v>
+      </c>
+      <c r="K218">
+        <v>1777</v>
+      </c>
+      <c r="L218">
+        <v>3823</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="9">
         <v>44099</v>
       </c>
+      <c r="B219">
+        <v>478</v>
+      </c>
+      <c r="C219">
+        <v>651</v>
+      </c>
+      <c r="D219">
+        <v>207</v>
+      </c>
+      <c r="E219">
+        <v>210</v>
+      </c>
+      <c r="F219">
+        <v>4374</v>
+      </c>
+      <c r="G219">
+        <v>695</v>
+      </c>
+      <c r="H219">
+        <v>338</v>
+      </c>
+      <c r="I219">
+        <v>669</v>
+      </c>
+      <c r="J219">
+        <v>414</v>
+      </c>
+      <c r="K219">
+        <v>1802</v>
+      </c>
+      <c r="L219">
+        <v>3850</v>
+      </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="9">
         <v>44100</v>
       </c>
+      <c r="B220">
+        <v>478</v>
+      </c>
+      <c r="C220">
+        <v>653</v>
+      </c>
+      <c r="D220">
+        <v>209</v>
+      </c>
+      <c r="E220">
+        <v>210</v>
+      </c>
+      <c r="F220">
+        <v>4403</v>
+      </c>
+      <c r="G220">
+        <v>697</v>
+      </c>
+      <c r="H220">
+        <v>339</v>
+      </c>
+      <c r="I220">
+        <v>673</v>
+      </c>
+      <c r="J220">
+        <v>417</v>
+      </c>
+      <c r="K220">
+        <v>1817</v>
+      </c>
+      <c r="L220">
+        <v>3854</v>
+      </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="9">
         <v>44101</v>
       </c>
       <c r="B221">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C221">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D221">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E221">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F221">
-        <v>4388</v>
+        <v>4434</v>
       </c>
       <c r="G221">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H221">
         <v>339</v>
       </c>
       <c r="I221">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="J221">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K221">
-        <v>1804</v>
+        <v>1822</v>
       </c>
       <c r="L221">
-        <v>3841</v>
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A222" s="9">
+        <v>44102</v>
+      </c>
+      <c r="B222">
+        <v>491</v>
+      </c>
+      <c r="C222">
+        <v>664</v>
+      </c>
+      <c r="D222">
+        <v>214</v>
+      </c>
+      <c r="E222">
+        <v>212</v>
+      </c>
+      <c r="F222">
+        <v>4477</v>
+      </c>
+      <c r="G222">
+        <v>706</v>
+      </c>
+      <c r="H222">
+        <v>341</v>
+      </c>
+      <c r="I222">
+        <v>678</v>
+      </c>
+      <c r="J222">
+        <v>426</v>
+      </c>
+      <c r="K222">
+        <v>1834</v>
+      </c>
+      <c r="L222">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A223" s="9">
+        <v>44103</v>
+      </c>
+      <c r="B223">
+        <v>493</v>
+      </c>
+      <c r="C223">
+        <v>668</v>
+      </c>
+      <c r="D223">
+        <v>229</v>
+      </c>
+      <c r="E223">
+        <v>213</v>
+      </c>
+      <c r="F223">
+        <v>4517</v>
+      </c>
+      <c r="G223">
+        <v>714</v>
+      </c>
+      <c r="H223">
+        <v>341</v>
+      </c>
+      <c r="I223">
+        <v>682</v>
+      </c>
+      <c r="J223">
+        <v>433</v>
+      </c>
+      <c r="K223">
+        <v>1845</v>
+      </c>
+      <c r="L223">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A224" s="9">
+        <v>44104</v>
+      </c>
+      <c r="B224">
+        <v>494</v>
+      </c>
+      <c r="C224">
+        <v>679</v>
+      </c>
+      <c r="D224">
+        <v>233</v>
+      </c>
+      <c r="E224">
+        <v>214</v>
+      </c>
+      <c r="F224">
+        <v>4555</v>
+      </c>
+      <c r="G224">
+        <v>720</v>
+      </c>
+      <c r="H224">
+        <v>343</v>
+      </c>
+      <c r="I224">
+        <v>693</v>
+      </c>
+      <c r="J224">
+        <v>434</v>
+      </c>
+      <c r="K224">
+        <v>1862</v>
+      </c>
+      <c r="L224">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" s="9">
+        <v>44105</v>
+      </c>
+      <c r="B225">
+        <v>498</v>
+      </c>
+      <c r="C225">
+        <v>686</v>
+      </c>
+      <c r="D225">
+        <v>239</v>
+      </c>
+      <c r="E225">
+        <v>216</v>
+      </c>
+      <c r="F225">
+        <v>4600</v>
+      </c>
+      <c r="G225">
+        <v>723</v>
+      </c>
+      <c r="H225">
+        <v>345</v>
+      </c>
+      <c r="I225">
+        <v>696</v>
+      </c>
+      <c r="J225">
+        <v>441</v>
+      </c>
+      <c r="K225">
+        <v>1872</v>
+      </c>
+      <c r="L225">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A226" s="9">
+        <v>44106</v>
+      </c>
+      <c r="B226">
+        <v>508</v>
+      </c>
+      <c r="C226">
+        <v>697</v>
+      </c>
+      <c r="D226">
+        <v>245</v>
+      </c>
+      <c r="E226">
+        <v>216</v>
+      </c>
+      <c r="F226">
+        <v>4652</v>
+      </c>
+      <c r="G226">
+        <v>728</v>
+      </c>
+      <c r="H226">
+        <v>345</v>
+      </c>
+      <c r="I226">
+        <v>699</v>
+      </c>
+      <c r="J226">
+        <v>445</v>
+      </c>
+      <c r="K226">
+        <v>1889</v>
+      </c>
+      <c r="L226">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227" s="9">
+        <v>44107</v>
+      </c>
+      <c r="B227">
+        <v>509</v>
+      </c>
+      <c r="C227">
+        <v>700</v>
+      </c>
+      <c r="D227">
+        <v>249</v>
+      </c>
+      <c r="E227">
+        <v>216</v>
+      </c>
+      <c r="F227">
+        <v>4679</v>
+      </c>
+      <c r="G227">
+        <v>729</v>
+      </c>
+      <c r="H227">
+        <v>346</v>
+      </c>
+      <c r="I227">
+        <v>699</v>
+      </c>
+      <c r="J227">
+        <v>445</v>
+      </c>
+      <c r="K227">
+        <v>1892</v>
+      </c>
+      <c r="L227">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A228" s="9">
+        <v>44108</v>
+      </c>
+      <c r="B228">
+        <v>509</v>
+      </c>
+      <c r="C228">
+        <v>700</v>
+      </c>
+      <c r="D228">
+        <v>249</v>
+      </c>
+      <c r="E228">
+        <v>216</v>
+      </c>
+      <c r="F228">
+        <v>4687</v>
+      </c>
+      <c r="G228">
+        <v>734</v>
+      </c>
+      <c r="H228">
+        <v>346</v>
+      </c>
+      <c r="I228">
+        <v>699</v>
+      </c>
+      <c r="J228">
+        <v>445</v>
+      </c>
+      <c r="K228">
+        <v>1892</v>
+      </c>
+      <c r="L228">
+        <v>3979</v>
       </c>
     </row>
   </sheetData>
@@ -9047,10 +9463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46004C74-2EDF-764B-8198-01B7AB12DF1A}">
-  <dimension ref="A1:FG218"/>
+  <dimension ref="A1:FG230"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I218"/>
+      <selection activeCell="I4" sqref="I4:I230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9077,15 +9493,6 @@
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="2">
-        <v>43882</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -9095,15 +9502,6 @@
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="2">
-        <v>43883</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -9114,7 +9512,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2">
-        <v>43884</v>
+        <v>43882</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -9132,7 +9530,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2">
-        <v>43885</v>
+        <v>43883</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -9150,7 +9548,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2">
-        <v>43886</v>
+        <v>43884</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -9168,7 +9566,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="2">
-        <v>43887</v>
+        <v>43885</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -9185,7 +9583,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2">
-        <v>43888</v>
+        <v>43886</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -9203,13 +9601,13 @@
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
       <c r="H9" s="2">
-        <v>43889</v>
+        <v>43887</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:163" x14ac:dyDescent="0.2">
@@ -9221,10 +9619,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="2">
-        <v>43890</v>
+        <v>43888</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -9389,13 +9787,13 @@
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="2">
-        <v>43891</v>
+        <v>43889</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:163" x14ac:dyDescent="0.2">
@@ -9407,10 +9805,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
       <c r="H12" s="2">
-        <v>43892</v>
+        <v>43890</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -9425,10 +9823,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="H13" s="2">
-        <v>43893</v>
+        <v>43891</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
@@ -9443,13 +9841,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="I14" s="3">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:163" x14ac:dyDescent="0.2">
@@ -9461,13 +9859,13 @@
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:163" x14ac:dyDescent="0.2">
@@ -9479,13 +9877,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
       <c r="H16" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -9497,13 +9895,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
       <c r="H17" s="2">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="I17" s="3">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J17" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -9515,13 +9913,13 @@
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
       <c r="H18" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="I18" s="3">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="J18" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -9533,13 +9931,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
       <c r="H19" s="2">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="I19" s="3">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J19" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -9551,13 +9949,13 @@
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="2">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="I20" s="3">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="J20" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -9569,13 +9967,13 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="2">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="I21" s="3">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="J21" s="3">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -9587,13 +9985,13 @@
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
       <c r="H22" s="2">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="I22" s="3">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="J22" s="3">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -9605,13 +10003,13 @@
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
       <c r="H23" s="2">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="I23" s="3">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="J23" s="3">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -9623,13 +10021,13 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
       <c r="H24" s="2">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="I24" s="3">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="J24" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -9641,13 +10039,13 @@
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
       <c r="H25" s="2">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="I25" s="3">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="J25" s="3">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -9659,13 +10057,13 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
       <c r="H26" s="2">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="I26" s="3">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="J26" s="3">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -9677,13 +10075,13 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
       <c r="H27" s="2">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="I27" s="3">
-        <v>87</v>
+        <v>401</v>
       </c>
       <c r="J27" s="3">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -9695,13 +10093,13 @@
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
       <c r="H28" s="2">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="I28" s="3">
-        <v>99</v>
+        <v>461</v>
       </c>
       <c r="J28" s="3">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -9713,13 +10111,13 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
       <c r="H29" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I29" s="3">
-        <v>99</v>
+        <v>527</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -9731,13 +10129,13 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
       <c r="H30" s="2">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="I30" s="3">
-        <v>107</v>
+        <v>595</v>
       </c>
       <c r="J30" s="3">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -9749,13 +10147,13 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
       <c r="H31" s="2">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="I31" s="3">
-        <v>109</v>
+        <v>660</v>
       </c>
       <c r="J31" s="3">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -9767,13 +10165,13 @@
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
       <c r="H32" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I32" s="3">
-        <v>114</v>
+        <v>732</v>
       </c>
       <c r="J32" s="3">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -9785,13 +10183,13 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
       <c r="H33" s="2">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="I33" s="3">
-        <v>125</v>
+        <v>784</v>
       </c>
       <c r="J33" s="3">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -9803,13 +10201,13 @@
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
       <c r="H34" s="2">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="I34" s="3">
-        <v>134</v>
+        <v>838</v>
       </c>
       <c r="J34" s="3">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -9821,13 +10219,13 @@
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
       <c r="H35" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="I35" s="3">
-        <v>143</v>
+        <v>908</v>
       </c>
       <c r="J35" s="3">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -9839,13 +10237,13 @@
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
       <c r="H36" s="2">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="I36" s="3">
-        <v>151</v>
+        <v>1001</v>
       </c>
       <c r="J36" s="3">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -9857,13 +10255,13 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
       <c r="H37" s="2">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="I37" s="3">
-        <v>162</v>
+        <v>1081</v>
       </c>
       <c r="J37" s="3">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -9875,13 +10273,13 @@
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
       <c r="H38" s="2">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="I38" s="3">
-        <v>171</v>
+        <v>1141</v>
       </c>
       <c r="J38" s="3">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -9893,13 +10291,13 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
       <c r="H39" s="2">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="I39" s="3">
-        <v>176</v>
+        <v>1207</v>
       </c>
       <c r="J39" s="3">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -9911,13 +10309,13 @@
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
       <c r="H40" s="2">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="I40" s="3">
-        <v>185</v>
+        <v>1245</v>
       </c>
       <c r="J40" s="3">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -9929,13 +10327,13 @@
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
       <c r="H41" s="2">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="I41" s="3">
-        <v>191</v>
+        <v>1286</v>
       </c>
       <c r="J41" s="3">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -9947,13 +10345,13 @@
       <c r="F42" s="2"/>
       <c r="G42" s="3"/>
       <c r="H42" s="2">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="I42" s="3">
-        <v>195</v>
+        <v>1363</v>
       </c>
       <c r="J42" s="3">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -9965,13 +10363,13 @@
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
       <c r="H43" s="2">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="I43" s="3">
-        <v>208</v>
+        <v>1419</v>
       </c>
       <c r="J43" s="3">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -9983,13 +10381,13 @@
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
       <c r="H44" s="2">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="I44" s="3">
-        <v>218</v>
+        <v>1476</v>
       </c>
       <c r="J44" s="3">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -10001,13 +10399,13 @@
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="H45" s="2">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="I45" s="3">
-        <v>224</v>
+        <v>1528</v>
       </c>
       <c r="J45" s="3">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -10019,13 +10417,13 @@
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
       <c r="H46" s="2">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="I46" s="3">
-        <v>229</v>
+        <v>1570</v>
       </c>
       <c r="J46" s="3">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -10037,13 +10435,13 @@
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
       <c r="H47" s="2">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="I47" s="3">
-        <v>234</v>
+        <v>1599</v>
       </c>
       <c r="J47" s="3">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -10055,13 +10453,13 @@
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
       <c r="H48" s="2">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="I48" s="3">
-        <v>236</v>
+        <v>1624</v>
       </c>
       <c r="J48" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -10073,13 +10471,13 @@
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
       <c r="H49" s="2">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="I49" s="3">
-        <v>239</v>
+        <v>1663</v>
       </c>
       <c r="J49" s="3">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -10091,13 +10489,13 @@
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
       <c r="H50" s="2">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="I50" s="3">
-        <v>240</v>
+        <v>1699</v>
       </c>
       <c r="J50" s="3">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -10109,13 +10507,13 @@
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
       <c r="H51" s="2">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="I51" s="3">
-        <v>241</v>
+        <v>1724</v>
       </c>
       <c r="J51" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -10127,13 +10525,13 @@
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
       <c r="H52" s="2">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="I52" s="3">
-        <v>247</v>
+        <v>1750</v>
       </c>
       <c r="J52" s="3">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -10145,13 +10543,13 @@
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
       <c r="H53" s="2">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="I53" s="3">
-        <v>248</v>
+        <v>1767</v>
       </c>
       <c r="J53" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -10163,13 +10561,13 @@
       <c r="F54" s="2"/>
       <c r="G54" s="3"/>
       <c r="H54" s="2">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="I54" s="3">
-        <v>250</v>
+        <v>1786</v>
       </c>
       <c r="J54" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -10181,13 +10579,13 @@
       <c r="F55" s="2"/>
       <c r="G55" s="3"/>
       <c r="H55" s="2">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="I55" s="3">
-        <v>251</v>
+        <v>1808</v>
       </c>
       <c r="J55" s="3">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -10199,13 +10597,13 @@
       <c r="F56" s="2"/>
       <c r="G56" s="3"/>
       <c r="H56" s="2">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="I56" s="3">
-        <v>252</v>
+        <v>1829</v>
       </c>
       <c r="J56" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -10217,13 +10615,13 @@
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
       <c r="H57" s="2">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="I57" s="3">
-        <v>259</v>
+        <v>1854</v>
       </c>
       <c r="J57" s="3">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -10235,13 +10633,13 @@
       <c r="F58" s="2"/>
       <c r="G58" s="3"/>
       <c r="H58" s="2">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="I58" s="3">
-        <v>260</v>
+        <v>1877</v>
       </c>
       <c r="J58" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -10253,13 +10651,13 @@
       <c r="F59" s="2"/>
       <c r="G59" s="3"/>
       <c r="H59" s="2">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="I59" s="3">
-        <v>261</v>
+        <v>1893</v>
       </c>
       <c r="J59" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -10271,13 +10669,13 @@
       <c r="F60" s="2"/>
       <c r="G60" s="3"/>
       <c r="H60" s="2">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="I60" s="3">
-        <v>261</v>
+        <v>1929</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -10289,13 +10687,13 @@
       <c r="F61" s="2"/>
       <c r="G61" s="3"/>
       <c r="H61" s="2">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="I61" s="3">
-        <v>261</v>
+        <v>1937</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -10307,13 +10705,13 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
       <c r="H62" s="2">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="I62" s="3">
-        <v>262</v>
+        <v>1941</v>
       </c>
       <c r="J62" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -10325,13 +10723,13 @@
       <c r="F63" s="2"/>
       <c r="G63" s="3"/>
       <c r="H63" s="2">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="I63" s="3">
-        <v>265</v>
+        <v>1964</v>
       </c>
       <c r="J63" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -10343,13 +10741,13 @@
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
       <c r="H64" s="2">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="I64" s="3">
-        <v>268</v>
+        <v>1980</v>
       </c>
       <c r="J64" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -10361,13 +10759,13 @@
       <c r="F65" s="2"/>
       <c r="G65" s="3"/>
       <c r="H65" s="2">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="I65" s="3">
-        <v>268</v>
+        <v>1998</v>
       </c>
       <c r="J65" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -10379,13 +10777,13 @@
       <c r="F66" s="2"/>
       <c r="G66" s="3"/>
       <c r="H66" s="2">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="I66" s="3">
-        <v>269</v>
+        <v>2011</v>
       </c>
       <c r="J66" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -10397,13 +10795,13 @@
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
       <c r="H67" s="2">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="I67" s="3">
-        <v>269</v>
+        <v>2024</v>
       </c>
       <c r="J67" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -10415,13 +10813,13 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
       <c r="H68" s="2">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="I68" s="3">
-        <v>269</v>
+        <v>2027</v>
       </c>
       <c r="J68" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -10433,13 +10831,13 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
       <c r="H69" s="2">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="I69" s="3">
-        <v>271</v>
+        <v>2031</v>
       </c>
       <c r="J69" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -10451,13 +10849,13 @@
       <c r="F70" s="2"/>
       <c r="G70" s="3"/>
       <c r="H70" s="2">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="I70" s="3">
-        <v>272</v>
+        <v>2049</v>
       </c>
       <c r="J70" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -10469,13 +10867,13 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
       <c r="H71" s="2">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="I71" s="3">
-        <v>273</v>
+        <v>2065</v>
       </c>
       <c r="J71" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -10487,13 +10885,13 @@
       <c r="F72" s="2"/>
       <c r="G72" s="3"/>
       <c r="H72" s="2">
-        <v>43952</v>
+        <v>43950</v>
       </c>
       <c r="I72" s="3">
-        <v>273</v>
+        <v>2072</v>
       </c>
       <c r="J72" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -10505,13 +10903,13 @@
       <c r="F73" s="2"/>
       <c r="G73" s="3"/>
       <c r="H73" s="2">
-        <v>43953</v>
+        <v>43951</v>
       </c>
       <c r="I73" s="3">
-        <v>273</v>
+        <v>2082</v>
       </c>
       <c r="J73" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -10523,13 +10921,13 @@
       <c r="F74" s="2"/>
       <c r="G74" s="3"/>
       <c r="H74" s="2">
-        <v>43954</v>
+        <v>43952</v>
       </c>
       <c r="I74" s="3">
-        <v>273</v>
+        <v>2085</v>
       </c>
       <c r="J74" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -10541,13 +10939,13 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
       <c r="H75" s="2">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="I75" s="3">
-        <v>273</v>
+        <v>2092</v>
       </c>
       <c r="J75" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -10559,13 +10957,13 @@
       <c r="F76" s="2"/>
       <c r="G76" s="3"/>
       <c r="H76" s="2">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="I76" s="3">
-        <v>274</v>
+        <v>2101</v>
       </c>
       <c r="J76" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -10577,13 +10975,13 @@
       <c r="F77" s="2"/>
       <c r="G77" s="3"/>
       <c r="H77" s="2">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="I77" s="3">
-        <v>275</v>
+        <v>2119</v>
       </c>
       <c r="J77" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -10595,13 +10993,13 @@
       <c r="F78" s="2"/>
       <c r="G78" s="3"/>
       <c r="H78" s="2">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="I78" s="3">
-        <v>276</v>
+        <v>2132</v>
       </c>
       <c r="J78" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -10613,13 +11011,13 @@
       <c r="F79" s="2"/>
       <c r="G79" s="3"/>
       <c r="H79" s="2">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="I79" s="3">
-        <v>276</v>
+        <v>2143</v>
       </c>
       <c r="J79" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -10631,13 +11029,13 @@
       <c r="F80" s="2"/>
       <c r="G80" s="3"/>
       <c r="H80" s="2">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="I80" s="3">
-        <v>276</v>
+        <v>2155</v>
       </c>
       <c r="J80" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -10649,13 +11047,13 @@
       <c r="F81" s="2"/>
       <c r="G81" s="3"/>
       <c r="H81" s="2">
-        <v>43961</v>
+        <v>43959</v>
       </c>
       <c r="I81" s="3">
-        <v>276</v>
+        <v>2173</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -10667,13 +11065,13 @@
       <c r="F82" s="2"/>
       <c r="G82" s="3"/>
       <c r="H82" s="2">
-        <v>43962</v>
+        <v>43960</v>
       </c>
       <c r="I82" s="3">
-        <v>276</v>
+        <v>2176</v>
       </c>
       <c r="J82" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -10685,13 +11083,13 @@
       <c r="F83" s="2"/>
       <c r="G83" s="3"/>
       <c r="H83" s="2">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="I83" s="3">
-        <v>278</v>
+        <v>2177</v>
       </c>
       <c r="J83" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -10703,13 +11101,13 @@
       <c r="F84" s="2"/>
       <c r="G84" s="3"/>
       <c r="H84" s="2">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="I84" s="3">
-        <v>279</v>
+        <v>2186</v>
       </c>
       <c r="J84" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -10721,13 +11119,13 @@
       <c r="F85" s="2"/>
       <c r="G85" s="3"/>
       <c r="H85" s="2">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="I85" s="3">
-        <v>279</v>
+        <v>2193</v>
       </c>
       <c r="J85" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -10739,13 +11137,13 @@
       <c r="F86" s="2"/>
       <c r="G86" s="3"/>
       <c r="H86" s="2">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="I86" s="3">
-        <v>280</v>
+        <v>2203</v>
       </c>
       <c r="J86" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -10757,13 +11155,13 @@
       <c r="F87" s="2"/>
       <c r="G87" s="3"/>
       <c r="H87" s="2">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="I87" s="3">
-        <v>280</v>
+        <v>2210</v>
       </c>
       <c r="J87" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -10775,13 +11173,13 @@
       <c r="F88" s="2"/>
       <c r="G88" s="3"/>
       <c r="H88" s="2">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="I88" s="3">
-        <v>280</v>
+        <v>2220</v>
       </c>
       <c r="J88" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -10793,13 +11191,13 @@
       <c r="F89" s="2"/>
       <c r="G89" s="3"/>
       <c r="H89" s="2">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="I89" s="3">
-        <v>280</v>
+        <v>2226</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -10811,10 +11209,10 @@
       <c r="F90" s="2"/>
       <c r="G90" s="3"/>
       <c r="H90" s="2">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="I90" s="3">
-        <v>282</v>
+        <v>2228</v>
       </c>
       <c r="J90" s="3">
         <v>2</v>
@@ -10829,13 +11227,13 @@
       <c r="F91" s="2"/>
       <c r="G91" s="3"/>
       <c r="H91" s="2">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="I91" s="3">
-        <v>282</v>
+        <v>2238</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -10847,13 +11245,13 @@
       <c r="F92" s="2"/>
       <c r="G92" s="3"/>
       <c r="H92" s="2">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="I92" s="3">
-        <v>283</v>
+        <v>2245</v>
       </c>
       <c r="J92" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -10865,13 +11263,13 @@
       <c r="F93" s="2"/>
       <c r="G93" s="3"/>
       <c r="H93" s="2">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="I93" s="3">
-        <v>284</v>
+        <v>2253</v>
       </c>
       <c r="J93" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -10883,13 +11281,13 @@
       <c r="F94" s="2"/>
       <c r="G94" s="3"/>
       <c r="H94" s="2">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="I94" s="3">
-        <v>284</v>
+        <v>2254</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -10901,13 +11299,13 @@
       <c r="F95" s="2"/>
       <c r="G95" s="3"/>
       <c r="H95" s="2">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="I95" s="3">
-        <v>284</v>
+        <v>2264</v>
       </c>
       <c r="J95" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -10919,10 +11317,10 @@
       <c r="F96" s="2"/>
       <c r="G96" s="3"/>
       <c r="H96" s="2">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="I96" s="3">
-        <v>284</v>
+        <v>2264</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -10937,13 +11335,13 @@
       <c r="F97" s="2"/>
       <c r="G97" s="3"/>
       <c r="H97" s="2">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="I97" s="3">
-        <v>285</v>
+        <v>2267</v>
       </c>
       <c r="J97" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -10955,13 +11353,13 @@
       <c r="F98" s="2"/>
       <c r="G98" s="3"/>
       <c r="H98" s="2">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="I98" s="3">
-        <v>285</v>
+        <v>2275</v>
       </c>
       <c r="J98" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -10973,13 +11371,13 @@
       <c r="F99" s="2"/>
       <c r="G99" s="3"/>
       <c r="H99" s="2">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="I99" s="3">
-        <v>285</v>
+        <v>2279</v>
       </c>
       <c r="J99" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -10991,13 +11389,13 @@
       <c r="F100" s="2"/>
       <c r="G100" s="3"/>
       <c r="H100" s="2">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="I100" s="3">
-        <v>285</v>
+        <v>2287</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -11009,13 +11407,13 @@
       <c r="F101" s="2"/>
       <c r="G101" s="3"/>
       <c r="H101" s="2">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="I101" s="3">
-        <v>285</v>
+        <v>2290</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -11027,13 +11425,13 @@
       <c r="F102" s="2"/>
       <c r="G102" s="3"/>
       <c r="H102" s="2">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="I102" s="3">
-        <v>285</v>
+        <v>2293</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -11045,10 +11443,10 @@
       <c r="F103" s="2"/>
       <c r="G103" s="3"/>
       <c r="H103" s="2">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="I103" s="3">
-        <v>285</v>
+        <v>2293</v>
       </c>
       <c r="J103" s="3">
         <v>0</v>
@@ -11063,13 +11461,13 @@
       <c r="F104" s="2"/>
       <c r="G104" s="3"/>
       <c r="H104" s="2">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="I104" s="3">
-        <v>286</v>
+        <v>2295</v>
       </c>
       <c r="J104" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -11081,13 +11479,13 @@
       <c r="F105" s="2"/>
       <c r="G105" s="3"/>
       <c r="H105" s="2">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="I105" s="3">
-        <v>286</v>
+        <v>2297</v>
       </c>
       <c r="J105" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -11099,13 +11497,13 @@
       <c r="F106" s="2"/>
       <c r="G106" s="3"/>
       <c r="H106" s="2">
-        <v>43986</v>
+        <v>43984</v>
       </c>
       <c r="I106" s="3">
-        <v>286</v>
+        <v>2300</v>
       </c>
       <c r="J106" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -11117,13 +11515,13 @@
       <c r="F107" s="2"/>
       <c r="G107" s="3"/>
       <c r="H107" s="2">
-        <v>43987</v>
+        <v>43985</v>
       </c>
       <c r="I107" s="3">
-        <v>288</v>
+        <v>2305</v>
       </c>
       <c r="J107" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -11135,13 +11533,13 @@
       <c r="F108" s="2"/>
       <c r="G108" s="3"/>
       <c r="H108" s="2">
-        <v>43988</v>
+        <v>43986</v>
       </c>
       <c r="I108" s="3">
-        <v>288</v>
+        <v>2306</v>
       </c>
       <c r="J108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -11153,13 +11551,13 @@
       <c r="F109" s="2"/>
       <c r="G109" s="3"/>
       <c r="H109" s="2">
-        <v>43989</v>
+        <v>43987</v>
       </c>
       <c r="I109" s="3">
-        <v>288</v>
+        <v>2310</v>
       </c>
       <c r="J109" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -11171,13 +11569,13 @@
       <c r="F110" s="2"/>
       <c r="G110" s="3"/>
       <c r="H110" s="2">
-        <v>43990</v>
+        <v>43988</v>
       </c>
       <c r="I110" s="3">
-        <v>289</v>
+        <v>2312</v>
       </c>
       <c r="J110" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -11189,10 +11587,10 @@
       <c r="F111" s="2"/>
       <c r="G111" s="3"/>
       <c r="H111" s="2">
-        <v>43991</v>
+        <v>43989</v>
       </c>
       <c r="I111" s="3">
-        <v>289</v>
+        <v>2312</v>
       </c>
       <c r="J111" s="3">
         <v>0</v>
@@ -11207,13 +11605,13 @@
       <c r="F112" s="2"/>
       <c r="G112" s="3"/>
       <c r="H112" s="2">
-        <v>43992</v>
+        <v>43990</v>
       </c>
       <c r="I112" s="3">
-        <v>289</v>
+        <v>2319</v>
       </c>
       <c r="J112" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -11225,13 +11623,13 @@
       <c r="F113" s="2"/>
       <c r="G113" s="3"/>
       <c r="H113" s="2">
-        <v>43993</v>
+        <v>43991</v>
       </c>
       <c r="I113" s="3">
-        <v>289</v>
+        <v>2323</v>
       </c>
       <c r="J113" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -11243,13 +11641,13 @@
       <c r="F114" s="2"/>
       <c r="G114" s="3"/>
       <c r="H114" s="2">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="I114" s="3">
-        <v>289</v>
+        <v>2324</v>
       </c>
       <c r="J114" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -11261,13 +11659,13 @@
       <c r="F115" s="2"/>
       <c r="G115" s="3"/>
       <c r="H115" s="2">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="I115" s="3">
-        <v>289</v>
+        <v>2327</v>
       </c>
       <c r="J115" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -11279,13 +11677,13 @@
       <c r="F116" s="2"/>
       <c r="G116" s="3"/>
       <c r="H116" s="2">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="I116" s="3">
-        <v>289</v>
+        <v>2333</v>
       </c>
       <c r="J116" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -11297,13 +11695,13 @@
       <c r="F117" s="2"/>
       <c r="G117" s="3"/>
       <c r="H117" s="2">
-        <v>43997</v>
+        <v>43995</v>
       </c>
       <c r="I117" s="3">
-        <v>290</v>
+        <v>2335</v>
       </c>
       <c r="J117" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -11315,13 +11713,13 @@
       <c r="F118" s="2"/>
       <c r="G118" s="3"/>
       <c r="H118" s="2">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="I118" s="3">
-        <v>291</v>
+        <v>2335</v>
       </c>
       <c r="J118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -11333,13 +11731,13 @@
       <c r="F119" s="2"/>
       <c r="G119" s="3"/>
       <c r="H119" s="2">
-        <v>43999</v>
+        <v>43997</v>
       </c>
       <c r="I119" s="3">
-        <v>291</v>
+        <v>2344</v>
       </c>
       <c r="J119" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -11351,13 +11749,13 @@
       <c r="F120" s="2"/>
       <c r="G120" s="3"/>
       <c r="H120" s="2">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="I120" s="3">
-        <v>291</v>
+        <v>2353</v>
       </c>
       <c r="J120" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -11369,13 +11767,13 @@
       <c r="F121" s="2"/>
       <c r="G121" s="3"/>
       <c r="H121" s="2">
-        <v>44001</v>
+        <v>43999</v>
       </c>
       <c r="I121" s="3">
-        <v>294</v>
+        <v>2360</v>
       </c>
       <c r="J121" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -11387,13 +11785,13 @@
       <c r="F122" s="2"/>
       <c r="G122" s="3"/>
       <c r="H122" s="2">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="I122" s="3">
-        <v>294</v>
+        <v>2365</v>
       </c>
       <c r="J122" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -11405,13 +11803,13 @@
       <c r="F123" s="2"/>
       <c r="G123" s="3"/>
       <c r="H123" s="2">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="I123" s="3">
-        <v>294</v>
+        <v>2369</v>
       </c>
       <c r="J123" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -11423,13 +11821,13 @@
       <c r="F124" s="2"/>
       <c r="G124" s="3"/>
       <c r="H124" s="2">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="I124" s="3">
-        <v>294</v>
+        <v>2370</v>
       </c>
       <c r="J124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -11441,13 +11839,13 @@
       <c r="F125" s="2"/>
       <c r="G125" s="3"/>
       <c r="H125" s="2">
-        <v>44005</v>
+        <v>44003</v>
       </c>
       <c r="I125" s="3">
-        <v>294</v>
+        <v>2371</v>
       </c>
       <c r="J125" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -11459,13 +11857,13 @@
       <c r="F126" s="2"/>
       <c r="G126" s="3"/>
       <c r="H126" s="2">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="I126" s="3">
-        <v>294</v>
+        <v>2385</v>
       </c>
       <c r="J126" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -11477,13 +11875,13 @@
       <c r="F127" s="2"/>
       <c r="G127" s="3"/>
       <c r="H127" s="2">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="I127" s="3">
-        <v>294</v>
+        <v>2390</v>
       </c>
       <c r="J127" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -11495,13 +11893,13 @@
       <c r="F128" s="2"/>
       <c r="G128" s="3"/>
       <c r="H128" s="2">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="I128" s="3">
-        <v>294</v>
+        <v>2405</v>
       </c>
       <c r="J128" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
@@ -11513,13 +11911,13 @@
       <c r="F129" s="2"/>
       <c r="G129" s="3"/>
       <c r="H129" s="2">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="I129" s="3">
-        <v>294</v>
+        <v>2413</v>
       </c>
       <c r="J129" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -11531,13 +11929,13 @@
       <c r="F130" s="2"/>
       <c r="G130" s="3"/>
       <c r="H130" s="2">
-        <v>44010</v>
+        <v>44008</v>
       </c>
       <c r="I130" s="3">
-        <v>294</v>
+        <v>2427</v>
       </c>
       <c r="J130" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
@@ -11549,13 +11947,13 @@
       <c r="F131" s="2"/>
       <c r="G131" s="3"/>
       <c r="H131" s="2">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="I131" s="3">
-        <v>294</v>
+        <v>2430</v>
       </c>
       <c r="J131" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -11567,10 +11965,10 @@
       <c r="F132" s="2"/>
       <c r="G132" s="3"/>
       <c r="H132" s="2">
-        <v>44012</v>
+        <v>44010</v>
       </c>
       <c r="I132" s="3">
-        <v>294</v>
+        <v>2430</v>
       </c>
       <c r="J132" s="3">
         <v>0</v>
@@ -11585,13 +11983,13 @@
       <c r="F133" s="2"/>
       <c r="G133" s="3"/>
       <c r="H133" s="2">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="I133" s="3">
-        <v>295</v>
+        <v>2447</v>
       </c>
       <c r="J133" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -11603,13 +12001,13 @@
       <c r="F134" s="2"/>
       <c r="G134" s="3"/>
       <c r="H134" s="2">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="I134" s="3">
-        <v>296</v>
+        <v>2449</v>
       </c>
       <c r="J134" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -11621,13 +12019,13 @@
       <c r="F135" s="2"/>
       <c r="G135" s="3"/>
       <c r="H135" s="2">
-        <v>44015</v>
+        <v>44013</v>
       </c>
       <c r="I135" s="3">
-        <v>296</v>
+        <v>2452</v>
       </c>
       <c r="J135" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -11639,13 +12037,13 @@
       <c r="F136" s="2"/>
       <c r="G136" s="3"/>
       <c r="H136" s="2">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="I136" s="3">
-        <v>296</v>
+        <v>2455</v>
       </c>
       <c r="J136" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -11657,13 +12055,13 @@
       <c r="F137" s="2"/>
       <c r="G137" s="3"/>
       <c r="H137" s="2">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="I137" s="3">
-        <v>296</v>
+        <v>2460</v>
       </c>
       <c r="J137" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -11675,10 +12073,10 @@
       <c r="F138" s="2"/>
       <c r="G138" s="3"/>
       <c r="H138" s="2">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="I138" s="3">
-        <v>297</v>
+        <v>2461</v>
       </c>
       <c r="J138" s="3">
         <v>1</v>
@@ -11693,13 +12091,13 @@
       <c r="F139" s="2"/>
       <c r="G139" s="3"/>
       <c r="H139" s="2">
-        <v>44019</v>
+        <v>44017</v>
       </c>
       <c r="I139" s="3">
-        <v>299</v>
+        <v>2461</v>
       </c>
       <c r="J139" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -11711,13 +12109,13 @@
       <c r="F140" s="2"/>
       <c r="G140" s="3"/>
       <c r="H140" s="2">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="I140" s="3">
-        <v>299</v>
+        <v>2472</v>
       </c>
       <c r="J140" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -11729,13 +12127,13 @@
       <c r="F141" s="2"/>
       <c r="G141" s="3"/>
       <c r="H141" s="2">
-        <v>44021</v>
+        <v>44019</v>
       </c>
       <c r="I141" s="3">
-        <v>299</v>
+        <v>2476</v>
       </c>
       <c r="J141" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -11747,13 +12145,13 @@
       <c r="F142" s="2"/>
       <c r="G142" s="3"/>
       <c r="H142" s="2">
-        <v>44022</v>
+        <v>44020</v>
       </c>
       <c r="I142" s="3">
-        <v>299</v>
+        <v>2479</v>
       </c>
       <c r="J142" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -11765,13 +12163,13 @@
       <c r="F143" s="2"/>
       <c r="G143" s="3"/>
       <c r="H143" s="2">
-        <v>44023</v>
+        <v>44021</v>
       </c>
       <c r="I143" s="3">
-        <v>299</v>
+        <v>2480</v>
       </c>
       <c r="J143" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -11783,13 +12181,13 @@
       <c r="F144" s="2"/>
       <c r="G144" s="3"/>
       <c r="H144" s="2">
-        <v>44024</v>
+        <v>44022</v>
       </c>
       <c r="I144" s="3">
-        <v>299</v>
+        <v>2484</v>
       </c>
       <c r="J144" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -11801,10 +12199,10 @@
       <c r="F145" s="2"/>
       <c r="G145" s="3"/>
       <c r="H145" s="2">
-        <v>44025</v>
+        <v>44023</v>
       </c>
       <c r="I145" s="3">
-        <v>299</v>
+        <v>2484</v>
       </c>
       <c r="J145" s="3">
         <v>0</v>
@@ -11819,13 +12217,13 @@
       <c r="F146" s="2"/>
       <c r="G146" s="3"/>
       <c r="H146" s="2">
-        <v>44026</v>
+        <v>44024</v>
       </c>
       <c r="I146" s="3">
-        <v>299</v>
+        <v>2486</v>
       </c>
       <c r="J146" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -11837,13 +12235,13 @@
       <c r="F147" s="2"/>
       <c r="G147" s="3"/>
       <c r="H147" s="2">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="I147" s="3">
-        <v>299</v>
+        <v>2493</v>
       </c>
       <c r="J147" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -11855,13 +12253,13 @@
       <c r="F148" s="2"/>
       <c r="G148" s="3"/>
       <c r="H148" s="2">
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="I148" s="3">
-        <v>299</v>
+        <v>2497</v>
       </c>
       <c r="J148" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -11873,13 +12271,13 @@
       <c r="F149" s="2"/>
       <c r="G149" s="3"/>
       <c r="H149" s="2">
-        <v>44029</v>
+        <v>44027</v>
       </c>
       <c r="I149" s="3">
-        <v>299</v>
+        <v>2498</v>
       </c>
       <c r="J149" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -11891,10 +12289,10 @@
       <c r="F150" s="2"/>
       <c r="G150" s="3"/>
       <c r="H150" s="2">
-        <v>44030</v>
+        <v>44028</v>
       </c>
       <c r="I150" s="3">
-        <v>299</v>
+        <v>2498</v>
       </c>
       <c r="J150" s="3">
         <v>0</v>
@@ -11906,13 +12304,13 @@
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="H151" s="2">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="I151" s="3">
-        <v>299</v>
+        <v>2499</v>
       </c>
       <c r="J151" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -11921,10 +12319,10 @@
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="H152" s="2">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="I152" s="3">
-        <v>299</v>
+        <v>2499</v>
       </c>
       <c r="J152" s="3">
         <v>0</v>
@@ -11932,10 +12330,10 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H153" s="2">
-        <v>44033</v>
+        <v>44031</v>
       </c>
       <c r="I153" s="3">
-        <v>299</v>
+        <v>2499</v>
       </c>
       <c r="J153" s="3">
         <v>0</v>
@@ -11943,21 +12341,21 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H154" s="2">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="I154" s="3">
-        <v>300</v>
+        <v>2510</v>
       </c>
       <c r="J154" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H155" s="2">
-        <v>44035</v>
+        <v>44033</v>
       </c>
       <c r="I155" s="3">
-        <v>300</v>
+        <v>2510</v>
       </c>
       <c r="J155" s="3">
         <v>0</v>
@@ -11965,692 +12363,827 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H156" s="2">
-        <v>44036</v>
+        <v>44034</v>
       </c>
       <c r="I156" s="3">
-        <v>301</v>
+        <v>2521</v>
       </c>
       <c r="J156" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H157" s="2">
-        <v>44037</v>
+        <v>44035</v>
       </c>
       <c r="I157" s="3">
-        <v>301</v>
+        <v>2524</v>
       </c>
       <c r="J157" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H158" s="2">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="I158" s="3">
-        <v>303</v>
+        <v>2538</v>
       </c>
       <c r="J158" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H159" s="2">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="I159" s="3">
-        <v>306</v>
+        <v>2538</v>
       </c>
       <c r="J159" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H160" s="2">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="I160" s="3">
-        <v>306</v>
+        <v>2544</v>
       </c>
       <c r="J160" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H161" s="2">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="I161" s="3">
-        <v>310</v>
+        <v>2551</v>
       </c>
       <c r="J161" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H162" s="2">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="I162" s="3">
-        <v>310</v>
+        <v>2556</v>
       </c>
       <c r="J162" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H163" s="2">
-        <v>44043</v>
+        <v>44041</v>
       </c>
       <c r="I163" s="3">
-        <v>312</v>
+        <v>2564</v>
       </c>
       <c r="J163" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H164" s="2">
-        <v>44044</v>
+        <v>44042</v>
       </c>
       <c r="I164" s="3">
-        <v>312</v>
+        <v>2569</v>
       </c>
       <c r="J164" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H165" s="2">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="I165" s="3">
-        <v>312</v>
+        <v>2579</v>
       </c>
       <c r="J165" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H166" s="2">
-        <v>44046</v>
+        <v>44044</v>
       </c>
       <c r="I166" s="3">
-        <v>314</v>
+        <v>2586</v>
       </c>
       <c r="J166" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H167" s="2">
-        <v>44047</v>
+        <v>44045</v>
       </c>
       <c r="I167" s="3">
-        <v>314</v>
+        <v>2589</v>
       </c>
       <c r="J167" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H168" s="2">
-        <v>44048</v>
+        <v>44046</v>
       </c>
       <c r="I168" s="3">
-        <v>317</v>
+        <v>2597</v>
       </c>
       <c r="J168" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H169" s="2">
-        <v>44049</v>
+        <v>44047</v>
       </c>
       <c r="I169" s="3">
-        <v>319</v>
+        <v>2613</v>
       </c>
       <c r="J169" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H170" s="2">
-        <v>44050</v>
+        <v>44048</v>
       </c>
       <c r="I170" s="3">
-        <v>324</v>
+        <v>2632</v>
       </c>
       <c r="J170" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H171" s="2">
-        <v>44051</v>
+        <v>44049</v>
       </c>
       <c r="I171" s="3">
-        <v>326</v>
+        <v>2661</v>
       </c>
       <c r="J171" s="3">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H172" s="2">
-        <v>44052</v>
+        <v>44050</v>
       </c>
       <c r="I172" s="3">
-        <v>327</v>
+        <v>2704</v>
       </c>
       <c r="J172" s="3">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H173" s="2">
-        <v>44053</v>
+        <v>44051</v>
       </c>
       <c r="I173" s="3">
-        <v>331</v>
+        <v>2720</v>
       </c>
       <c r="J173" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H174" s="2">
-        <v>44054</v>
+        <v>44052</v>
       </c>
       <c r="I174" s="3">
-        <v>332</v>
+        <v>2738</v>
       </c>
       <c r="J174" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H175" s="2">
-        <v>44055</v>
+        <v>44053</v>
       </c>
       <c r="I175" s="3">
-        <v>333</v>
+        <v>2761</v>
       </c>
       <c r="J175" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H176" s="2">
-        <v>44056</v>
+        <v>44054</v>
       </c>
       <c r="I176" s="3">
-        <v>337</v>
+        <v>2780</v>
       </c>
       <c r="J176" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H177" s="2">
-        <v>44057</v>
+        <v>44055</v>
       </c>
       <c r="I177" s="3">
-        <v>340</v>
+        <v>2797</v>
       </c>
       <c r="J177" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H178" s="2">
-        <v>44058</v>
+        <v>44056</v>
       </c>
       <c r="I178" s="3">
-        <v>342</v>
+        <v>2810</v>
       </c>
       <c r="J178" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H179" s="2">
-        <v>44059</v>
+        <v>44057</v>
       </c>
       <c r="I179" s="3">
-        <v>343</v>
+        <v>2828</v>
       </c>
       <c r="J179" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H180" s="2">
-        <v>44060</v>
+        <v>44058</v>
       </c>
       <c r="I180" s="3">
-        <v>346</v>
+        <v>2841</v>
       </c>
       <c r="J180" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H181" s="2">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="I181" s="3">
-        <v>348</v>
+        <v>2849</v>
       </c>
       <c r="J181" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H182" s="2">
-        <v>44062</v>
+        <v>44060</v>
       </c>
       <c r="I182" s="3">
-        <v>348</v>
+        <v>2879</v>
       </c>
       <c r="J182" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H183" s="2">
-        <v>44063</v>
+        <v>44061</v>
       </c>
       <c r="I183" s="3">
-        <v>349</v>
+        <v>2889</v>
       </c>
       <c r="J183" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H184" s="2">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="I184" s="3">
-        <v>350</v>
+        <v>2898</v>
       </c>
       <c r="J184" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H185" s="2">
-        <v>44065</v>
+        <v>44063</v>
       </c>
       <c r="I185" s="3">
-        <v>351</v>
+        <v>2909</v>
       </c>
       <c r="J185" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H186" s="2">
-        <v>44066</v>
+        <v>44064</v>
       </c>
       <c r="I186" s="3">
-        <v>351</v>
+        <v>2915</v>
       </c>
       <c r="J186" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H187" s="2">
-        <v>44067</v>
+        <v>44065</v>
       </c>
       <c r="I187" s="3">
-        <v>352</v>
+        <v>2926</v>
       </c>
       <c r="J187" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H188" s="2">
-        <v>44068</v>
+        <v>44066</v>
       </c>
       <c r="I188" s="3">
-        <v>353</v>
+        <v>2926</v>
       </c>
       <c r="J188" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H189" s="2">
-        <v>44069</v>
+        <v>44067</v>
       </c>
       <c r="I189" s="3">
-        <v>354</v>
+        <v>2937</v>
       </c>
       <c r="J189" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H190" s="2">
-        <v>44070</v>
+        <v>44068</v>
       </c>
       <c r="I190" s="3">
-        <v>356</v>
+        <v>2943</v>
       </c>
       <c r="J190" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H191" s="2">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="I191" s="3">
-        <v>356</v>
+        <v>2950</v>
       </c>
       <c r="J191" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H192" s="2">
-        <v>44072</v>
+        <v>44070</v>
       </c>
       <c r="I192" s="3">
-        <v>357</v>
+        <v>2962</v>
       </c>
       <c r="J192" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H193" s="2">
-        <v>44073</v>
+        <v>44071</v>
       </c>
       <c r="I193" s="3">
-        <v>360</v>
+        <v>2985</v>
       </c>
       <c r="J193" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H194" s="2">
-        <v>44074</v>
+        <v>44072</v>
       </c>
       <c r="I194" s="3">
-        <v>361</v>
+        <v>3000</v>
       </c>
       <c r="J194" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H195" s="2">
-        <v>44075</v>
+        <v>44073</v>
       </c>
       <c r="I195" s="3">
-        <v>364</v>
+        <v>3014</v>
       </c>
       <c r="J195" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H196" s="2">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="I196" s="3">
-        <v>365</v>
+        <v>3071</v>
       </c>
       <c r="J196" s="3">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H197" s="2">
-        <v>44077</v>
+        <v>44075</v>
       </c>
       <c r="I197" s="3">
-        <v>367</v>
+        <v>3126</v>
       </c>
       <c r="J197" s="3">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H198" s="2">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="I198" s="3">
-        <v>368</v>
+        <v>3175</v>
       </c>
       <c r="J198" s="3">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H199" s="2">
-        <v>44079</v>
+        <v>44077</v>
       </c>
       <c r="I199" s="3">
-        <v>368</v>
+        <v>3248</v>
       </c>
       <c r="J199" s="3">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H200" s="2">
-        <v>44080</v>
+        <v>44078</v>
       </c>
       <c r="I200" s="3">
-        <v>370</v>
+        <v>3303</v>
       </c>
       <c r="J200" s="3">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="201" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H201" s="2">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="I201" s="3">
-        <v>371</v>
+        <v>3336</v>
       </c>
       <c r="J201" s="3">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H202" s="2">
-        <v>44082</v>
+        <v>44080</v>
       </c>
       <c r="I202" s="3">
-        <v>375</v>
+        <v>3354</v>
       </c>
       <c r="J202" s="3">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H203" s="2">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="I203" s="3">
-        <v>376</v>
+        <v>3394</v>
       </c>
       <c r="J203" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="204" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H204" s="2">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="I204" s="3">
-        <v>376</v>
+        <v>3426</v>
       </c>
       <c r="J204" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="205" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H205" s="2">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="I205" s="3">
-        <v>378</v>
+        <v>3461</v>
       </c>
       <c r="J205" s="3">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="206" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H206" s="2">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="I206" s="3">
-        <v>379</v>
+        <v>3487</v>
       </c>
       <c r="J206" s="3">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H207" s="2">
-        <v>44087</v>
+        <v>44085</v>
       </c>
       <c r="I207" s="3">
-        <v>384</v>
+        <v>3521</v>
       </c>
       <c r="J207" s="3">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="208" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H208" s="2">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="I208" s="3">
-        <v>385</v>
+        <v>3536</v>
       </c>
       <c r="J208" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H209" s="2">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="I209" s="3">
-        <v>389</v>
+        <v>3548</v>
       </c>
       <c r="J209" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H210" s="2">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="I210" s="3">
-        <v>389</v>
+        <v>3565</v>
       </c>
       <c r="J210" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H211" s="2">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="I211" s="3">
-        <v>394</v>
+        <v>3589</v>
       </c>
       <c r="J211" s="3">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H212" s="2">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="I212" s="3">
-        <v>395</v>
+        <v>3632</v>
       </c>
       <c r="J212" s="3">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="213" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H213" s="2">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="I213" s="3">
-        <v>397</v>
+        <v>3656</v>
       </c>
       <c r="J213" s="3">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H214" s="2">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="I214" s="3">
-        <v>397</v>
+        <v>3677</v>
       </c>
       <c r="J214" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H215" s="2">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="I215" s="3">
-        <v>403</v>
+        <v>3695</v>
       </c>
       <c r="J215" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H216" s="2">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="I216" s="3">
-        <v>404</v>
+        <v>3712</v>
       </c>
       <c r="J216" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H217" s="2">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="I217" s="3">
-        <v>406</v>
+        <v>3738</v>
       </c>
       <c r="J217" s="3">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H218" s="2">
+        <v>44096</v>
+      </c>
+      <c r="I218" s="3">
+        <v>3759</v>
+      </c>
+      <c r="J218" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H219" s="2">
+        <v>44097</v>
+      </c>
+      <c r="I219" s="3">
+        <v>3792</v>
+      </c>
+      <c r="J219" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H220" s="2">
         <v>44098</v>
       </c>
-      <c r="I218" s="3">
-        <v>406</v>
+      <c r="I220" s="3">
+        <v>3823</v>
+      </c>
+      <c r="J220" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H221" s="2">
+        <v>44099</v>
+      </c>
+      <c r="I221" s="3">
+        <v>3850</v>
+      </c>
+      <c r="J221" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H222" s="2">
+        <v>44100</v>
+      </c>
+      <c r="I222" s="3">
+        <v>3854</v>
+      </c>
+      <c r="J222" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H223" s="2">
+        <v>44101</v>
+      </c>
+      <c r="I223" s="3">
+        <v>3864</v>
+      </c>
+      <c r="J223" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H224" s="2">
+        <v>44102</v>
+      </c>
+      <c r="I224" s="3">
+        <v>3884</v>
+      </c>
+      <c r="J224" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H225" s="2">
+        <v>44103</v>
+      </c>
+      <c r="I225" s="3">
+        <v>3901</v>
+      </c>
+      <c r="J225" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H226" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I226" s="3">
+        <v>3918</v>
+      </c>
+      <c r="J226" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H227" s="2">
+        <v>44105</v>
+      </c>
+      <c r="I227" s="3">
+        <v>3946</v>
+      </c>
+      <c r="J227" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H228" s="2">
+        <v>44106</v>
+      </c>
+      <c r="I228" s="3">
+        <v>3957</v>
+      </c>
+      <c r="J228" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H229" s="2">
+        <v>44107</v>
+      </c>
+      <c r="I229" s="3">
+        <v>3974</v>
+      </c>
+      <c r="J229" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H230" s="2">
+        <v>44108</v>
+      </c>
+      <c r="I230" s="3">
+        <v>3979</v>
+      </c>
+      <c r="J230" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
